--- a/Julfilmer.xlsx
+++ b/Julfilmer.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sebastian\git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sebastian\github\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -172,9 +172,6 @@
     <t>Broadcasting Christmas</t>
   </si>
   <si>
-    <t>Gremlings</t>
-  </si>
-  <si>
     <t>Elf</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
     <t>The tree that saved Christmas</t>
   </si>
   <si>
-    <t>The Santa Clause 2 + Arthur Christmas</t>
-  </si>
-  <si>
     <t>Ha en underbar jävla jul</t>
   </si>
   <si>
@@ -416,6 +410,12 @@
   </si>
   <si>
     <t>Christmas with the Kranks, Ett päron till farsa firar jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arthur Christmas</t>
+  </si>
+  <si>
+    <t>The Santa Clause 2 + Polarexpressen</t>
   </si>
 </sst>
 </file>
@@ -862,7 +862,7 @@
   <dimension ref="A1:K1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A47" sqref="A47"/>
@@ -886,10 +886,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -927,7 +927,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G2" s="6">
         <v>4</v>
@@ -942,7 +942,7 @@
         <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -968,7 +968,7 @@
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -994,7 +994,7 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1046,7 +1046,7 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1072,7 +1072,7 @@
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1096,7 +1096,7 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1120,7 +1120,7 @@
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1143,7 +1143,7 @@
         <v>27</v>
       </c>
       <c r="K10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1172,7 +1172,7 @@
         <v>4</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1186,7 +1186,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G12" s="6">
         <v>4</v>
@@ -1199,7 +1199,7 @@
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1223,7 +1223,7 @@
         <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1249,7 +1249,7 @@
         <v>30</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1275,12 +1275,12 @@
         <v>10</v>
       </c>
       <c r="K15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>6</v>
@@ -1298,7 +1298,7 @@
         <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1322,7 +1322,7 @@
         <v>12</v>
       </c>
       <c r="K17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1345,7 +1345,7 @@
         <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1368,7 +1368,7 @@
         <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1388,7 +1388,7 @@
         <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1411,7 +1411,7 @@
         <v>22</v>
       </c>
       <c r="K21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1434,7 +1434,7 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1458,7 +1458,7 @@
         <v>25</v>
       </c>
       <c r="K23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1481,7 +1481,7 @@
         <v>28</v>
       </c>
       <c r="K24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1504,7 +1504,7 @@
         <v>16</v>
       </c>
       <c r="K25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1527,7 +1527,7 @@
         <v>17</v>
       </c>
       <c r="K26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1550,7 +1550,7 @@
         <v>18</v>
       </c>
       <c r="K27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1561,7 +1561,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>6</v>
@@ -1579,7 +1579,7 @@
         <v>26</v>
       </c>
       <c r="K28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1590,7 +1590,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>6</v>
@@ -1606,7 +1606,7 @@
         <v>21</v>
       </c>
       <c r="K29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1629,7 +1629,7 @@
         <v>20</v>
       </c>
       <c r="K30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1640,7 +1640,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G31" s="6">
         <v>5</v>
@@ -1655,7 +1655,7 @@
         <v>9</v>
       </c>
       <c r="K31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1679,18 +1679,18 @@
         <v>23</v>
       </c>
       <c r="K32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G33" s="6">
         <v>4</v>
@@ -1705,12 +1705,12 @@
         <v>14</v>
       </c>
       <c r="K33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>6</v>
@@ -1728,7 +1728,7 @@
         <v>31</v>
       </c>
       <c r="K34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1745,10 +1745,10 @@
         <v>3</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1765,10 +1765,10 @@
         <v>3</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1786,10 +1786,10 @@
         <v>3</v>
       </c>
       <c r="I37" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K37" t="s">
         <v>115</v>
-      </c>
-      <c r="K37" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1806,10 +1806,10 @@
         <v>3</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1828,15 +1828,15 @@
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>6</v>
@@ -1849,10 +1849,10 @@
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1869,10 +1869,10 @@
         <v>4</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1891,10 +1891,10 @@
         <v>4</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1912,10 +1912,10 @@
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K43" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1933,10 +1933,10 @@
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1947,7 +1947,7 @@
         <v>6</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G45" s="5">
         <v>3</v>
@@ -1955,18 +1955,18 @@
       <c r="H45" s="6"/>
       <c r="I45" s="8"/>
       <c r="K45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G46" s="5">
         <v>3</v>
@@ -1974,7 +1974,7 @@
       <c r="H46" s="5"/>
       <c r="I46" s="8"/>
       <c r="K46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -1985,7 +1985,7 @@
         <v>6</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G47" s="5">
         <v>4</v>
@@ -1993,7 +1993,7 @@
       <c r="H47" s="5"/>
       <c r="I47" s="8"/>
       <c r="K47" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2004,7 +2004,7 @@
         <v>6</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G48" s="5">
         <v>4</v>
@@ -2012,7 +2012,7 @@
       <c r="H48" s="5"/>
       <c r="I48" s="8"/>
       <c r="K48" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
@@ -7774,7 +7774,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7787,27 +7787,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="12">
         <v>43062</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>3</v>
@@ -7818,12 +7818,12 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="12">
         <v>43063</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -7835,13 +7835,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="12">
         <v>43064</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>10</v>
+      <c r="C4" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>1</v>
@@ -7852,16 +7852,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="12">
         <v>43065</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="13">
         <v>4</v>
@@ -7869,13 +7869,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="12">
         <v>43066</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>1</v>
@@ -7886,13 +7886,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="12">
         <v>43067</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>1</v>
@@ -7903,7 +7903,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="12">
         <v>43068</v>
@@ -7920,7 +7920,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="12">
         <v>43069</v>
@@ -7937,13 +7937,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="12">
         <v>43070</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>4</v>
@@ -7954,7 +7954,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="12">
         <v>43071</v>
@@ -7971,13 +7971,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="12">
         <v>43072</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>1</v>
@@ -7988,13 +7988,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="12">
         <v>43073</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>3</v>
@@ -8005,7 +8005,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="12">
         <v>43074</v>
@@ -8022,13 +8022,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="12">
         <v>43075</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>4</v>
@@ -8039,13 +8039,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="12">
         <v>43076</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>4</v>
@@ -8056,7 +8056,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="12">
         <v>43077</v>
@@ -8073,13 +8073,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="12">
         <v>43078</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>4</v>
@@ -8090,7 +8090,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="12">
         <v>43079</v>
@@ -8107,7 +8107,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="12">
         <v>43080</v>
@@ -8124,7 +8124,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="12">
         <v>43081</v>
@@ -8141,13 +8141,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="12">
         <v>43082</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>3</v>
@@ -8158,13 +8158,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="12">
         <v>43083</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>4</v>
@@ -8175,7 +8175,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="12">
         <v>43084</v>
@@ -8192,16 +8192,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="12">
         <v>43085</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E25" s="13">
         <v>24</v>
@@ -8209,13 +8209,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="12">
         <v>43086</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>4</v>
@@ -8226,7 +8226,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="12">
         <v>43087</v>
@@ -8243,7 +8243,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="12">
         <v>43088</v>
@@ -8260,7 +8260,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="12">
         <v>43089</v>
@@ -8277,7 +8277,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="12">
         <v>43090</v>
@@ -8291,7 +8291,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="12">
         <v>43091</v>
@@ -8308,13 +8308,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="12">
         <v>43092</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>4</v>

--- a/Julfilmer.xlsx
+++ b/Julfilmer.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12255" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="134">
   <si>
     <t>Research</t>
   </si>
@@ -416,6 +416,15 @@
   </si>
   <si>
     <t>The Santa Clause 2 + Polarexpressen</t>
+  </si>
+  <si>
+    <t>Unnacompanied Minors</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>http://www.imdb.com/title/tt0488658/?ref_=nv_sr_1</t>
   </si>
 </sst>
 </file>
@@ -861,11 +870,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1006"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A47" sqref="A47"/>
+      <selection pane="bottomRight" activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1953,7 +1962,9 @@
         <v>3</v>
       </c>
       <c r="H45" s="6"/>
-      <c r="I45" s="8"/>
+      <c r="I45" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="K45" t="s">
         <v>124</v>
       </c>
@@ -1972,7 +1983,9 @@
         <v>3</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="I46" s="8"/>
+      <c r="I46" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="K46" t="s">
         <v>110</v>
       </c>
@@ -1991,7 +2004,9 @@
         <v>4</v>
       </c>
       <c r="H47" s="5"/>
-      <c r="I47" s="8"/>
+      <c r="I47" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="K47" t="s">
         <v>125</v>
       </c>
@@ -2010,102 +2025,116 @@
         <v>4</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="I48" s="8"/>
+      <c r="I48" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="K48" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="5"/>
-      <c r="G49" s="5"/>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="5">
+        <v>3</v>
+      </c>
       <c r="H49" s="5"/>
-      <c r="I49" s="8"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I49" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K49" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="8"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="8"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="8"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="8"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="8"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="8"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="8"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="8"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="8"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="8"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="8"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="8"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="8"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -7773,8 +7802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7875,10 +7904,10 @@
         <v>43066</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="13">
         <v>5</v>
@@ -7909,10 +7938,10 @@
         <v>43068</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" s="13">
         <v>7</v>

--- a/Julfilmer.xlsx
+++ b/Julfilmer.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sebastian\github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Basse\git\github\Christmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
     <sheet name="2017" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Info!$A$1:$K$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Info!$A$1:$K$47</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="132">
   <si>
     <t>Research</t>
   </si>
@@ -217,9 +217,6 @@
     <t>Band Santa</t>
   </si>
   <si>
-    <t>I´ll be home for Christmas</t>
-  </si>
-  <si>
     <t>Netfix</t>
   </si>
   <si>
@@ -355,9 +352,6 @@
     <t>http://www.imdb.com/title/tt0087363/?ref_=nv_sr_2</t>
   </si>
   <si>
-    <t>http://www.imdb.com/title/tt0099700/?ref_=nv_sr_2</t>
-  </si>
-  <si>
     <t>http://www.imdb.com/title/tt0319343/?ref_=fn_al_tt_1</t>
   </si>
   <si>
@@ -406,9 +400,6 @@
     <t>http://www.imdb.com/title/tt0369436/?ref_=nv_sr_1</t>
   </si>
   <si>
-    <t>Gremlins 2</t>
-  </si>
-  <si>
     <t>Christmas with the Kranks, Ett päron till farsa firar jul</t>
   </si>
   <si>
@@ -425,13 +416,16 @@
   </si>
   <si>
     <t>http://www.imdb.com/title/tt0488658/?ref_=nv_sr_1</t>
+  </si>
+  <si>
+    <t>I´ll be home for Christmas, Gremlins 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -868,16 +862,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1006"/>
+  <dimension ref="A1:K1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K49" sqref="K49"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -893,12 +887,12 @@
     <col min="12" max="27" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -913,22 +907,22 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>71</v>
-      </c>
       <c r="K1" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -936,7 +930,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G2" s="6">
         <v>4</v>
@@ -951,10 +945,10 @@
         <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -977,10 +971,10 @@
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1003,10 +997,10 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1029,10 +1023,10 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1055,10 +1049,10 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1081,10 +1075,10 @@
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1105,10 +1099,10 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1129,10 +1123,10 @@
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1152,10 +1146,10 @@
         <v>27</v>
       </c>
       <c r="K10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1181,10 +1175,10 @@
         <v>4</v>
       </c>
       <c r="K11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1195,7 +1189,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G12" s="6">
         <v>4</v>
@@ -1208,10 +1202,10 @@
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1232,10 +1226,10 @@
         <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1258,10 +1252,10 @@
         <v>30</v>
       </c>
       <c r="K14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1284,14 +1278,17 @@
         <v>10</v>
       </c>
       <c r="K15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>6</v>
       </c>
       <c r="G16" s="6">
@@ -1307,10 +1304,10 @@
         <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1331,10 +1328,10 @@
         <v>12</v>
       </c>
       <c r="K17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1354,10 +1351,10 @@
         <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1377,10 +1374,10 @@
         <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1397,10 +1394,10 @@
         <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1420,10 +1417,10 @@
         <v>22</v>
       </c>
       <c r="K21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1443,10 +1440,10 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1467,10 +1464,10 @@
         <v>25</v>
       </c>
       <c r="K23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1490,16 +1487,19 @@
         <v>28</v>
       </c>
       <c r="K24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1">
       <c r="A25" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="E25" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="G25" s="6">
         <v>5</v>
       </c>
@@ -1513,16 +1513,19 @@
         <v>16</v>
       </c>
       <c r="K25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1">
       <c r="A26" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="E26" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="G26" s="6">
         <v>5</v>
       </c>
@@ -1536,16 +1539,19 @@
         <v>17</v>
       </c>
       <c r="K26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1">
       <c r="A27" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="E27" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="G27" s="6">
         <v>5</v>
       </c>
@@ -1559,10 +1565,10 @@
         <v>18</v>
       </c>
       <c r="K27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1570,7 +1576,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>6</v>
@@ -1588,10 +1594,10 @@
         <v>26</v>
       </c>
       <c r="K28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1599,7 +1605,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>6</v>
@@ -1615,10 +1621,10 @@
         <v>21</v>
       </c>
       <c r="K29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1">
       <c r="A30" s="9" t="s">
         <v>36</v>
       </c>
@@ -1638,10 +1644,10 @@
         <v>20</v>
       </c>
       <c r="K30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1649,7 +1655,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G31" s="6">
         <v>5</v>
@@ -1664,10 +1670,10 @@
         <v>9</v>
       </c>
       <c r="K31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1688,18 +1694,18 @@
         <v>23</v>
       </c>
       <c r="K32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1">
+      <c r="A33" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>108</v>
-      </c>
       <c r="B33" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G33" s="6">
         <v>4</v>
@@ -1714,10 +1720,10 @@
         <v>14</v>
       </c>
       <c r="K33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -1737,10 +1743,10 @@
         <v>31</v>
       </c>
       <c r="K34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1754,13 +1760,13 @@
         <v>3</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K35" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1774,13 +1780,13 @@
         <v>3</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1">
       <c r="A37" s="13" t="s">
         <v>46</v>
       </c>
@@ -1795,13 +1801,13 @@
         <v>3</v>
       </c>
       <c r="I37" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="K37" t="s">
         <v>113</v>
       </c>
-      <c r="K37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1815,13 +1821,13 @@
         <v>3</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K38" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1">
       <c r="A39" s="13" t="s">
         <v>48</v>
       </c>
@@ -1837,13 +1843,13 @@
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K39" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1">
       <c r="A40" s="13" t="s">
         <v>60</v>
       </c>
@@ -1858,13 +1864,13 @@
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K40" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1878,13 +1884,13 @@
         <v>4</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K41" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1">
       <c r="A42" s="13" t="s">
         <v>47</v>
       </c>
@@ -1900,13 +1906,13 @@
         <v>4</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K42" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1921,13 +1927,13 @@
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1942,13 +1948,13 @@
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K44" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1956,5844 +1962,5823 @@
         <v>6</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G45" s="5">
         <v>3</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K45" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>127</v>
-      </c>
-      <c r="B46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G46" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K46" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G47" s="5">
         <v>4</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K47" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>114</v>
+        <v>128</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="G48" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K48" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>131</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="5">
-        <v>3</v>
-      </c>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="5"/>
+      <c r="G49" s="5"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="K49" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="2:9">
       <c r="B50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="8"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9">
       <c r="B51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="8"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9">
       <c r="B52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="8"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9">
       <c r="B53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9">
       <c r="B54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="8"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9">
       <c r="B55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="8"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9">
       <c r="B56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="8"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9">
       <c r="B57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="8"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9">
       <c r="B58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="8"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9">
       <c r="B59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="8"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9">
       <c r="B60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="8"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9">
       <c r="B61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="8"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9">
       <c r="B62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="8"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9">
       <c r="B63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="8"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9">
       <c r="B64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="8"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9">
       <c r="B65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="8"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9">
       <c r="B66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="8"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9">
       <c r="B67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="8"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9">
       <c r="B68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="8"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9">
       <c r="B69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="8"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9">
       <c r="B70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="8"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9">
       <c r="B71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="8"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9">
       <c r="B72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="8"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9">
       <c r="B73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="8"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9">
       <c r="B74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="8"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9">
       <c r="B75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="8"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9">
       <c r="B76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="8"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9">
       <c r="B77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="8"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9">
       <c r="B78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
       <c r="I78" s="8"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9">
       <c r="B79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="8"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9">
       <c r="B80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="8"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9">
       <c r="B81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="8"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9">
       <c r="B82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="8"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9">
       <c r="B83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="8"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9">
       <c r="B84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
       <c r="I84" s="8"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9">
       <c r="B85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="8"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9">
       <c r="B86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="8"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9">
       <c r="B87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="8"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9">
       <c r="B88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
       <c r="I88" s="8"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9">
       <c r="B89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="8"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9">
       <c r="B90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="8"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9">
       <c r="B91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="8"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9">
       <c r="B92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
       <c r="I92" s="8"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9">
       <c r="B93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="8"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9">
       <c r="B94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="8"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9">
       <c r="B95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
       <c r="I95" s="8"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9">
       <c r="B96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="8"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9">
       <c r="B97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="8"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9">
       <c r="B98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="8"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9">
       <c r="B99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="8"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9">
       <c r="B100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
       <c r="I100" s="8"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9">
       <c r="B101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="8"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9">
       <c r="B102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
       <c r="I102" s="8"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9">
       <c r="B103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
       <c r="I103" s="8"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9">
       <c r="B104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
       <c r="I104" s="8"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9">
       <c r="B105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
       <c r="I105" s="8"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9">
       <c r="B106" s="5"/>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
       <c r="I106" s="8"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9">
       <c r="B107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
       <c r="I107" s="8"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9">
       <c r="B108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
       <c r="I108" s="8"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9">
       <c r="B109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
       <c r="I109" s="8"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9">
       <c r="B110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
       <c r="I110" s="8"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9">
       <c r="B111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
       <c r="I111" s="8"/>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9">
       <c r="B112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
       <c r="I112" s="8"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9">
       <c r="B113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
       <c r="I113" s="8"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9">
       <c r="B114" s="5"/>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
       <c r="I114" s="8"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9">
       <c r="B115" s="5"/>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
       <c r="I115" s="8"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9">
       <c r="B116" s="5"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
       <c r="I116" s="8"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9">
       <c r="B117" s="5"/>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
       <c r="I117" s="8"/>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9">
       <c r="B118" s="5"/>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
       <c r="I118" s="8"/>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9">
       <c r="B119" s="5"/>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
       <c r="I119" s="8"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9">
       <c r="B120" s="5"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
       <c r="I120" s="8"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9">
       <c r="B121" s="5"/>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
       <c r="I121" s="8"/>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9">
       <c r="B122" s="5"/>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
       <c r="I122" s="8"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9">
       <c r="B123" s="5"/>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
       <c r="I123" s="8"/>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9">
       <c r="B124" s="5"/>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
       <c r="I124" s="8"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9">
       <c r="B125" s="5"/>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
       <c r="I125" s="8"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9">
       <c r="B126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="I126" s="8"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9">
       <c r="B127" s="5"/>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
       <c r="I127" s="8"/>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9">
       <c r="B128" s="5"/>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
       <c r="I128" s="8"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9">
       <c r="B129" s="5"/>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
       <c r="I129" s="8"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9">
       <c r="B130" s="5"/>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
       <c r="I130" s="8"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9">
       <c r="B131" s="5"/>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
       <c r="I131" s="8"/>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9">
       <c r="B132" s="5"/>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
       <c r="I132" s="8"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9">
       <c r="B133" s="5"/>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
       <c r="I133" s="8"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9">
       <c r="B134" s="5"/>
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
       <c r="I134" s="8"/>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9">
       <c r="B135" s="5"/>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
       <c r="I135" s="8"/>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9">
       <c r="B136" s="5"/>
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
       <c r="I136" s="8"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9">
       <c r="B137" s="5"/>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="8"/>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9">
       <c r="B138" s="5"/>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="8"/>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9">
       <c r="B139" s="5"/>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
       <c r="I139" s="8"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9">
       <c r="B140" s="5"/>
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
       <c r="I140" s="8"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9">
       <c r="B141" s="5"/>
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
       <c r="I141" s="8"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9">
       <c r="B142" s="5"/>
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
       <c r="I142" s="8"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9">
       <c r="B143" s="5"/>
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
       <c r="I143" s="8"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9">
       <c r="B144" s="5"/>
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
       <c r="I144" s="8"/>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9">
       <c r="B145" s="5"/>
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
       <c r="I145" s="8"/>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9">
       <c r="B146" s="5"/>
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
       <c r="I146" s="8"/>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9">
       <c r="B147" s="5"/>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
       <c r="I147" s="8"/>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9">
       <c r="B148" s="5"/>
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
       <c r="I148" s="8"/>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9">
       <c r="B149" s="5"/>
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
       <c r="I149" s="8"/>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9">
       <c r="B150" s="5"/>
       <c r="G150" s="5"/>
       <c r="H150" s="5"/>
       <c r="I150" s="8"/>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9">
       <c r="B151" s="5"/>
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
       <c r="I151" s="8"/>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9">
       <c r="B152" s="5"/>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
       <c r="I152" s="8"/>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9">
       <c r="B153" s="5"/>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
       <c r="I153" s="8"/>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9">
       <c r="B154" s="5"/>
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
       <c r="I154" s="8"/>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9">
       <c r="B155" s="5"/>
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
       <c r="I155" s="8"/>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9">
       <c r="B156" s="5"/>
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
       <c r="I156" s="8"/>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9">
       <c r="B157" s="5"/>
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
       <c r="I157" s="8"/>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9">
       <c r="B158" s="5"/>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
       <c r="I158" s="8"/>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9">
       <c r="B159" s="5"/>
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
       <c r="I159" s="8"/>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9">
       <c r="B160" s="5"/>
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
       <c r="I160" s="8"/>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9">
       <c r="B161" s="5"/>
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
       <c r="I161" s="8"/>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9">
       <c r="B162" s="5"/>
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
       <c r="I162" s="8"/>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9">
       <c r="B163" s="5"/>
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
       <c r="I163" s="8"/>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9">
       <c r="B164" s="5"/>
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
       <c r="I164" s="8"/>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9">
       <c r="B165" s="5"/>
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
       <c r="I165" s="8"/>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9">
       <c r="B166" s="5"/>
       <c r="G166" s="5"/>
       <c r="H166" s="5"/>
       <c r="I166" s="8"/>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9">
       <c r="B167" s="5"/>
       <c r="G167" s="5"/>
       <c r="H167" s="5"/>
       <c r="I167" s="8"/>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9">
       <c r="B168" s="5"/>
       <c r="G168" s="5"/>
       <c r="H168" s="5"/>
       <c r="I168" s="8"/>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9">
       <c r="B169" s="5"/>
       <c r="G169" s="5"/>
       <c r="H169" s="5"/>
       <c r="I169" s="8"/>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9">
       <c r="B170" s="5"/>
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
       <c r="I170" s="8"/>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9">
       <c r="B171" s="5"/>
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
       <c r="I171" s="8"/>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9">
       <c r="B172" s="5"/>
       <c r="G172" s="5"/>
       <c r="H172" s="5"/>
       <c r="I172" s="8"/>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9">
       <c r="B173" s="5"/>
       <c r="G173" s="5"/>
       <c r="H173" s="5"/>
       <c r="I173" s="8"/>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9">
       <c r="B174" s="5"/>
       <c r="G174" s="5"/>
       <c r="H174" s="5"/>
       <c r="I174" s="8"/>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9">
       <c r="B175" s="5"/>
       <c r="G175" s="5"/>
       <c r="H175" s="5"/>
       <c r="I175" s="8"/>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9">
       <c r="B176" s="5"/>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
       <c r="I176" s="8"/>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9">
       <c r="B177" s="5"/>
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
       <c r="I177" s="8"/>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9">
       <c r="B178" s="5"/>
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
       <c r="I178" s="8"/>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9">
       <c r="B179" s="5"/>
       <c r="G179" s="5"/>
       <c r="H179" s="5"/>
       <c r="I179" s="8"/>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9">
       <c r="B180" s="5"/>
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
       <c r="I180" s="8"/>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9">
       <c r="B181" s="5"/>
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
       <c r="I181" s="8"/>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9">
       <c r="B182" s="5"/>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
       <c r="I182" s="8"/>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9">
       <c r="B183" s="5"/>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
       <c r="I183" s="8"/>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9">
       <c r="B184" s="5"/>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
       <c r="I184" s="8"/>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9">
       <c r="B185" s="5"/>
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
       <c r="I185" s="8"/>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9">
       <c r="B186" s="5"/>
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
       <c r="I186" s="8"/>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9">
       <c r="B187" s="5"/>
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
       <c r="I187" s="8"/>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9">
       <c r="B188" s="5"/>
       <c r="G188" s="5"/>
       <c r="H188" s="5"/>
       <c r="I188" s="8"/>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9">
       <c r="B189" s="5"/>
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
       <c r="I189" s="8"/>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:9">
       <c r="B190" s="5"/>
       <c r="G190" s="5"/>
       <c r="H190" s="5"/>
       <c r="I190" s="8"/>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:9">
       <c r="B191" s="5"/>
       <c r="G191" s="5"/>
       <c r="H191" s="5"/>
       <c r="I191" s="8"/>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:9">
       <c r="B192" s="5"/>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
       <c r="I192" s="8"/>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:9">
       <c r="B193" s="5"/>
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
       <c r="I193" s="8"/>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9">
       <c r="B194" s="5"/>
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
       <c r="I194" s="8"/>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9">
       <c r="B195" s="5"/>
       <c r="G195" s="5"/>
       <c r="H195" s="5"/>
       <c r="I195" s="8"/>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:9">
       <c r="B196" s="5"/>
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
       <c r="I196" s="8"/>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:9">
       <c r="B197" s="5"/>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
       <c r="I197" s="8"/>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:9">
       <c r="B198" s="5"/>
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
       <c r="I198" s="8"/>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:9">
       <c r="B199" s="5"/>
       <c r="G199" s="5"/>
       <c r="H199" s="5"/>
       <c r="I199" s="8"/>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:9">
       <c r="B200" s="5"/>
       <c r="G200" s="5"/>
       <c r="H200" s="5"/>
       <c r="I200" s="8"/>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:9">
       <c r="B201" s="5"/>
       <c r="G201" s="5"/>
       <c r="H201" s="5"/>
       <c r="I201" s="8"/>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:9">
       <c r="B202" s="5"/>
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
       <c r="I202" s="8"/>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:9">
       <c r="B203" s="5"/>
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
       <c r="I203" s="8"/>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:9">
       <c r="B204" s="5"/>
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
       <c r="I204" s="8"/>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:9">
       <c r="B205" s="5"/>
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
       <c r="I205" s="8"/>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:9">
       <c r="B206" s="5"/>
       <c r="G206" s="5"/>
       <c r="H206" s="5"/>
       <c r="I206" s="8"/>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:9">
       <c r="B207" s="5"/>
       <c r="G207" s="5"/>
       <c r="H207" s="5"/>
       <c r="I207" s="8"/>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:9">
       <c r="B208" s="5"/>
       <c r="G208" s="5"/>
       <c r="H208" s="5"/>
       <c r="I208" s="8"/>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:9">
       <c r="B209" s="5"/>
       <c r="G209" s="5"/>
       <c r="H209" s="5"/>
       <c r="I209" s="8"/>
     </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:9">
       <c r="B210" s="5"/>
       <c r="G210" s="5"/>
       <c r="H210" s="5"/>
       <c r="I210" s="8"/>
     </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:9">
       <c r="B211" s="5"/>
       <c r="G211" s="5"/>
       <c r="H211" s="5"/>
       <c r="I211" s="8"/>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:9">
       <c r="B212" s="5"/>
       <c r="G212" s="5"/>
       <c r="H212" s="5"/>
       <c r="I212" s="8"/>
     </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:9">
       <c r="B213" s="5"/>
       <c r="G213" s="5"/>
       <c r="H213" s="5"/>
       <c r="I213" s="8"/>
     </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:9">
       <c r="B214" s="5"/>
       <c r="G214" s="5"/>
       <c r="H214" s="5"/>
       <c r="I214" s="8"/>
     </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:9">
       <c r="B215" s="5"/>
       <c r="G215" s="5"/>
       <c r="H215" s="5"/>
       <c r="I215" s="8"/>
     </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:9">
       <c r="B216" s="5"/>
       <c r="G216" s="5"/>
       <c r="H216" s="5"/>
       <c r="I216" s="8"/>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:9">
       <c r="B217" s="5"/>
       <c r="G217" s="5"/>
       <c r="H217" s="5"/>
       <c r="I217" s="8"/>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:9">
       <c r="B218" s="5"/>
       <c r="G218" s="5"/>
       <c r="H218" s="5"/>
       <c r="I218" s="8"/>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:9">
       <c r="B219" s="5"/>
       <c r="G219" s="5"/>
       <c r="H219" s="5"/>
       <c r="I219" s="8"/>
     </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:9">
       <c r="B220" s="5"/>
       <c r="G220" s="5"/>
       <c r="H220" s="5"/>
       <c r="I220" s="8"/>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:9">
       <c r="B221" s="5"/>
       <c r="G221" s="5"/>
       <c r="H221" s="5"/>
       <c r="I221" s="8"/>
     </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:9">
       <c r="B222" s="5"/>
       <c r="G222" s="5"/>
       <c r="H222" s="5"/>
       <c r="I222" s="8"/>
     </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:9">
       <c r="B223" s="5"/>
       <c r="G223" s="5"/>
       <c r="H223" s="5"/>
       <c r="I223" s="8"/>
     </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:9">
       <c r="B224" s="5"/>
       <c r="G224" s="5"/>
       <c r="H224" s="5"/>
       <c r="I224" s="8"/>
     </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:9">
       <c r="B225" s="5"/>
       <c r="G225" s="5"/>
       <c r="H225" s="5"/>
       <c r="I225" s="8"/>
     </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:9">
       <c r="B226" s="5"/>
       <c r="G226" s="5"/>
       <c r="H226" s="5"/>
       <c r="I226" s="8"/>
     </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:9">
       <c r="B227" s="5"/>
       <c r="G227" s="5"/>
       <c r="H227" s="5"/>
       <c r="I227" s="8"/>
     </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:9">
       <c r="B228" s="5"/>
       <c r="G228" s="5"/>
       <c r="H228" s="5"/>
       <c r="I228" s="8"/>
     </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:9">
       <c r="B229" s="5"/>
       <c r="G229" s="5"/>
       <c r="H229" s="5"/>
       <c r="I229" s="8"/>
     </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:9">
       <c r="B230" s="5"/>
       <c r="G230" s="5"/>
       <c r="H230" s="5"/>
       <c r="I230" s="8"/>
     </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:9">
       <c r="B231" s="5"/>
       <c r="G231" s="5"/>
       <c r="H231" s="5"/>
       <c r="I231" s="8"/>
     </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:9">
       <c r="B232" s="5"/>
       <c r="G232" s="5"/>
       <c r="H232" s="5"/>
       <c r="I232" s="8"/>
     </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:9">
       <c r="B233" s="5"/>
       <c r="G233" s="5"/>
       <c r="H233" s="5"/>
       <c r="I233" s="8"/>
     </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:9">
       <c r="B234" s="5"/>
       <c r="G234" s="5"/>
       <c r="H234" s="5"/>
       <c r="I234" s="8"/>
     </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:9">
       <c r="B235" s="5"/>
       <c r="G235" s="5"/>
       <c r="H235" s="5"/>
       <c r="I235" s="8"/>
     </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:9">
       <c r="B236" s="5"/>
       <c r="G236" s="5"/>
       <c r="H236" s="5"/>
       <c r="I236" s="8"/>
     </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:9">
       <c r="B237" s="5"/>
       <c r="G237" s="5"/>
       <c r="H237" s="5"/>
       <c r="I237" s="8"/>
     </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:9">
       <c r="B238" s="5"/>
       <c r="G238" s="5"/>
       <c r="H238" s="5"/>
       <c r="I238" s="8"/>
     </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:9">
       <c r="B239" s="5"/>
       <c r="G239" s="5"/>
       <c r="H239" s="5"/>
       <c r="I239" s="8"/>
     </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:9">
       <c r="B240" s="5"/>
       <c r="G240" s="5"/>
       <c r="H240" s="5"/>
       <c r="I240" s="8"/>
     </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:9">
       <c r="B241" s="5"/>
       <c r="G241" s="5"/>
       <c r="H241" s="5"/>
       <c r="I241" s="8"/>
     </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:9">
       <c r="B242" s="5"/>
       <c r="G242" s="5"/>
       <c r="H242" s="5"/>
       <c r="I242" s="8"/>
     </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:9">
       <c r="B243" s="5"/>
       <c r="G243" s="5"/>
       <c r="H243" s="5"/>
       <c r="I243" s="8"/>
     </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:9">
       <c r="B244" s="5"/>
       <c r="G244" s="5"/>
       <c r="H244" s="5"/>
       <c r="I244" s="8"/>
     </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:9">
       <c r="B245" s="5"/>
       <c r="G245" s="5"/>
       <c r="H245" s="5"/>
       <c r="I245" s="8"/>
     </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:9">
       <c r="B246" s="5"/>
       <c r="G246" s="5"/>
       <c r="H246" s="5"/>
       <c r="I246" s="8"/>
     </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:9">
       <c r="B247" s="5"/>
       <c r="G247" s="5"/>
       <c r="H247" s="5"/>
       <c r="I247" s="8"/>
     </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:9">
       <c r="B248" s="5"/>
       <c r="G248" s="5"/>
       <c r="H248" s="5"/>
       <c r="I248" s="8"/>
     </row>
-    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:9">
       <c r="B249" s="5"/>
       <c r="G249" s="5"/>
       <c r="H249" s="5"/>
       <c r="I249" s="8"/>
     </row>
-    <row r="250" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:9">
       <c r="B250" s="5"/>
       <c r="G250" s="5"/>
       <c r="H250" s="5"/>
       <c r="I250" s="8"/>
     </row>
-    <row r="251" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:9">
       <c r="B251" s="5"/>
       <c r="G251" s="5"/>
       <c r="H251" s="5"/>
       <c r="I251" s="8"/>
     </row>
-    <row r="252" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:9">
       <c r="B252" s="5"/>
       <c r="G252" s="5"/>
       <c r="H252" s="5"/>
       <c r="I252" s="8"/>
     </row>
-    <row r="253" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:9">
       <c r="B253" s="5"/>
       <c r="G253" s="5"/>
       <c r="H253" s="5"/>
       <c r="I253" s="8"/>
     </row>
-    <row r="254" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:9">
       <c r="B254" s="5"/>
       <c r="G254" s="5"/>
       <c r="H254" s="5"/>
       <c r="I254" s="8"/>
     </row>
-    <row r="255" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:9">
       <c r="B255" s="5"/>
       <c r="G255" s="5"/>
       <c r="H255" s="5"/>
       <c r="I255" s="8"/>
     </row>
-    <row r="256" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:9">
       <c r="B256" s="5"/>
       <c r="G256" s="5"/>
       <c r="H256" s="5"/>
       <c r="I256" s="8"/>
     </row>
-    <row r="257" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:9">
       <c r="B257" s="5"/>
       <c r="G257" s="5"/>
       <c r="H257" s="5"/>
       <c r="I257" s="8"/>
     </row>
-    <row r="258" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:9">
       <c r="B258" s="5"/>
       <c r="G258" s="5"/>
       <c r="H258" s="5"/>
       <c r="I258" s="8"/>
     </row>
-    <row r="259" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:9">
       <c r="B259" s="5"/>
       <c r="G259" s="5"/>
       <c r="H259" s="5"/>
       <c r="I259" s="8"/>
     </row>
-    <row r="260" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:9">
       <c r="B260" s="5"/>
       <c r="G260" s="5"/>
       <c r="H260" s="5"/>
       <c r="I260" s="8"/>
     </row>
-    <row r="261" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:9">
       <c r="B261" s="5"/>
       <c r="G261" s="5"/>
       <c r="H261" s="5"/>
       <c r="I261" s="8"/>
     </row>
-    <row r="262" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:9">
       <c r="B262" s="5"/>
       <c r="G262" s="5"/>
       <c r="H262" s="5"/>
       <c r="I262" s="8"/>
     </row>
-    <row r="263" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:9">
       <c r="B263" s="5"/>
       <c r="G263" s="5"/>
       <c r="H263" s="5"/>
       <c r="I263" s="8"/>
     </row>
-    <row r="264" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:9">
       <c r="B264" s="5"/>
       <c r="G264" s="5"/>
       <c r="H264" s="5"/>
       <c r="I264" s="8"/>
     </row>
-    <row r="265" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:9">
       <c r="B265" s="5"/>
       <c r="G265" s="5"/>
       <c r="H265" s="5"/>
       <c r="I265" s="8"/>
     </row>
-    <row r="266" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:9">
       <c r="B266" s="5"/>
       <c r="G266" s="5"/>
       <c r="H266" s="5"/>
       <c r="I266" s="8"/>
     </row>
-    <row r="267" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:9">
       <c r="B267" s="5"/>
       <c r="G267" s="5"/>
       <c r="H267" s="5"/>
       <c r="I267" s="8"/>
     </row>
-    <row r="268" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:9">
       <c r="B268" s="5"/>
       <c r="G268" s="5"/>
       <c r="H268" s="5"/>
       <c r="I268" s="8"/>
     </row>
-    <row r="269" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:9">
       <c r="B269" s="5"/>
       <c r="G269" s="5"/>
       <c r="H269" s="5"/>
       <c r="I269" s="8"/>
     </row>
-    <row r="270" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:9">
       <c r="B270" s="5"/>
       <c r="G270" s="5"/>
       <c r="H270" s="5"/>
       <c r="I270" s="8"/>
     </row>
-    <row r="271" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:9">
       <c r="B271" s="5"/>
       <c r="G271" s="5"/>
       <c r="H271" s="5"/>
       <c r="I271" s="8"/>
     </row>
-    <row r="272" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:9">
       <c r="B272" s="5"/>
       <c r="G272" s="5"/>
       <c r="H272" s="5"/>
       <c r="I272" s="8"/>
     </row>
-    <row r="273" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:9">
       <c r="B273" s="5"/>
       <c r="G273" s="5"/>
       <c r="H273" s="5"/>
       <c r="I273" s="8"/>
     </row>
-    <row r="274" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:9">
       <c r="B274" s="5"/>
       <c r="G274" s="5"/>
       <c r="H274" s="5"/>
       <c r="I274" s="8"/>
     </row>
-    <row r="275" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:9">
       <c r="B275" s="5"/>
       <c r="G275" s="5"/>
       <c r="H275" s="5"/>
       <c r="I275" s="8"/>
     </row>
-    <row r="276" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:9">
       <c r="B276" s="5"/>
       <c r="G276" s="5"/>
       <c r="H276" s="5"/>
       <c r="I276" s="8"/>
     </row>
-    <row r="277" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:9">
       <c r="B277" s="5"/>
       <c r="G277" s="5"/>
       <c r="H277" s="5"/>
       <c r="I277" s="8"/>
     </row>
-    <row r="278" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:9">
       <c r="B278" s="5"/>
       <c r="G278" s="5"/>
       <c r="H278" s="5"/>
       <c r="I278" s="8"/>
     </row>
-    <row r="279" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:9">
       <c r="B279" s="5"/>
       <c r="G279" s="5"/>
       <c r="H279" s="5"/>
       <c r="I279" s="8"/>
     </row>
-    <row r="280" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:9">
       <c r="B280" s="5"/>
       <c r="G280" s="5"/>
       <c r="H280" s="5"/>
       <c r="I280" s="8"/>
     </row>
-    <row r="281" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:9">
       <c r="B281" s="5"/>
       <c r="G281" s="5"/>
       <c r="H281" s="5"/>
       <c r="I281" s="8"/>
     </row>
-    <row r="282" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:9">
       <c r="B282" s="5"/>
       <c r="G282" s="5"/>
       <c r="H282" s="5"/>
       <c r="I282" s="8"/>
     </row>
-    <row r="283" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:9">
       <c r="B283" s="5"/>
       <c r="G283" s="5"/>
       <c r="H283" s="5"/>
       <c r="I283" s="8"/>
     </row>
-    <row r="284" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:9">
       <c r="B284" s="5"/>
       <c r="G284" s="5"/>
       <c r="H284" s="5"/>
       <c r="I284" s="8"/>
     </row>
-    <row r="285" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:9">
       <c r="B285" s="5"/>
       <c r="G285" s="5"/>
       <c r="H285" s="5"/>
       <c r="I285" s="8"/>
     </row>
-    <row r="286" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:9">
       <c r="B286" s="5"/>
       <c r="G286" s="5"/>
       <c r="H286" s="5"/>
       <c r="I286" s="8"/>
     </row>
-    <row r="287" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:9">
       <c r="B287" s="5"/>
       <c r="G287" s="5"/>
       <c r="H287" s="5"/>
       <c r="I287" s="8"/>
     </row>
-    <row r="288" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:9">
       <c r="B288" s="5"/>
       <c r="G288" s="5"/>
       <c r="H288" s="5"/>
       <c r="I288" s="8"/>
     </row>
-    <row r="289" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:9">
       <c r="B289" s="5"/>
       <c r="G289" s="5"/>
       <c r="H289" s="5"/>
       <c r="I289" s="8"/>
     </row>
-    <row r="290" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:9">
       <c r="B290" s="5"/>
       <c r="G290" s="5"/>
       <c r="H290" s="5"/>
       <c r="I290" s="8"/>
     </row>
-    <row r="291" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:9">
       <c r="B291" s="5"/>
       <c r="G291" s="5"/>
       <c r="H291" s="5"/>
       <c r="I291" s="8"/>
     </row>
-    <row r="292" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:9">
       <c r="B292" s="5"/>
       <c r="G292" s="5"/>
       <c r="H292" s="5"/>
       <c r="I292" s="8"/>
     </row>
-    <row r="293" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:9">
       <c r="B293" s="5"/>
       <c r="G293" s="5"/>
       <c r="H293" s="5"/>
       <c r="I293" s="8"/>
     </row>
-    <row r="294" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:9">
       <c r="B294" s="5"/>
       <c r="G294" s="5"/>
       <c r="H294" s="5"/>
       <c r="I294" s="8"/>
     </row>
-    <row r="295" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:9">
       <c r="B295" s="5"/>
       <c r="G295" s="5"/>
       <c r="H295" s="5"/>
       <c r="I295" s="8"/>
     </row>
-    <row r="296" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:9">
       <c r="B296" s="5"/>
       <c r="G296" s="5"/>
       <c r="H296" s="5"/>
       <c r="I296" s="8"/>
     </row>
-    <row r="297" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:9">
       <c r="B297" s="5"/>
       <c r="G297" s="5"/>
       <c r="H297" s="5"/>
       <c r="I297" s="8"/>
     </row>
-    <row r="298" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:9">
       <c r="B298" s="5"/>
       <c r="G298" s="5"/>
       <c r="H298" s="5"/>
       <c r="I298" s="8"/>
     </row>
-    <row r="299" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:9">
       <c r="B299" s="5"/>
       <c r="G299" s="5"/>
       <c r="H299" s="5"/>
       <c r="I299" s="8"/>
     </row>
-    <row r="300" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:9">
       <c r="B300" s="5"/>
       <c r="G300" s="5"/>
       <c r="H300" s="5"/>
       <c r="I300" s="8"/>
     </row>
-    <row r="301" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:9">
       <c r="B301" s="5"/>
       <c r="G301" s="5"/>
       <c r="H301" s="5"/>
       <c r="I301" s="8"/>
     </row>
-    <row r="302" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:9">
       <c r="B302" s="5"/>
       <c r="G302" s="5"/>
       <c r="H302" s="5"/>
       <c r="I302" s="8"/>
     </row>
-    <row r="303" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:9">
       <c r="B303" s="5"/>
       <c r="G303" s="5"/>
       <c r="H303" s="5"/>
       <c r="I303" s="8"/>
     </row>
-    <row r="304" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:9">
       <c r="B304" s="5"/>
       <c r="G304" s="5"/>
       <c r="H304" s="5"/>
       <c r="I304" s="8"/>
     </row>
-    <row r="305" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:9">
       <c r="B305" s="5"/>
       <c r="G305" s="5"/>
       <c r="H305" s="5"/>
       <c r="I305" s="8"/>
     </row>
-    <row r="306" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:9">
       <c r="B306" s="5"/>
       <c r="G306" s="5"/>
       <c r="H306" s="5"/>
       <c r="I306" s="8"/>
     </row>
-    <row r="307" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:9">
       <c r="B307" s="5"/>
       <c r="G307" s="5"/>
       <c r="H307" s="5"/>
       <c r="I307" s="8"/>
     </row>
-    <row r="308" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:9">
       <c r="B308" s="5"/>
       <c r="G308" s="5"/>
       <c r="H308" s="5"/>
       <c r="I308" s="8"/>
     </row>
-    <row r="309" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:9">
       <c r="B309" s="5"/>
       <c r="G309" s="5"/>
       <c r="H309" s="5"/>
       <c r="I309" s="8"/>
     </row>
-    <row r="310" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:9">
       <c r="B310" s="5"/>
       <c r="G310" s="5"/>
       <c r="H310" s="5"/>
       <c r="I310" s="8"/>
     </row>
-    <row r="311" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:9">
       <c r="B311" s="5"/>
       <c r="G311" s="5"/>
       <c r="H311" s="5"/>
       <c r="I311" s="8"/>
     </row>
-    <row r="312" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:9">
       <c r="B312" s="5"/>
       <c r="G312" s="5"/>
       <c r="H312" s="5"/>
       <c r="I312" s="8"/>
     </row>
-    <row r="313" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:9">
       <c r="B313" s="5"/>
       <c r="G313" s="5"/>
       <c r="H313" s="5"/>
       <c r="I313" s="8"/>
     </row>
-    <row r="314" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:9">
       <c r="B314" s="5"/>
       <c r="G314" s="5"/>
       <c r="H314" s="5"/>
       <c r="I314" s="8"/>
     </row>
-    <row r="315" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:9">
       <c r="B315" s="5"/>
       <c r="G315" s="5"/>
       <c r="H315" s="5"/>
       <c r="I315" s="8"/>
     </row>
-    <row r="316" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:9">
       <c r="B316" s="5"/>
       <c r="G316" s="5"/>
       <c r="H316" s="5"/>
       <c r="I316" s="8"/>
     </row>
-    <row r="317" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:9">
       <c r="B317" s="5"/>
       <c r="G317" s="5"/>
       <c r="H317" s="5"/>
       <c r="I317" s="8"/>
     </row>
-    <row r="318" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:9">
       <c r="B318" s="5"/>
       <c r="G318" s="5"/>
       <c r="H318" s="5"/>
       <c r="I318" s="8"/>
     </row>
-    <row r="319" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:9">
       <c r="B319" s="5"/>
       <c r="G319" s="5"/>
       <c r="H319" s="5"/>
       <c r="I319" s="8"/>
     </row>
-    <row r="320" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:9">
       <c r="B320" s="5"/>
       <c r="G320" s="5"/>
       <c r="H320" s="5"/>
       <c r="I320" s="8"/>
     </row>
-    <row r="321" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:9">
       <c r="B321" s="5"/>
       <c r="G321" s="5"/>
       <c r="H321" s="5"/>
       <c r="I321" s="8"/>
     </row>
-    <row r="322" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:9">
       <c r="B322" s="5"/>
       <c r="G322" s="5"/>
       <c r="H322" s="5"/>
       <c r="I322" s="8"/>
     </row>
-    <row r="323" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:9">
       <c r="B323" s="5"/>
       <c r="G323" s="5"/>
       <c r="H323" s="5"/>
       <c r="I323" s="8"/>
     </row>
-    <row r="324" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:9">
       <c r="B324" s="5"/>
       <c r="G324" s="5"/>
       <c r="H324" s="5"/>
       <c r="I324" s="8"/>
     </row>
-    <row r="325" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:9">
       <c r="B325" s="5"/>
       <c r="G325" s="5"/>
       <c r="H325" s="5"/>
       <c r="I325" s="8"/>
     </row>
-    <row r="326" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:9">
       <c r="B326" s="5"/>
       <c r="G326" s="5"/>
       <c r="H326" s="5"/>
       <c r="I326" s="8"/>
     </row>
-    <row r="327" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:9">
       <c r="B327" s="5"/>
       <c r="G327" s="5"/>
       <c r="H327" s="5"/>
       <c r="I327" s="8"/>
     </row>
-    <row r="328" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:9">
       <c r="B328" s="5"/>
       <c r="G328" s="5"/>
       <c r="H328" s="5"/>
       <c r="I328" s="8"/>
     </row>
-    <row r="329" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:9">
       <c r="B329" s="5"/>
       <c r="G329" s="5"/>
       <c r="H329" s="5"/>
       <c r="I329" s="8"/>
     </row>
-    <row r="330" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:9">
       <c r="B330" s="5"/>
       <c r="G330" s="5"/>
       <c r="H330" s="5"/>
       <c r="I330" s="8"/>
     </row>
-    <row r="331" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:9">
       <c r="B331" s="5"/>
       <c r="G331" s="5"/>
       <c r="H331" s="5"/>
       <c r="I331" s="8"/>
     </row>
-    <row r="332" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:9">
       <c r="B332" s="5"/>
       <c r="G332" s="5"/>
       <c r="H332" s="5"/>
       <c r="I332" s="8"/>
     </row>
-    <row r="333" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:9">
       <c r="B333" s="5"/>
       <c r="G333" s="5"/>
       <c r="H333" s="5"/>
       <c r="I333" s="8"/>
     </row>
-    <row r="334" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:9">
       <c r="B334" s="5"/>
       <c r="G334" s="5"/>
       <c r="H334" s="5"/>
       <c r="I334" s="8"/>
     </row>
-    <row r="335" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:9">
       <c r="B335" s="5"/>
       <c r="G335" s="5"/>
       <c r="H335" s="5"/>
       <c r="I335" s="8"/>
     </row>
-    <row r="336" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:9">
       <c r="B336" s="5"/>
       <c r="G336" s="5"/>
       <c r="H336" s="5"/>
       <c r="I336" s="8"/>
     </row>
-    <row r="337" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:9">
       <c r="B337" s="5"/>
       <c r="G337" s="5"/>
       <c r="H337" s="5"/>
       <c r="I337" s="8"/>
     </row>
-    <row r="338" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:9">
       <c r="B338" s="5"/>
       <c r="G338" s="5"/>
       <c r="H338" s="5"/>
       <c r="I338" s="8"/>
     </row>
-    <row r="339" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:9">
       <c r="B339" s="5"/>
       <c r="G339" s="5"/>
       <c r="H339" s="5"/>
       <c r="I339" s="8"/>
     </row>
-    <row r="340" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:9">
       <c r="B340" s="5"/>
       <c r="G340" s="5"/>
       <c r="H340" s="5"/>
       <c r="I340" s="8"/>
     </row>
-    <row r="341" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:9">
       <c r="B341" s="5"/>
       <c r="G341" s="5"/>
       <c r="H341" s="5"/>
       <c r="I341" s="8"/>
     </row>
-    <row r="342" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:9">
       <c r="B342" s="5"/>
       <c r="G342" s="5"/>
       <c r="H342" s="5"/>
       <c r="I342" s="8"/>
     </row>
-    <row r="343" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:9">
       <c r="B343" s="5"/>
       <c r="G343" s="5"/>
       <c r="H343" s="5"/>
       <c r="I343" s="8"/>
     </row>
-    <row r="344" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:9">
       <c r="B344" s="5"/>
       <c r="G344" s="5"/>
       <c r="H344" s="5"/>
       <c r="I344" s="8"/>
     </row>
-    <row r="345" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:9">
       <c r="B345" s="5"/>
       <c r="G345" s="5"/>
       <c r="H345" s="5"/>
       <c r="I345" s="8"/>
     </row>
-    <row r="346" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:9">
       <c r="B346" s="5"/>
       <c r="G346" s="5"/>
       <c r="H346" s="5"/>
       <c r="I346" s="8"/>
     </row>
-    <row r="347" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:9">
       <c r="B347" s="5"/>
       <c r="G347" s="5"/>
       <c r="H347" s="5"/>
       <c r="I347" s="8"/>
     </row>
-    <row r="348" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:9">
       <c r="B348" s="5"/>
       <c r="G348" s="5"/>
       <c r="H348" s="5"/>
       <c r="I348" s="8"/>
     </row>
-    <row r="349" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:9">
       <c r="B349" s="5"/>
       <c r="G349" s="5"/>
       <c r="H349" s="5"/>
       <c r="I349" s="8"/>
     </row>
-    <row r="350" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:9">
       <c r="B350" s="5"/>
       <c r="G350" s="5"/>
       <c r="H350" s="5"/>
       <c r="I350" s="8"/>
     </row>
-    <row r="351" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:9">
       <c r="B351" s="5"/>
       <c r="G351" s="5"/>
       <c r="H351" s="5"/>
       <c r="I351" s="8"/>
     </row>
-    <row r="352" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:9">
       <c r="B352" s="5"/>
       <c r="G352" s="5"/>
       <c r="H352" s="5"/>
       <c r="I352" s="8"/>
     </row>
-    <row r="353" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:9">
       <c r="B353" s="5"/>
       <c r="G353" s="5"/>
       <c r="H353" s="5"/>
       <c r="I353" s="8"/>
     </row>
-    <row r="354" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:9">
       <c r="B354" s="5"/>
       <c r="G354" s="5"/>
       <c r="H354" s="5"/>
       <c r="I354" s="8"/>
     </row>
-    <row r="355" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:9">
       <c r="B355" s="5"/>
       <c r="G355" s="5"/>
       <c r="H355" s="5"/>
       <c r="I355" s="8"/>
     </row>
-    <row r="356" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:9">
       <c r="B356" s="5"/>
       <c r="G356" s="5"/>
       <c r="H356" s="5"/>
       <c r="I356" s="8"/>
     </row>
-    <row r="357" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:9">
       <c r="B357" s="5"/>
       <c r="G357" s="5"/>
       <c r="H357" s="5"/>
       <c r="I357" s="8"/>
     </row>
-    <row r="358" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:9">
       <c r="B358" s="5"/>
       <c r="G358" s="5"/>
       <c r="H358" s="5"/>
       <c r="I358" s="8"/>
     </row>
-    <row r="359" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:9">
       <c r="B359" s="5"/>
       <c r="G359" s="5"/>
       <c r="H359" s="5"/>
       <c r="I359" s="8"/>
     </row>
-    <row r="360" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:9">
       <c r="B360" s="5"/>
       <c r="G360" s="5"/>
       <c r="H360" s="5"/>
       <c r="I360" s="8"/>
     </row>
-    <row r="361" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:9">
       <c r="B361" s="5"/>
       <c r="G361" s="5"/>
       <c r="H361" s="5"/>
       <c r="I361" s="8"/>
     </row>
-    <row r="362" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:9">
       <c r="B362" s="5"/>
       <c r="G362" s="5"/>
       <c r="H362" s="5"/>
       <c r="I362" s="8"/>
     </row>
-    <row r="363" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:9">
       <c r="B363" s="5"/>
       <c r="G363" s="5"/>
       <c r="H363" s="5"/>
       <c r="I363" s="8"/>
     </row>
-    <row r="364" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:9">
       <c r="B364" s="5"/>
       <c r="G364" s="5"/>
       <c r="H364" s="5"/>
       <c r="I364" s="8"/>
     </row>
-    <row r="365" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:9">
       <c r="B365" s="5"/>
       <c r="G365" s="5"/>
       <c r="H365" s="5"/>
       <c r="I365" s="8"/>
     </row>
-    <row r="366" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:9">
       <c r="B366" s="5"/>
       <c r="G366" s="5"/>
       <c r="H366" s="5"/>
       <c r="I366" s="8"/>
     </row>
-    <row r="367" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:9">
       <c r="B367" s="5"/>
       <c r="G367" s="5"/>
       <c r="H367" s="5"/>
       <c r="I367" s="8"/>
     </row>
-    <row r="368" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:9">
       <c r="B368" s="5"/>
       <c r="G368" s="5"/>
       <c r="H368" s="5"/>
       <c r="I368" s="8"/>
     </row>
-    <row r="369" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:9">
       <c r="B369" s="5"/>
       <c r="G369" s="5"/>
       <c r="H369" s="5"/>
       <c r="I369" s="8"/>
     </row>
-    <row r="370" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:9">
       <c r="B370" s="5"/>
       <c r="G370" s="5"/>
       <c r="H370" s="5"/>
       <c r="I370" s="8"/>
     </row>
-    <row r="371" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:9">
       <c r="B371" s="5"/>
       <c r="G371" s="5"/>
       <c r="H371" s="5"/>
       <c r="I371" s="8"/>
     </row>
-    <row r="372" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:9">
       <c r="B372" s="5"/>
       <c r="G372" s="5"/>
       <c r="H372" s="5"/>
       <c r="I372" s="8"/>
     </row>
-    <row r="373" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:9">
       <c r="B373" s="5"/>
       <c r="G373" s="5"/>
       <c r="H373" s="5"/>
       <c r="I373" s="8"/>
     </row>
-    <row r="374" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:9">
       <c r="B374" s="5"/>
       <c r="G374" s="5"/>
       <c r="H374" s="5"/>
       <c r="I374" s="8"/>
     </row>
-    <row r="375" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:9">
       <c r="B375" s="5"/>
       <c r="G375" s="5"/>
       <c r="H375" s="5"/>
       <c r="I375" s="8"/>
     </row>
-    <row r="376" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:9">
       <c r="B376" s="5"/>
       <c r="G376" s="5"/>
       <c r="H376" s="5"/>
       <c r="I376" s="8"/>
     </row>
-    <row r="377" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:9">
       <c r="B377" s="5"/>
       <c r="G377" s="5"/>
       <c r="H377" s="5"/>
       <c r="I377" s="8"/>
     </row>
-    <row r="378" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:9">
       <c r="B378" s="5"/>
       <c r="G378" s="5"/>
       <c r="H378" s="5"/>
       <c r="I378" s="8"/>
     </row>
-    <row r="379" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:9">
       <c r="B379" s="5"/>
       <c r="G379" s="5"/>
       <c r="H379" s="5"/>
       <c r="I379" s="8"/>
     </row>
-    <row r="380" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:9">
       <c r="B380" s="5"/>
       <c r="G380" s="5"/>
       <c r="H380" s="5"/>
       <c r="I380" s="8"/>
     </row>
-    <row r="381" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:9">
       <c r="B381" s="5"/>
       <c r="G381" s="5"/>
       <c r="H381" s="5"/>
       <c r="I381" s="8"/>
     </row>
-    <row r="382" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:9">
       <c r="B382" s="5"/>
       <c r="G382" s="5"/>
       <c r="H382" s="5"/>
       <c r="I382" s="8"/>
     </row>
-    <row r="383" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:9">
       <c r="B383" s="5"/>
       <c r="G383" s="5"/>
       <c r="H383" s="5"/>
       <c r="I383" s="8"/>
     </row>
-    <row r="384" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:9">
       <c r="B384" s="5"/>
       <c r="G384" s="5"/>
       <c r="H384" s="5"/>
       <c r="I384" s="8"/>
     </row>
-    <row r="385" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:9">
       <c r="B385" s="5"/>
       <c r="G385" s="5"/>
       <c r="H385" s="5"/>
       <c r="I385" s="8"/>
     </row>
-    <row r="386" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:9">
       <c r="B386" s="5"/>
       <c r="G386" s="5"/>
       <c r="H386" s="5"/>
       <c r="I386" s="8"/>
     </row>
-    <row r="387" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:9">
       <c r="B387" s="5"/>
       <c r="G387" s="5"/>
       <c r="H387" s="5"/>
       <c r="I387" s="8"/>
     </row>
-    <row r="388" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:9">
       <c r="B388" s="5"/>
       <c r="G388" s="5"/>
       <c r="H388" s="5"/>
       <c r="I388" s="8"/>
     </row>
-    <row r="389" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:9">
       <c r="B389" s="5"/>
       <c r="G389" s="5"/>
       <c r="H389" s="5"/>
       <c r="I389" s="8"/>
     </row>
-    <row r="390" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:9">
       <c r="B390" s="5"/>
       <c r="G390" s="5"/>
       <c r="H390" s="5"/>
       <c r="I390" s="8"/>
     </row>
-    <row r="391" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:9">
       <c r="B391" s="5"/>
       <c r="G391" s="5"/>
       <c r="H391" s="5"/>
       <c r="I391" s="8"/>
     </row>
-    <row r="392" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:9">
       <c r="B392" s="5"/>
       <c r="G392" s="5"/>
       <c r="H392" s="5"/>
       <c r="I392" s="8"/>
     </row>
-    <row r="393" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:9">
       <c r="B393" s="5"/>
       <c r="G393" s="5"/>
       <c r="H393" s="5"/>
       <c r="I393" s="8"/>
     </row>
-    <row r="394" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:9">
       <c r="B394" s="5"/>
       <c r="G394" s="5"/>
       <c r="H394" s="5"/>
       <c r="I394" s="8"/>
     </row>
-    <row r="395" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:9">
       <c r="B395" s="5"/>
       <c r="G395" s="5"/>
       <c r="H395" s="5"/>
       <c r="I395" s="8"/>
     </row>
-    <row r="396" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:9">
       <c r="B396" s="5"/>
       <c r="G396" s="5"/>
       <c r="H396" s="5"/>
       <c r="I396" s="8"/>
     </row>
-    <row r="397" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:9">
       <c r="B397" s="5"/>
       <c r="G397" s="5"/>
       <c r="H397" s="5"/>
       <c r="I397" s="8"/>
     </row>
-    <row r="398" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:9">
       <c r="B398" s="5"/>
       <c r="G398" s="5"/>
       <c r="H398" s="5"/>
       <c r="I398" s="8"/>
     </row>
-    <row r="399" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:9">
       <c r="B399" s="5"/>
       <c r="G399" s="5"/>
       <c r="H399" s="5"/>
       <c r="I399" s="8"/>
     </row>
-    <row r="400" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:9">
       <c r="B400" s="5"/>
       <c r="G400" s="5"/>
       <c r="H400" s="5"/>
       <c r="I400" s="8"/>
     </row>
-    <row r="401" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:9">
       <c r="B401" s="5"/>
       <c r="G401" s="5"/>
       <c r="H401" s="5"/>
       <c r="I401" s="8"/>
     </row>
-    <row r="402" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:9">
       <c r="B402" s="5"/>
       <c r="G402" s="5"/>
       <c r="H402" s="5"/>
       <c r="I402" s="8"/>
     </row>
-    <row r="403" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:9">
       <c r="B403" s="5"/>
       <c r="G403" s="5"/>
       <c r="H403" s="5"/>
       <c r="I403" s="8"/>
     </row>
-    <row r="404" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:9">
       <c r="B404" s="5"/>
       <c r="G404" s="5"/>
       <c r="H404" s="5"/>
       <c r="I404" s="8"/>
     </row>
-    <row r="405" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:9">
       <c r="B405" s="5"/>
       <c r="G405" s="5"/>
       <c r="H405" s="5"/>
       <c r="I405" s="8"/>
     </row>
-    <row r="406" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:9">
       <c r="B406" s="5"/>
       <c r="G406" s="5"/>
       <c r="H406" s="5"/>
       <c r="I406" s="8"/>
     </row>
-    <row r="407" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:9">
       <c r="B407" s="5"/>
       <c r="G407" s="5"/>
       <c r="H407" s="5"/>
       <c r="I407" s="8"/>
     </row>
-    <row r="408" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:9">
       <c r="B408" s="5"/>
       <c r="G408" s="5"/>
       <c r="H408" s="5"/>
       <c r="I408" s="8"/>
     </row>
-    <row r="409" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:9">
       <c r="B409" s="5"/>
       <c r="G409" s="5"/>
       <c r="H409" s="5"/>
       <c r="I409" s="8"/>
     </row>
-    <row r="410" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:9">
       <c r="B410" s="5"/>
       <c r="G410" s="5"/>
       <c r="H410" s="5"/>
       <c r="I410" s="8"/>
     </row>
-    <row r="411" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:9">
       <c r="B411" s="5"/>
       <c r="G411" s="5"/>
       <c r="H411" s="5"/>
       <c r="I411" s="8"/>
     </row>
-    <row r="412" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:9">
       <c r="B412" s="5"/>
       <c r="G412" s="5"/>
       <c r="H412" s="5"/>
       <c r="I412" s="8"/>
     </row>
-    <row r="413" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:9">
       <c r="B413" s="5"/>
       <c r="G413" s="5"/>
       <c r="H413" s="5"/>
       <c r="I413" s="8"/>
     </row>
-    <row r="414" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:9">
       <c r="B414" s="5"/>
       <c r="G414" s="5"/>
       <c r="H414" s="5"/>
       <c r="I414" s="8"/>
     </row>
-    <row r="415" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:9">
       <c r="B415" s="5"/>
       <c r="G415" s="5"/>
       <c r="H415" s="5"/>
       <c r="I415" s="8"/>
     </row>
-    <row r="416" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:9">
       <c r="B416" s="5"/>
       <c r="G416" s="5"/>
       <c r="H416" s="5"/>
       <c r="I416" s="8"/>
     </row>
-    <row r="417" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:9">
       <c r="B417" s="5"/>
       <c r="G417" s="5"/>
       <c r="H417" s="5"/>
       <c r="I417" s="8"/>
     </row>
-    <row r="418" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:9">
       <c r="B418" s="5"/>
       <c r="G418" s="5"/>
       <c r="H418" s="5"/>
       <c r="I418" s="8"/>
     </row>
-    <row r="419" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:9">
       <c r="B419" s="5"/>
       <c r="G419" s="5"/>
       <c r="H419" s="5"/>
       <c r="I419" s="8"/>
     </row>
-    <row r="420" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:9">
       <c r="B420" s="5"/>
       <c r="G420" s="5"/>
       <c r="H420" s="5"/>
       <c r="I420" s="8"/>
     </row>
-    <row r="421" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:9">
       <c r="B421" s="5"/>
       <c r="G421" s="5"/>
       <c r="H421" s="5"/>
       <c r="I421" s="8"/>
     </row>
-    <row r="422" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:9">
       <c r="B422" s="5"/>
       <c r="G422" s="5"/>
       <c r="H422" s="5"/>
       <c r="I422" s="8"/>
     </row>
-    <row r="423" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:9">
       <c r="B423" s="5"/>
       <c r="G423" s="5"/>
       <c r="H423" s="5"/>
       <c r="I423" s="8"/>
     </row>
-    <row r="424" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:9">
       <c r="B424" s="5"/>
       <c r="G424" s="5"/>
       <c r="H424" s="5"/>
       <c r="I424" s="8"/>
     </row>
-    <row r="425" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:9">
       <c r="B425" s="5"/>
       <c r="G425" s="5"/>
       <c r="H425" s="5"/>
       <c r="I425" s="8"/>
     </row>
-    <row r="426" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:9">
       <c r="B426" s="5"/>
       <c r="G426" s="5"/>
       <c r="H426" s="5"/>
       <c r="I426" s="8"/>
     </row>
-    <row r="427" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:9">
       <c r="B427" s="5"/>
       <c r="G427" s="5"/>
       <c r="H427" s="5"/>
       <c r="I427" s="8"/>
     </row>
-    <row r="428" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:9">
       <c r="B428" s="5"/>
       <c r="G428" s="5"/>
       <c r="H428" s="5"/>
       <c r="I428" s="8"/>
     </row>
-    <row r="429" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:9">
       <c r="B429" s="5"/>
       <c r="G429" s="5"/>
       <c r="H429" s="5"/>
       <c r="I429" s="8"/>
     </row>
-    <row r="430" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:9">
       <c r="B430" s="5"/>
       <c r="G430" s="5"/>
       <c r="H430" s="5"/>
       <c r="I430" s="8"/>
     </row>
-    <row r="431" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:9">
       <c r="B431" s="5"/>
       <c r="G431" s="5"/>
       <c r="H431" s="5"/>
       <c r="I431" s="8"/>
     </row>
-    <row r="432" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:9">
       <c r="B432" s="5"/>
       <c r="G432" s="5"/>
       <c r="H432" s="5"/>
       <c r="I432" s="8"/>
     </row>
-    <row r="433" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:9">
       <c r="B433" s="5"/>
       <c r="G433" s="5"/>
       <c r="H433" s="5"/>
       <c r="I433" s="8"/>
     </row>
-    <row r="434" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:9">
       <c r="B434" s="5"/>
       <c r="G434" s="5"/>
       <c r="H434" s="5"/>
       <c r="I434" s="8"/>
     </row>
-    <row r="435" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:9">
       <c r="B435" s="5"/>
       <c r="G435" s="5"/>
       <c r="H435" s="5"/>
       <c r="I435" s="8"/>
     </row>
-    <row r="436" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:9">
       <c r="B436" s="5"/>
       <c r="G436" s="5"/>
       <c r="H436" s="5"/>
       <c r="I436" s="8"/>
     </row>
-    <row r="437" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:9">
       <c r="B437" s="5"/>
       <c r="G437" s="5"/>
       <c r="H437" s="5"/>
       <c r="I437" s="8"/>
     </row>
-    <row r="438" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:9">
       <c r="B438" s="5"/>
       <c r="G438" s="5"/>
       <c r="H438" s="5"/>
       <c r="I438" s="8"/>
     </row>
-    <row r="439" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:9">
       <c r="B439" s="5"/>
       <c r="G439" s="5"/>
       <c r="H439" s="5"/>
       <c r="I439" s="8"/>
     </row>
-    <row r="440" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:9">
       <c r="B440" s="5"/>
       <c r="G440" s="5"/>
       <c r="H440" s="5"/>
       <c r="I440" s="8"/>
     </row>
-    <row r="441" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:9">
       <c r="B441" s="5"/>
       <c r="G441" s="5"/>
       <c r="H441" s="5"/>
       <c r="I441" s="8"/>
     </row>
-    <row r="442" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:9">
       <c r="B442" s="5"/>
       <c r="G442" s="5"/>
       <c r="H442" s="5"/>
       <c r="I442" s="8"/>
     </row>
-    <row r="443" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:9">
       <c r="B443" s="5"/>
       <c r="G443" s="5"/>
       <c r="H443" s="5"/>
       <c r="I443" s="8"/>
     </row>
-    <row r="444" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:9">
       <c r="B444" s="5"/>
       <c r="G444" s="5"/>
       <c r="H444" s="5"/>
       <c r="I444" s="8"/>
     </row>
-    <row r="445" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:9">
       <c r="B445" s="5"/>
       <c r="G445" s="5"/>
       <c r="H445" s="5"/>
       <c r="I445" s="8"/>
     </row>
-    <row r="446" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:9">
       <c r="B446" s="5"/>
       <c r="G446" s="5"/>
       <c r="H446" s="5"/>
       <c r="I446" s="8"/>
     </row>
-    <row r="447" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:9">
       <c r="B447" s="5"/>
       <c r="G447" s="5"/>
       <c r="H447" s="5"/>
       <c r="I447" s="8"/>
     </row>
-    <row r="448" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:9">
       <c r="B448" s="5"/>
       <c r="G448" s="5"/>
       <c r="H448" s="5"/>
       <c r="I448" s="8"/>
     </row>
-    <row r="449" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:9">
       <c r="B449" s="5"/>
       <c r="G449" s="5"/>
       <c r="H449" s="5"/>
       <c r="I449" s="8"/>
     </row>
-    <row r="450" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:9">
       <c r="B450" s="5"/>
       <c r="G450" s="5"/>
       <c r="H450" s="5"/>
       <c r="I450" s="8"/>
     </row>
-    <row r="451" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:9">
       <c r="B451" s="5"/>
       <c r="G451" s="5"/>
       <c r="H451" s="5"/>
       <c r="I451" s="8"/>
     </row>
-    <row r="452" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:9">
       <c r="B452" s="5"/>
       <c r="G452" s="5"/>
       <c r="H452" s="5"/>
       <c r="I452" s="8"/>
     </row>
-    <row r="453" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:9">
       <c r="B453" s="5"/>
       <c r="G453" s="5"/>
       <c r="H453" s="5"/>
       <c r="I453" s="8"/>
     </row>
-    <row r="454" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:9">
       <c r="B454" s="5"/>
       <c r="G454" s="5"/>
       <c r="H454" s="5"/>
       <c r="I454" s="8"/>
     </row>
-    <row r="455" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:9">
       <c r="B455" s="5"/>
       <c r="G455" s="5"/>
       <c r="H455" s="5"/>
       <c r="I455" s="8"/>
     </row>
-    <row r="456" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:9">
       <c r="B456" s="5"/>
       <c r="G456" s="5"/>
       <c r="H456" s="5"/>
       <c r="I456" s="8"/>
     </row>
-    <row r="457" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:9">
       <c r="B457" s="5"/>
       <c r="G457" s="5"/>
       <c r="H457" s="5"/>
       <c r="I457" s="8"/>
     </row>
-    <row r="458" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:9">
       <c r="B458" s="5"/>
       <c r="G458" s="5"/>
       <c r="H458" s="5"/>
       <c r="I458" s="8"/>
     </row>
-    <row r="459" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:9">
       <c r="B459" s="5"/>
       <c r="G459" s="5"/>
       <c r="H459" s="5"/>
       <c r="I459" s="8"/>
     </row>
-    <row r="460" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:9">
       <c r="B460" s="5"/>
       <c r="G460" s="5"/>
       <c r="H460" s="5"/>
       <c r="I460" s="8"/>
     </row>
-    <row r="461" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:9">
       <c r="B461" s="5"/>
       <c r="G461" s="5"/>
       <c r="H461" s="5"/>
       <c r="I461" s="8"/>
     </row>
-    <row r="462" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:9">
       <c r="B462" s="5"/>
       <c r="G462" s="5"/>
       <c r="H462" s="5"/>
       <c r="I462" s="8"/>
     </row>
-    <row r="463" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:9">
       <c r="B463" s="5"/>
       <c r="G463" s="5"/>
       <c r="H463" s="5"/>
       <c r="I463" s="8"/>
     </row>
-    <row r="464" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:9">
       <c r="B464" s="5"/>
       <c r="G464" s="5"/>
       <c r="H464" s="5"/>
       <c r="I464" s="8"/>
     </row>
-    <row r="465" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:9">
       <c r="B465" s="5"/>
       <c r="G465" s="5"/>
       <c r="H465" s="5"/>
       <c r="I465" s="8"/>
     </row>
-    <row r="466" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:9">
       <c r="B466" s="5"/>
       <c r="G466" s="5"/>
       <c r="H466" s="5"/>
       <c r="I466" s="8"/>
     </row>
-    <row r="467" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:9">
       <c r="B467" s="5"/>
       <c r="G467" s="5"/>
       <c r="H467" s="5"/>
       <c r="I467" s="8"/>
     </row>
-    <row r="468" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:9">
       <c r="B468" s="5"/>
       <c r="G468" s="5"/>
       <c r="H468" s="5"/>
       <c r="I468" s="8"/>
     </row>
-    <row r="469" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:9">
       <c r="B469" s="5"/>
       <c r="G469" s="5"/>
       <c r="H469" s="5"/>
       <c r="I469" s="8"/>
     </row>
-    <row r="470" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:9">
       <c r="B470" s="5"/>
       <c r="G470" s="5"/>
       <c r="H470" s="5"/>
       <c r="I470" s="8"/>
     </row>
-    <row r="471" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:9">
       <c r="B471" s="5"/>
       <c r="G471" s="5"/>
       <c r="H471" s="5"/>
       <c r="I471" s="8"/>
     </row>
-    <row r="472" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:9">
       <c r="B472" s="5"/>
       <c r="G472" s="5"/>
       <c r="H472" s="5"/>
       <c r="I472" s="8"/>
     </row>
-    <row r="473" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:9">
       <c r="B473" s="5"/>
       <c r="G473" s="5"/>
       <c r="H473" s="5"/>
       <c r="I473" s="8"/>
     </row>
-    <row r="474" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:9">
       <c r="B474" s="5"/>
       <c r="G474" s="5"/>
       <c r="H474" s="5"/>
       <c r="I474" s="8"/>
     </row>
-    <row r="475" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:9">
       <c r="B475" s="5"/>
       <c r="G475" s="5"/>
       <c r="H475" s="5"/>
       <c r="I475" s="8"/>
     </row>
-    <row r="476" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:9">
       <c r="B476" s="5"/>
       <c r="G476" s="5"/>
       <c r="H476" s="5"/>
       <c r="I476" s="8"/>
     </row>
-    <row r="477" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:9">
       <c r="B477" s="5"/>
       <c r="G477" s="5"/>
       <c r="H477" s="5"/>
       <c r="I477" s="8"/>
     </row>
-    <row r="478" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:9">
       <c r="B478" s="5"/>
       <c r="G478" s="5"/>
       <c r="H478" s="5"/>
       <c r="I478" s="8"/>
     </row>
-    <row r="479" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:9">
       <c r="B479" s="5"/>
       <c r="G479" s="5"/>
       <c r="H479" s="5"/>
       <c r="I479" s="8"/>
     </row>
-    <row r="480" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:9">
       <c r="B480" s="5"/>
       <c r="G480" s="5"/>
       <c r="H480" s="5"/>
       <c r="I480" s="8"/>
     </row>
-    <row r="481" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:9">
       <c r="B481" s="5"/>
       <c r="G481" s="5"/>
       <c r="H481" s="5"/>
       <c r="I481" s="8"/>
     </row>
-    <row r="482" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:9">
       <c r="B482" s="5"/>
       <c r="G482" s="5"/>
       <c r="H482" s="5"/>
       <c r="I482" s="8"/>
     </row>
-    <row r="483" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:9">
       <c r="B483" s="5"/>
       <c r="G483" s="5"/>
       <c r="H483" s="5"/>
       <c r="I483" s="8"/>
     </row>
-    <row r="484" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:9">
       <c r="B484" s="5"/>
       <c r="G484" s="5"/>
       <c r="H484" s="5"/>
       <c r="I484" s="8"/>
     </row>
-    <row r="485" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:9">
       <c r="B485" s="5"/>
       <c r="G485" s="5"/>
       <c r="H485" s="5"/>
       <c r="I485" s="8"/>
     </row>
-    <row r="486" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:9">
       <c r="B486" s="5"/>
       <c r="G486" s="5"/>
       <c r="H486" s="5"/>
       <c r="I486" s="8"/>
     </row>
-    <row r="487" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:9">
       <c r="B487" s="5"/>
       <c r="G487" s="5"/>
       <c r="H487" s="5"/>
       <c r="I487" s="8"/>
     </row>
-    <row r="488" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:9">
       <c r="B488" s="5"/>
       <c r="G488" s="5"/>
       <c r="H488" s="5"/>
       <c r="I488" s="8"/>
     </row>
-    <row r="489" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:9">
       <c r="B489" s="5"/>
       <c r="G489" s="5"/>
       <c r="H489" s="5"/>
       <c r="I489" s="8"/>
     </row>
-    <row r="490" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:9">
       <c r="B490" s="5"/>
       <c r="G490" s="5"/>
       <c r="H490" s="5"/>
       <c r="I490" s="8"/>
     </row>
-    <row r="491" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:9">
       <c r="B491" s="5"/>
       <c r="G491" s="5"/>
       <c r="H491" s="5"/>
       <c r="I491" s="8"/>
     </row>
-    <row r="492" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:9">
       <c r="B492" s="5"/>
       <c r="G492" s="5"/>
       <c r="H492" s="5"/>
       <c r="I492" s="8"/>
     </row>
-    <row r="493" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:9">
       <c r="B493" s="5"/>
       <c r="G493" s="5"/>
       <c r="H493" s="5"/>
       <c r="I493" s="8"/>
     </row>
-    <row r="494" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:9">
       <c r="B494" s="5"/>
       <c r="G494" s="5"/>
       <c r="H494" s="5"/>
       <c r="I494" s="8"/>
     </row>
-    <row r="495" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:9">
       <c r="B495" s="5"/>
       <c r="G495" s="5"/>
       <c r="H495" s="5"/>
       <c r="I495" s="8"/>
     </row>
-    <row r="496" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:9">
       <c r="B496" s="5"/>
       <c r="G496" s="5"/>
       <c r="H496" s="5"/>
       <c r="I496" s="8"/>
     </row>
-    <row r="497" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:9">
       <c r="B497" s="5"/>
       <c r="G497" s="5"/>
       <c r="H497" s="5"/>
       <c r="I497" s="8"/>
     </row>
-    <row r="498" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:9">
       <c r="B498" s="5"/>
       <c r="G498" s="5"/>
       <c r="H498" s="5"/>
       <c r="I498" s="8"/>
     </row>
-    <row r="499" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:9">
       <c r="B499" s="5"/>
       <c r="G499" s="5"/>
       <c r="H499" s="5"/>
       <c r="I499" s="8"/>
     </row>
-    <row r="500" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:9">
       <c r="B500" s="5"/>
       <c r="G500" s="5"/>
       <c r="H500" s="5"/>
       <c r="I500" s="8"/>
     </row>
-    <row r="501" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:9">
       <c r="B501" s="5"/>
       <c r="G501" s="5"/>
       <c r="H501" s="5"/>
       <c r="I501" s="8"/>
     </row>
-    <row r="502" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:9">
       <c r="B502" s="5"/>
       <c r="G502" s="5"/>
       <c r="H502" s="5"/>
       <c r="I502" s="8"/>
     </row>
-    <row r="503" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:9">
       <c r="B503" s="5"/>
       <c r="G503" s="5"/>
       <c r="H503" s="5"/>
       <c r="I503" s="8"/>
     </row>
-    <row r="504" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:9">
       <c r="B504" s="5"/>
       <c r="G504" s="5"/>
       <c r="H504" s="5"/>
       <c r="I504" s="8"/>
     </row>
-    <row r="505" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:9">
       <c r="B505" s="5"/>
       <c r="G505" s="5"/>
       <c r="H505" s="5"/>
       <c r="I505" s="8"/>
     </row>
-    <row r="506" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:9">
       <c r="B506" s="5"/>
       <c r="G506" s="5"/>
       <c r="H506" s="5"/>
       <c r="I506" s="8"/>
     </row>
-    <row r="507" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:9">
       <c r="B507" s="5"/>
       <c r="G507" s="5"/>
       <c r="H507" s="5"/>
       <c r="I507" s="8"/>
     </row>
-    <row r="508" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:9">
       <c r="B508" s="5"/>
       <c r="G508" s="5"/>
       <c r="H508" s="5"/>
       <c r="I508" s="8"/>
     </row>
-    <row r="509" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:9">
       <c r="B509" s="5"/>
       <c r="G509" s="5"/>
       <c r="H509" s="5"/>
       <c r="I509" s="8"/>
     </row>
-    <row r="510" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:9">
       <c r="B510" s="5"/>
       <c r="G510" s="5"/>
       <c r="H510" s="5"/>
       <c r="I510" s="8"/>
     </row>
-    <row r="511" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:9">
       <c r="B511" s="5"/>
       <c r="G511" s="5"/>
       <c r="H511" s="5"/>
       <c r="I511" s="8"/>
     </row>
-    <row r="512" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:9">
       <c r="B512" s="5"/>
       <c r="G512" s="5"/>
       <c r="H512" s="5"/>
       <c r="I512" s="8"/>
     </row>
-    <row r="513" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:9">
       <c r="B513" s="5"/>
       <c r="G513" s="5"/>
       <c r="H513" s="5"/>
       <c r="I513" s="8"/>
     </row>
-    <row r="514" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:9">
       <c r="B514" s="5"/>
       <c r="G514" s="5"/>
       <c r="H514" s="5"/>
       <c r="I514" s="8"/>
     </row>
-    <row r="515" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:9">
       <c r="B515" s="5"/>
       <c r="G515" s="5"/>
       <c r="H515" s="5"/>
       <c r="I515" s="8"/>
     </row>
-    <row r="516" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:9">
       <c r="B516" s="5"/>
       <c r="G516" s="5"/>
       <c r="H516" s="5"/>
       <c r="I516" s="8"/>
     </row>
-    <row r="517" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:9">
       <c r="B517" s="5"/>
       <c r="G517" s="5"/>
       <c r="H517" s="5"/>
       <c r="I517" s="8"/>
     </row>
-    <row r="518" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:9">
       <c r="B518" s="5"/>
       <c r="G518" s="5"/>
       <c r="H518" s="5"/>
       <c r="I518" s="8"/>
     </row>
-    <row r="519" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:9">
       <c r="B519" s="5"/>
       <c r="G519" s="5"/>
       <c r="H519" s="5"/>
       <c r="I519" s="8"/>
     </row>
-    <row r="520" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:9">
       <c r="B520" s="5"/>
       <c r="G520" s="5"/>
       <c r="H520" s="5"/>
       <c r="I520" s="8"/>
     </row>
-    <row r="521" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:9">
       <c r="B521" s="5"/>
       <c r="G521" s="5"/>
       <c r="H521" s="5"/>
       <c r="I521" s="8"/>
     </row>
-    <row r="522" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:9">
       <c r="B522" s="5"/>
       <c r="G522" s="5"/>
       <c r="H522" s="5"/>
       <c r="I522" s="8"/>
     </row>
-    <row r="523" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:9">
       <c r="B523" s="5"/>
       <c r="G523" s="5"/>
       <c r="H523" s="5"/>
       <c r="I523" s="8"/>
     </row>
-    <row r="524" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:9">
       <c r="B524" s="5"/>
       <c r="G524" s="5"/>
       <c r="H524" s="5"/>
       <c r="I524" s="8"/>
     </row>
-    <row r="525" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:9">
       <c r="B525" s="5"/>
       <c r="G525" s="5"/>
       <c r="H525" s="5"/>
       <c r="I525" s="8"/>
     </row>
-    <row r="526" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:9">
       <c r="B526" s="5"/>
       <c r="G526" s="5"/>
       <c r="H526" s="5"/>
       <c r="I526" s="8"/>
     </row>
-    <row r="527" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:9">
       <c r="B527" s="5"/>
       <c r="G527" s="5"/>
       <c r="H527" s="5"/>
       <c r="I527" s="8"/>
     </row>
-    <row r="528" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:9">
       <c r="B528" s="5"/>
       <c r="G528" s="5"/>
       <c r="H528" s="5"/>
       <c r="I528" s="8"/>
     </row>
-    <row r="529" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:9">
       <c r="B529" s="5"/>
       <c r="G529" s="5"/>
       <c r="H529" s="5"/>
       <c r="I529" s="8"/>
     </row>
-    <row r="530" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:9">
       <c r="B530" s="5"/>
       <c r="G530" s="5"/>
       <c r="H530" s="5"/>
       <c r="I530" s="8"/>
     </row>
-    <row r="531" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:9">
       <c r="B531" s="5"/>
       <c r="G531" s="5"/>
       <c r="H531" s="5"/>
       <c r="I531" s="8"/>
     </row>
-    <row r="532" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:9">
       <c r="B532" s="5"/>
       <c r="G532" s="5"/>
       <c r="H532" s="5"/>
       <c r="I532" s="8"/>
     </row>
-    <row r="533" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:9">
       <c r="B533" s="5"/>
       <c r="G533" s="5"/>
       <c r="H533" s="5"/>
       <c r="I533" s="8"/>
     </row>
-    <row r="534" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:9">
       <c r="B534" s="5"/>
       <c r="G534" s="5"/>
       <c r="H534" s="5"/>
       <c r="I534" s="8"/>
     </row>
-    <row r="535" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:9">
       <c r="B535" s="5"/>
       <c r="G535" s="5"/>
       <c r="H535" s="5"/>
       <c r="I535" s="8"/>
     </row>
-    <row r="536" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:9">
       <c r="B536" s="5"/>
       <c r="G536" s="5"/>
       <c r="H536" s="5"/>
       <c r="I536" s="8"/>
     </row>
-    <row r="537" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:9">
       <c r="B537" s="5"/>
       <c r="G537" s="5"/>
       <c r="H537" s="5"/>
       <c r="I537" s="8"/>
     </row>
-    <row r="538" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:9">
       <c r="B538" s="5"/>
       <c r="G538" s="5"/>
       <c r="H538" s="5"/>
       <c r="I538" s="8"/>
     </row>
-    <row r="539" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:9">
       <c r="B539" s="5"/>
       <c r="G539" s="5"/>
       <c r="H539" s="5"/>
       <c r="I539" s="8"/>
     </row>
-    <row r="540" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:9">
       <c r="B540" s="5"/>
       <c r="G540" s="5"/>
       <c r="H540" s="5"/>
       <c r="I540" s="8"/>
     </row>
-    <row r="541" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:9">
       <c r="B541" s="5"/>
       <c r="G541" s="5"/>
       <c r="H541" s="5"/>
       <c r="I541" s="8"/>
     </row>
-    <row r="542" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:9">
       <c r="B542" s="5"/>
       <c r="G542" s="5"/>
       <c r="H542" s="5"/>
       <c r="I542" s="8"/>
     </row>
-    <row r="543" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:9">
       <c r="B543" s="5"/>
       <c r="G543" s="5"/>
       <c r="H543" s="5"/>
       <c r="I543" s="8"/>
     </row>
-    <row r="544" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:9">
       <c r="B544" s="5"/>
       <c r="G544" s="5"/>
       <c r="H544" s="5"/>
       <c r="I544" s="8"/>
     </row>
-    <row r="545" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:9">
       <c r="B545" s="5"/>
       <c r="G545" s="5"/>
       <c r="H545" s="5"/>
       <c r="I545" s="8"/>
     </row>
-    <row r="546" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:9">
       <c r="B546" s="5"/>
       <c r="G546" s="5"/>
       <c r="H546" s="5"/>
       <c r="I546" s="8"/>
     </row>
-    <row r="547" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:9">
       <c r="B547" s="5"/>
       <c r="G547" s="5"/>
       <c r="H547" s="5"/>
       <c r="I547" s="8"/>
     </row>
-    <row r="548" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:9">
       <c r="B548" s="5"/>
       <c r="G548" s="5"/>
       <c r="H548" s="5"/>
       <c r="I548" s="8"/>
     </row>
-    <row r="549" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:9">
       <c r="B549" s="5"/>
       <c r="G549" s="5"/>
       <c r="H549" s="5"/>
       <c r="I549" s="8"/>
     </row>
-    <row r="550" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:9">
       <c r="B550" s="5"/>
       <c r="G550" s="5"/>
       <c r="H550" s="5"/>
       <c r="I550" s="8"/>
     </row>
-    <row r="551" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:9">
       <c r="B551" s="5"/>
       <c r="G551" s="5"/>
       <c r="H551" s="5"/>
       <c r="I551" s="8"/>
     </row>
-    <row r="552" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:9">
       <c r="B552" s="5"/>
       <c r="G552" s="5"/>
       <c r="H552" s="5"/>
       <c r="I552" s="8"/>
     </row>
-    <row r="553" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:9">
       <c r="B553" s="5"/>
       <c r="G553" s="5"/>
       <c r="H553" s="5"/>
       <c r="I553" s="8"/>
     </row>
-    <row r="554" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:9">
       <c r="B554" s="5"/>
       <c r="G554" s="5"/>
       <c r="H554" s="5"/>
       <c r="I554" s="8"/>
     </row>
-    <row r="555" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:9">
       <c r="B555" s="5"/>
       <c r="G555" s="5"/>
       <c r="H555" s="5"/>
       <c r="I555" s="8"/>
     </row>
-    <row r="556" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:9">
       <c r="B556" s="5"/>
       <c r="G556" s="5"/>
       <c r="H556" s="5"/>
       <c r="I556" s="8"/>
     </row>
-    <row r="557" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:9">
       <c r="B557" s="5"/>
       <c r="G557" s="5"/>
       <c r="H557" s="5"/>
       <c r="I557" s="8"/>
     </row>
-    <row r="558" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:9">
       <c r="B558" s="5"/>
       <c r="G558" s="5"/>
       <c r="H558" s="5"/>
       <c r="I558" s="8"/>
     </row>
-    <row r="559" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:9">
       <c r="B559" s="5"/>
       <c r="G559" s="5"/>
       <c r="H559" s="5"/>
       <c r="I559" s="8"/>
     </row>
-    <row r="560" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:9">
       <c r="B560" s="5"/>
       <c r="G560" s="5"/>
       <c r="H560" s="5"/>
       <c r="I560" s="8"/>
     </row>
-    <row r="561" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:9">
       <c r="B561" s="5"/>
       <c r="G561" s="5"/>
       <c r="H561" s="5"/>
       <c r="I561" s="8"/>
     </row>
-    <row r="562" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:9">
       <c r="B562" s="5"/>
       <c r="G562" s="5"/>
       <c r="H562" s="5"/>
       <c r="I562" s="8"/>
     </row>
-    <row r="563" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:9">
       <c r="B563" s="5"/>
       <c r="G563" s="5"/>
       <c r="H563" s="5"/>
       <c r="I563" s="8"/>
     </row>
-    <row r="564" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:9">
       <c r="B564" s="5"/>
       <c r="G564" s="5"/>
       <c r="H564" s="5"/>
       <c r="I564" s="8"/>
     </row>
-    <row r="565" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:9">
       <c r="B565" s="5"/>
       <c r="G565" s="5"/>
       <c r="H565" s="5"/>
       <c r="I565" s="8"/>
     </row>
-    <row r="566" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:9">
       <c r="B566" s="5"/>
       <c r="G566" s="5"/>
       <c r="H566" s="5"/>
       <c r="I566" s="8"/>
     </row>
-    <row r="567" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:9">
       <c r="B567" s="5"/>
       <c r="G567" s="5"/>
       <c r="H567" s="5"/>
       <c r="I567" s="8"/>
     </row>
-    <row r="568" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:9">
       <c r="B568" s="5"/>
       <c r="G568" s="5"/>
       <c r="H568" s="5"/>
       <c r="I568" s="8"/>
     </row>
-    <row r="569" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:9">
       <c r="B569" s="5"/>
       <c r="G569" s="5"/>
       <c r="H569" s="5"/>
       <c r="I569" s="8"/>
     </row>
-    <row r="570" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:9">
       <c r="B570" s="5"/>
       <c r="G570" s="5"/>
       <c r="H570" s="5"/>
       <c r="I570" s="8"/>
     </row>
-    <row r="571" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:9">
       <c r="B571" s="5"/>
       <c r="G571" s="5"/>
       <c r="H571" s="5"/>
       <c r="I571" s="8"/>
     </row>
-    <row r="572" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:9">
       <c r="B572" s="5"/>
       <c r="G572" s="5"/>
       <c r="H572" s="5"/>
       <c r="I572" s="8"/>
     </row>
-    <row r="573" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:9">
       <c r="B573" s="5"/>
       <c r="G573" s="5"/>
       <c r="H573" s="5"/>
       <c r="I573" s="8"/>
     </row>
-    <row r="574" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:9">
       <c r="B574" s="5"/>
       <c r="G574" s="5"/>
       <c r="H574" s="5"/>
       <c r="I574" s="8"/>
     </row>
-    <row r="575" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:9">
       <c r="B575" s="5"/>
       <c r="G575" s="5"/>
       <c r="H575" s="5"/>
       <c r="I575" s="8"/>
     </row>
-    <row r="576" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:9">
       <c r="B576" s="5"/>
       <c r="G576" s="5"/>
       <c r="H576" s="5"/>
       <c r="I576" s="8"/>
     </row>
-    <row r="577" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:9">
       <c r="B577" s="5"/>
       <c r="G577" s="5"/>
       <c r="H577" s="5"/>
       <c r="I577" s="8"/>
     </row>
-    <row r="578" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:9">
       <c r="B578" s="5"/>
       <c r="G578" s="5"/>
       <c r="H578" s="5"/>
       <c r="I578" s="8"/>
     </row>
-    <row r="579" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:9">
       <c r="B579" s="5"/>
       <c r="G579" s="5"/>
       <c r="H579" s="5"/>
       <c r="I579" s="8"/>
     </row>
-    <row r="580" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:9">
       <c r="B580" s="5"/>
       <c r="G580" s="5"/>
       <c r="H580" s="5"/>
       <c r="I580" s="8"/>
     </row>
-    <row r="581" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:9">
       <c r="B581" s="5"/>
       <c r="G581" s="5"/>
       <c r="H581" s="5"/>
       <c r="I581" s="8"/>
     </row>
-    <row r="582" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:9">
       <c r="B582" s="5"/>
       <c r="G582" s="5"/>
       <c r="H582" s="5"/>
       <c r="I582" s="8"/>
     </row>
-    <row r="583" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:9">
       <c r="B583" s="5"/>
       <c r="G583" s="5"/>
       <c r="H583" s="5"/>
       <c r="I583" s="8"/>
     </row>
-    <row r="584" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:9">
       <c r="B584" s="5"/>
       <c r="G584" s="5"/>
       <c r="H584" s="5"/>
       <c r="I584" s="8"/>
     </row>
-    <row r="585" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:9">
       <c r="B585" s="5"/>
       <c r="G585" s="5"/>
       <c r="H585" s="5"/>
       <c r="I585" s="8"/>
     </row>
-    <row r="586" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:9">
       <c r="B586" s="5"/>
       <c r="G586" s="5"/>
       <c r="H586" s="5"/>
       <c r="I586" s="8"/>
     </row>
-    <row r="587" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:9">
       <c r="B587" s="5"/>
       <c r="G587" s="5"/>
       <c r="H587" s="5"/>
       <c r="I587" s="8"/>
     </row>
-    <row r="588" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:9">
       <c r="B588" s="5"/>
       <c r="G588" s="5"/>
       <c r="H588" s="5"/>
       <c r="I588" s="8"/>
     </row>
-    <row r="589" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:9">
       <c r="B589" s="5"/>
       <c r="G589" s="5"/>
       <c r="H589" s="5"/>
       <c r="I589" s="8"/>
     </row>
-    <row r="590" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:9">
       <c r="B590" s="5"/>
       <c r="G590" s="5"/>
       <c r="H590" s="5"/>
       <c r="I590" s="8"/>
     </row>
-    <row r="591" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:9">
       <c r="B591" s="5"/>
       <c r="G591" s="5"/>
       <c r="H591" s="5"/>
       <c r="I591" s="8"/>
     </row>
-    <row r="592" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:9">
       <c r="B592" s="5"/>
       <c r="G592" s="5"/>
       <c r="H592" s="5"/>
       <c r="I592" s="8"/>
     </row>
-    <row r="593" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:9">
       <c r="B593" s="5"/>
       <c r="G593" s="5"/>
       <c r="H593" s="5"/>
       <c r="I593" s="8"/>
     </row>
-    <row r="594" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:9">
       <c r="B594" s="5"/>
       <c r="G594" s="5"/>
       <c r="H594" s="5"/>
       <c r="I594" s="8"/>
     </row>
-    <row r="595" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:9">
       <c r="B595" s="5"/>
       <c r="G595" s="5"/>
       <c r="H595" s="5"/>
       <c r="I595" s="8"/>
     </row>
-    <row r="596" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:9">
       <c r="B596" s="5"/>
       <c r="G596" s="5"/>
       <c r="H596" s="5"/>
       <c r="I596" s="8"/>
     </row>
-    <row r="597" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:9">
       <c r="B597" s="5"/>
       <c r="G597" s="5"/>
       <c r="H597" s="5"/>
       <c r="I597" s="8"/>
     </row>
-    <row r="598" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:9">
       <c r="B598" s="5"/>
       <c r="G598" s="5"/>
       <c r="H598" s="5"/>
       <c r="I598" s="8"/>
     </row>
-    <row r="599" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:9">
       <c r="B599" s="5"/>
       <c r="G599" s="5"/>
       <c r="H599" s="5"/>
       <c r="I599" s="8"/>
     </row>
-    <row r="600" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:9">
       <c r="B600" s="5"/>
       <c r="G600" s="5"/>
       <c r="H600" s="5"/>
       <c r="I600" s="8"/>
     </row>
-    <row r="601" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:9">
       <c r="B601" s="5"/>
       <c r="G601" s="5"/>
       <c r="H601" s="5"/>
       <c r="I601" s="8"/>
     </row>
-    <row r="602" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:9">
       <c r="B602" s="5"/>
       <c r="G602" s="5"/>
       <c r="H602" s="5"/>
       <c r="I602" s="8"/>
     </row>
-    <row r="603" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:9">
       <c r="B603" s="5"/>
       <c r="G603" s="5"/>
       <c r="H603" s="5"/>
       <c r="I603" s="8"/>
     </row>
-    <row r="604" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:9">
       <c r="B604" s="5"/>
       <c r="G604" s="5"/>
       <c r="H604" s="5"/>
       <c r="I604" s="8"/>
     </row>
-    <row r="605" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:9">
       <c r="B605" s="5"/>
       <c r="G605" s="5"/>
       <c r="H605" s="5"/>
       <c r="I605" s="8"/>
     </row>
-    <row r="606" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:9">
       <c r="B606" s="5"/>
       <c r="G606" s="5"/>
       <c r="H606" s="5"/>
       <c r="I606" s="8"/>
     </row>
-    <row r="607" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:9">
       <c r="B607" s="5"/>
       <c r="G607" s="5"/>
       <c r="H607" s="5"/>
       <c r="I607" s="8"/>
     </row>
-    <row r="608" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:9">
       <c r="B608" s="5"/>
       <c r="G608" s="5"/>
       <c r="H608" s="5"/>
       <c r="I608" s="8"/>
     </row>
-    <row r="609" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:9">
       <c r="B609" s="5"/>
       <c r="G609" s="5"/>
       <c r="H609" s="5"/>
       <c r="I609" s="8"/>
     </row>
-    <row r="610" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:9">
       <c r="B610" s="5"/>
       <c r="G610" s="5"/>
       <c r="H610" s="5"/>
       <c r="I610" s="8"/>
     </row>
-    <row r="611" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:9">
       <c r="B611" s="5"/>
       <c r="G611" s="5"/>
       <c r="H611" s="5"/>
       <c r="I611" s="8"/>
     </row>
-    <row r="612" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:9">
       <c r="B612" s="5"/>
       <c r="G612" s="5"/>
       <c r="H612" s="5"/>
       <c r="I612" s="8"/>
     </row>
-    <row r="613" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:9">
       <c r="B613" s="5"/>
       <c r="G613" s="5"/>
       <c r="H613" s="5"/>
       <c r="I613" s="8"/>
     </row>
-    <row r="614" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:9">
       <c r="B614" s="5"/>
       <c r="G614" s="5"/>
       <c r="H614" s="5"/>
       <c r="I614" s="8"/>
     </row>
-    <row r="615" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:9">
       <c r="B615" s="5"/>
       <c r="G615" s="5"/>
       <c r="H615" s="5"/>
       <c r="I615" s="8"/>
     </row>
-    <row r="616" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:9">
       <c r="B616" s="5"/>
       <c r="G616" s="5"/>
       <c r="H616" s="5"/>
       <c r="I616" s="8"/>
     </row>
-    <row r="617" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:9">
       <c r="B617" s="5"/>
       <c r="G617" s="5"/>
       <c r="H617" s="5"/>
       <c r="I617" s="8"/>
     </row>
-    <row r="618" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:9">
       <c r="B618" s="5"/>
       <c r="G618" s="5"/>
       <c r="H618" s="5"/>
       <c r="I618" s="8"/>
     </row>
-    <row r="619" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:9">
       <c r="B619" s="5"/>
       <c r="G619" s="5"/>
       <c r="H619" s="5"/>
       <c r="I619" s="8"/>
     </row>
-    <row r="620" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:9">
       <c r="B620" s="5"/>
       <c r="G620" s="5"/>
       <c r="H620" s="5"/>
       <c r="I620" s="8"/>
     </row>
-    <row r="621" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:9">
       <c r="B621" s="5"/>
       <c r="G621" s="5"/>
       <c r="H621" s="5"/>
       <c r="I621" s="8"/>
     </row>
-    <row r="622" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:9">
       <c r="B622" s="5"/>
       <c r="G622" s="5"/>
       <c r="H622" s="5"/>
       <c r="I622" s="8"/>
     </row>
-    <row r="623" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:9">
       <c r="B623" s="5"/>
       <c r="G623" s="5"/>
       <c r="H623" s="5"/>
       <c r="I623" s="8"/>
     </row>
-    <row r="624" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:9">
       <c r="B624" s="5"/>
       <c r="G624" s="5"/>
       <c r="H624" s="5"/>
       <c r="I624" s="8"/>
     </row>
-    <row r="625" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:9">
       <c r="B625" s="5"/>
       <c r="G625" s="5"/>
       <c r="H625" s="5"/>
       <c r="I625" s="8"/>
     </row>
-    <row r="626" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:9">
       <c r="B626" s="5"/>
       <c r="G626" s="5"/>
       <c r="H626" s="5"/>
       <c r="I626" s="8"/>
     </row>
-    <row r="627" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:9">
       <c r="B627" s="5"/>
       <c r="G627" s="5"/>
       <c r="H627" s="5"/>
       <c r="I627" s="8"/>
     </row>
-    <row r="628" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:9">
       <c r="B628" s="5"/>
       <c r="G628" s="5"/>
       <c r="H628" s="5"/>
       <c r="I628" s="8"/>
     </row>
-    <row r="629" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:9">
       <c r="B629" s="5"/>
       <c r="G629" s="5"/>
       <c r="H629" s="5"/>
       <c r="I629" s="8"/>
     </row>
-    <row r="630" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:9">
       <c r="B630" s="5"/>
       <c r="G630" s="5"/>
       <c r="H630" s="5"/>
       <c r="I630" s="8"/>
     </row>
-    <row r="631" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:9">
       <c r="B631" s="5"/>
       <c r="G631" s="5"/>
       <c r="H631" s="5"/>
       <c r="I631" s="8"/>
     </row>
-    <row r="632" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:9">
       <c r="B632" s="5"/>
       <c r="G632" s="5"/>
       <c r="H632" s="5"/>
       <c r="I632" s="8"/>
     </row>
-    <row r="633" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:9">
       <c r="B633" s="5"/>
       <c r="G633" s="5"/>
       <c r="H633" s="5"/>
       <c r="I633" s="8"/>
     </row>
-    <row r="634" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:9">
       <c r="B634" s="5"/>
       <c r="G634" s="5"/>
       <c r="H634" s="5"/>
       <c r="I634" s="8"/>
     </row>
-    <row r="635" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:9">
       <c r="B635" s="5"/>
       <c r="G635" s="5"/>
       <c r="H635" s="5"/>
       <c r="I635" s="8"/>
     </row>
-    <row r="636" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:9">
       <c r="B636" s="5"/>
       <c r="G636" s="5"/>
       <c r="H636" s="5"/>
       <c r="I636" s="8"/>
     </row>
-    <row r="637" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:9">
       <c r="B637" s="5"/>
       <c r="G637" s="5"/>
       <c r="H637" s="5"/>
       <c r="I637" s="8"/>
     </row>
-    <row r="638" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:9">
       <c r="B638" s="5"/>
       <c r="G638" s="5"/>
       <c r="H638" s="5"/>
       <c r="I638" s="8"/>
     </row>
-    <row r="639" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:9">
       <c r="B639" s="5"/>
       <c r="G639" s="5"/>
       <c r="H639" s="5"/>
       <c r="I639" s="8"/>
     </row>
-    <row r="640" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:9">
       <c r="B640" s="5"/>
       <c r="G640" s="5"/>
       <c r="H640" s="5"/>
       <c r="I640" s="8"/>
     </row>
-    <row r="641" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:9">
       <c r="B641" s="5"/>
       <c r="G641" s="5"/>
       <c r="H641" s="5"/>
       <c r="I641" s="8"/>
     </row>
-    <row r="642" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:9">
       <c r="B642" s="5"/>
       <c r="G642" s="5"/>
       <c r="H642" s="5"/>
       <c r="I642" s="8"/>
     </row>
-    <row r="643" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:9">
       <c r="B643" s="5"/>
       <c r="G643" s="5"/>
       <c r="H643" s="5"/>
       <c r="I643" s="8"/>
     </row>
-    <row r="644" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:9">
       <c r="B644" s="5"/>
       <c r="G644" s="5"/>
       <c r="H644" s="5"/>
       <c r="I644" s="8"/>
     </row>
-    <row r="645" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:9">
       <c r="B645" s="5"/>
       <c r="G645" s="5"/>
       <c r="H645" s="5"/>
       <c r="I645" s="8"/>
     </row>
-    <row r="646" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:9">
       <c r="B646" s="5"/>
       <c r="G646" s="5"/>
       <c r="H646" s="5"/>
       <c r="I646" s="8"/>
     </row>
-    <row r="647" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:9">
       <c r="B647" s="5"/>
       <c r="G647" s="5"/>
       <c r="H647" s="5"/>
       <c r="I647" s="8"/>
     </row>
-    <row r="648" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:9">
       <c r="B648" s="5"/>
       <c r="G648" s="5"/>
       <c r="H648" s="5"/>
       <c r="I648" s="8"/>
     </row>
-    <row r="649" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:9">
       <c r="B649" s="5"/>
       <c r="G649" s="5"/>
       <c r="H649" s="5"/>
       <c r="I649" s="8"/>
     </row>
-    <row r="650" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:9">
       <c r="B650" s="5"/>
       <c r="G650" s="5"/>
       <c r="H650" s="5"/>
       <c r="I650" s="8"/>
     </row>
-    <row r="651" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:9">
       <c r="B651" s="5"/>
       <c r="G651" s="5"/>
       <c r="H651" s="5"/>
       <c r="I651" s="8"/>
     </row>
-    <row r="652" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:9">
       <c r="B652" s="5"/>
       <c r="G652" s="5"/>
       <c r="H652" s="5"/>
       <c r="I652" s="8"/>
     </row>
-    <row r="653" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:9">
       <c r="B653" s="5"/>
       <c r="G653" s="5"/>
       <c r="H653" s="5"/>
       <c r="I653" s="8"/>
     </row>
-    <row r="654" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:9">
       <c r="B654" s="5"/>
       <c r="G654" s="5"/>
       <c r="H654" s="5"/>
       <c r="I654" s="8"/>
     </row>
-    <row r="655" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:9">
       <c r="B655" s="5"/>
       <c r="G655" s="5"/>
       <c r="H655" s="5"/>
       <c r="I655" s="8"/>
     </row>
-    <row r="656" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:9">
       <c r="B656" s="5"/>
       <c r="G656" s="5"/>
       <c r="H656" s="5"/>
       <c r="I656" s="8"/>
     </row>
-    <row r="657" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:9">
       <c r="B657" s="5"/>
       <c r="G657" s="5"/>
       <c r="H657" s="5"/>
       <c r="I657" s="8"/>
     </row>
-    <row r="658" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:9">
       <c r="B658" s="5"/>
       <c r="G658" s="5"/>
       <c r="H658" s="5"/>
       <c r="I658" s="8"/>
     </row>
-    <row r="659" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:9">
       <c r="B659" s="5"/>
       <c r="G659" s="5"/>
       <c r="H659" s="5"/>
       <c r="I659" s="8"/>
     </row>
-    <row r="660" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:9">
       <c r="B660" s="5"/>
       <c r="G660" s="5"/>
       <c r="H660" s="5"/>
       <c r="I660" s="8"/>
     </row>
-    <row r="661" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:9">
       <c r="B661" s="5"/>
       <c r="G661" s="5"/>
       <c r="H661" s="5"/>
       <c r="I661" s="8"/>
     </row>
-    <row r="662" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:9">
       <c r="B662" s="5"/>
       <c r="G662" s="5"/>
       <c r="H662" s="5"/>
       <c r="I662" s="8"/>
     </row>
-    <row r="663" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:9">
       <c r="B663" s="5"/>
       <c r="G663" s="5"/>
       <c r="H663" s="5"/>
       <c r="I663" s="8"/>
     </row>
-    <row r="664" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:9">
       <c r="B664" s="5"/>
       <c r="G664" s="5"/>
       <c r="H664" s="5"/>
       <c r="I664" s="8"/>
     </row>
-    <row r="665" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:9">
       <c r="B665" s="5"/>
       <c r="G665" s="5"/>
       <c r="H665" s="5"/>
       <c r="I665" s="8"/>
     </row>
-    <row r="666" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:9">
       <c r="B666" s="5"/>
       <c r="G666" s="5"/>
       <c r="H666" s="5"/>
       <c r="I666" s="8"/>
     </row>
-    <row r="667" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:9">
       <c r="B667" s="5"/>
       <c r="G667" s="5"/>
       <c r="H667" s="5"/>
       <c r="I667" s="8"/>
     </row>
-    <row r="668" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:9">
       <c r="B668" s="5"/>
       <c r="G668" s="5"/>
       <c r="H668" s="5"/>
       <c r="I668" s="8"/>
     </row>
-    <row r="669" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:9">
       <c r="B669" s="5"/>
       <c r="G669" s="5"/>
       <c r="H669" s="5"/>
       <c r="I669" s="8"/>
     </row>
-    <row r="670" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:9">
       <c r="B670" s="5"/>
       <c r="G670" s="5"/>
       <c r="H670" s="5"/>
       <c r="I670" s="8"/>
     </row>
-    <row r="671" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:9">
       <c r="B671" s="5"/>
       <c r="G671" s="5"/>
       <c r="H671" s="5"/>
       <c r="I671" s="8"/>
     </row>
-    <row r="672" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:9">
       <c r="B672" s="5"/>
       <c r="G672" s="5"/>
       <c r="H672" s="5"/>
       <c r="I672" s="8"/>
     </row>
-    <row r="673" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:9">
       <c r="B673" s="5"/>
       <c r="G673" s="5"/>
       <c r="H673" s="5"/>
       <c r="I673" s="8"/>
     </row>
-    <row r="674" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:9">
       <c r="B674" s="5"/>
       <c r="G674" s="5"/>
       <c r="H674" s="5"/>
       <c r="I674" s="8"/>
     </row>
-    <row r="675" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:9">
       <c r="B675" s="5"/>
       <c r="G675" s="5"/>
       <c r="H675" s="5"/>
       <c r="I675" s="8"/>
     </row>
-    <row r="676" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:9">
       <c r="B676" s="5"/>
       <c r="G676" s="5"/>
       <c r="H676" s="5"/>
       <c r="I676" s="8"/>
     </row>
-    <row r="677" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:9">
       <c r="B677" s="5"/>
       <c r="G677" s="5"/>
       <c r="H677" s="5"/>
       <c r="I677" s="8"/>
     </row>
-    <row r="678" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:9">
       <c r="B678" s="5"/>
       <c r="G678" s="5"/>
       <c r="H678" s="5"/>
       <c r="I678" s="8"/>
     </row>
-    <row r="679" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:9">
       <c r="B679" s="5"/>
       <c r="G679" s="5"/>
       <c r="H679" s="5"/>
       <c r="I679" s="8"/>
     </row>
-    <row r="680" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:9">
       <c r="B680" s="5"/>
       <c r="G680" s="5"/>
       <c r="H680" s="5"/>
       <c r="I680" s="8"/>
     </row>
-    <row r="681" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:9">
       <c r="B681" s="5"/>
       <c r="G681" s="5"/>
       <c r="H681" s="5"/>
       <c r="I681" s="8"/>
     </row>
-    <row r="682" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:9">
       <c r="B682" s="5"/>
       <c r="G682" s="5"/>
       <c r="H682" s="5"/>
       <c r="I682" s="8"/>
     </row>
-    <row r="683" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:9">
       <c r="B683" s="5"/>
       <c r="G683" s="5"/>
       <c r="H683" s="5"/>
       <c r="I683" s="8"/>
     </row>
-    <row r="684" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:9">
       <c r="B684" s="5"/>
       <c r="G684" s="5"/>
       <c r="H684" s="5"/>
       <c r="I684" s="8"/>
     </row>
-    <row r="685" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:9">
       <c r="B685" s="5"/>
       <c r="G685" s="5"/>
       <c r="H685" s="5"/>
       <c r="I685" s="8"/>
     </row>
-    <row r="686" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:9">
       <c r="B686" s="5"/>
       <c r="G686" s="5"/>
       <c r="H686" s="5"/>
       <c r="I686" s="8"/>
     </row>
-    <row r="687" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:9">
       <c r="B687" s="5"/>
       <c r="G687" s="5"/>
       <c r="H687" s="5"/>
       <c r="I687" s="8"/>
     </row>
-    <row r="688" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:9">
       <c r="B688" s="5"/>
       <c r="G688" s="5"/>
       <c r="H688" s="5"/>
       <c r="I688" s="8"/>
     </row>
-    <row r="689" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:9">
       <c r="B689" s="5"/>
       <c r="G689" s="5"/>
       <c r="H689" s="5"/>
       <c r="I689" s="8"/>
     </row>
-    <row r="690" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:9">
       <c r="B690" s="5"/>
       <c r="G690" s="5"/>
       <c r="H690" s="5"/>
       <c r="I690" s="8"/>
     </row>
-    <row r="691" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:9">
       <c r="B691" s="5"/>
       <c r="G691" s="5"/>
       <c r="H691" s="5"/>
       <c r="I691" s="8"/>
     </row>
-    <row r="692" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:9">
       <c r="B692" s="5"/>
       <c r="G692" s="5"/>
       <c r="H692" s="5"/>
       <c r="I692" s="8"/>
     </row>
-    <row r="693" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:9">
       <c r="B693" s="5"/>
       <c r="G693" s="5"/>
       <c r="H693" s="5"/>
       <c r="I693" s="8"/>
     </row>
-    <row r="694" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:9">
       <c r="B694" s="5"/>
       <c r="G694" s="5"/>
       <c r="H694" s="5"/>
       <c r="I694" s="8"/>
     </row>
-    <row r="695" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:9">
       <c r="B695" s="5"/>
       <c r="G695" s="5"/>
       <c r="H695" s="5"/>
       <c r="I695" s="8"/>
     </row>
-    <row r="696" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:9">
       <c r="B696" s="5"/>
       <c r="G696" s="5"/>
       <c r="H696" s="5"/>
       <c r="I696" s="8"/>
     </row>
-    <row r="697" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:9">
       <c r="B697" s="5"/>
       <c r="G697" s="5"/>
       <c r="H697" s="5"/>
       <c r="I697" s="8"/>
     </row>
-    <row r="698" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:9">
       <c r="B698" s="5"/>
       <c r="G698" s="5"/>
       <c r="H698" s="5"/>
       <c r="I698" s="8"/>
     </row>
-    <row r="699" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:9">
       <c r="B699" s="5"/>
       <c r="G699" s="5"/>
       <c r="H699" s="5"/>
       <c r="I699" s="8"/>
     </row>
-    <row r="700" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:9">
       <c r="B700" s="5"/>
       <c r="G700" s="5"/>
       <c r="H700" s="5"/>
       <c r="I700" s="8"/>
     </row>
-    <row r="701" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:9">
       <c r="B701" s="5"/>
       <c r="G701" s="5"/>
       <c r="H701" s="5"/>
       <c r="I701" s="8"/>
     </row>
-    <row r="702" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:9">
       <c r="B702" s="5"/>
       <c r="G702" s="5"/>
       <c r="H702" s="5"/>
       <c r="I702" s="8"/>
     </row>
-    <row r="703" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:9">
       <c r="B703" s="5"/>
       <c r="G703" s="5"/>
       <c r="H703" s="5"/>
       <c r="I703" s="8"/>
     </row>
-    <row r="704" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:9">
       <c r="B704" s="5"/>
       <c r="G704" s="5"/>
       <c r="H704" s="5"/>
       <c r="I704" s="8"/>
     </row>
-    <row r="705" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:9">
       <c r="B705" s="5"/>
       <c r="G705" s="5"/>
       <c r="H705" s="5"/>
       <c r="I705" s="8"/>
     </row>
-    <row r="706" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:9">
       <c r="B706" s="5"/>
       <c r="G706" s="5"/>
       <c r="H706" s="5"/>
       <c r="I706" s="8"/>
     </row>
-    <row r="707" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:9">
       <c r="B707" s="5"/>
       <c r="G707" s="5"/>
       <c r="H707" s="5"/>
       <c r="I707" s="8"/>
     </row>
-    <row r="708" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:9">
       <c r="B708" s="5"/>
       <c r="G708" s="5"/>
       <c r="H708" s="5"/>
       <c r="I708" s="8"/>
     </row>
-    <row r="709" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:9">
       <c r="B709" s="5"/>
       <c r="G709" s="5"/>
       <c r="H709" s="5"/>
       <c r="I709" s="8"/>
     </row>
-    <row r="710" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:9">
       <c r="B710" s="5"/>
       <c r="G710" s="5"/>
       <c r="H710" s="5"/>
       <c r="I710" s="8"/>
     </row>
-    <row r="711" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:9">
       <c r="B711" s="5"/>
       <c r="G711" s="5"/>
       <c r="H711" s="5"/>
       <c r="I711" s="8"/>
     </row>
-    <row r="712" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:9">
       <c r="B712" s="5"/>
       <c r="G712" s="5"/>
       <c r="H712" s="5"/>
       <c r="I712" s="8"/>
     </row>
-    <row r="713" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:9">
       <c r="B713" s="5"/>
       <c r="G713" s="5"/>
       <c r="H713" s="5"/>
       <c r="I713" s="8"/>
     </row>
-    <row r="714" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:9">
       <c r="B714" s="5"/>
       <c r="G714" s="5"/>
       <c r="H714" s="5"/>
       <c r="I714" s="8"/>
     </row>
-    <row r="715" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:9">
       <c r="B715" s="5"/>
       <c r="G715" s="5"/>
       <c r="H715" s="5"/>
       <c r="I715" s="8"/>
     </row>
-    <row r="716" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:9">
       <c r="B716" s="5"/>
       <c r="G716" s="5"/>
       <c r="H716" s="5"/>
       <c r="I716" s="8"/>
     </row>
-    <row r="717" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:9">
       <c r="B717" s="5"/>
       <c r="G717" s="5"/>
       <c r="H717" s="5"/>
       <c r="I717" s="8"/>
     </row>
-    <row r="718" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:9">
       <c r="B718" s="5"/>
       <c r="G718" s="5"/>
       <c r="H718" s="5"/>
       <c r="I718" s="8"/>
     </row>
-    <row r="719" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:9">
       <c r="B719" s="5"/>
       <c r="G719" s="5"/>
       <c r="H719" s="5"/>
       <c r="I719" s="8"/>
     </row>
-    <row r="720" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:9">
       <c r="B720" s="5"/>
       <c r="G720" s="5"/>
       <c r="H720" s="5"/>
       <c r="I720" s="8"/>
     </row>
-    <row r="721" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:9">
       <c r="B721" s="5"/>
       <c r="G721" s="5"/>
       <c r="H721" s="5"/>
       <c r="I721" s="8"/>
     </row>
-    <row r="722" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:9">
       <c r="B722" s="5"/>
       <c r="G722" s="5"/>
       <c r="H722" s="5"/>
       <c r="I722" s="8"/>
     </row>
-    <row r="723" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:9">
       <c r="B723" s="5"/>
       <c r="G723" s="5"/>
       <c r="H723" s="5"/>
       <c r="I723" s="8"/>
     </row>
-    <row r="724" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:9">
       <c r="B724" s="5"/>
       <c r="G724" s="5"/>
       <c r="H724" s="5"/>
       <c r="I724" s="8"/>
     </row>
-    <row r="725" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:9">
       <c r="B725" s="5"/>
       <c r="G725" s="5"/>
       <c r="H725" s="5"/>
       <c r="I725" s="8"/>
     </row>
-    <row r="726" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:9">
       <c r="B726" s="5"/>
       <c r="G726" s="5"/>
       <c r="H726" s="5"/>
       <c r="I726" s="8"/>
     </row>
-    <row r="727" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:9">
       <c r="B727" s="5"/>
       <c r="G727" s="5"/>
       <c r="H727" s="5"/>
       <c r="I727" s="8"/>
     </row>
-    <row r="728" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:9">
       <c r="B728" s="5"/>
       <c r="G728" s="5"/>
       <c r="H728" s="5"/>
       <c r="I728" s="8"/>
     </row>
-    <row r="729" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:9">
       <c r="B729" s="5"/>
       <c r="G729" s="5"/>
       <c r="H729" s="5"/>
       <c r="I729" s="8"/>
     </row>
-    <row r="730" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:9">
       <c r="B730" s="5"/>
       <c r="G730" s="5"/>
       <c r="H730" s="5"/>
       <c r="I730" s="8"/>
     </row>
-    <row r="731" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:9">
       <c r="B731" s="5"/>
       <c r="G731" s="5"/>
       <c r="H731" s="5"/>
       <c r="I731" s="8"/>
     </row>
-    <row r="732" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:9">
       <c r="B732" s="5"/>
       <c r="G732" s="5"/>
       <c r="H732" s="5"/>
       <c r="I732" s="8"/>
     </row>
-    <row r="733" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:9">
       <c r="B733" s="5"/>
       <c r="G733" s="5"/>
       <c r="H733" s="5"/>
       <c r="I733" s="8"/>
     </row>
-    <row r="734" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:9">
       <c r="B734" s="5"/>
       <c r="G734" s="5"/>
       <c r="H734" s="5"/>
       <c r="I734" s="8"/>
     </row>
-    <row r="735" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:9">
       <c r="B735" s="5"/>
       <c r="G735" s="5"/>
       <c r="H735" s="5"/>
       <c r="I735" s="8"/>
     </row>
-    <row r="736" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:9">
       <c r="B736" s="5"/>
       <c r="G736" s="5"/>
       <c r="H736" s="5"/>
       <c r="I736" s="8"/>
     </row>
-    <row r="737" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:9">
       <c r="B737" s="5"/>
       <c r="G737" s="5"/>
       <c r="H737" s="5"/>
       <c r="I737" s="8"/>
     </row>
-    <row r="738" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:9">
       <c r="B738" s="5"/>
       <c r="G738" s="5"/>
       <c r="H738" s="5"/>
       <c r="I738" s="8"/>
     </row>
-    <row r="739" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:9">
       <c r="B739" s="5"/>
       <c r="G739" s="5"/>
       <c r="H739" s="5"/>
       <c r="I739" s="8"/>
     </row>
-    <row r="740" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:9">
       <c r="B740" s="5"/>
       <c r="G740" s="5"/>
       <c r="H740" s="5"/>
       <c r="I740" s="8"/>
     </row>
-    <row r="741" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:9">
       <c r="B741" s="5"/>
       <c r="G741" s="5"/>
       <c r="H741" s="5"/>
       <c r="I741" s="8"/>
     </row>
-    <row r="742" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:9">
       <c r="B742" s="5"/>
       <c r="G742" s="5"/>
       <c r="H742" s="5"/>
       <c r="I742" s="8"/>
     </row>
-    <row r="743" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:9">
       <c r="B743" s="5"/>
       <c r="G743" s="5"/>
       <c r="H743" s="5"/>
       <c r="I743" s="8"/>
     </row>
-    <row r="744" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:9">
       <c r="B744" s="5"/>
       <c r="G744" s="5"/>
       <c r="H744" s="5"/>
       <c r="I744" s="8"/>
     </row>
-    <row r="745" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:9">
       <c r="B745" s="5"/>
       <c r="G745" s="5"/>
       <c r="H745" s="5"/>
       <c r="I745" s="8"/>
     </row>
-    <row r="746" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:9">
       <c r="B746" s="5"/>
       <c r="G746" s="5"/>
       <c r="H746" s="5"/>
       <c r="I746" s="8"/>
     </row>
-    <row r="747" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:9">
       <c r="B747" s="5"/>
       <c r="G747" s="5"/>
       <c r="H747" s="5"/>
       <c r="I747" s="8"/>
     </row>
-    <row r="748" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:9">
       <c r="B748" s="5"/>
       <c r="G748" s="5"/>
       <c r="H748" s="5"/>
       <c r="I748" s="8"/>
     </row>
-    <row r="749" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="749" spans="2:9">
       <c r="B749" s="5"/>
       <c r="G749" s="5"/>
       <c r="H749" s="5"/>
       <c r="I749" s="8"/>
     </row>
-    <row r="750" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="750" spans="2:9">
       <c r="B750" s="5"/>
       <c r="G750" s="5"/>
       <c r="H750" s="5"/>
       <c r="I750" s="8"/>
     </row>
-    <row r="751" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="751" spans="2:9">
       <c r="B751" s="5"/>
       <c r="G751" s="5"/>
       <c r="H751" s="5"/>
       <c r="I751" s="8"/>
     </row>
-    <row r="752" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="752" spans="2:9">
       <c r="B752" s="5"/>
       <c r="G752" s="5"/>
       <c r="H752" s="5"/>
       <c r="I752" s="8"/>
     </row>
-    <row r="753" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:9">
       <c r="B753" s="5"/>
       <c r="G753" s="5"/>
       <c r="H753" s="5"/>
       <c r="I753" s="8"/>
     </row>
-    <row r="754" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:9">
       <c r="B754" s="5"/>
       <c r="G754" s="5"/>
       <c r="H754" s="5"/>
       <c r="I754" s="8"/>
     </row>
-    <row r="755" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="755" spans="2:9">
       <c r="B755" s="5"/>
       <c r="G755" s="5"/>
       <c r="H755" s="5"/>
       <c r="I755" s="8"/>
     </row>
-    <row r="756" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="756" spans="2:9">
       <c r="B756" s="5"/>
       <c r="G756" s="5"/>
       <c r="H756" s="5"/>
       <c r="I756" s="8"/>
     </row>
-    <row r="757" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="757" spans="2:9">
       <c r="B757" s="5"/>
       <c r="G757" s="5"/>
       <c r="H757" s="5"/>
       <c r="I757" s="8"/>
     </row>
-    <row r="758" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="758" spans="2:9">
       <c r="B758" s="5"/>
       <c r="G758" s="5"/>
       <c r="H758" s="5"/>
       <c r="I758" s="8"/>
     </row>
-    <row r="759" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="759" spans="2:9">
       <c r="B759" s="5"/>
       <c r="G759" s="5"/>
       <c r="H759" s="5"/>
       <c r="I759" s="8"/>
     </row>
-    <row r="760" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="760" spans="2:9">
       <c r="B760" s="5"/>
       <c r="G760" s="5"/>
       <c r="H760" s="5"/>
       <c r="I760" s="8"/>
     </row>
-    <row r="761" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="761" spans="2:9">
       <c r="B761" s="5"/>
       <c r="G761" s="5"/>
       <c r="H761" s="5"/>
       <c r="I761" s="8"/>
     </row>
-    <row r="762" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:9">
       <c r="B762" s="5"/>
       <c r="G762" s="5"/>
       <c r="H762" s="5"/>
       <c r="I762" s="8"/>
     </row>
-    <row r="763" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:9">
       <c r="B763" s="5"/>
       <c r="G763" s="5"/>
       <c r="H763" s="5"/>
       <c r="I763" s="8"/>
     </row>
-    <row r="764" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:9">
       <c r="B764" s="5"/>
       <c r="G764" s="5"/>
       <c r="H764" s="5"/>
       <c r="I764" s="8"/>
     </row>
-    <row r="765" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="765" spans="2:9">
       <c r="B765" s="5"/>
       <c r="G765" s="5"/>
       <c r="H765" s="5"/>
       <c r="I765" s="8"/>
     </row>
-    <row r="766" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="766" spans="2:9">
       <c r="B766" s="5"/>
       <c r="G766" s="5"/>
       <c r="H766" s="5"/>
       <c r="I766" s="8"/>
     </row>
-    <row r="767" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="767" spans="2:9">
       <c r="B767" s="5"/>
       <c r="G767" s="5"/>
       <c r="H767" s="5"/>
       <c r="I767" s="8"/>
     </row>
-    <row r="768" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="768" spans="2:9">
       <c r="B768" s="5"/>
       <c r="G768" s="5"/>
       <c r="H768" s="5"/>
       <c r="I768" s="8"/>
     </row>
-    <row r="769" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="769" spans="2:9">
       <c r="B769" s="5"/>
       <c r="G769" s="5"/>
       <c r="H769" s="5"/>
       <c r="I769" s="8"/>
     </row>
-    <row r="770" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="770" spans="2:9">
       <c r="B770" s="5"/>
       <c r="G770" s="5"/>
       <c r="H770" s="5"/>
       <c r="I770" s="8"/>
     </row>
-    <row r="771" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="771" spans="2:9">
       <c r="B771" s="5"/>
       <c r="G771" s="5"/>
       <c r="H771" s="5"/>
       <c r="I771" s="8"/>
     </row>
-    <row r="772" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="772" spans="2:9">
       <c r="B772" s="5"/>
       <c r="G772" s="5"/>
       <c r="H772" s="5"/>
       <c r="I772" s="8"/>
     </row>
-    <row r="773" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="773" spans="2:9">
       <c r="B773" s="5"/>
       <c r="G773" s="5"/>
       <c r="H773" s="5"/>
       <c r="I773" s="8"/>
     </row>
-    <row r="774" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="774" spans="2:9">
       <c r="B774" s="5"/>
       <c r="G774" s="5"/>
       <c r="H774" s="5"/>
       <c r="I774" s="8"/>
     </row>
-    <row r="775" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="775" spans="2:9">
       <c r="B775" s="5"/>
       <c r="G775" s="5"/>
       <c r="H775" s="5"/>
       <c r="I775" s="8"/>
     </row>
-    <row r="776" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="776" spans="2:9">
       <c r="B776" s="5"/>
       <c r="G776" s="5"/>
       <c r="H776" s="5"/>
       <c r="I776" s="8"/>
     </row>
-    <row r="777" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="777" spans="2:9">
       <c r="B777" s="5"/>
       <c r="G777" s="5"/>
       <c r="H777" s="5"/>
       <c r="I777" s="8"/>
     </row>
-    <row r="778" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="778" spans="2:9">
       <c r="B778" s="5"/>
       <c r="G778" s="5"/>
       <c r="H778" s="5"/>
       <c r="I778" s="8"/>
     </row>
-    <row r="779" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="779" spans="2:9">
       <c r="B779" s="5"/>
       <c r="G779" s="5"/>
       <c r="H779" s="5"/>
       <c r="I779" s="8"/>
     </row>
-    <row r="780" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="780" spans="2:9">
       <c r="B780" s="5"/>
       <c r="G780" s="5"/>
       <c r="H780" s="5"/>
       <c r="I780" s="8"/>
     </row>
-    <row r="781" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="781" spans="2:9">
       <c r="B781" s="5"/>
       <c r="G781" s="5"/>
       <c r="H781" s="5"/>
       <c r="I781" s="8"/>
     </row>
-    <row r="782" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="782" spans="2:9">
       <c r="B782" s="5"/>
       <c r="G782" s="5"/>
       <c r="H782" s="5"/>
       <c r="I782" s="8"/>
     </row>
-    <row r="783" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="783" spans="2:9">
       <c r="B783" s="5"/>
       <c r="G783" s="5"/>
       <c r="H783" s="5"/>
       <c r="I783" s="8"/>
     </row>
-    <row r="784" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="784" spans="2:9">
       <c r="B784" s="5"/>
       <c r="G784" s="5"/>
       <c r="H784" s="5"/>
       <c r="I784" s="8"/>
     </row>
-    <row r="785" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="785" spans="2:9">
       <c r="B785" s="5"/>
       <c r="G785" s="5"/>
       <c r="H785" s="5"/>
       <c r="I785" s="8"/>
     </row>
-    <row r="786" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="786" spans="2:9">
       <c r="B786" s="5"/>
       <c r="G786" s="5"/>
       <c r="H786" s="5"/>
       <c r="I786" s="8"/>
     </row>
-    <row r="787" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="787" spans="2:9">
       <c r="B787" s="5"/>
       <c r="G787" s="5"/>
       <c r="H787" s="5"/>
       <c r="I787" s="8"/>
     </row>
-    <row r="788" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="788" spans="2:9">
       <c r="B788" s="5"/>
       <c r="G788" s="5"/>
       <c r="H788" s="5"/>
       <c r="I788" s="8"/>
     </row>
-    <row r="789" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="789" spans="2:9">
       <c r="B789" s="5"/>
       <c r="G789" s="5"/>
       <c r="H789" s="5"/>
       <c r="I789" s="8"/>
     </row>
-    <row r="790" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="790" spans="2:9">
       <c r="B790" s="5"/>
       <c r="G790" s="5"/>
       <c r="H790" s="5"/>
       <c r="I790" s="8"/>
     </row>
-    <row r="791" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="791" spans="2:9">
       <c r="B791" s="5"/>
       <c r="G791" s="5"/>
       <c r="H791" s="5"/>
       <c r="I791" s="8"/>
     </row>
-    <row r="792" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="792" spans="2:9">
       <c r="B792" s="5"/>
       <c r="G792" s="5"/>
       <c r="H792" s="5"/>
       <c r="I792" s="8"/>
     </row>
-    <row r="793" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="793" spans="2:9">
       <c r="B793" s="5"/>
       <c r="G793" s="5"/>
       <c r="H793" s="5"/>
       <c r="I793" s="8"/>
     </row>
-    <row r="794" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="794" spans="2:9">
       <c r="B794" s="5"/>
       <c r="G794" s="5"/>
       <c r="H794" s="5"/>
       <c r="I794" s="8"/>
     </row>
-    <row r="795" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="795" spans="2:9">
       <c r="B795" s="5"/>
       <c r="G795" s="5"/>
       <c r="H795" s="5"/>
       <c r="I795" s="8"/>
     </row>
-    <row r="796" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="796" spans="2:9">
       <c r="B796" s="5"/>
       <c r="G796" s="5"/>
       <c r="H796" s="5"/>
       <c r="I796" s="8"/>
     </row>
-    <row r="797" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="797" spans="2:9">
       <c r="B797" s="5"/>
       <c r="G797" s="5"/>
       <c r="H797" s="5"/>
       <c r="I797" s="8"/>
     </row>
-    <row r="798" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="798" spans="2:9">
       <c r="B798" s="5"/>
       <c r="G798" s="5"/>
       <c r="H798" s="5"/>
       <c r="I798" s="8"/>
     </row>
-    <row r="799" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="799" spans="2:9">
       <c r="B799" s="5"/>
       <c r="G799" s="5"/>
       <c r="H799" s="5"/>
       <c r="I799" s="8"/>
     </row>
-    <row r="800" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="800" spans="2:9">
       <c r="B800" s="5"/>
       <c r="G800" s="5"/>
       <c r="H800" s="5"/>
       <c r="I800" s="8"/>
     </row>
-    <row r="801" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="801" spans="2:9">
       <c r="B801" s="5"/>
       <c r="G801" s="5"/>
       <c r="H801" s="5"/>
       <c r="I801" s="8"/>
     </row>
-    <row r="802" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="802" spans="2:9">
       <c r="B802" s="5"/>
       <c r="G802" s="5"/>
       <c r="H802" s="5"/>
       <c r="I802" s="8"/>
     </row>
-    <row r="803" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="803" spans="2:9">
       <c r="B803" s="5"/>
       <c r="G803" s="5"/>
       <c r="H803" s="5"/>
       <c r="I803" s="8"/>
     </row>
-    <row r="804" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="804" spans="2:9">
       <c r="B804" s="5"/>
       <c r="G804" s="5"/>
       <c r="H804" s="5"/>
       <c r="I804" s="8"/>
     </row>
-    <row r="805" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="805" spans="2:9">
       <c r="B805" s="5"/>
       <c r="G805" s="5"/>
       <c r="H805" s="5"/>
       <c r="I805" s="8"/>
     </row>
-    <row r="806" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="806" spans="2:9">
       <c r="B806" s="5"/>
       <c r="G806" s="5"/>
       <c r="H806" s="5"/>
       <c r="I806" s="8"/>
     </row>
-    <row r="807" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="807" spans="2:9">
       <c r="B807" s="5"/>
       <c r="G807" s="5"/>
       <c r="H807" s="5"/>
       <c r="I807" s="8"/>
     </row>
-    <row r="808" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="808" spans="2:9">
       <c r="B808" s="5"/>
       <c r="G808" s="5"/>
       <c r="H808" s="5"/>
       <c r="I808" s="8"/>
     </row>
-    <row r="809" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="809" spans="2:9">
       <c r="B809" s="5"/>
       <c r="G809" s="5"/>
       <c r="H809" s="5"/>
       <c r="I809" s="8"/>
     </row>
-    <row r="810" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="810" spans="2:9">
       <c r="B810" s="5"/>
       <c r="G810" s="5"/>
       <c r="H810" s="5"/>
       <c r="I810" s="8"/>
     </row>
-    <row r="811" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="811" spans="2:9">
       <c r="B811" s="5"/>
       <c r="G811" s="5"/>
       <c r="H811" s="5"/>
       <c r="I811" s="8"/>
     </row>
-    <row r="812" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="812" spans="2:9">
       <c r="B812" s="5"/>
       <c r="G812" s="5"/>
       <c r="H812" s="5"/>
       <c r="I812" s="8"/>
     </row>
-    <row r="813" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="813" spans="2:9">
       <c r="B813" s="5"/>
       <c r="G813" s="5"/>
       <c r="H813" s="5"/>
       <c r="I813" s="8"/>
     </row>
-    <row r="814" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="814" spans="2:9">
       <c r="B814" s="5"/>
       <c r="G814" s="5"/>
       <c r="H814" s="5"/>
       <c r="I814" s="8"/>
     </row>
-    <row r="815" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="815" spans="2:9">
       <c r="B815" s="5"/>
       <c r="G815" s="5"/>
       <c r="H815" s="5"/>
       <c r="I815" s="8"/>
     </row>
-    <row r="816" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="816" spans="2:9">
       <c r="B816" s="5"/>
       <c r="G816" s="5"/>
       <c r="H816" s="5"/>
       <c r="I816" s="8"/>
     </row>
-    <row r="817" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="817" spans="2:9">
       <c r="B817" s="5"/>
       <c r="G817" s="5"/>
       <c r="H817" s="5"/>
       <c r="I817" s="8"/>
     </row>
-    <row r="818" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="818" spans="2:9">
       <c r="B818" s="5"/>
       <c r="G818" s="5"/>
       <c r="H818" s="5"/>
       <c r="I818" s="8"/>
     </row>
-    <row r="819" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="819" spans="2:9">
       <c r="B819" s="5"/>
       <c r="G819" s="5"/>
       <c r="H819" s="5"/>
       <c r="I819" s="8"/>
     </row>
-    <row r="820" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="820" spans="2:9">
       <c r="B820" s="5"/>
       <c r="G820" s="5"/>
       <c r="H820" s="5"/>
       <c r="I820" s="8"/>
     </row>
-    <row r="821" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="821" spans="2:9">
       <c r="B821" s="5"/>
       <c r="G821" s="5"/>
       <c r="H821" s="5"/>
       <c r="I821" s="8"/>
     </row>
-    <row r="822" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="822" spans="2:9">
       <c r="B822" s="5"/>
       <c r="G822" s="5"/>
       <c r="H822" s="5"/>
       <c r="I822" s="8"/>
     </row>
-    <row r="823" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="823" spans="2:9">
       <c r="B823" s="5"/>
       <c r="G823" s="5"/>
       <c r="H823" s="5"/>
       <c r="I823" s="8"/>
     </row>
-    <row r="824" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="824" spans="2:9">
       <c r="B824" s="5"/>
       <c r="G824" s="5"/>
       <c r="H824" s="5"/>
       <c r="I824" s="8"/>
     </row>
-    <row r="825" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="825" spans="2:9">
       <c r="B825" s="5"/>
       <c r="G825" s="5"/>
       <c r="H825" s="5"/>
       <c r="I825" s="8"/>
     </row>
-    <row r="826" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="826" spans="2:9">
       <c r="B826" s="5"/>
       <c r="G826" s="5"/>
       <c r="H826" s="5"/>
       <c r="I826" s="8"/>
     </row>
-    <row r="827" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="827" spans="2:9">
       <c r="B827" s="5"/>
       <c r="G827" s="5"/>
       <c r="H827" s="5"/>
       <c r="I827" s="8"/>
     </row>
-    <row r="828" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="828" spans="2:9">
       <c r="B828" s="5"/>
       <c r="G828" s="5"/>
       <c r="H828" s="5"/>
       <c r="I828" s="8"/>
     </row>
-    <row r="829" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="829" spans="2:9">
       <c r="B829" s="5"/>
       <c r="G829" s="5"/>
       <c r="H829" s="5"/>
       <c r="I829" s="8"/>
     </row>
-    <row r="830" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="830" spans="2:9">
       <c r="B830" s="5"/>
       <c r="G830" s="5"/>
       <c r="H830" s="5"/>
       <c r="I830" s="8"/>
     </row>
-    <row r="831" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="831" spans="2:9">
       <c r="B831" s="5"/>
       <c r="G831" s="5"/>
       <c r="H831" s="5"/>
       <c r="I831" s="8"/>
     </row>
-    <row r="832" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="832" spans="2:9">
       <c r="B832" s="5"/>
       <c r="G832" s="5"/>
       <c r="H832" s="5"/>
       <c r="I832" s="8"/>
     </row>
-    <row r="833" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="833" spans="2:9">
       <c r="B833" s="5"/>
       <c r="G833" s="5"/>
       <c r="H833" s="5"/>
       <c r="I833" s="8"/>
     </row>
-    <row r="834" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="834" spans="2:9">
       <c r="B834" s="5"/>
       <c r="G834" s="5"/>
       <c r="H834" s="5"/>
       <c r="I834" s="8"/>
     </row>
-    <row r="835" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="835" spans="2:9">
       <c r="B835" s="5"/>
       <c r="G835" s="5"/>
       <c r="H835" s="5"/>
       <c r="I835" s="8"/>
     </row>
-    <row r="836" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="836" spans="2:9">
       <c r="B836" s="5"/>
       <c r="G836" s="5"/>
       <c r="H836" s="5"/>
       <c r="I836" s="8"/>
     </row>
-    <row r="837" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="837" spans="2:9">
       <c r="B837" s="5"/>
       <c r="G837" s="5"/>
       <c r="H837" s="5"/>
       <c r="I837" s="8"/>
     </row>
-    <row r="838" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="838" spans="2:9">
       <c r="B838" s="5"/>
       <c r="G838" s="5"/>
       <c r="H838" s="5"/>
       <c r="I838" s="8"/>
     </row>
-    <row r="839" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="839" spans="2:9">
       <c r="B839" s="5"/>
       <c r="G839" s="5"/>
       <c r="H839" s="5"/>
       <c r="I839" s="8"/>
     </row>
-    <row r="840" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="840" spans="2:9">
       <c r="B840" s="5"/>
       <c r="G840" s="5"/>
       <c r="H840" s="5"/>
       <c r="I840" s="8"/>
     </row>
-    <row r="841" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="841" spans="2:9">
       <c r="B841" s="5"/>
       <c r="G841" s="5"/>
       <c r="H841" s="5"/>
       <c r="I841" s="8"/>
     </row>
-    <row r="842" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="842" spans="2:9">
       <c r="B842" s="5"/>
       <c r="G842" s="5"/>
       <c r="H842" s="5"/>
       <c r="I842" s="8"/>
     </row>
-    <row r="843" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="843" spans="2:9">
       <c r="B843" s="5"/>
       <c r="G843" s="5"/>
       <c r="H843" s="5"/>
       <c r="I843" s="8"/>
     </row>
-    <row r="844" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="844" spans="2:9">
       <c r="B844" s="5"/>
       <c r="G844" s="5"/>
       <c r="H844" s="5"/>
       <c r="I844" s="8"/>
     </row>
-    <row r="845" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="845" spans="2:9">
       <c r="B845" s="5"/>
       <c r="G845" s="5"/>
       <c r="H845" s="5"/>
       <c r="I845" s="8"/>
     </row>
-    <row r="846" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="846" spans="2:9">
       <c r="B846" s="5"/>
       <c r="G846" s="5"/>
       <c r="H846" s="5"/>
       <c r="I846" s="8"/>
     </row>
-    <row r="847" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="847" spans="2:9">
       <c r="B847" s="5"/>
       <c r="G847" s="5"/>
       <c r="H847" s="5"/>
       <c r="I847" s="8"/>
     </row>
-    <row r="848" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="848" spans="2:9">
       <c r="B848" s="5"/>
       <c r="G848" s="5"/>
       <c r="H848" s="5"/>
       <c r="I848" s="8"/>
     </row>
-    <row r="849" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="849" spans="2:9">
       <c r="B849" s="5"/>
       <c r="G849" s="5"/>
       <c r="H849" s="5"/>
       <c r="I849" s="8"/>
     </row>
-    <row r="850" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="850" spans="2:9">
       <c r="B850" s="5"/>
       <c r="G850" s="5"/>
       <c r="H850" s="5"/>
       <c r="I850" s="8"/>
     </row>
-    <row r="851" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="851" spans="2:9">
       <c r="B851" s="5"/>
       <c r="G851" s="5"/>
       <c r="H851" s="5"/>
       <c r="I851" s="8"/>
     </row>
-    <row r="852" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="852" spans="2:9">
       <c r="B852" s="5"/>
       <c r="G852" s="5"/>
       <c r="H852" s="5"/>
       <c r="I852" s="8"/>
     </row>
-    <row r="853" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="853" spans="2:9">
       <c r="B853" s="5"/>
       <c r="G853" s="5"/>
       <c r="H853" s="5"/>
       <c r="I853" s="8"/>
     </row>
-    <row r="854" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="854" spans="2:9">
       <c r="B854" s="5"/>
       <c r="G854" s="5"/>
       <c r="H854" s="5"/>
       <c r="I854" s="8"/>
     </row>
-    <row r="855" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="855" spans="2:9">
       <c r="B855" s="5"/>
       <c r="G855" s="5"/>
       <c r="H855" s="5"/>
       <c r="I855" s="8"/>
     </row>
-    <row r="856" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="856" spans="2:9">
       <c r="B856" s="5"/>
       <c r="G856" s="5"/>
       <c r="H856" s="5"/>
       <c r="I856" s="8"/>
     </row>
-    <row r="857" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="857" spans="2:9">
       <c r="B857" s="5"/>
       <c r="G857" s="5"/>
       <c r="H857" s="5"/>
       <c r="I857" s="8"/>
     </row>
-    <row r="858" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="858" spans="2:9">
       <c r="B858" s="5"/>
       <c r="G858" s="5"/>
       <c r="H858" s="5"/>
       <c r="I858" s="8"/>
     </row>
-    <row r="859" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="859" spans="2:9">
       <c r="B859" s="5"/>
       <c r="G859" s="5"/>
       <c r="H859" s="5"/>
       <c r="I859" s="8"/>
     </row>
-    <row r="860" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="860" spans="2:9">
       <c r="B860" s="5"/>
       <c r="G860" s="5"/>
       <c r="H860" s="5"/>
       <c r="I860" s="8"/>
     </row>
-    <row r="861" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="861" spans="2:9">
       <c r="B861" s="5"/>
       <c r="G861" s="5"/>
       <c r="H861" s="5"/>
       <c r="I861" s="8"/>
     </row>
-    <row r="862" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="862" spans="2:9">
       <c r="B862" s="5"/>
       <c r="G862" s="5"/>
       <c r="H862" s="5"/>
       <c r="I862" s="8"/>
     </row>
-    <row r="863" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="863" spans="2:9">
       <c r="B863" s="5"/>
       <c r="G863" s="5"/>
       <c r="H863" s="5"/>
       <c r="I863" s="8"/>
     </row>
-    <row r="864" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="864" spans="2:9">
       <c r="B864" s="5"/>
       <c r="G864" s="5"/>
       <c r="H864" s="5"/>
       <c r="I864" s="8"/>
     </row>
-    <row r="865" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="865" spans="2:9">
       <c r="B865" s="5"/>
       <c r="G865" s="5"/>
       <c r="H865" s="5"/>
       <c r="I865" s="8"/>
     </row>
-    <row r="866" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="866" spans="2:9">
       <c r="B866" s="5"/>
       <c r="G866" s="5"/>
       <c r="H866" s="5"/>
       <c r="I866" s="8"/>
     </row>
-    <row r="867" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="867" spans="2:9">
       <c r="B867" s="5"/>
       <c r="G867" s="5"/>
       <c r="H867" s="5"/>
       <c r="I867" s="8"/>
     </row>
-    <row r="868" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="868" spans="2:9">
       <c r="B868" s="5"/>
       <c r="G868" s="5"/>
       <c r="H868" s="5"/>
       <c r="I868" s="8"/>
     </row>
-    <row r="869" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="869" spans="2:9">
       <c r="B869" s="5"/>
       <c r="G869" s="5"/>
       <c r="H869" s="5"/>
       <c r="I869" s="8"/>
     </row>
-    <row r="870" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="870" spans="2:9">
       <c r="B870" s="5"/>
       <c r="G870" s="5"/>
       <c r="H870" s="5"/>
       <c r="I870" s="8"/>
     </row>
-    <row r="871" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="871" spans="2:9">
       <c r="B871" s="5"/>
       <c r="G871" s="5"/>
       <c r="H871" s="5"/>
       <c r="I871" s="8"/>
     </row>
-    <row r="872" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="872" spans="2:9">
       <c r="B872" s="5"/>
       <c r="G872" s="5"/>
       <c r="H872" s="5"/>
       <c r="I872" s="8"/>
     </row>
-    <row r="873" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="873" spans="2:9">
       <c r="B873" s="5"/>
       <c r="G873" s="5"/>
       <c r="H873" s="5"/>
       <c r="I873" s="8"/>
     </row>
-    <row r="874" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="874" spans="2:9">
       <c r="B874" s="5"/>
       <c r="G874" s="5"/>
       <c r="H874" s="5"/>
       <c r="I874" s="8"/>
     </row>
-    <row r="875" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="875" spans="2:9">
       <c r="B875" s="5"/>
       <c r="G875" s="5"/>
       <c r="H875" s="5"/>
       <c r="I875" s="8"/>
     </row>
-    <row r="876" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="876" spans="2:9">
       <c r="B876" s="5"/>
       <c r="G876" s="5"/>
       <c r="H876" s="5"/>
       <c r="I876" s="8"/>
     </row>
-    <row r="877" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="877" spans="2:9">
       <c r="B877" s="5"/>
       <c r="G877" s="5"/>
       <c r="H877" s="5"/>
       <c r="I877" s="8"/>
     </row>
-    <row r="878" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="878" spans="2:9">
       <c r="B878" s="5"/>
       <c r="G878" s="5"/>
       <c r="H878" s="5"/>
       <c r="I878" s="8"/>
     </row>
-    <row r="879" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="879" spans="2:9">
       <c r="B879" s="5"/>
       <c r="G879" s="5"/>
       <c r="H879" s="5"/>
       <c r="I879" s="8"/>
     </row>
-    <row r="880" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="880" spans="2:9">
       <c r="B880" s="5"/>
       <c r="G880" s="5"/>
       <c r="H880" s="5"/>
       <c r="I880" s="8"/>
     </row>
-    <row r="881" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="881" spans="2:9">
       <c r="B881" s="5"/>
       <c r="G881" s="5"/>
       <c r="H881" s="5"/>
       <c r="I881" s="8"/>
     </row>
-    <row r="882" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="882" spans="2:9">
       <c r="B882" s="5"/>
       <c r="G882" s="5"/>
       <c r="H882" s="5"/>
       <c r="I882" s="8"/>
     </row>
-    <row r="883" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="883" spans="2:9">
       <c r="B883" s="5"/>
       <c r="G883" s="5"/>
       <c r="H883" s="5"/>
       <c r="I883" s="8"/>
     </row>
-    <row r="884" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="884" spans="2:9">
       <c r="B884" s="5"/>
       <c r="G884" s="5"/>
       <c r="H884" s="5"/>
       <c r="I884" s="8"/>
     </row>
-    <row r="885" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="885" spans="2:9">
       <c r="B885" s="5"/>
       <c r="G885" s="5"/>
       <c r="H885" s="5"/>
       <c r="I885" s="8"/>
     </row>
-    <row r="886" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="886" spans="2:9">
       <c r="B886" s="5"/>
       <c r="G886" s="5"/>
       <c r="H886" s="5"/>
       <c r="I886" s="8"/>
     </row>
-    <row r="887" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="887" spans="2:9">
       <c r="B887" s="5"/>
       <c r="G887" s="5"/>
       <c r="H887" s="5"/>
       <c r="I887" s="8"/>
     </row>
-    <row r="888" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="888" spans="2:9">
       <c r="B888" s="5"/>
       <c r="G888" s="5"/>
       <c r="H888" s="5"/>
       <c r="I888" s="8"/>
     </row>
-    <row r="889" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="889" spans="2:9">
       <c r="B889" s="5"/>
       <c r="G889" s="5"/>
       <c r="H889" s="5"/>
       <c r="I889" s="8"/>
     </row>
-    <row r="890" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="890" spans="2:9">
       <c r="B890" s="5"/>
       <c r="G890" s="5"/>
       <c r="H890" s="5"/>
       <c r="I890" s="8"/>
     </row>
-    <row r="891" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="891" spans="2:9">
       <c r="B891" s="5"/>
       <c r="G891" s="5"/>
       <c r="H891" s="5"/>
       <c r="I891" s="8"/>
     </row>
-    <row r="892" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="892" spans="2:9">
       <c r="B892" s="5"/>
       <c r="G892" s="5"/>
       <c r="H892" s="5"/>
       <c r="I892" s="8"/>
     </row>
-    <row r="893" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="893" spans="2:9">
       <c r="B893" s="5"/>
       <c r="G893" s="5"/>
       <c r="H893" s="5"/>
       <c r="I893" s="8"/>
     </row>
-    <row r="894" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="894" spans="2:9">
       <c r="B894" s="5"/>
       <c r="G894" s="5"/>
       <c r="H894" s="5"/>
       <c r="I894" s="8"/>
     </row>
-    <row r="895" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="895" spans="2:9">
       <c r="B895" s="5"/>
       <c r="G895" s="5"/>
       <c r="H895" s="5"/>
       <c r="I895" s="8"/>
     </row>
-    <row r="896" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="896" spans="2:9">
       <c r="B896" s="5"/>
       <c r="G896" s="5"/>
       <c r="H896" s="5"/>
       <c r="I896" s="8"/>
     </row>
-    <row r="897" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="897" spans="2:9">
       <c r="B897" s="5"/>
       <c r="G897" s="5"/>
       <c r="H897" s="5"/>
       <c r="I897" s="8"/>
     </row>
-    <row r="898" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="898" spans="2:9">
       <c r="B898" s="5"/>
       <c r="G898" s="5"/>
       <c r="H898" s="5"/>
       <c r="I898" s="8"/>
     </row>
-    <row r="899" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="899" spans="2:9">
       <c r="B899" s="5"/>
       <c r="G899" s="5"/>
       <c r="H899" s="5"/>
       <c r="I899" s="8"/>
     </row>
-    <row r="900" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="900" spans="2:9">
       <c r="B900" s="5"/>
       <c r="G900" s="5"/>
       <c r="H900" s="5"/>
       <c r="I900" s="8"/>
     </row>
-    <row r="901" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="901" spans="2:9">
       <c r="B901" s="5"/>
       <c r="G901" s="5"/>
       <c r="H901" s="5"/>
       <c r="I901" s="8"/>
     </row>
-    <row r="902" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="902" spans="2:9">
       <c r="B902" s="5"/>
       <c r="G902" s="5"/>
       <c r="H902" s="5"/>
       <c r="I902" s="8"/>
     </row>
-    <row r="903" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="903" spans="2:9">
       <c r="B903" s="5"/>
       <c r="G903" s="5"/>
       <c r="H903" s="5"/>
       <c r="I903" s="8"/>
     </row>
-    <row r="904" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="904" spans="2:9">
       <c r="B904" s="5"/>
       <c r="G904" s="5"/>
       <c r="H904" s="5"/>
       <c r="I904" s="8"/>
     </row>
-    <row r="905" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="905" spans="2:9">
       <c r="B905" s="5"/>
       <c r="G905" s="5"/>
       <c r="H905" s="5"/>
       <c r="I905" s="8"/>
     </row>
-    <row r="906" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="906" spans="2:9">
       <c r="B906" s="5"/>
       <c r="G906" s="5"/>
       <c r="H906" s="5"/>
       <c r="I906" s="8"/>
     </row>
-    <row r="907" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="907" spans="2:9">
       <c r="B907" s="5"/>
       <c r="G907" s="5"/>
       <c r="H907" s="5"/>
       <c r="I907" s="8"/>
     </row>
-    <row r="908" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="908" spans="2:9">
       <c r="B908" s="5"/>
       <c r="G908" s="5"/>
       <c r="H908" s="5"/>
       <c r="I908" s="8"/>
     </row>
-    <row r="909" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="909" spans="2:9">
       <c r="B909" s="5"/>
       <c r="G909" s="5"/>
       <c r="H909" s="5"/>
       <c r="I909" s="8"/>
     </row>
-    <row r="910" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="910" spans="2:9">
       <c r="B910" s="5"/>
       <c r="G910" s="5"/>
       <c r="H910" s="5"/>
       <c r="I910" s="8"/>
     </row>
-    <row r="911" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="911" spans="2:9">
       <c r="B911" s="5"/>
       <c r="G911" s="5"/>
       <c r="H911" s="5"/>
       <c r="I911" s="8"/>
     </row>
-    <row r="912" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="912" spans="2:9">
       <c r="B912" s="5"/>
       <c r="G912" s="5"/>
       <c r="H912" s="5"/>
       <c r="I912" s="8"/>
     </row>
-    <row r="913" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="913" spans="2:9">
       <c r="B913" s="5"/>
       <c r="G913" s="5"/>
       <c r="H913" s="5"/>
       <c r="I913" s="8"/>
     </row>
-    <row r="914" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="914" spans="2:9">
       <c r="B914" s="5"/>
       <c r="G914" s="5"/>
       <c r="H914" s="5"/>
       <c r="I914" s="8"/>
     </row>
-    <row r="915" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="915" spans="2:9">
       <c r="B915" s="5"/>
       <c r="G915" s="5"/>
       <c r="H915" s="5"/>
       <c r="I915" s="8"/>
     </row>
-    <row r="916" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="916" spans="2:9">
       <c r="B916" s="5"/>
       <c r="G916" s="5"/>
       <c r="H916" s="5"/>
       <c r="I916" s="8"/>
     </row>
-    <row r="917" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="917" spans="2:9">
       <c r="B917" s="5"/>
       <c r="G917" s="5"/>
       <c r="H917" s="5"/>
       <c r="I917" s="8"/>
     </row>
-    <row r="918" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="918" spans="2:9">
       <c r="B918" s="5"/>
       <c r="G918" s="5"/>
       <c r="H918" s="5"/>
       <c r="I918" s="8"/>
     </row>
-    <row r="919" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="919" spans="2:9">
       <c r="B919" s="5"/>
       <c r="G919" s="5"/>
       <c r="H919" s="5"/>
       <c r="I919" s="8"/>
     </row>
-    <row r="920" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="920" spans="2:9">
       <c r="B920" s="5"/>
       <c r="G920" s="5"/>
       <c r="H920" s="5"/>
       <c r="I920" s="8"/>
     </row>
-    <row r="921" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="921" spans="2:9">
       <c r="B921" s="5"/>
       <c r="G921" s="5"/>
       <c r="H921" s="5"/>
       <c r="I921" s="8"/>
     </row>
-    <row r="922" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="922" spans="2:9">
       <c r="B922" s="5"/>
       <c r="G922" s="5"/>
       <c r="H922" s="5"/>
       <c r="I922" s="8"/>
     </row>
-    <row r="923" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="923" spans="2:9">
       <c r="B923" s="5"/>
       <c r="G923" s="5"/>
       <c r="H923" s="5"/>
       <c r="I923" s="8"/>
     </row>
-    <row r="924" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="924" spans="2:9">
       <c r="B924" s="5"/>
       <c r="G924" s="5"/>
       <c r="H924" s="5"/>
       <c r="I924" s="8"/>
     </row>
-    <row r="925" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="925" spans="2:9">
       <c r="B925" s="5"/>
       <c r="G925" s="5"/>
       <c r="H925" s="5"/>
       <c r="I925" s="8"/>
     </row>
-    <row r="926" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="926" spans="2:9">
       <c r="B926" s="5"/>
       <c r="G926" s="5"/>
       <c r="H926" s="5"/>
       <c r="I926" s="8"/>
     </row>
-    <row r="927" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="927" spans="2:9">
       <c r="B927" s="5"/>
       <c r="G927" s="5"/>
       <c r="H927" s="5"/>
       <c r="I927" s="8"/>
     </row>
-    <row r="928" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="928" spans="2:9">
       <c r="B928" s="5"/>
       <c r="G928" s="5"/>
       <c r="H928" s="5"/>
       <c r="I928" s="8"/>
     </row>
-    <row r="929" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="929" spans="2:9">
       <c r="B929" s="5"/>
       <c r="G929" s="5"/>
       <c r="H929" s="5"/>
       <c r="I929" s="8"/>
     </row>
-    <row r="930" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="930" spans="2:9">
       <c r="B930" s="5"/>
       <c r="G930" s="5"/>
       <c r="H930" s="5"/>
       <c r="I930" s="8"/>
     </row>
-    <row r="931" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="931" spans="2:9">
       <c r="B931" s="5"/>
       <c r="G931" s="5"/>
       <c r="H931" s="5"/>
       <c r="I931" s="8"/>
     </row>
-    <row r="932" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="932" spans="2:9">
       <c r="B932" s="5"/>
       <c r="G932" s="5"/>
       <c r="H932" s="5"/>
       <c r="I932" s="8"/>
     </row>
-    <row r="933" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="933" spans="2:9">
       <c r="B933" s="5"/>
       <c r="G933" s="5"/>
       <c r="H933" s="5"/>
       <c r="I933" s="8"/>
     </row>
-    <row r="934" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="934" spans="2:9">
       <c r="B934" s="5"/>
       <c r="G934" s="5"/>
       <c r="H934" s="5"/>
       <c r="I934" s="8"/>
     </row>
-    <row r="935" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="935" spans="2:9">
       <c r="B935" s="5"/>
       <c r="G935" s="5"/>
       <c r="H935" s="5"/>
       <c r="I935" s="8"/>
     </row>
-    <row r="936" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="936" spans="2:9">
       <c r="B936" s="5"/>
       <c r="G936" s="5"/>
       <c r="H936" s="5"/>
       <c r="I936" s="8"/>
     </row>
-    <row r="937" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="937" spans="2:9">
       <c r="B937" s="5"/>
       <c r="G937" s="5"/>
       <c r="H937" s="5"/>
       <c r="I937" s="8"/>
     </row>
-    <row r="938" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="938" spans="2:9">
       <c r="B938" s="5"/>
       <c r="G938" s="5"/>
       <c r="H938" s="5"/>
       <c r="I938" s="8"/>
     </row>
-    <row r="939" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="939" spans="2:9">
       <c r="B939" s="5"/>
       <c r="G939" s="5"/>
       <c r="H939" s="5"/>
       <c r="I939" s="8"/>
     </row>
-    <row r="940" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="940" spans="2:9">
       <c r="B940" s="5"/>
       <c r="G940" s="5"/>
       <c r="H940" s="5"/>
       <c r="I940" s="8"/>
     </row>
-    <row r="941" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="941" spans="2:9">
       <c r="B941" s="5"/>
       <c r="G941" s="5"/>
       <c r="H941" s="5"/>
       <c r="I941" s="8"/>
     </row>
-    <row r="942" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="942" spans="2:9">
       <c r="B942" s="5"/>
       <c r="G942" s="5"/>
       <c r="H942" s="5"/>
       <c r="I942" s="8"/>
     </row>
-    <row r="943" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="943" spans="2:9">
       <c r="B943" s="5"/>
       <c r="G943" s="5"/>
       <c r="H943" s="5"/>
       <c r="I943" s="8"/>
     </row>
-    <row r="944" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="944" spans="2:9">
       <c r="B944" s="5"/>
       <c r="G944" s="5"/>
       <c r="H944" s="5"/>
       <c r="I944" s="8"/>
     </row>
-    <row r="945" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="945" spans="2:9">
       <c r="B945" s="5"/>
       <c r="G945" s="5"/>
       <c r="H945" s="5"/>
       <c r="I945" s="8"/>
     </row>
-    <row r="946" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="946" spans="2:9">
       <c r="B946" s="5"/>
       <c r="G946" s="5"/>
       <c r="H946" s="5"/>
       <c r="I946" s="8"/>
     </row>
-    <row r="947" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="947" spans="2:9">
       <c r="B947" s="5"/>
       <c r="G947" s="5"/>
       <c r="H947" s="5"/>
       <c r="I947" s="8"/>
     </row>
-    <row r="948" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="948" spans="2:9">
       <c r="B948" s="5"/>
       <c r="G948" s="5"/>
       <c r="H948" s="5"/>
       <c r="I948" s="8"/>
     </row>
-    <row r="949" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="949" spans="2:9">
       <c r="B949" s="5"/>
       <c r="G949" s="5"/>
       <c r="H949" s="5"/>
       <c r="I949" s="8"/>
     </row>
-    <row r="950" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="950" spans="2:9">
       <c r="B950" s="5"/>
       <c r="G950" s="5"/>
       <c r="H950" s="5"/>
       <c r="I950" s="8"/>
     </row>
-    <row r="951" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="951" spans="2:9">
       <c r="B951" s="5"/>
       <c r="G951" s="5"/>
       <c r="H951" s="5"/>
       <c r="I951" s="8"/>
     </row>
-    <row r="952" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="952" spans="2:9">
       <c r="B952" s="5"/>
       <c r="G952" s="5"/>
       <c r="H952" s="5"/>
       <c r="I952" s="8"/>
     </row>
-    <row r="953" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="953" spans="2:9">
       <c r="B953" s="5"/>
       <c r="G953" s="5"/>
       <c r="H953" s="5"/>
       <c r="I953" s="8"/>
     </row>
-    <row r="954" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="954" spans="2:9">
       <c r="B954" s="5"/>
       <c r="G954" s="5"/>
       <c r="H954" s="5"/>
       <c r="I954" s="8"/>
     </row>
-    <row r="955" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="955" spans="2:9">
       <c r="B955" s="5"/>
       <c r="G955" s="5"/>
       <c r="H955" s="5"/>
       <c r="I955" s="8"/>
     </row>
-    <row r="956" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="956" spans="2:9">
       <c r="B956" s="5"/>
       <c r="G956" s="5"/>
       <c r="H956" s="5"/>
       <c r="I956" s="8"/>
     </row>
-    <row r="957" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="957" spans="2:9">
       <c r="B957" s="5"/>
       <c r="G957" s="5"/>
       <c r="H957" s="5"/>
       <c r="I957" s="8"/>
     </row>
-    <row r="958" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="958" spans="2:9">
       <c r="B958" s="5"/>
       <c r="G958" s="5"/>
       <c r="H958" s="5"/>
       <c r="I958" s="8"/>
     </row>
-    <row r="959" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="959" spans="2:9">
       <c r="B959" s="5"/>
       <c r="G959" s="5"/>
       <c r="H959" s="5"/>
       <c r="I959" s="8"/>
     </row>
-    <row r="960" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="960" spans="2:9">
       <c r="B960" s="5"/>
       <c r="G960" s="5"/>
       <c r="H960" s="5"/>
       <c r="I960" s="8"/>
     </row>
-    <row r="961" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="961" spans="2:9">
       <c r="B961" s="5"/>
       <c r="G961" s="5"/>
       <c r="H961" s="5"/>
       <c r="I961" s="8"/>
     </row>
-    <row r="962" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="962" spans="2:9">
       <c r="B962" s="5"/>
       <c r="G962" s="5"/>
       <c r="H962" s="5"/>
       <c r="I962" s="8"/>
     </row>
-    <row r="963" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="963" spans="2:9">
       <c r="B963" s="5"/>
       <c r="G963" s="5"/>
       <c r="H963" s="5"/>
       <c r="I963" s="8"/>
     </row>
-    <row r="964" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="964" spans="2:9">
       <c r="B964" s="5"/>
       <c r="G964" s="5"/>
       <c r="H964" s="5"/>
       <c r="I964" s="8"/>
     </row>
-    <row r="965" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="965" spans="2:9">
       <c r="B965" s="5"/>
       <c r="G965" s="5"/>
       <c r="H965" s="5"/>
       <c r="I965" s="8"/>
     </row>
-    <row r="966" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="966" spans="2:9">
       <c r="B966" s="5"/>
       <c r="G966" s="5"/>
       <c r="H966" s="5"/>
       <c r="I966" s="8"/>
     </row>
-    <row r="967" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="967" spans="2:9">
       <c r="B967" s="5"/>
       <c r="G967" s="5"/>
       <c r="H967" s="5"/>
       <c r="I967" s="8"/>
     </row>
-    <row r="968" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="968" spans="2:9">
       <c r="B968" s="5"/>
       <c r="G968" s="5"/>
       <c r="H968" s="5"/>
       <c r="I968" s="8"/>
     </row>
-    <row r="969" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="969" spans="2:9">
       <c r="B969" s="5"/>
       <c r="G969" s="5"/>
       <c r="H969" s="5"/>
       <c r="I969" s="8"/>
     </row>
-    <row r="970" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="970" spans="2:9">
       <c r="B970" s="5"/>
       <c r="G970" s="5"/>
       <c r="H970" s="5"/>
       <c r="I970" s="8"/>
     </row>
-    <row r="971" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="971" spans="2:9">
       <c r="B971" s="5"/>
       <c r="G971" s="5"/>
       <c r="H971" s="5"/>
       <c r="I971" s="8"/>
     </row>
-    <row r="972" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="972" spans="2:9">
       <c r="B972" s="5"/>
       <c r="G972" s="5"/>
       <c r="H972" s="5"/>
       <c r="I972" s="8"/>
     </row>
-    <row r="973" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="973" spans="2:9">
       <c r="B973" s="5"/>
       <c r="G973" s="5"/>
       <c r="H973" s="5"/>
       <c r="I973" s="8"/>
     </row>
-    <row r="974" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="974" spans="2:9">
       <c r="B974" s="5"/>
       <c r="G974" s="5"/>
       <c r="H974" s="5"/>
       <c r="I974" s="8"/>
     </row>
-    <row r="975" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="975" spans="2:9">
       <c r="B975" s="5"/>
       <c r="G975" s="5"/>
       <c r="H975" s="5"/>
       <c r="I975" s="8"/>
     </row>
-    <row r="976" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="976" spans="2:9">
       <c r="B976" s="5"/>
       <c r="G976" s="5"/>
       <c r="H976" s="5"/>
       <c r="I976" s="8"/>
     </row>
-    <row r="977" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="977" spans="2:9">
       <c r="B977" s="5"/>
       <c r="G977" s="5"/>
       <c r="H977" s="5"/>
       <c r="I977" s="8"/>
     </row>
-    <row r="978" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="978" spans="2:9">
       <c r="B978" s="5"/>
       <c r="G978" s="5"/>
       <c r="H978" s="5"/>
       <c r="I978" s="8"/>
     </row>
-    <row r="979" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="979" spans="2:9">
       <c r="B979" s="5"/>
       <c r="G979" s="5"/>
       <c r="H979" s="5"/>
       <c r="I979" s="8"/>
     </row>
-    <row r="980" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="980" spans="2:9">
       <c r="B980" s="5"/>
       <c r="G980" s="5"/>
       <c r="H980" s="5"/>
       <c r="I980" s="8"/>
     </row>
-    <row r="981" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="981" spans="2:9">
       <c r="B981" s="5"/>
       <c r="G981" s="5"/>
       <c r="H981" s="5"/>
       <c r="I981" s="8"/>
     </row>
-    <row r="982" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="982" spans="2:9">
       <c r="B982" s="5"/>
       <c r="G982" s="5"/>
       <c r="H982" s="5"/>
       <c r="I982" s="8"/>
     </row>
-    <row r="983" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="983" spans="2:9">
       <c r="B983" s="5"/>
       <c r="G983" s="5"/>
       <c r="H983" s="5"/>
       <c r="I983" s="8"/>
     </row>
-    <row r="984" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="984" spans="2:9">
       <c r="B984" s="5"/>
       <c r="G984" s="5"/>
       <c r="H984" s="5"/>
       <c r="I984" s="8"/>
     </row>
-    <row r="985" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="985" spans="2:9">
       <c r="B985" s="5"/>
       <c r="G985" s="5"/>
       <c r="H985" s="5"/>
       <c r="I985" s="8"/>
     </row>
-    <row r="986" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="986" spans="2:9">
       <c r="B986" s="5"/>
       <c r="G986" s="5"/>
       <c r="H986" s="5"/>
       <c r="I986" s="8"/>
     </row>
-    <row r="987" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="987" spans="2:9">
       <c r="B987" s="5"/>
       <c r="G987" s="5"/>
       <c r="H987" s="5"/>
       <c r="I987" s="8"/>
     </row>
-    <row r="988" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="988" spans="2:9">
       <c r="B988" s="5"/>
       <c r="G988" s="5"/>
       <c r="H988" s="5"/>
       <c r="I988" s="8"/>
     </row>
-    <row r="989" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="989" spans="2:9">
       <c r="B989" s="5"/>
       <c r="G989" s="5"/>
       <c r="H989" s="5"/>
       <c r="I989" s="8"/>
     </row>
-    <row r="990" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="990" spans="2:9">
       <c r="B990" s="5"/>
       <c r="G990" s="5"/>
       <c r="H990" s="5"/>
       <c r="I990" s="8"/>
     </row>
-    <row r="991" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="991" spans="2:9">
       <c r="B991" s="5"/>
       <c r="G991" s="5"/>
       <c r="H991" s="5"/>
       <c r="I991" s="8"/>
     </row>
-    <row r="992" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="992" spans="2:9">
       <c r="B992" s="5"/>
       <c r="G992" s="5"/>
       <c r="H992" s="5"/>
       <c r="I992" s="8"/>
     </row>
-    <row r="993" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="993" spans="2:9">
       <c r="B993" s="5"/>
       <c r="G993" s="5"/>
       <c r="H993" s="5"/>
       <c r="I993" s="8"/>
     </row>
-    <row r="994" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="994" spans="2:9">
       <c r="B994" s="5"/>
       <c r="G994" s="5"/>
       <c r="H994" s="5"/>
       <c r="I994" s="8"/>
     </row>
-    <row r="995" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="995" spans="2:9">
       <c r="B995" s="5"/>
       <c r="G995" s="5"/>
       <c r="H995" s="5"/>
       <c r="I995" s="8"/>
     </row>
-    <row r="996" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="996" spans="2:9">
       <c r="B996" s="5"/>
       <c r="G996" s="5"/>
       <c r="H996" s="5"/>
       <c r="I996" s="8"/>
     </row>
-    <row r="997" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="997" spans="2:9">
       <c r="B997" s="5"/>
       <c r="G997" s="5"/>
       <c r="H997" s="5"/>
       <c r="I997" s="8"/>
     </row>
-    <row r="998" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="998" spans="2:9">
       <c r="B998" s="5"/>
       <c r="G998" s="5"/>
       <c r="H998" s="5"/>
       <c r="I998" s="8"/>
     </row>
-    <row r="999" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="999" spans="2:9">
       <c r="B999" s="5"/>
       <c r="G999" s="5"/>
       <c r="H999" s="5"/>
       <c r="I999" s="8"/>
     </row>
-    <row r="1000" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1000" spans="2:9">
       <c r="B1000" s="5"/>
       <c r="G1000" s="5"/>
       <c r="H1000" s="5"/>
       <c r="I1000" s="8"/>
     </row>
-    <row r="1001" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1001" spans="2:9">
       <c r="B1001" s="5"/>
       <c r="G1001" s="5"/>
       <c r="H1001" s="5"/>
       <c r="I1001" s="8"/>
     </row>
-    <row r="1002" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1002" spans="2:9">
       <c r="B1002" s="5"/>
       <c r="G1002" s="5"/>
       <c r="H1002" s="5"/>
       <c r="I1002" s="8"/>
     </row>
-    <row r="1003" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1003" spans="2:9">
       <c r="B1003" s="5"/>
       <c r="G1003" s="5"/>
       <c r="H1003" s="5"/>
       <c r="I1003" s="8"/>
     </row>
-    <row r="1004" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1004" spans="2:9">
       <c r="B1004" s="5"/>
       <c r="G1004" s="5"/>
       <c r="H1004" s="5"/>
       <c r="I1004" s="8"/>
     </row>
-    <row r="1005" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1005" spans="2:9">
       <c r="B1005" s="5"/>
       <c r="G1005" s="5"/>
       <c r="H1005" s="5"/>
       <c r="I1005" s="8"/>
     </row>
-    <row r="1006" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1006" s="5"/>
-      <c r="G1006" s="5"/>
-      <c r="H1006" s="5"/>
-      <c r="I1006" s="8"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K48"/>
+  <autoFilter ref="A1:K47"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7802,33 +7787,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="14"/>
     <col min="2" max="2" width="9.140625" style="10"/>
-    <col min="3" max="3" width="51" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="13" customFormat="1">
       <c r="A2" s="14" t="s">
         <v>50</v>
       </c>
@@ -7836,7 +7821,7 @@
         <v>43062</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>3</v>
@@ -7845,7 +7830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="14" t="s">
         <v>51</v>
       </c>
@@ -7862,7 +7847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="14" t="s">
         <v>52</v>
       </c>
@@ -7870,7 +7855,7 @@
         <v>43064</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>1</v>
@@ -7879,7 +7864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="14" t="s">
         <v>53</v>
       </c>
@@ -7896,14 +7881,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B6" s="12">
         <v>43066</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="14" t="s">
@@ -7913,14 +7898,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="12">
         <v>43067</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="16" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -7930,14 +7915,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="12">
         <v>43068</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="16" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -7947,15 +7932,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="12">
         <v>43069</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>19</v>
+      <c r="C9" s="16" t="s">
+        <v>131</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>1</v>
@@ -7964,15 +7949,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="12">
         <v>43070</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>20</v>
+      <c r="C10" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>4</v>
@@ -7981,15 +7966,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="12">
         <v>43071</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>21</v>
+      <c r="C11" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>1</v>
@@ -7998,7 +7983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="14" t="s">
         <v>53</v>
       </c>
@@ -8015,7 +8000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="14" t="s">
         <v>54</v>
       </c>
@@ -8023,7 +8008,7 @@
         <v>43073</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>3</v>
@@ -8032,7 +8017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="14" t="s">
         <v>55</v>
       </c>
@@ -8049,7 +8034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="14" t="s">
         <v>56</v>
       </c>
@@ -8057,7 +8042,7 @@
         <v>43075</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>4</v>
@@ -8066,7 +8051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="14" t="s">
         <v>50</v>
       </c>
@@ -8074,16 +8059,16 @@
         <v>43076</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="14" t="s">
         <v>51</v>
       </c>
@@ -8094,13 +8079,13 @@
         <v>30</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="14" t="s">
         <v>52</v>
       </c>
@@ -8108,16 +8093,16 @@
         <v>43078</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E18" s="13">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="14" t="s">
         <v>53</v>
       </c>
@@ -8128,13 +8113,13 @@
         <v>32</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" s="13">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="14" t="s">
         <v>54</v>
       </c>
@@ -8151,7 +8136,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="14" t="s">
         <v>55</v>
       </c>
@@ -8168,7 +8153,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="14" t="s">
         <v>56</v>
       </c>
@@ -8185,7 +8170,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="14" t="s">
         <v>50</v>
       </c>
@@ -8202,7 +8187,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="14" t="s">
         <v>51</v>
       </c>
@@ -8210,7 +8195,7 @@
         <v>43084</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>3</v>
@@ -8219,7 +8204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="14" t="s">
         <v>52</v>
       </c>
@@ -8227,16 +8212,16 @@
         <v>43085</v>
       </c>
       <c r="C25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="E25" s="13">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="14" t="s">
         <v>53</v>
       </c>
@@ -8244,7 +8229,7 @@
         <v>43086</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>4</v>
@@ -8253,7 +8238,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="14" t="s">
         <v>54</v>
       </c>
@@ -8270,7 +8255,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="14" t="s">
         <v>55</v>
       </c>
@@ -8287,7 +8272,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="14" t="s">
         <v>56</v>
       </c>
@@ -8304,7 +8289,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="14" t="s">
         <v>50</v>
       </c>
@@ -8318,7 +8303,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="14" t="s">
         <v>51</v>
       </c>
@@ -8335,7 +8320,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="14" t="s">
         <v>52</v>
       </c>

--- a/Julfilmer.xlsx
+++ b/Julfilmer.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="141">
   <si>
     <t>Research</t>
   </si>
@@ -419,6 +419,33 @@
   </si>
   <si>
     <t>I´ll be home for Christmas, Gremlins 2</t>
+  </si>
+  <si>
+    <t>Just in time for Christmas</t>
+  </si>
+  <si>
+    <t>http://www.imdb.com/title/tt5014528/?ref_=nv_sr_1</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Northpole</t>
+  </si>
+  <si>
+    <t>http://www.imdb.com/title/tt3595848/?ref_=nv_sr_2</t>
+  </si>
+  <si>
+    <t>Northpole: Open for Christmas</t>
+  </si>
+  <si>
+    <t>http://www.imdb.com/title/tt4843046/?ref_=nv_sr_1</t>
+  </si>
+  <si>
+    <t>NorthPole: Open for Christmas</t>
+  </si>
+  <si>
+    <t>Gremlins + All I want for Christmas</t>
   </si>
 </sst>
 </file>
@@ -865,15 +892,15 @@
   <dimension ref="A1:K1005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="6" bestFit="1" customWidth="1"/>
@@ -2035,97 +2062,136 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="5"/>
-      <c r="G49" s="5"/>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="5">
+        <v>4</v>
+      </c>
       <c r="H49" s="5"/>
       <c r="I49" s="8"/>
-    </row>
-    <row r="50" spans="2:9">
-      <c r="B50" s="5"/>
-      <c r="G50" s="5"/>
+      <c r="J49">
+        <v>14</v>
+      </c>
+      <c r="K49" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="5">
+        <v>3</v>
+      </c>
       <c r="H50" s="5"/>
-      <c r="I50" s="8"/>
-    </row>
-    <row r="51" spans="2:9">
-      <c r="B51" s="5"/>
+      <c r="I50" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="8"/>
-    </row>
-    <row r="52" spans="2:9">
+      <c r="J51">
+        <v>11</v>
+      </c>
+      <c r="K51" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="B52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="8"/>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="1:11">
       <c r="B53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="1:11">
       <c r="B54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="8"/>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="1:11">
       <c r="B55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="8"/>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="1:11">
       <c r="B56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="8"/>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="1:11">
       <c r="B57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="8"/>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="1:11">
       <c r="B58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="8"/>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="1:11">
       <c r="B59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="8"/>
     </row>
-    <row r="60" spans="2:9">
+    <row r="60" spans="1:11">
       <c r="B60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="8"/>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="1:11">
       <c r="B61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="8"/>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="1:11">
       <c r="B62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="8"/>
     </row>
-    <row r="63" spans="2:9">
+    <row r="63" spans="1:11">
       <c r="B63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="8"/>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="1:11">
       <c r="B64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -7785,10 +7851,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7799,7 +7865,7 @@
     <col min="4" max="4" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" s="15" t="s">
         <v>71</v>
       </c>
@@ -7813,7 +7879,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1">
+    <row r="2" spans="1:9" s="13" customFormat="1">
       <c r="A2" s="14" t="s">
         <v>50</v>
       </c>
@@ -7830,7 +7896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:9">
       <c r="A3" s="14" t="s">
         <v>51</v>
       </c>
@@ -7847,7 +7913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
         <v>52</v>
       </c>
@@ -7864,7 +7930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
         <v>53</v>
       </c>
@@ -7881,7 +7947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:9">
       <c r="A6" s="14" t="s">
         <v>54</v>
       </c>
@@ -7898,7 +7964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9">
       <c r="A7" s="14" t="s">
         <v>55</v>
       </c>
@@ -7915,7 +7981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:9">
       <c r="A8" s="14" t="s">
         <v>56</v>
       </c>
@@ -7932,7 +7998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:9">
       <c r="A9" s="14" t="s">
         <v>50</v>
       </c>
@@ -7949,7 +8015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:9">
       <c r="A10" s="14" t="s">
         <v>51</v>
       </c>
@@ -7966,7 +8032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9">
       <c r="A11" s="14" t="s">
         <v>52</v>
       </c>
@@ -7983,41 +8049,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:9">
       <c r="A12" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="12">
         <v>43072</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>37</v>
+      <c r="C12" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="13">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:9">
       <c r="A13" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B13" s="12">
         <v>43073</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>38</v>
+      <c r="C13" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="14" t="s">
         <v>55</v>
       </c>
@@ -8025,33 +8092,34 @@
         <v>43074</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" s="13">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:9">
       <c r="A15" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="12">
         <v>43075</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>107</v>
+      <c r="C15" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="E15" s="13">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="14" t="s">
         <v>50</v>
       </c>
@@ -8059,10 +8127,10 @@
         <v>43076</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="13">
         <v>15</v>
@@ -8127,9 +8195,9 @@
         <v>43080</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="13">
@@ -8144,10 +8212,10 @@
         <v>43081</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>4</v>
+        <v>65</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="13">
         <v>20</v>
@@ -8161,10 +8229,10 @@
         <v>43082</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22" s="13">
         <v>21</v>
@@ -8178,9 +8246,9 @@
         <v>43083</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="13">
@@ -8195,9 +8263,9 @@
         <v>43084</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="13">
@@ -8212,10 +8280,10 @@
         <v>43085</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E25" s="13">
         <v>24</v>
@@ -8229,10 +8297,10 @@
         <v>43086</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" s="13">
         <v>25</v>
@@ -8246,10 +8314,10 @@
         <v>43087</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="E27" s="13">
         <v>26</v>
@@ -8263,10 +8331,10 @@
         <v>43088</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28" s="13">
         <v>27</v>
@@ -8280,7 +8348,7 @@
         <v>43089</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>4</v>
@@ -8295,6 +8363,9 @@
       </c>
       <c r="B30" s="12">
         <v>43090</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>4</v>

--- a/Julfilmer.xlsx
+++ b/Julfilmer.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Basse\git\github\Christmas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sebastian\git\github\Christmas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12255" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12252"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -163,9 +163,6 @@
     <t>Datum</t>
   </si>
   <si>
-    <t>Christmasland</t>
-  </si>
-  <si>
     <t>Love the Coopers</t>
   </si>
   <si>
@@ -446,13 +443,16 @@
   </si>
   <si>
     <t>Gremlins + All I want for Christmas</t>
+  </si>
+  <si>
+    <t>Christmas land</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -891,35 +891,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1005"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="56.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="27" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="56.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="27" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -934,22 +934,22 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>70</v>
-      </c>
       <c r="K1" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -957,7 +957,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G2" s="6">
         <v>4</v>
@@ -972,10 +972,10 @@
         <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -998,10 +998,10 @@
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1024,10 +1024,10 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1050,10 +1050,10 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1076,10 +1076,10 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1102,10 +1102,10 @@
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1126,10 +1126,10 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1150,10 +1150,10 @@
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1173,10 +1173,10 @@
         <v>27</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1202,10 +1202,10 @@
         <v>4</v>
       </c>
       <c r="K11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G12" s="6">
         <v>4</v>
@@ -1229,10 +1229,10 @@
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1253,10 +1253,10 @@
         <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1279,10 +1279,10 @@
         <v>30</v>
       </c>
       <c r="K14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1305,12 +1305,12 @@
         <v>10</v>
       </c>
       <c r="K15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>6</v>
@@ -1331,10 +1331,10 @@
         <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1355,10 +1355,10 @@
         <v>12</v>
       </c>
       <c r="K17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1378,10 +1378,10 @@
         <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1401,10 +1401,10 @@
         <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1421,10 +1421,10 @@
         <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1444,21 +1444,22 @@
         <v>22</v>
       </c>
       <c r="K21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="6"/>
+      <c r="G22" s="6">
+        <v>3</v>
+      </c>
       <c r="H22" s="5"/>
       <c r="I22" s="7">
         <v>21</v>
@@ -1467,10 +1468,10 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1491,10 +1492,10 @@
         <v>25</v>
       </c>
       <c r="K23" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1514,10 +1515,10 @@
         <v>28</v>
       </c>
       <c r="K24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1540,10 +1541,10 @@
         <v>16</v>
       </c>
       <c r="K25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1566,10 +1567,10 @@
         <v>17</v>
       </c>
       <c r="K26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1592,10 +1593,10 @@
         <v>18</v>
       </c>
       <c r="K27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1603,7 +1604,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>6</v>
@@ -1621,10 +1622,10 @@
         <v>26</v>
       </c>
       <c r="K28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1632,7 +1633,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>6</v>
@@ -1648,10 +1649,10 @@
         <v>21</v>
       </c>
       <c r="K29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>36</v>
       </c>
@@ -1671,10 +1672,10 @@
         <v>20</v>
       </c>
       <c r="K30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1682,7 +1683,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G31" s="6">
         <v>5</v>
@@ -1697,10 +1698,10 @@
         <v>9</v>
       </c>
       <c r="K31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1721,18 +1722,18 @@
         <v>23</v>
       </c>
       <c r="K32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1">
-      <c r="A33" t="s">
-        <v>107</v>
-      </c>
       <c r="B33" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G33" s="6">
         <v>4</v>
@@ -1747,12 +1748,12 @@
         <v>14</v>
       </c>
       <c r="K33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>6</v>
@@ -1770,10 +1771,10 @@
         <v>31</v>
       </c>
       <c r="K34" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1787,13 +1788,13 @@
         <v>3</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K35" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1807,15 +1808,15 @@
         <v>3</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K36" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>6</v>
@@ -1828,13 +1829,13 @@
         <v>3</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K37" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1848,15 +1849,15 @@
         <v>3</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K38" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>6</v>
@@ -1870,15 +1871,15 @@
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K39" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>6</v>
@@ -1891,13 +1892,13 @@
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1911,15 +1912,15 @@
         <v>4</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K41" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>6</v>
@@ -1933,13 +1934,13 @@
         <v>4</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K42" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1954,13 +1955,13 @@
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K43" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1975,13 +1976,13 @@
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1989,20 +1990,20 @@
         <v>6</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G45" s="5">
         <v>3</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K45" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -2010,20 +2011,20 @@
         <v>6</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G46" s="5">
         <v>4</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K46" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -2031,22 +2032,22 @@
         <v>6</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G47" s="5">
         <v>4</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K47" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>6</v>
@@ -2056,15 +2057,15 @@
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="K48" t="s">
         <v>129</v>
       </c>
-      <c r="K48" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+    </row>
+    <row r="49" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>6</v>
@@ -2078,12 +2079,12 @@
         <v>14</v>
       </c>
       <c r="K49" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>6</v>
@@ -2093,15 +2094,15 @@
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" t="s">
-        <v>137</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>6</v>
@@ -2116,5728 +2117,5728 @@
         <v>11</v>
       </c>
       <c r="K51" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="8"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="8"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="8"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="8"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="8"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="8"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="8"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="8"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="8"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="8"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="8"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="8"/>
     </row>
-    <row r="65" spans="2:9">
+    <row r="65" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="8"/>
     </row>
-    <row r="66" spans="2:9">
+    <row r="66" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="8"/>
     </row>
-    <row r="67" spans="2:9">
+    <row r="67" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="8"/>
     </row>
-    <row r="68" spans="2:9">
+    <row r="68" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="8"/>
     </row>
-    <row r="69" spans="2:9">
+    <row r="69" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="8"/>
     </row>
-    <row r="70" spans="2:9">
+    <row r="70" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="8"/>
     </row>
-    <row r="71" spans="2:9">
+    <row r="71" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="8"/>
     </row>
-    <row r="72" spans="2:9">
+    <row r="72" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="8"/>
     </row>
-    <row r="73" spans="2:9">
+    <row r="73" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="8"/>
     </row>
-    <row r="74" spans="2:9">
+    <row r="74" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="8"/>
     </row>
-    <row r="75" spans="2:9">
+    <row r="75" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="8"/>
     </row>
-    <row r="76" spans="2:9">
+    <row r="76" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="8"/>
     </row>
-    <row r="77" spans="2:9">
+    <row r="77" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="8"/>
     </row>
-    <row r="78" spans="2:9">
+    <row r="78" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
       <c r="I78" s="8"/>
     </row>
-    <row r="79" spans="2:9">
+    <row r="79" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="8"/>
     </row>
-    <row r="80" spans="2:9">
+    <row r="80" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="8"/>
     </row>
-    <row r="81" spans="2:9">
+    <row r="81" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="8"/>
     </row>
-    <row r="82" spans="2:9">
+    <row r="82" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="8"/>
     </row>
-    <row r="83" spans="2:9">
+    <row r="83" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="8"/>
     </row>
-    <row r="84" spans="2:9">
+    <row r="84" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
       <c r="I84" s="8"/>
     </row>
-    <row r="85" spans="2:9">
+    <row r="85" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="8"/>
     </row>
-    <row r="86" spans="2:9">
+    <row r="86" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="8"/>
     </row>
-    <row r="87" spans="2:9">
+    <row r="87" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="8"/>
     </row>
-    <row r="88" spans="2:9">
+    <row r="88" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
       <c r="I88" s="8"/>
     </row>
-    <row r="89" spans="2:9">
+    <row r="89" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="8"/>
     </row>
-    <row r="90" spans="2:9">
+    <row r="90" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="8"/>
     </row>
-    <row r="91" spans="2:9">
+    <row r="91" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="8"/>
     </row>
-    <row r="92" spans="2:9">
+    <row r="92" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
       <c r="I92" s="8"/>
     </row>
-    <row r="93" spans="2:9">
+    <row r="93" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="8"/>
     </row>
-    <row r="94" spans="2:9">
+    <row r="94" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="8"/>
     </row>
-    <row r="95" spans="2:9">
+    <row r="95" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
       <c r="I95" s="8"/>
     </row>
-    <row r="96" spans="2:9">
+    <row r="96" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="8"/>
     </row>
-    <row r="97" spans="2:9">
+    <row r="97" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="8"/>
     </row>
-    <row r="98" spans="2:9">
+    <row r="98" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="8"/>
     </row>
-    <row r="99" spans="2:9">
+    <row r="99" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="8"/>
     </row>
-    <row r="100" spans="2:9">
+    <row r="100" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
       <c r="I100" s="8"/>
     </row>
-    <row r="101" spans="2:9">
+    <row r="101" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="8"/>
     </row>
-    <row r="102" spans="2:9">
+    <row r="102" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
       <c r="I102" s="8"/>
     </row>
-    <row r="103" spans="2:9">
+    <row r="103" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
       <c r="I103" s="8"/>
     </row>
-    <row r="104" spans="2:9">
+    <row r="104" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
       <c r="I104" s="8"/>
     </row>
-    <row r="105" spans="2:9">
+    <row r="105" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
       <c r="I105" s="8"/>
     </row>
-    <row r="106" spans="2:9">
+    <row r="106" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B106" s="5"/>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
       <c r="I106" s="8"/>
     </row>
-    <row r="107" spans="2:9">
+    <row r="107" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
       <c r="I107" s="8"/>
     </row>
-    <row r="108" spans="2:9">
+    <row r="108" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
       <c r="I108" s="8"/>
     </row>
-    <row r="109" spans="2:9">
+    <row r="109" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
       <c r="I109" s="8"/>
     </row>
-    <row r="110" spans="2:9">
+    <row r="110" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
       <c r="I110" s="8"/>
     </row>
-    <row r="111" spans="2:9">
+    <row r="111" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
       <c r="I111" s="8"/>
     </row>
-    <row r="112" spans="2:9">
+    <row r="112" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
       <c r="I112" s="8"/>
     </row>
-    <row r="113" spans="2:9">
+    <row r="113" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
       <c r="I113" s="8"/>
     </row>
-    <row r="114" spans="2:9">
+    <row r="114" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B114" s="5"/>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
       <c r="I114" s="8"/>
     </row>
-    <row r="115" spans="2:9">
+    <row r="115" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B115" s="5"/>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
       <c r="I115" s="8"/>
     </row>
-    <row r="116" spans="2:9">
+    <row r="116" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B116" s="5"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
       <c r="I116" s="8"/>
     </row>
-    <row r="117" spans="2:9">
+    <row r="117" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B117" s="5"/>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
       <c r="I117" s="8"/>
     </row>
-    <row r="118" spans="2:9">
+    <row r="118" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B118" s="5"/>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
       <c r="I118" s="8"/>
     </row>
-    <row r="119" spans="2:9">
+    <row r="119" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B119" s="5"/>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
       <c r="I119" s="8"/>
     </row>
-    <row r="120" spans="2:9">
+    <row r="120" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B120" s="5"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
       <c r="I120" s="8"/>
     </row>
-    <row r="121" spans="2:9">
+    <row r="121" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B121" s="5"/>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
       <c r="I121" s="8"/>
     </row>
-    <row r="122" spans="2:9">
+    <row r="122" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B122" s="5"/>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
       <c r="I122" s="8"/>
     </row>
-    <row r="123" spans="2:9">
+    <row r="123" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B123" s="5"/>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
       <c r="I123" s="8"/>
     </row>
-    <row r="124" spans="2:9">
+    <row r="124" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B124" s="5"/>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
       <c r="I124" s="8"/>
     </row>
-    <row r="125" spans="2:9">
+    <row r="125" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B125" s="5"/>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
       <c r="I125" s="8"/>
     </row>
-    <row r="126" spans="2:9">
+    <row r="126" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="I126" s="8"/>
     </row>
-    <row r="127" spans="2:9">
+    <row r="127" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B127" s="5"/>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
       <c r="I127" s="8"/>
     </row>
-    <row r="128" spans="2:9">
+    <row r="128" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B128" s="5"/>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
       <c r="I128" s="8"/>
     </row>
-    <row r="129" spans="2:9">
+    <row r="129" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B129" s="5"/>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
       <c r="I129" s="8"/>
     </row>
-    <row r="130" spans="2:9">
+    <row r="130" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B130" s="5"/>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
       <c r="I130" s="8"/>
     </row>
-    <row r="131" spans="2:9">
+    <row r="131" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B131" s="5"/>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
       <c r="I131" s="8"/>
     </row>
-    <row r="132" spans="2:9">
+    <row r="132" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B132" s="5"/>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
       <c r="I132" s="8"/>
     </row>
-    <row r="133" spans="2:9">
+    <row r="133" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B133" s="5"/>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
       <c r="I133" s="8"/>
     </row>
-    <row r="134" spans="2:9">
+    <row r="134" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B134" s="5"/>
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
       <c r="I134" s="8"/>
     </row>
-    <row r="135" spans="2:9">
+    <row r="135" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B135" s="5"/>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
       <c r="I135" s="8"/>
     </row>
-    <row r="136" spans="2:9">
+    <row r="136" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B136" s="5"/>
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
       <c r="I136" s="8"/>
     </row>
-    <row r="137" spans="2:9">
+    <row r="137" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B137" s="5"/>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="8"/>
     </row>
-    <row r="138" spans="2:9">
+    <row r="138" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B138" s="5"/>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="8"/>
     </row>
-    <row r="139" spans="2:9">
+    <row r="139" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B139" s="5"/>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
       <c r="I139" s="8"/>
     </row>
-    <row r="140" spans="2:9">
+    <row r="140" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B140" s="5"/>
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
       <c r="I140" s="8"/>
     </row>
-    <row r="141" spans="2:9">
+    <row r="141" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B141" s="5"/>
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
       <c r="I141" s="8"/>
     </row>
-    <row r="142" spans="2:9">
+    <row r="142" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B142" s="5"/>
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
       <c r="I142" s="8"/>
     </row>
-    <row r="143" spans="2:9">
+    <row r="143" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B143" s="5"/>
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
       <c r="I143" s="8"/>
     </row>
-    <row r="144" spans="2:9">
+    <row r="144" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B144" s="5"/>
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
       <c r="I144" s="8"/>
     </row>
-    <row r="145" spans="2:9">
+    <row r="145" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B145" s="5"/>
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
       <c r="I145" s="8"/>
     </row>
-    <row r="146" spans="2:9">
+    <row r="146" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B146" s="5"/>
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
       <c r="I146" s="8"/>
     </row>
-    <row r="147" spans="2:9">
+    <row r="147" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B147" s="5"/>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
       <c r="I147" s="8"/>
     </row>
-    <row r="148" spans="2:9">
+    <row r="148" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B148" s="5"/>
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
       <c r="I148" s="8"/>
     </row>
-    <row r="149" spans="2:9">
+    <row r="149" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B149" s="5"/>
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
       <c r="I149" s="8"/>
     </row>
-    <row r="150" spans="2:9">
+    <row r="150" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B150" s="5"/>
       <c r="G150" s="5"/>
       <c r="H150" s="5"/>
       <c r="I150" s="8"/>
     </row>
-    <row r="151" spans="2:9">
+    <row r="151" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B151" s="5"/>
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
       <c r="I151" s="8"/>
     </row>
-    <row r="152" spans="2:9">
+    <row r="152" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B152" s="5"/>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
       <c r="I152" s="8"/>
     </row>
-    <row r="153" spans="2:9">
+    <row r="153" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B153" s="5"/>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
       <c r="I153" s="8"/>
     </row>
-    <row r="154" spans="2:9">
+    <row r="154" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B154" s="5"/>
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
       <c r="I154" s="8"/>
     </row>
-    <row r="155" spans="2:9">
+    <row r="155" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B155" s="5"/>
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
       <c r="I155" s="8"/>
     </row>
-    <row r="156" spans="2:9">
+    <row r="156" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B156" s="5"/>
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
       <c r="I156" s="8"/>
     </row>
-    <row r="157" spans="2:9">
+    <row r="157" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B157" s="5"/>
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
       <c r="I157" s="8"/>
     </row>
-    <row r="158" spans="2:9">
+    <row r="158" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B158" s="5"/>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
       <c r="I158" s="8"/>
     </row>
-    <row r="159" spans="2:9">
+    <row r="159" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B159" s="5"/>
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
       <c r="I159" s="8"/>
     </row>
-    <row r="160" spans="2:9">
+    <row r="160" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B160" s="5"/>
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
       <c r="I160" s="8"/>
     </row>
-    <row r="161" spans="2:9">
+    <row r="161" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B161" s="5"/>
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
       <c r="I161" s="8"/>
     </row>
-    <row r="162" spans="2:9">
+    <row r="162" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B162" s="5"/>
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
       <c r="I162" s="8"/>
     </row>
-    <row r="163" spans="2:9">
+    <row r="163" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B163" s="5"/>
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
       <c r="I163" s="8"/>
     </row>
-    <row r="164" spans="2:9">
+    <row r="164" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B164" s="5"/>
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
       <c r="I164" s="8"/>
     </row>
-    <row r="165" spans="2:9">
+    <row r="165" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B165" s="5"/>
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
       <c r="I165" s="8"/>
     </row>
-    <row r="166" spans="2:9">
+    <row r="166" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B166" s="5"/>
       <c r="G166" s="5"/>
       <c r="H166" s="5"/>
       <c r="I166" s="8"/>
     </row>
-    <row r="167" spans="2:9">
+    <row r="167" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B167" s="5"/>
       <c r="G167" s="5"/>
       <c r="H167" s="5"/>
       <c r="I167" s="8"/>
     </row>
-    <row r="168" spans="2:9">
+    <row r="168" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B168" s="5"/>
       <c r="G168" s="5"/>
       <c r="H168" s="5"/>
       <c r="I168" s="8"/>
     </row>
-    <row r="169" spans="2:9">
+    <row r="169" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B169" s="5"/>
       <c r="G169" s="5"/>
       <c r="H169" s="5"/>
       <c r="I169" s="8"/>
     </row>
-    <row r="170" spans="2:9">
+    <row r="170" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B170" s="5"/>
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
       <c r="I170" s="8"/>
     </row>
-    <row r="171" spans="2:9">
+    <row r="171" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B171" s="5"/>
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
       <c r="I171" s="8"/>
     </row>
-    <row r="172" spans="2:9">
+    <row r="172" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B172" s="5"/>
       <c r="G172" s="5"/>
       <c r="H172" s="5"/>
       <c r="I172" s="8"/>
     </row>
-    <row r="173" spans="2:9">
+    <row r="173" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B173" s="5"/>
       <c r="G173" s="5"/>
       <c r="H173" s="5"/>
       <c r="I173" s="8"/>
     </row>
-    <row r="174" spans="2:9">
+    <row r="174" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B174" s="5"/>
       <c r="G174" s="5"/>
       <c r="H174" s="5"/>
       <c r="I174" s="8"/>
     </row>
-    <row r="175" spans="2:9">
+    <row r="175" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B175" s="5"/>
       <c r="G175" s="5"/>
       <c r="H175" s="5"/>
       <c r="I175" s="8"/>
     </row>
-    <row r="176" spans="2:9">
+    <row r="176" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B176" s="5"/>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
       <c r="I176" s="8"/>
     </row>
-    <row r="177" spans="2:9">
+    <row r="177" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B177" s="5"/>
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
       <c r="I177" s="8"/>
     </row>
-    <row r="178" spans="2:9">
+    <row r="178" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B178" s="5"/>
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
       <c r="I178" s="8"/>
     </row>
-    <row r="179" spans="2:9">
+    <row r="179" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B179" s="5"/>
       <c r="G179" s="5"/>
       <c r="H179" s="5"/>
       <c r="I179" s="8"/>
     </row>
-    <row r="180" spans="2:9">
+    <row r="180" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B180" s="5"/>
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
       <c r="I180" s="8"/>
     </row>
-    <row r="181" spans="2:9">
+    <row r="181" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B181" s="5"/>
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
       <c r="I181" s="8"/>
     </row>
-    <row r="182" spans="2:9">
+    <row r="182" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B182" s="5"/>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
       <c r="I182" s="8"/>
     </row>
-    <row r="183" spans="2:9">
+    <row r="183" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B183" s="5"/>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
       <c r="I183" s="8"/>
     </row>
-    <row r="184" spans="2:9">
+    <row r="184" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B184" s="5"/>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
       <c r="I184" s="8"/>
     </row>
-    <row r="185" spans="2:9">
+    <row r="185" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B185" s="5"/>
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
       <c r="I185" s="8"/>
     </row>
-    <row r="186" spans="2:9">
+    <row r="186" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B186" s="5"/>
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
       <c r="I186" s="8"/>
     </row>
-    <row r="187" spans="2:9">
+    <row r="187" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B187" s="5"/>
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
       <c r="I187" s="8"/>
     </row>
-    <row r="188" spans="2:9">
+    <row r="188" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B188" s="5"/>
       <c r="G188" s="5"/>
       <c r="H188" s="5"/>
       <c r="I188" s="8"/>
     </row>
-    <row r="189" spans="2:9">
+    <row r="189" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B189" s="5"/>
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
       <c r="I189" s="8"/>
     </row>
-    <row r="190" spans="2:9">
+    <row r="190" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B190" s="5"/>
       <c r="G190" s="5"/>
       <c r="H190" s="5"/>
       <c r="I190" s="8"/>
     </row>
-    <row r="191" spans="2:9">
+    <row r="191" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B191" s="5"/>
       <c r="G191" s="5"/>
       <c r="H191" s="5"/>
       <c r="I191" s="8"/>
     </row>
-    <row r="192" spans="2:9">
+    <row r="192" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B192" s="5"/>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
       <c r="I192" s="8"/>
     </row>
-    <row r="193" spans="2:9">
+    <row r="193" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B193" s="5"/>
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
       <c r="I193" s="8"/>
     </row>
-    <row r="194" spans="2:9">
+    <row r="194" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B194" s="5"/>
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
       <c r="I194" s="8"/>
     </row>
-    <row r="195" spans="2:9">
+    <row r="195" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B195" s="5"/>
       <c r="G195" s="5"/>
       <c r="H195" s="5"/>
       <c r="I195" s="8"/>
     </row>
-    <row r="196" spans="2:9">
+    <row r="196" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B196" s="5"/>
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
       <c r="I196" s="8"/>
     </row>
-    <row r="197" spans="2:9">
+    <row r="197" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B197" s="5"/>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
       <c r="I197" s="8"/>
     </row>
-    <row r="198" spans="2:9">
+    <row r="198" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B198" s="5"/>
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
       <c r="I198" s="8"/>
     </row>
-    <row r="199" spans="2:9">
+    <row r="199" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B199" s="5"/>
       <c r="G199" s="5"/>
       <c r="H199" s="5"/>
       <c r="I199" s="8"/>
     </row>
-    <row r="200" spans="2:9">
+    <row r="200" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B200" s="5"/>
       <c r="G200" s="5"/>
       <c r="H200" s="5"/>
       <c r="I200" s="8"/>
     </row>
-    <row r="201" spans="2:9">
+    <row r="201" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B201" s="5"/>
       <c r="G201" s="5"/>
       <c r="H201" s="5"/>
       <c r="I201" s="8"/>
     </row>
-    <row r="202" spans="2:9">
+    <row r="202" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B202" s="5"/>
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
       <c r="I202" s="8"/>
     </row>
-    <row r="203" spans="2:9">
+    <row r="203" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B203" s="5"/>
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
       <c r="I203" s="8"/>
     </row>
-    <row r="204" spans="2:9">
+    <row r="204" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B204" s="5"/>
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
       <c r="I204" s="8"/>
     </row>
-    <row r="205" spans="2:9">
+    <row r="205" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B205" s="5"/>
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
       <c r="I205" s="8"/>
     </row>
-    <row r="206" spans="2:9">
+    <row r="206" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B206" s="5"/>
       <c r="G206" s="5"/>
       <c r="H206" s="5"/>
       <c r="I206" s="8"/>
     </row>
-    <row r="207" spans="2:9">
+    <row r="207" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B207" s="5"/>
       <c r="G207" s="5"/>
       <c r="H207" s="5"/>
       <c r="I207" s="8"/>
     </row>
-    <row r="208" spans="2:9">
+    <row r="208" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B208" s="5"/>
       <c r="G208" s="5"/>
       <c r="H208" s="5"/>
       <c r="I208" s="8"/>
     </row>
-    <row r="209" spans="2:9">
+    <row r="209" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B209" s="5"/>
       <c r="G209" s="5"/>
       <c r="H209" s="5"/>
       <c r="I209" s="8"/>
     </row>
-    <row r="210" spans="2:9">
+    <row r="210" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B210" s="5"/>
       <c r="G210" s="5"/>
       <c r="H210" s="5"/>
       <c r="I210" s="8"/>
     </row>
-    <row r="211" spans="2:9">
+    <row r="211" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B211" s="5"/>
       <c r="G211" s="5"/>
       <c r="H211" s="5"/>
       <c r="I211" s="8"/>
     </row>
-    <row r="212" spans="2:9">
+    <row r="212" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B212" s="5"/>
       <c r="G212" s="5"/>
       <c r="H212" s="5"/>
       <c r="I212" s="8"/>
     </row>
-    <row r="213" spans="2:9">
+    <row r="213" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B213" s="5"/>
       <c r="G213" s="5"/>
       <c r="H213" s="5"/>
       <c r="I213" s="8"/>
     </row>
-    <row r="214" spans="2:9">
+    <row r="214" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B214" s="5"/>
       <c r="G214" s="5"/>
       <c r="H214" s="5"/>
       <c r="I214" s="8"/>
     </row>
-    <row r="215" spans="2:9">
+    <row r="215" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B215" s="5"/>
       <c r="G215" s="5"/>
       <c r="H215" s="5"/>
       <c r="I215" s="8"/>
     </row>
-    <row r="216" spans="2:9">
+    <row r="216" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B216" s="5"/>
       <c r="G216" s="5"/>
       <c r="H216" s="5"/>
       <c r="I216" s="8"/>
     </row>
-    <row r="217" spans="2:9">
+    <row r="217" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B217" s="5"/>
       <c r="G217" s="5"/>
       <c r="H217" s="5"/>
       <c r="I217" s="8"/>
     </row>
-    <row r="218" spans="2:9">
+    <row r="218" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B218" s="5"/>
       <c r="G218" s="5"/>
       <c r="H218" s="5"/>
       <c r="I218" s="8"/>
     </row>
-    <row r="219" spans="2:9">
+    <row r="219" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B219" s="5"/>
       <c r="G219" s="5"/>
       <c r="H219" s="5"/>
       <c r="I219" s="8"/>
     </row>
-    <row r="220" spans="2:9">
+    <row r="220" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B220" s="5"/>
       <c r="G220" s="5"/>
       <c r="H220" s="5"/>
       <c r="I220" s="8"/>
     </row>
-    <row r="221" spans="2:9">
+    <row r="221" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B221" s="5"/>
       <c r="G221" s="5"/>
       <c r="H221" s="5"/>
       <c r="I221" s="8"/>
     </row>
-    <row r="222" spans="2:9">
+    <row r="222" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B222" s="5"/>
       <c r="G222" s="5"/>
       <c r="H222" s="5"/>
       <c r="I222" s="8"/>
     </row>
-    <row r="223" spans="2:9">
+    <row r="223" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B223" s="5"/>
       <c r="G223" s="5"/>
       <c r="H223" s="5"/>
       <c r="I223" s="8"/>
     </row>
-    <row r="224" spans="2:9">
+    <row r="224" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B224" s="5"/>
       <c r="G224" s="5"/>
       <c r="H224" s="5"/>
       <c r="I224" s="8"/>
     </row>
-    <row r="225" spans="2:9">
+    <row r="225" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B225" s="5"/>
       <c r="G225" s="5"/>
       <c r="H225" s="5"/>
       <c r="I225" s="8"/>
     </row>
-    <row r="226" spans="2:9">
+    <row r="226" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B226" s="5"/>
       <c r="G226" s="5"/>
       <c r="H226" s="5"/>
       <c r="I226" s="8"/>
     </row>
-    <row r="227" spans="2:9">
+    <row r="227" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B227" s="5"/>
       <c r="G227" s="5"/>
       <c r="H227" s="5"/>
       <c r="I227" s="8"/>
     </row>
-    <row r="228" spans="2:9">
+    <row r="228" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B228" s="5"/>
       <c r="G228" s="5"/>
       <c r="H228" s="5"/>
       <c r="I228" s="8"/>
     </row>
-    <row r="229" spans="2:9">
+    <row r="229" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B229" s="5"/>
       <c r="G229" s="5"/>
       <c r="H229" s="5"/>
       <c r="I229" s="8"/>
     </row>
-    <row r="230" spans="2:9">
+    <row r="230" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B230" s="5"/>
       <c r="G230" s="5"/>
       <c r="H230" s="5"/>
       <c r="I230" s="8"/>
     </row>
-    <row r="231" spans="2:9">
+    <row r="231" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B231" s="5"/>
       <c r="G231" s="5"/>
       <c r="H231" s="5"/>
       <c r="I231" s="8"/>
     </row>
-    <row r="232" spans="2:9">
+    <row r="232" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B232" s="5"/>
       <c r="G232" s="5"/>
       <c r="H232" s="5"/>
       <c r="I232" s="8"/>
     </row>
-    <row r="233" spans="2:9">
+    <row r="233" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B233" s="5"/>
       <c r="G233" s="5"/>
       <c r="H233" s="5"/>
       <c r="I233" s="8"/>
     </row>
-    <row r="234" spans="2:9">
+    <row r="234" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B234" s="5"/>
       <c r="G234" s="5"/>
       <c r="H234" s="5"/>
       <c r="I234" s="8"/>
     </row>
-    <row r="235" spans="2:9">
+    <row r="235" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B235" s="5"/>
       <c r="G235" s="5"/>
       <c r="H235" s="5"/>
       <c r="I235" s="8"/>
     </row>
-    <row r="236" spans="2:9">
+    <row r="236" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B236" s="5"/>
       <c r="G236" s="5"/>
       <c r="H236" s="5"/>
       <c r="I236" s="8"/>
     </row>
-    <row r="237" spans="2:9">
+    <row r="237" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B237" s="5"/>
       <c r="G237" s="5"/>
       <c r="H237" s="5"/>
       <c r="I237" s="8"/>
     </row>
-    <row r="238" spans="2:9">
+    <row r="238" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B238" s="5"/>
       <c r="G238" s="5"/>
       <c r="H238" s="5"/>
       <c r="I238" s="8"/>
     </row>
-    <row r="239" spans="2:9">
+    <row r="239" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B239" s="5"/>
       <c r="G239" s="5"/>
       <c r="H239" s="5"/>
       <c r="I239" s="8"/>
     </row>
-    <row r="240" spans="2:9">
+    <row r="240" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B240" s="5"/>
       <c r="G240" s="5"/>
       <c r="H240" s="5"/>
       <c r="I240" s="8"/>
     </row>
-    <row r="241" spans="2:9">
+    <row r="241" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B241" s="5"/>
       <c r="G241" s="5"/>
       <c r="H241" s="5"/>
       <c r="I241" s="8"/>
     </row>
-    <row r="242" spans="2:9">
+    <row r="242" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B242" s="5"/>
       <c r="G242" s="5"/>
       <c r="H242" s="5"/>
       <c r="I242" s="8"/>
     </row>
-    <row r="243" spans="2:9">
+    <row r="243" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B243" s="5"/>
       <c r="G243" s="5"/>
       <c r="H243" s="5"/>
       <c r="I243" s="8"/>
     </row>
-    <row r="244" spans="2:9">
+    <row r="244" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B244" s="5"/>
       <c r="G244" s="5"/>
       <c r="H244" s="5"/>
       <c r="I244" s="8"/>
     </row>
-    <row r="245" spans="2:9">
+    <row r="245" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B245" s="5"/>
       <c r="G245" s="5"/>
       <c r="H245" s="5"/>
       <c r="I245" s="8"/>
     </row>
-    <row r="246" spans="2:9">
+    <row r="246" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B246" s="5"/>
       <c r="G246" s="5"/>
       <c r="H246" s="5"/>
       <c r="I246" s="8"/>
     </row>
-    <row r="247" spans="2:9">
+    <row r="247" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B247" s="5"/>
       <c r="G247" s="5"/>
       <c r="H247" s="5"/>
       <c r="I247" s="8"/>
     </row>
-    <row r="248" spans="2:9">
+    <row r="248" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B248" s="5"/>
       <c r="G248" s="5"/>
       <c r="H248" s="5"/>
       <c r="I248" s="8"/>
     </row>
-    <row r="249" spans="2:9">
+    <row r="249" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B249" s="5"/>
       <c r="G249" s="5"/>
       <c r="H249" s="5"/>
       <c r="I249" s="8"/>
     </row>
-    <row r="250" spans="2:9">
+    <row r="250" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B250" s="5"/>
       <c r="G250" s="5"/>
       <c r="H250" s="5"/>
       <c r="I250" s="8"/>
     </row>
-    <row r="251" spans="2:9">
+    <row r="251" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B251" s="5"/>
       <c r="G251" s="5"/>
       <c r="H251" s="5"/>
       <c r="I251" s="8"/>
     </row>
-    <row r="252" spans="2:9">
+    <row r="252" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B252" s="5"/>
       <c r="G252" s="5"/>
       <c r="H252" s="5"/>
       <c r="I252" s="8"/>
     </row>
-    <row r="253" spans="2:9">
+    <row r="253" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B253" s="5"/>
       <c r="G253" s="5"/>
       <c r="H253" s="5"/>
       <c r="I253" s="8"/>
     </row>
-    <row r="254" spans="2:9">
+    <row r="254" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B254" s="5"/>
       <c r="G254" s="5"/>
       <c r="H254" s="5"/>
       <c r="I254" s="8"/>
     </row>
-    <row r="255" spans="2:9">
+    <row r="255" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B255" s="5"/>
       <c r="G255" s="5"/>
       <c r="H255" s="5"/>
       <c r="I255" s="8"/>
     </row>
-    <row r="256" spans="2:9">
+    <row r="256" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B256" s="5"/>
       <c r="G256" s="5"/>
       <c r="H256" s="5"/>
       <c r="I256" s="8"/>
     </row>
-    <row r="257" spans="2:9">
+    <row r="257" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B257" s="5"/>
       <c r="G257" s="5"/>
       <c r="H257" s="5"/>
       <c r="I257" s="8"/>
     </row>
-    <row r="258" spans="2:9">
+    <row r="258" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B258" s="5"/>
       <c r="G258" s="5"/>
       <c r="H258" s="5"/>
       <c r="I258" s="8"/>
     </row>
-    <row r="259" spans="2:9">
+    <row r="259" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B259" s="5"/>
       <c r="G259" s="5"/>
       <c r="H259" s="5"/>
       <c r="I259" s="8"/>
     </row>
-    <row r="260" spans="2:9">
+    <row r="260" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B260" s="5"/>
       <c r="G260" s="5"/>
       <c r="H260" s="5"/>
       <c r="I260" s="8"/>
     </row>
-    <row r="261" spans="2:9">
+    <row r="261" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B261" s="5"/>
       <c r="G261" s="5"/>
       <c r="H261" s="5"/>
       <c r="I261" s="8"/>
     </row>
-    <row r="262" spans="2:9">
+    <row r="262" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B262" s="5"/>
       <c r="G262" s="5"/>
       <c r="H262" s="5"/>
       <c r="I262" s="8"/>
     </row>
-    <row r="263" spans="2:9">
+    <row r="263" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B263" s="5"/>
       <c r="G263" s="5"/>
       <c r="H263" s="5"/>
       <c r="I263" s="8"/>
     </row>
-    <row r="264" spans="2:9">
+    <row r="264" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B264" s="5"/>
       <c r="G264" s="5"/>
       <c r="H264" s="5"/>
       <c r="I264" s="8"/>
     </row>
-    <row r="265" spans="2:9">
+    <row r="265" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B265" s="5"/>
       <c r="G265" s="5"/>
       <c r="H265" s="5"/>
       <c r="I265" s="8"/>
     </row>
-    <row r="266" spans="2:9">
+    <row r="266" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B266" s="5"/>
       <c r="G266" s="5"/>
       <c r="H266" s="5"/>
       <c r="I266" s="8"/>
     </row>
-    <row r="267" spans="2:9">
+    <row r="267" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B267" s="5"/>
       <c r="G267" s="5"/>
       <c r="H267" s="5"/>
       <c r="I267" s="8"/>
     </row>
-    <row r="268" spans="2:9">
+    <row r="268" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B268" s="5"/>
       <c r="G268" s="5"/>
       <c r="H268" s="5"/>
       <c r="I268" s="8"/>
     </row>
-    <row r="269" spans="2:9">
+    <row r="269" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B269" s="5"/>
       <c r="G269" s="5"/>
       <c r="H269" s="5"/>
       <c r="I269" s="8"/>
     </row>
-    <row r="270" spans="2:9">
+    <row r="270" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B270" s="5"/>
       <c r="G270" s="5"/>
       <c r="H270" s="5"/>
       <c r="I270" s="8"/>
     </row>
-    <row r="271" spans="2:9">
+    <row r="271" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B271" s="5"/>
       <c r="G271" s="5"/>
       <c r="H271" s="5"/>
       <c r="I271" s="8"/>
     </row>
-    <row r="272" spans="2:9">
+    <row r="272" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B272" s="5"/>
       <c r="G272" s="5"/>
       <c r="H272" s="5"/>
       <c r="I272" s="8"/>
     </row>
-    <row r="273" spans="2:9">
+    <row r="273" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B273" s="5"/>
       <c r="G273" s="5"/>
       <c r="H273" s="5"/>
       <c r="I273" s="8"/>
     </row>
-    <row r="274" spans="2:9">
+    <row r="274" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B274" s="5"/>
       <c r="G274" s="5"/>
       <c r="H274" s="5"/>
       <c r="I274" s="8"/>
     </row>
-    <row r="275" spans="2:9">
+    <row r="275" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B275" s="5"/>
       <c r="G275" s="5"/>
       <c r="H275" s="5"/>
       <c r="I275" s="8"/>
     </row>
-    <row r="276" spans="2:9">
+    <row r="276" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B276" s="5"/>
       <c r="G276" s="5"/>
       <c r="H276" s="5"/>
       <c r="I276" s="8"/>
     </row>
-    <row r="277" spans="2:9">
+    <row r="277" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B277" s="5"/>
       <c r="G277" s="5"/>
       <c r="H277" s="5"/>
       <c r="I277" s="8"/>
     </row>
-    <row r="278" spans="2:9">
+    <row r="278" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B278" s="5"/>
       <c r="G278" s="5"/>
       <c r="H278" s="5"/>
       <c r="I278" s="8"/>
     </row>
-    <row r="279" spans="2:9">
+    <row r="279" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B279" s="5"/>
       <c r="G279" s="5"/>
       <c r="H279" s="5"/>
       <c r="I279" s="8"/>
     </row>
-    <row r="280" spans="2:9">
+    <row r="280" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B280" s="5"/>
       <c r="G280" s="5"/>
       <c r="H280" s="5"/>
       <c r="I280" s="8"/>
     </row>
-    <row r="281" spans="2:9">
+    <row r="281" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B281" s="5"/>
       <c r="G281" s="5"/>
       <c r="H281" s="5"/>
       <c r="I281" s="8"/>
     </row>
-    <row r="282" spans="2:9">
+    <row r="282" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B282" s="5"/>
       <c r="G282" s="5"/>
       <c r="H282" s="5"/>
       <c r="I282" s="8"/>
     </row>
-    <row r="283" spans="2:9">
+    <row r="283" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B283" s="5"/>
       <c r="G283" s="5"/>
       <c r="H283" s="5"/>
       <c r="I283" s="8"/>
     </row>
-    <row r="284" spans="2:9">
+    <row r="284" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B284" s="5"/>
       <c r="G284" s="5"/>
       <c r="H284" s="5"/>
       <c r="I284" s="8"/>
     </row>
-    <row r="285" spans="2:9">
+    <row r="285" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B285" s="5"/>
       <c r="G285" s="5"/>
       <c r="H285" s="5"/>
       <c r="I285" s="8"/>
     </row>
-    <row r="286" spans="2:9">
+    <row r="286" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B286" s="5"/>
       <c r="G286" s="5"/>
       <c r="H286" s="5"/>
       <c r="I286" s="8"/>
     </row>
-    <row r="287" spans="2:9">
+    <row r="287" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B287" s="5"/>
       <c r="G287" s="5"/>
       <c r="H287" s="5"/>
       <c r="I287" s="8"/>
     </row>
-    <row r="288" spans="2:9">
+    <row r="288" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B288" s="5"/>
       <c r="G288" s="5"/>
       <c r="H288" s="5"/>
       <c r="I288" s="8"/>
     </row>
-    <row r="289" spans="2:9">
+    <row r="289" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B289" s="5"/>
       <c r="G289" s="5"/>
       <c r="H289" s="5"/>
       <c r="I289" s="8"/>
     </row>
-    <row r="290" spans="2:9">
+    <row r="290" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B290" s="5"/>
       <c r="G290" s="5"/>
       <c r="H290" s="5"/>
       <c r="I290" s="8"/>
     </row>
-    <row r="291" spans="2:9">
+    <row r="291" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B291" s="5"/>
       <c r="G291" s="5"/>
       <c r="H291" s="5"/>
       <c r="I291" s="8"/>
     </row>
-    <row r="292" spans="2:9">
+    <row r="292" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B292" s="5"/>
       <c r="G292" s="5"/>
       <c r="H292" s="5"/>
       <c r="I292" s="8"/>
     </row>
-    <row r="293" spans="2:9">
+    <row r="293" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B293" s="5"/>
       <c r="G293" s="5"/>
       <c r="H293" s="5"/>
       <c r="I293" s="8"/>
     </row>
-    <row r="294" spans="2:9">
+    <row r="294" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B294" s="5"/>
       <c r="G294" s="5"/>
       <c r="H294" s="5"/>
       <c r="I294" s="8"/>
     </row>
-    <row r="295" spans="2:9">
+    <row r="295" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B295" s="5"/>
       <c r="G295" s="5"/>
       <c r="H295" s="5"/>
       <c r="I295" s="8"/>
     </row>
-    <row r="296" spans="2:9">
+    <row r="296" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B296" s="5"/>
       <c r="G296" s="5"/>
       <c r="H296" s="5"/>
       <c r="I296" s="8"/>
     </row>
-    <row r="297" spans="2:9">
+    <row r="297" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B297" s="5"/>
       <c r="G297" s="5"/>
       <c r="H297" s="5"/>
       <c r="I297" s="8"/>
     </row>
-    <row r="298" spans="2:9">
+    <row r="298" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B298" s="5"/>
       <c r="G298" s="5"/>
       <c r="H298" s="5"/>
       <c r="I298" s="8"/>
     </row>
-    <row r="299" spans="2:9">
+    <row r="299" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B299" s="5"/>
       <c r="G299" s="5"/>
       <c r="H299" s="5"/>
       <c r="I299" s="8"/>
     </row>
-    <row r="300" spans="2:9">
+    <row r="300" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B300" s="5"/>
       <c r="G300" s="5"/>
       <c r="H300" s="5"/>
       <c r="I300" s="8"/>
     </row>
-    <row r="301" spans="2:9">
+    <row r="301" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B301" s="5"/>
       <c r="G301" s="5"/>
       <c r="H301" s="5"/>
       <c r="I301" s="8"/>
     </row>
-    <row r="302" spans="2:9">
+    <row r="302" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B302" s="5"/>
       <c r="G302" s="5"/>
       <c r="H302" s="5"/>
       <c r="I302" s="8"/>
     </row>
-    <row r="303" spans="2:9">
+    <row r="303" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B303" s="5"/>
       <c r="G303" s="5"/>
       <c r="H303" s="5"/>
       <c r="I303" s="8"/>
     </row>
-    <row r="304" spans="2:9">
+    <row r="304" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B304" s="5"/>
       <c r="G304" s="5"/>
       <c r="H304" s="5"/>
       <c r="I304" s="8"/>
     </row>
-    <row r="305" spans="2:9">
+    <row r="305" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B305" s="5"/>
       <c r="G305" s="5"/>
       <c r="H305" s="5"/>
       <c r="I305" s="8"/>
     </row>
-    <row r="306" spans="2:9">
+    <row r="306" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B306" s="5"/>
       <c r="G306" s="5"/>
       <c r="H306" s="5"/>
       <c r="I306" s="8"/>
     </row>
-    <row r="307" spans="2:9">
+    <row r="307" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B307" s="5"/>
       <c r="G307" s="5"/>
       <c r="H307" s="5"/>
       <c r="I307" s="8"/>
     </row>
-    <row r="308" spans="2:9">
+    <row r="308" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B308" s="5"/>
       <c r="G308" s="5"/>
       <c r="H308" s="5"/>
       <c r="I308" s="8"/>
     </row>
-    <row r="309" spans="2:9">
+    <row r="309" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B309" s="5"/>
       <c r="G309" s="5"/>
       <c r="H309" s="5"/>
       <c r="I309" s="8"/>
     </row>
-    <row r="310" spans="2:9">
+    <row r="310" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B310" s="5"/>
       <c r="G310" s="5"/>
       <c r="H310" s="5"/>
       <c r="I310" s="8"/>
     </row>
-    <row r="311" spans="2:9">
+    <row r="311" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B311" s="5"/>
       <c r="G311" s="5"/>
       <c r="H311" s="5"/>
       <c r="I311" s="8"/>
     </row>
-    <row r="312" spans="2:9">
+    <row r="312" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B312" s="5"/>
       <c r="G312" s="5"/>
       <c r="H312" s="5"/>
       <c r="I312" s="8"/>
     </row>
-    <row r="313" spans="2:9">
+    <row r="313" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B313" s="5"/>
       <c r="G313" s="5"/>
       <c r="H313" s="5"/>
       <c r="I313" s="8"/>
     </row>
-    <row r="314" spans="2:9">
+    <row r="314" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B314" s="5"/>
       <c r="G314" s="5"/>
       <c r="H314" s="5"/>
       <c r="I314" s="8"/>
     </row>
-    <row r="315" spans="2:9">
+    <row r="315" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B315" s="5"/>
       <c r="G315" s="5"/>
       <c r="H315" s="5"/>
       <c r="I315" s="8"/>
     </row>
-    <row r="316" spans="2:9">
+    <row r="316" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B316" s="5"/>
       <c r="G316" s="5"/>
       <c r="H316" s="5"/>
       <c r="I316" s="8"/>
     </row>
-    <row r="317" spans="2:9">
+    <row r="317" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B317" s="5"/>
       <c r="G317" s="5"/>
       <c r="H317" s="5"/>
       <c r="I317" s="8"/>
     </row>
-    <row r="318" spans="2:9">
+    <row r="318" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B318" s="5"/>
       <c r="G318" s="5"/>
       <c r="H318" s="5"/>
       <c r="I318" s="8"/>
     </row>
-    <row r="319" spans="2:9">
+    <row r="319" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B319" s="5"/>
       <c r="G319" s="5"/>
       <c r="H319" s="5"/>
       <c r="I319" s="8"/>
     </row>
-    <row r="320" spans="2:9">
+    <row r="320" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B320" s="5"/>
       <c r="G320" s="5"/>
       <c r="H320" s="5"/>
       <c r="I320" s="8"/>
     </row>
-    <row r="321" spans="2:9">
+    <row r="321" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B321" s="5"/>
       <c r="G321" s="5"/>
       <c r="H321" s="5"/>
       <c r="I321" s="8"/>
     </row>
-    <row r="322" spans="2:9">
+    <row r="322" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B322" s="5"/>
       <c r="G322" s="5"/>
       <c r="H322" s="5"/>
       <c r="I322" s="8"/>
     </row>
-    <row r="323" spans="2:9">
+    <row r="323" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B323" s="5"/>
       <c r="G323" s="5"/>
       <c r="H323" s="5"/>
       <c r="I323" s="8"/>
     </row>
-    <row r="324" spans="2:9">
+    <row r="324" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B324" s="5"/>
       <c r="G324" s="5"/>
       <c r="H324" s="5"/>
       <c r="I324" s="8"/>
     </row>
-    <row r="325" spans="2:9">
+    <row r="325" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B325" s="5"/>
       <c r="G325" s="5"/>
       <c r="H325" s="5"/>
       <c r="I325" s="8"/>
     </row>
-    <row r="326" spans="2:9">
+    <row r="326" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B326" s="5"/>
       <c r="G326" s="5"/>
       <c r="H326" s="5"/>
       <c r="I326" s="8"/>
     </row>
-    <row r="327" spans="2:9">
+    <row r="327" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B327" s="5"/>
       <c r="G327" s="5"/>
       <c r="H327" s="5"/>
       <c r="I327" s="8"/>
     </row>
-    <row r="328" spans="2:9">
+    <row r="328" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B328" s="5"/>
       <c r="G328" s="5"/>
       <c r="H328" s="5"/>
       <c r="I328" s="8"/>
     </row>
-    <row r="329" spans="2:9">
+    <row r="329" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B329" s="5"/>
       <c r="G329" s="5"/>
       <c r="H329" s="5"/>
       <c r="I329" s="8"/>
     </row>
-    <row r="330" spans="2:9">
+    <row r="330" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B330" s="5"/>
       <c r="G330" s="5"/>
       <c r="H330" s="5"/>
       <c r="I330" s="8"/>
     </row>
-    <row r="331" spans="2:9">
+    <row r="331" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B331" s="5"/>
       <c r="G331" s="5"/>
       <c r="H331" s="5"/>
       <c r="I331" s="8"/>
     </row>
-    <row r="332" spans="2:9">
+    <row r="332" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B332" s="5"/>
       <c r="G332" s="5"/>
       <c r="H332" s="5"/>
       <c r="I332" s="8"/>
     </row>
-    <row r="333" spans="2:9">
+    <row r="333" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B333" s="5"/>
       <c r="G333" s="5"/>
       <c r="H333" s="5"/>
       <c r="I333" s="8"/>
     </row>
-    <row r="334" spans="2:9">
+    <row r="334" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B334" s="5"/>
       <c r="G334" s="5"/>
       <c r="H334" s="5"/>
       <c r="I334" s="8"/>
     </row>
-    <row r="335" spans="2:9">
+    <row r="335" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B335" s="5"/>
       <c r="G335" s="5"/>
       <c r="H335" s="5"/>
       <c r="I335" s="8"/>
     </row>
-    <row r="336" spans="2:9">
+    <row r="336" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B336" s="5"/>
       <c r="G336" s="5"/>
       <c r="H336" s="5"/>
       <c r="I336" s="8"/>
     </row>
-    <row r="337" spans="2:9">
+    <row r="337" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B337" s="5"/>
       <c r="G337" s="5"/>
       <c r="H337" s="5"/>
       <c r="I337" s="8"/>
     </row>
-    <row r="338" spans="2:9">
+    <row r="338" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B338" s="5"/>
       <c r="G338" s="5"/>
       <c r="H338" s="5"/>
       <c r="I338" s="8"/>
     </row>
-    <row r="339" spans="2:9">
+    <row r="339" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B339" s="5"/>
       <c r="G339" s="5"/>
       <c r="H339" s="5"/>
       <c r="I339" s="8"/>
     </row>
-    <row r="340" spans="2:9">
+    <row r="340" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B340" s="5"/>
       <c r="G340" s="5"/>
       <c r="H340" s="5"/>
       <c r="I340" s="8"/>
     </row>
-    <row r="341" spans="2:9">
+    <row r="341" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B341" s="5"/>
       <c r="G341" s="5"/>
       <c r="H341" s="5"/>
       <c r="I341" s="8"/>
     </row>
-    <row r="342" spans="2:9">
+    <row r="342" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B342" s="5"/>
       <c r="G342" s="5"/>
       <c r="H342" s="5"/>
       <c r="I342" s="8"/>
     </row>
-    <row r="343" spans="2:9">
+    <row r="343" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B343" s="5"/>
       <c r="G343" s="5"/>
       <c r="H343" s="5"/>
       <c r="I343" s="8"/>
     </row>
-    <row r="344" spans="2:9">
+    <row r="344" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B344" s="5"/>
       <c r="G344" s="5"/>
       <c r="H344" s="5"/>
       <c r="I344" s="8"/>
     </row>
-    <row r="345" spans="2:9">
+    <row r="345" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B345" s="5"/>
       <c r="G345" s="5"/>
       <c r="H345" s="5"/>
       <c r="I345" s="8"/>
     </row>
-    <row r="346" spans="2:9">
+    <row r="346" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B346" s="5"/>
       <c r="G346" s="5"/>
       <c r="H346" s="5"/>
       <c r="I346" s="8"/>
     </row>
-    <row r="347" spans="2:9">
+    <row r="347" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B347" s="5"/>
       <c r="G347" s="5"/>
       <c r="H347" s="5"/>
       <c r="I347" s="8"/>
     </row>
-    <row r="348" spans="2:9">
+    <row r="348" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B348" s="5"/>
       <c r="G348" s="5"/>
       <c r="H348" s="5"/>
       <c r="I348" s="8"/>
     </row>
-    <row r="349" spans="2:9">
+    <row r="349" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B349" s="5"/>
       <c r="G349" s="5"/>
       <c r="H349" s="5"/>
       <c r="I349" s="8"/>
     </row>
-    <row r="350" spans="2:9">
+    <row r="350" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B350" s="5"/>
       <c r="G350" s="5"/>
       <c r="H350" s="5"/>
       <c r="I350" s="8"/>
     </row>
-    <row r="351" spans="2:9">
+    <row r="351" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B351" s="5"/>
       <c r="G351" s="5"/>
       <c r="H351" s="5"/>
       <c r="I351" s="8"/>
     </row>
-    <row r="352" spans="2:9">
+    <row r="352" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B352" s="5"/>
       <c r="G352" s="5"/>
       <c r="H352" s="5"/>
       <c r="I352" s="8"/>
     </row>
-    <row r="353" spans="2:9">
+    <row r="353" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B353" s="5"/>
       <c r="G353" s="5"/>
       <c r="H353" s="5"/>
       <c r="I353" s="8"/>
     </row>
-    <row r="354" spans="2:9">
+    <row r="354" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B354" s="5"/>
       <c r="G354" s="5"/>
       <c r="H354" s="5"/>
       <c r="I354" s="8"/>
     </row>
-    <row r="355" spans="2:9">
+    <row r="355" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B355" s="5"/>
       <c r="G355" s="5"/>
       <c r="H355" s="5"/>
       <c r="I355" s="8"/>
     </row>
-    <row r="356" spans="2:9">
+    <row r="356" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B356" s="5"/>
       <c r="G356" s="5"/>
       <c r="H356" s="5"/>
       <c r="I356" s="8"/>
     </row>
-    <row r="357" spans="2:9">
+    <row r="357" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B357" s="5"/>
       <c r="G357" s="5"/>
       <c r="H357" s="5"/>
       <c r="I357" s="8"/>
     </row>
-    <row r="358" spans="2:9">
+    <row r="358" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B358" s="5"/>
       <c r="G358" s="5"/>
       <c r="H358" s="5"/>
       <c r="I358" s="8"/>
     </row>
-    <row r="359" spans="2:9">
+    <row r="359" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B359" s="5"/>
       <c r="G359" s="5"/>
       <c r="H359" s="5"/>
       <c r="I359" s="8"/>
     </row>
-    <row r="360" spans="2:9">
+    <row r="360" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B360" s="5"/>
       <c r="G360" s="5"/>
       <c r="H360" s="5"/>
       <c r="I360" s="8"/>
     </row>
-    <row r="361" spans="2:9">
+    <row r="361" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B361" s="5"/>
       <c r="G361" s="5"/>
       <c r="H361" s="5"/>
       <c r="I361" s="8"/>
     </row>
-    <row r="362" spans="2:9">
+    <row r="362" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B362" s="5"/>
       <c r="G362" s="5"/>
       <c r="H362" s="5"/>
       <c r="I362" s="8"/>
     </row>
-    <row r="363" spans="2:9">
+    <row r="363" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B363" s="5"/>
       <c r="G363" s="5"/>
       <c r="H363" s="5"/>
       <c r="I363" s="8"/>
     </row>
-    <row r="364" spans="2:9">
+    <row r="364" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B364" s="5"/>
       <c r="G364" s="5"/>
       <c r="H364" s="5"/>
       <c r="I364" s="8"/>
     </row>
-    <row r="365" spans="2:9">
+    <row r="365" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B365" s="5"/>
       <c r="G365" s="5"/>
       <c r="H365" s="5"/>
       <c r="I365" s="8"/>
     </row>
-    <row r="366" spans="2:9">
+    <row r="366" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B366" s="5"/>
       <c r="G366" s="5"/>
       <c r="H366" s="5"/>
       <c r="I366" s="8"/>
     </row>
-    <row r="367" spans="2:9">
+    <row r="367" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B367" s="5"/>
       <c r="G367" s="5"/>
       <c r="H367" s="5"/>
       <c r="I367" s="8"/>
     </row>
-    <row r="368" spans="2:9">
+    <row r="368" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B368" s="5"/>
       <c r="G368" s="5"/>
       <c r="H368" s="5"/>
       <c r="I368" s="8"/>
     </row>
-    <row r="369" spans="2:9">
+    <row r="369" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B369" s="5"/>
       <c r="G369" s="5"/>
       <c r="H369" s="5"/>
       <c r="I369" s="8"/>
     </row>
-    <row r="370" spans="2:9">
+    <row r="370" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B370" s="5"/>
       <c r="G370" s="5"/>
       <c r="H370" s="5"/>
       <c r="I370" s="8"/>
     </row>
-    <row r="371" spans="2:9">
+    <row r="371" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B371" s="5"/>
       <c r="G371" s="5"/>
       <c r="H371" s="5"/>
       <c r="I371" s="8"/>
     </row>
-    <row r="372" spans="2:9">
+    <row r="372" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B372" s="5"/>
       <c r="G372" s="5"/>
       <c r="H372" s="5"/>
       <c r="I372" s="8"/>
     </row>
-    <row r="373" spans="2:9">
+    <row r="373" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B373" s="5"/>
       <c r="G373" s="5"/>
       <c r="H373" s="5"/>
       <c r="I373" s="8"/>
     </row>
-    <row r="374" spans="2:9">
+    <row r="374" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B374" s="5"/>
       <c r="G374" s="5"/>
       <c r="H374" s="5"/>
       <c r="I374" s="8"/>
     </row>
-    <row r="375" spans="2:9">
+    <row r="375" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B375" s="5"/>
       <c r="G375" s="5"/>
       <c r="H375" s="5"/>
       <c r="I375" s="8"/>
     </row>
-    <row r="376" spans="2:9">
+    <row r="376" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B376" s="5"/>
       <c r="G376" s="5"/>
       <c r="H376" s="5"/>
       <c r="I376" s="8"/>
     </row>
-    <row r="377" spans="2:9">
+    <row r="377" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B377" s="5"/>
       <c r="G377" s="5"/>
       <c r="H377" s="5"/>
       <c r="I377" s="8"/>
     </row>
-    <row r="378" spans="2:9">
+    <row r="378" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B378" s="5"/>
       <c r="G378" s="5"/>
       <c r="H378" s="5"/>
       <c r="I378" s="8"/>
     </row>
-    <row r="379" spans="2:9">
+    <row r="379" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B379" s="5"/>
       <c r="G379" s="5"/>
       <c r="H379" s="5"/>
       <c r="I379" s="8"/>
     </row>
-    <row r="380" spans="2:9">
+    <row r="380" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B380" s="5"/>
       <c r="G380" s="5"/>
       <c r="H380" s="5"/>
       <c r="I380" s="8"/>
     </row>
-    <row r="381" spans="2:9">
+    <row r="381" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B381" s="5"/>
       <c r="G381" s="5"/>
       <c r="H381" s="5"/>
       <c r="I381" s="8"/>
     </row>
-    <row r="382" spans="2:9">
+    <row r="382" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B382" s="5"/>
       <c r="G382" s="5"/>
       <c r="H382" s="5"/>
       <c r="I382" s="8"/>
     </row>
-    <row r="383" spans="2:9">
+    <row r="383" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B383" s="5"/>
       <c r="G383" s="5"/>
       <c r="H383" s="5"/>
       <c r="I383" s="8"/>
     </row>
-    <row r="384" spans="2:9">
+    <row r="384" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B384" s="5"/>
       <c r="G384" s="5"/>
       <c r="H384" s="5"/>
       <c r="I384" s="8"/>
     </row>
-    <row r="385" spans="2:9">
+    <row r="385" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B385" s="5"/>
       <c r="G385" s="5"/>
       <c r="H385" s="5"/>
       <c r="I385" s="8"/>
     </row>
-    <row r="386" spans="2:9">
+    <row r="386" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B386" s="5"/>
       <c r="G386" s="5"/>
       <c r="H386" s="5"/>
       <c r="I386" s="8"/>
     </row>
-    <row r="387" spans="2:9">
+    <row r="387" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B387" s="5"/>
       <c r="G387" s="5"/>
       <c r="H387" s="5"/>
       <c r="I387" s="8"/>
     </row>
-    <row r="388" spans="2:9">
+    <row r="388" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B388" s="5"/>
       <c r="G388" s="5"/>
       <c r="H388" s="5"/>
       <c r="I388" s="8"/>
     </row>
-    <row r="389" spans="2:9">
+    <row r="389" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B389" s="5"/>
       <c r="G389" s="5"/>
       <c r="H389" s="5"/>
       <c r="I389" s="8"/>
     </row>
-    <row r="390" spans="2:9">
+    <row r="390" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B390" s="5"/>
       <c r="G390" s="5"/>
       <c r="H390" s="5"/>
       <c r="I390" s="8"/>
     </row>
-    <row r="391" spans="2:9">
+    <row r="391" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B391" s="5"/>
       <c r="G391" s="5"/>
       <c r="H391" s="5"/>
       <c r="I391" s="8"/>
     </row>
-    <row r="392" spans="2:9">
+    <row r="392" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B392" s="5"/>
       <c r="G392" s="5"/>
       <c r="H392" s="5"/>
       <c r="I392" s="8"/>
     </row>
-    <row r="393" spans="2:9">
+    <row r="393" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B393" s="5"/>
       <c r="G393" s="5"/>
       <c r="H393" s="5"/>
       <c r="I393" s="8"/>
     </row>
-    <row r="394" spans="2:9">
+    <row r="394" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B394" s="5"/>
       <c r="G394" s="5"/>
       <c r="H394" s="5"/>
       <c r="I394" s="8"/>
     </row>
-    <row r="395" spans="2:9">
+    <row r="395" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B395" s="5"/>
       <c r="G395" s="5"/>
       <c r="H395" s="5"/>
       <c r="I395" s="8"/>
     </row>
-    <row r="396" spans="2:9">
+    <row r="396" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B396" s="5"/>
       <c r="G396" s="5"/>
       <c r="H396" s="5"/>
       <c r="I396" s="8"/>
     </row>
-    <row r="397" spans="2:9">
+    <row r="397" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B397" s="5"/>
       <c r="G397" s="5"/>
       <c r="H397" s="5"/>
       <c r="I397" s="8"/>
     </row>
-    <row r="398" spans="2:9">
+    <row r="398" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B398" s="5"/>
       <c r="G398" s="5"/>
       <c r="H398" s="5"/>
       <c r="I398" s="8"/>
     </row>
-    <row r="399" spans="2:9">
+    <row r="399" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B399" s="5"/>
       <c r="G399" s="5"/>
       <c r="H399" s="5"/>
       <c r="I399" s="8"/>
     </row>
-    <row r="400" spans="2:9">
+    <row r="400" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B400" s="5"/>
       <c r="G400" s="5"/>
       <c r="H400" s="5"/>
       <c r="I400" s="8"/>
     </row>
-    <row r="401" spans="2:9">
+    <row r="401" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B401" s="5"/>
       <c r="G401" s="5"/>
       <c r="H401" s="5"/>
       <c r="I401" s="8"/>
     </row>
-    <row r="402" spans="2:9">
+    <row r="402" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B402" s="5"/>
       <c r="G402" s="5"/>
       <c r="H402" s="5"/>
       <c r="I402" s="8"/>
     </row>
-    <row r="403" spans="2:9">
+    <row r="403" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B403" s="5"/>
       <c r="G403" s="5"/>
       <c r="H403" s="5"/>
       <c r="I403" s="8"/>
     </row>
-    <row r="404" spans="2:9">
+    <row r="404" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B404" s="5"/>
       <c r="G404" s="5"/>
       <c r="H404" s="5"/>
       <c r="I404" s="8"/>
     </row>
-    <row r="405" spans="2:9">
+    <row r="405" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B405" s="5"/>
       <c r="G405" s="5"/>
       <c r="H405" s="5"/>
       <c r="I405" s="8"/>
     </row>
-    <row r="406" spans="2:9">
+    <row r="406" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B406" s="5"/>
       <c r="G406" s="5"/>
       <c r="H406" s="5"/>
       <c r="I406" s="8"/>
     </row>
-    <row r="407" spans="2:9">
+    <row r="407" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B407" s="5"/>
       <c r="G407" s="5"/>
       <c r="H407" s="5"/>
       <c r="I407" s="8"/>
     </row>
-    <row r="408" spans="2:9">
+    <row r="408" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B408" s="5"/>
       <c r="G408" s="5"/>
       <c r="H408" s="5"/>
       <c r="I408" s="8"/>
     </row>
-    <row r="409" spans="2:9">
+    <row r="409" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B409" s="5"/>
       <c r="G409" s="5"/>
       <c r="H409" s="5"/>
       <c r="I409" s="8"/>
     </row>
-    <row r="410" spans="2:9">
+    <row r="410" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B410" s="5"/>
       <c r="G410" s="5"/>
       <c r="H410" s="5"/>
       <c r="I410" s="8"/>
     </row>
-    <row r="411" spans="2:9">
+    <row r="411" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B411" s="5"/>
       <c r="G411" s="5"/>
       <c r="H411" s="5"/>
       <c r="I411" s="8"/>
     </row>
-    <row r="412" spans="2:9">
+    <row r="412" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B412" s="5"/>
       <c r="G412" s="5"/>
       <c r="H412" s="5"/>
       <c r="I412" s="8"/>
     </row>
-    <row r="413" spans="2:9">
+    <row r="413" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B413" s="5"/>
       <c r="G413" s="5"/>
       <c r="H413" s="5"/>
       <c r="I413" s="8"/>
     </row>
-    <row r="414" spans="2:9">
+    <row r="414" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B414" s="5"/>
       <c r="G414" s="5"/>
       <c r="H414" s="5"/>
       <c r="I414" s="8"/>
     </row>
-    <row r="415" spans="2:9">
+    <row r="415" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B415" s="5"/>
       <c r="G415" s="5"/>
       <c r="H415" s="5"/>
       <c r="I415" s="8"/>
     </row>
-    <row r="416" spans="2:9">
+    <row r="416" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B416" s="5"/>
       <c r="G416" s="5"/>
       <c r="H416" s="5"/>
       <c r="I416" s="8"/>
     </row>
-    <row r="417" spans="2:9">
+    <row r="417" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B417" s="5"/>
       <c r="G417" s="5"/>
       <c r="H417" s="5"/>
       <c r="I417" s="8"/>
     </row>
-    <row r="418" spans="2:9">
+    <row r="418" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B418" s="5"/>
       <c r="G418" s="5"/>
       <c r="H418" s="5"/>
       <c r="I418" s="8"/>
     </row>
-    <row r="419" spans="2:9">
+    <row r="419" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B419" s="5"/>
       <c r="G419" s="5"/>
       <c r="H419" s="5"/>
       <c r="I419" s="8"/>
     </row>
-    <row r="420" spans="2:9">
+    <row r="420" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B420" s="5"/>
       <c r="G420" s="5"/>
       <c r="H420" s="5"/>
       <c r="I420" s="8"/>
     </row>
-    <row r="421" spans="2:9">
+    <row r="421" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B421" s="5"/>
       <c r="G421" s="5"/>
       <c r="H421" s="5"/>
       <c r="I421" s="8"/>
     </row>
-    <row r="422" spans="2:9">
+    <row r="422" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B422" s="5"/>
       <c r="G422" s="5"/>
       <c r="H422" s="5"/>
       <c r="I422" s="8"/>
     </row>
-    <row r="423" spans="2:9">
+    <row r="423" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B423" s="5"/>
       <c r="G423" s="5"/>
       <c r="H423" s="5"/>
       <c r="I423" s="8"/>
     </row>
-    <row r="424" spans="2:9">
+    <row r="424" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B424" s="5"/>
       <c r="G424" s="5"/>
       <c r="H424" s="5"/>
       <c r="I424" s="8"/>
     </row>
-    <row r="425" spans="2:9">
+    <row r="425" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B425" s="5"/>
       <c r="G425" s="5"/>
       <c r="H425" s="5"/>
       <c r="I425" s="8"/>
     </row>
-    <row r="426" spans="2:9">
+    <row r="426" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B426" s="5"/>
       <c r="G426" s="5"/>
       <c r="H426" s="5"/>
       <c r="I426" s="8"/>
     </row>
-    <row r="427" spans="2:9">
+    <row r="427" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B427" s="5"/>
       <c r="G427" s="5"/>
       <c r="H427" s="5"/>
       <c r="I427" s="8"/>
     </row>
-    <row r="428" spans="2:9">
+    <row r="428" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B428" s="5"/>
       <c r="G428" s="5"/>
       <c r="H428" s="5"/>
       <c r="I428" s="8"/>
     </row>
-    <row r="429" spans="2:9">
+    <row r="429" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B429" s="5"/>
       <c r="G429" s="5"/>
       <c r="H429" s="5"/>
       <c r="I429" s="8"/>
     </row>
-    <row r="430" spans="2:9">
+    <row r="430" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B430" s="5"/>
       <c r="G430" s="5"/>
       <c r="H430" s="5"/>
       <c r="I430" s="8"/>
     </row>
-    <row r="431" spans="2:9">
+    <row r="431" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B431" s="5"/>
       <c r="G431" s="5"/>
       <c r="H431" s="5"/>
       <c r="I431" s="8"/>
     </row>
-    <row r="432" spans="2:9">
+    <row r="432" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B432" s="5"/>
       <c r="G432" s="5"/>
       <c r="H432" s="5"/>
       <c r="I432" s="8"/>
     </row>
-    <row r="433" spans="2:9">
+    <row r="433" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B433" s="5"/>
       <c r="G433" s="5"/>
       <c r="H433" s="5"/>
       <c r="I433" s="8"/>
     </row>
-    <row r="434" spans="2:9">
+    <row r="434" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B434" s="5"/>
       <c r="G434" s="5"/>
       <c r="H434" s="5"/>
       <c r="I434" s="8"/>
     </row>
-    <row r="435" spans="2:9">
+    <row r="435" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B435" s="5"/>
       <c r="G435" s="5"/>
       <c r="H435" s="5"/>
       <c r="I435" s="8"/>
     </row>
-    <row r="436" spans="2:9">
+    <row r="436" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B436" s="5"/>
       <c r="G436" s="5"/>
       <c r="H436" s="5"/>
       <c r="I436" s="8"/>
     </row>
-    <row r="437" spans="2:9">
+    <row r="437" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B437" s="5"/>
       <c r="G437" s="5"/>
       <c r="H437" s="5"/>
       <c r="I437" s="8"/>
     </row>
-    <row r="438" spans="2:9">
+    <row r="438" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B438" s="5"/>
       <c r="G438" s="5"/>
       <c r="H438" s="5"/>
       <c r="I438" s="8"/>
     </row>
-    <row r="439" spans="2:9">
+    <row r="439" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B439" s="5"/>
       <c r="G439" s="5"/>
       <c r="H439" s="5"/>
       <c r="I439" s="8"/>
     </row>
-    <row r="440" spans="2:9">
+    <row r="440" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B440" s="5"/>
       <c r="G440" s="5"/>
       <c r="H440" s="5"/>
       <c r="I440" s="8"/>
     </row>
-    <row r="441" spans="2:9">
+    <row r="441" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B441" s="5"/>
       <c r="G441" s="5"/>
       <c r="H441" s="5"/>
       <c r="I441" s="8"/>
     </row>
-    <row r="442" spans="2:9">
+    <row r="442" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B442" s="5"/>
       <c r="G442" s="5"/>
       <c r="H442" s="5"/>
       <c r="I442" s="8"/>
     </row>
-    <row r="443" spans="2:9">
+    <row r="443" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B443" s="5"/>
       <c r="G443" s="5"/>
       <c r="H443" s="5"/>
       <c r="I443" s="8"/>
     </row>
-    <row r="444" spans="2:9">
+    <row r="444" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B444" s="5"/>
       <c r="G444" s="5"/>
       <c r="H444" s="5"/>
       <c r="I444" s="8"/>
     </row>
-    <row r="445" spans="2:9">
+    <row r="445" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B445" s="5"/>
       <c r="G445" s="5"/>
       <c r="H445" s="5"/>
       <c r="I445" s="8"/>
     </row>
-    <row r="446" spans="2:9">
+    <row r="446" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B446" s="5"/>
       <c r="G446" s="5"/>
       <c r="H446" s="5"/>
       <c r="I446" s="8"/>
     </row>
-    <row r="447" spans="2:9">
+    <row r="447" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B447" s="5"/>
       <c r="G447" s="5"/>
       <c r="H447" s="5"/>
       <c r="I447" s="8"/>
     </row>
-    <row r="448" spans="2:9">
+    <row r="448" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B448" s="5"/>
       <c r="G448" s="5"/>
       <c r="H448" s="5"/>
       <c r="I448" s="8"/>
     </row>
-    <row r="449" spans="2:9">
+    <row r="449" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B449" s="5"/>
       <c r="G449" s="5"/>
       <c r="H449" s="5"/>
       <c r="I449" s="8"/>
     </row>
-    <row r="450" spans="2:9">
+    <row r="450" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B450" s="5"/>
       <c r="G450" s="5"/>
       <c r="H450" s="5"/>
       <c r="I450" s="8"/>
     </row>
-    <row r="451" spans="2:9">
+    <row r="451" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B451" s="5"/>
       <c r="G451" s="5"/>
       <c r="H451" s="5"/>
       <c r="I451" s="8"/>
     </row>
-    <row r="452" spans="2:9">
+    <row r="452" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B452" s="5"/>
       <c r="G452" s="5"/>
       <c r="H452" s="5"/>
       <c r="I452" s="8"/>
     </row>
-    <row r="453" spans="2:9">
+    <row r="453" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B453" s="5"/>
       <c r="G453" s="5"/>
       <c r="H453" s="5"/>
       <c r="I453" s="8"/>
     </row>
-    <row r="454" spans="2:9">
+    <row r="454" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B454" s="5"/>
       <c r="G454" s="5"/>
       <c r="H454" s="5"/>
       <c r="I454" s="8"/>
     </row>
-    <row r="455" spans="2:9">
+    <row r="455" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B455" s="5"/>
       <c r="G455" s="5"/>
       <c r="H455" s="5"/>
       <c r="I455" s="8"/>
     </row>
-    <row r="456" spans="2:9">
+    <row r="456" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B456" s="5"/>
       <c r="G456" s="5"/>
       <c r="H456" s="5"/>
       <c r="I456" s="8"/>
     </row>
-    <row r="457" spans="2:9">
+    <row r="457" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B457" s="5"/>
       <c r="G457" s="5"/>
       <c r="H457" s="5"/>
       <c r="I457" s="8"/>
     </row>
-    <row r="458" spans="2:9">
+    <row r="458" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B458" s="5"/>
       <c r="G458" s="5"/>
       <c r="H458" s="5"/>
       <c r="I458" s="8"/>
     </row>
-    <row r="459" spans="2:9">
+    <row r="459" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B459" s="5"/>
       <c r="G459" s="5"/>
       <c r="H459" s="5"/>
       <c r="I459" s="8"/>
     </row>
-    <row r="460" spans="2:9">
+    <row r="460" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B460" s="5"/>
       <c r="G460" s="5"/>
       <c r="H460" s="5"/>
       <c r="I460" s="8"/>
     </row>
-    <row r="461" spans="2:9">
+    <row r="461" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B461" s="5"/>
       <c r="G461" s="5"/>
       <c r="H461" s="5"/>
       <c r="I461" s="8"/>
     </row>
-    <row r="462" spans="2:9">
+    <row r="462" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B462" s="5"/>
       <c r="G462" s="5"/>
       <c r="H462" s="5"/>
       <c r="I462" s="8"/>
     </row>
-    <row r="463" spans="2:9">
+    <row r="463" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B463" s="5"/>
       <c r="G463" s="5"/>
       <c r="H463" s="5"/>
       <c r="I463" s="8"/>
     </row>
-    <row r="464" spans="2:9">
+    <row r="464" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B464" s="5"/>
       <c r="G464" s="5"/>
       <c r="H464" s="5"/>
       <c r="I464" s="8"/>
     </row>
-    <row r="465" spans="2:9">
+    <row r="465" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B465" s="5"/>
       <c r="G465" s="5"/>
       <c r="H465" s="5"/>
       <c r="I465" s="8"/>
     </row>
-    <row r="466" spans="2:9">
+    <row r="466" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B466" s="5"/>
       <c r="G466" s="5"/>
       <c r="H466" s="5"/>
       <c r="I466" s="8"/>
     </row>
-    <row r="467" spans="2:9">
+    <row r="467" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B467" s="5"/>
       <c r="G467" s="5"/>
       <c r="H467" s="5"/>
       <c r="I467" s="8"/>
     </row>
-    <row r="468" spans="2:9">
+    <row r="468" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B468" s="5"/>
       <c r="G468" s="5"/>
       <c r="H468" s="5"/>
       <c r="I468" s="8"/>
     </row>
-    <row r="469" spans="2:9">
+    <row r="469" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B469" s="5"/>
       <c r="G469" s="5"/>
       <c r="H469" s="5"/>
       <c r="I469" s="8"/>
     </row>
-    <row r="470" spans="2:9">
+    <row r="470" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B470" s="5"/>
       <c r="G470" s="5"/>
       <c r="H470" s="5"/>
       <c r="I470" s="8"/>
     </row>
-    <row r="471" spans="2:9">
+    <row r="471" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B471" s="5"/>
       <c r="G471" s="5"/>
       <c r="H471" s="5"/>
       <c r="I471" s="8"/>
     </row>
-    <row r="472" spans="2:9">
+    <row r="472" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B472" s="5"/>
       <c r="G472" s="5"/>
       <c r="H472" s="5"/>
       <c r="I472" s="8"/>
     </row>
-    <row r="473" spans="2:9">
+    <row r="473" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B473" s="5"/>
       <c r="G473" s="5"/>
       <c r="H473" s="5"/>
       <c r="I473" s="8"/>
     </row>
-    <row r="474" spans="2:9">
+    <row r="474" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B474" s="5"/>
       <c r="G474" s="5"/>
       <c r="H474" s="5"/>
       <c r="I474" s="8"/>
     </row>
-    <row r="475" spans="2:9">
+    <row r="475" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B475" s="5"/>
       <c r="G475" s="5"/>
       <c r="H475" s="5"/>
       <c r="I475" s="8"/>
     </row>
-    <row r="476" spans="2:9">
+    <row r="476" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B476" s="5"/>
       <c r="G476" s="5"/>
       <c r="H476" s="5"/>
       <c r="I476" s="8"/>
     </row>
-    <row r="477" spans="2:9">
+    <row r="477" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B477" s="5"/>
       <c r="G477" s="5"/>
       <c r="H477" s="5"/>
       <c r="I477" s="8"/>
     </row>
-    <row r="478" spans="2:9">
+    <row r="478" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B478" s="5"/>
       <c r="G478" s="5"/>
       <c r="H478" s="5"/>
       <c r="I478" s="8"/>
     </row>
-    <row r="479" spans="2:9">
+    <row r="479" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B479" s="5"/>
       <c r="G479" s="5"/>
       <c r="H479" s="5"/>
       <c r="I479" s="8"/>
     </row>
-    <row r="480" spans="2:9">
+    <row r="480" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B480" s="5"/>
       <c r="G480" s="5"/>
       <c r="H480" s="5"/>
       <c r="I480" s="8"/>
     </row>
-    <row r="481" spans="2:9">
+    <row r="481" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B481" s="5"/>
       <c r="G481" s="5"/>
       <c r="H481" s="5"/>
       <c r="I481" s="8"/>
     </row>
-    <row r="482" spans="2:9">
+    <row r="482" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B482" s="5"/>
       <c r="G482" s="5"/>
       <c r="H482" s="5"/>
       <c r="I482" s="8"/>
     </row>
-    <row r="483" spans="2:9">
+    <row r="483" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B483" s="5"/>
       <c r="G483" s="5"/>
       <c r="H483" s="5"/>
       <c r="I483" s="8"/>
     </row>
-    <row r="484" spans="2:9">
+    <row r="484" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B484" s="5"/>
       <c r="G484" s="5"/>
       <c r="H484" s="5"/>
       <c r="I484" s="8"/>
     </row>
-    <row r="485" spans="2:9">
+    <row r="485" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B485" s="5"/>
       <c r="G485" s="5"/>
       <c r="H485" s="5"/>
       <c r="I485" s="8"/>
     </row>
-    <row r="486" spans="2:9">
+    <row r="486" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B486" s="5"/>
       <c r="G486" s="5"/>
       <c r="H486" s="5"/>
       <c r="I486" s="8"/>
     </row>
-    <row r="487" spans="2:9">
+    <row r="487" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B487" s="5"/>
       <c r="G487" s="5"/>
       <c r="H487" s="5"/>
       <c r="I487" s="8"/>
     </row>
-    <row r="488" spans="2:9">
+    <row r="488" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B488" s="5"/>
       <c r="G488" s="5"/>
       <c r="H488" s="5"/>
       <c r="I488" s="8"/>
     </row>
-    <row r="489" spans="2:9">
+    <row r="489" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B489" s="5"/>
       <c r="G489" s="5"/>
       <c r="H489" s="5"/>
       <c r="I489" s="8"/>
     </row>
-    <row r="490" spans="2:9">
+    <row r="490" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B490" s="5"/>
       <c r="G490" s="5"/>
       <c r="H490" s="5"/>
       <c r="I490" s="8"/>
     </row>
-    <row r="491" spans="2:9">
+    <row r="491" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B491" s="5"/>
       <c r="G491" s="5"/>
       <c r="H491" s="5"/>
       <c r="I491" s="8"/>
     </row>
-    <row r="492" spans="2:9">
+    <row r="492" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B492" s="5"/>
       <c r="G492" s="5"/>
       <c r="H492" s="5"/>
       <c r="I492" s="8"/>
     </row>
-    <row r="493" spans="2:9">
+    <row r="493" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B493" s="5"/>
       <c r="G493" s="5"/>
       <c r="H493" s="5"/>
       <c r="I493" s="8"/>
     </row>
-    <row r="494" spans="2:9">
+    <row r="494" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B494" s="5"/>
       <c r="G494" s="5"/>
       <c r="H494" s="5"/>
       <c r="I494" s="8"/>
     </row>
-    <row r="495" spans="2:9">
+    <row r="495" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B495" s="5"/>
       <c r="G495" s="5"/>
       <c r="H495" s="5"/>
       <c r="I495" s="8"/>
     </row>
-    <row r="496" spans="2:9">
+    <row r="496" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B496" s="5"/>
       <c r="G496" s="5"/>
       <c r="H496" s="5"/>
       <c r="I496" s="8"/>
     </row>
-    <row r="497" spans="2:9">
+    <row r="497" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B497" s="5"/>
       <c r="G497" s="5"/>
       <c r="H497" s="5"/>
       <c r="I497" s="8"/>
     </row>
-    <row r="498" spans="2:9">
+    <row r="498" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B498" s="5"/>
       <c r="G498" s="5"/>
       <c r="H498" s="5"/>
       <c r="I498" s="8"/>
     </row>
-    <row r="499" spans="2:9">
+    <row r="499" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B499" s="5"/>
       <c r="G499" s="5"/>
       <c r="H499" s="5"/>
       <c r="I499" s="8"/>
     </row>
-    <row r="500" spans="2:9">
+    <row r="500" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B500" s="5"/>
       <c r="G500" s="5"/>
       <c r="H500" s="5"/>
       <c r="I500" s="8"/>
     </row>
-    <row r="501" spans="2:9">
+    <row r="501" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B501" s="5"/>
       <c r="G501" s="5"/>
       <c r="H501" s="5"/>
       <c r="I501" s="8"/>
     </row>
-    <row r="502" spans="2:9">
+    <row r="502" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B502" s="5"/>
       <c r="G502" s="5"/>
       <c r="H502" s="5"/>
       <c r="I502" s="8"/>
     </row>
-    <row r="503" spans="2:9">
+    <row r="503" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B503" s="5"/>
       <c r="G503" s="5"/>
       <c r="H503" s="5"/>
       <c r="I503" s="8"/>
     </row>
-    <row r="504" spans="2:9">
+    <row r="504" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B504" s="5"/>
       <c r="G504" s="5"/>
       <c r="H504" s="5"/>
       <c r="I504" s="8"/>
     </row>
-    <row r="505" spans="2:9">
+    <row r="505" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B505" s="5"/>
       <c r="G505" s="5"/>
       <c r="H505" s="5"/>
       <c r="I505" s="8"/>
     </row>
-    <row r="506" spans="2:9">
+    <row r="506" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B506" s="5"/>
       <c r="G506" s="5"/>
       <c r="H506" s="5"/>
       <c r="I506" s="8"/>
     </row>
-    <row r="507" spans="2:9">
+    <row r="507" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B507" s="5"/>
       <c r="G507" s="5"/>
       <c r="H507" s="5"/>
       <c r="I507" s="8"/>
     </row>
-    <row r="508" spans="2:9">
+    <row r="508" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B508" s="5"/>
       <c r="G508" s="5"/>
       <c r="H508" s="5"/>
       <c r="I508" s="8"/>
     </row>
-    <row r="509" spans="2:9">
+    <row r="509" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B509" s="5"/>
       <c r="G509" s="5"/>
       <c r="H509" s="5"/>
       <c r="I509" s="8"/>
     </row>
-    <row r="510" spans="2:9">
+    <row r="510" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B510" s="5"/>
       <c r="G510" s="5"/>
       <c r="H510" s="5"/>
       <c r="I510" s="8"/>
     </row>
-    <row r="511" spans="2:9">
+    <row r="511" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B511" s="5"/>
       <c r="G511" s="5"/>
       <c r="H511" s="5"/>
       <c r="I511" s="8"/>
     </row>
-    <row r="512" spans="2:9">
+    <row r="512" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B512" s="5"/>
       <c r="G512" s="5"/>
       <c r="H512" s="5"/>
       <c r="I512" s="8"/>
     </row>
-    <row r="513" spans="2:9">
+    <row r="513" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B513" s="5"/>
       <c r="G513" s="5"/>
       <c r="H513" s="5"/>
       <c r="I513" s="8"/>
     </row>
-    <row r="514" spans="2:9">
+    <row r="514" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B514" s="5"/>
       <c r="G514" s="5"/>
       <c r="H514" s="5"/>
       <c r="I514" s="8"/>
     </row>
-    <row r="515" spans="2:9">
+    <row r="515" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B515" s="5"/>
       <c r="G515" s="5"/>
       <c r="H515" s="5"/>
       <c r="I515" s="8"/>
     </row>
-    <row r="516" spans="2:9">
+    <row r="516" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B516" s="5"/>
       <c r="G516" s="5"/>
       <c r="H516" s="5"/>
       <c r="I516" s="8"/>
     </row>
-    <row r="517" spans="2:9">
+    <row r="517" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B517" s="5"/>
       <c r="G517" s="5"/>
       <c r="H517" s="5"/>
       <c r="I517" s="8"/>
     </row>
-    <row r="518" spans="2:9">
+    <row r="518" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B518" s="5"/>
       <c r="G518" s="5"/>
       <c r="H518" s="5"/>
       <c r="I518" s="8"/>
     </row>
-    <row r="519" spans="2:9">
+    <row r="519" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B519" s="5"/>
       <c r="G519" s="5"/>
       <c r="H519" s="5"/>
       <c r="I519" s="8"/>
     </row>
-    <row r="520" spans="2:9">
+    <row r="520" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B520" s="5"/>
       <c r="G520" s="5"/>
       <c r="H520" s="5"/>
       <c r="I520" s="8"/>
     </row>
-    <row r="521" spans="2:9">
+    <row r="521" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B521" s="5"/>
       <c r="G521" s="5"/>
       <c r="H521" s="5"/>
       <c r="I521" s="8"/>
     </row>
-    <row r="522" spans="2:9">
+    <row r="522" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B522" s="5"/>
       <c r="G522" s="5"/>
       <c r="H522" s="5"/>
       <c r="I522" s="8"/>
     </row>
-    <row r="523" spans="2:9">
+    <row r="523" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B523" s="5"/>
       <c r="G523" s="5"/>
       <c r="H523" s="5"/>
       <c r="I523" s="8"/>
     </row>
-    <row r="524" spans="2:9">
+    <row r="524" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B524" s="5"/>
       <c r="G524" s="5"/>
       <c r="H524" s="5"/>
       <c r="I524" s="8"/>
     </row>
-    <row r="525" spans="2:9">
+    <row r="525" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B525" s="5"/>
       <c r="G525" s="5"/>
       <c r="H525" s="5"/>
       <c r="I525" s="8"/>
     </row>
-    <row r="526" spans="2:9">
+    <row r="526" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B526" s="5"/>
       <c r="G526" s="5"/>
       <c r="H526" s="5"/>
       <c r="I526" s="8"/>
     </row>
-    <row r="527" spans="2:9">
+    <row r="527" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B527" s="5"/>
       <c r="G527" s="5"/>
       <c r="H527" s="5"/>
       <c r="I527" s="8"/>
     </row>
-    <row r="528" spans="2:9">
+    <row r="528" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B528" s="5"/>
       <c r="G528" s="5"/>
       <c r="H528" s="5"/>
       <c r="I528" s="8"/>
     </row>
-    <row r="529" spans="2:9">
+    <row r="529" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B529" s="5"/>
       <c r="G529" s="5"/>
       <c r="H529" s="5"/>
       <c r="I529" s="8"/>
     </row>
-    <row r="530" spans="2:9">
+    <row r="530" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B530" s="5"/>
       <c r="G530" s="5"/>
       <c r="H530" s="5"/>
       <c r="I530" s="8"/>
     </row>
-    <row r="531" spans="2:9">
+    <row r="531" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B531" s="5"/>
       <c r="G531" s="5"/>
       <c r="H531" s="5"/>
       <c r="I531" s="8"/>
     </row>
-    <row r="532" spans="2:9">
+    <row r="532" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B532" s="5"/>
       <c r="G532" s="5"/>
       <c r="H532" s="5"/>
       <c r="I532" s="8"/>
     </row>
-    <row r="533" spans="2:9">
+    <row r="533" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B533" s="5"/>
       <c r="G533" s="5"/>
       <c r="H533" s="5"/>
       <c r="I533" s="8"/>
     </row>
-    <row r="534" spans="2:9">
+    <row r="534" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B534" s="5"/>
       <c r="G534" s="5"/>
       <c r="H534" s="5"/>
       <c r="I534" s="8"/>
     </row>
-    <row r="535" spans="2:9">
+    <row r="535" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B535" s="5"/>
       <c r="G535" s="5"/>
       <c r="H535" s="5"/>
       <c r="I535" s="8"/>
     </row>
-    <row r="536" spans="2:9">
+    <row r="536" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B536" s="5"/>
       <c r="G536" s="5"/>
       <c r="H536" s="5"/>
       <c r="I536" s="8"/>
     </row>
-    <row r="537" spans="2:9">
+    <row r="537" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B537" s="5"/>
       <c r="G537" s="5"/>
       <c r="H537" s="5"/>
       <c r="I537" s="8"/>
     </row>
-    <row r="538" spans="2:9">
+    <row r="538" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B538" s="5"/>
       <c r="G538" s="5"/>
       <c r="H538" s="5"/>
       <c r="I538" s="8"/>
     </row>
-    <row r="539" spans="2:9">
+    <row r="539" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B539" s="5"/>
       <c r="G539" s="5"/>
       <c r="H539" s="5"/>
       <c r="I539" s="8"/>
     </row>
-    <row r="540" spans="2:9">
+    <row r="540" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B540" s="5"/>
       <c r="G540" s="5"/>
       <c r="H540" s="5"/>
       <c r="I540" s="8"/>
     </row>
-    <row r="541" spans="2:9">
+    <row r="541" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B541" s="5"/>
       <c r="G541" s="5"/>
       <c r="H541" s="5"/>
       <c r="I541" s="8"/>
     </row>
-    <row r="542" spans="2:9">
+    <row r="542" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B542" s="5"/>
       <c r="G542" s="5"/>
       <c r="H542" s="5"/>
       <c r="I542" s="8"/>
     </row>
-    <row r="543" spans="2:9">
+    <row r="543" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B543" s="5"/>
       <c r="G543" s="5"/>
       <c r="H543" s="5"/>
       <c r="I543" s="8"/>
     </row>
-    <row r="544" spans="2:9">
+    <row r="544" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B544" s="5"/>
       <c r="G544" s="5"/>
       <c r="H544" s="5"/>
       <c r="I544" s="8"/>
     </row>
-    <row r="545" spans="2:9">
+    <row r="545" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B545" s="5"/>
       <c r="G545" s="5"/>
       <c r="H545" s="5"/>
       <c r="I545" s="8"/>
     </row>
-    <row r="546" spans="2:9">
+    <row r="546" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B546" s="5"/>
       <c r="G546" s="5"/>
       <c r="H546" s="5"/>
       <c r="I546" s="8"/>
     </row>
-    <row r="547" spans="2:9">
+    <row r="547" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B547" s="5"/>
       <c r="G547" s="5"/>
       <c r="H547" s="5"/>
       <c r="I547" s="8"/>
     </row>
-    <row r="548" spans="2:9">
+    <row r="548" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B548" s="5"/>
       <c r="G548" s="5"/>
       <c r="H548" s="5"/>
       <c r="I548" s="8"/>
     </row>
-    <row r="549" spans="2:9">
+    <row r="549" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B549" s="5"/>
       <c r="G549" s="5"/>
       <c r="H549" s="5"/>
       <c r="I549" s="8"/>
     </row>
-    <row r="550" spans="2:9">
+    <row r="550" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B550" s="5"/>
       <c r="G550" s="5"/>
       <c r="H550" s="5"/>
       <c r="I550" s="8"/>
     </row>
-    <row r="551" spans="2:9">
+    <row r="551" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B551" s="5"/>
       <c r="G551" s="5"/>
       <c r="H551" s="5"/>
       <c r="I551" s="8"/>
     </row>
-    <row r="552" spans="2:9">
+    <row r="552" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B552" s="5"/>
       <c r="G552" s="5"/>
       <c r="H552" s="5"/>
       <c r="I552" s="8"/>
     </row>
-    <row r="553" spans="2:9">
+    <row r="553" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B553" s="5"/>
       <c r="G553" s="5"/>
       <c r="H553" s="5"/>
       <c r="I553" s="8"/>
     </row>
-    <row r="554" spans="2:9">
+    <row r="554" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B554" s="5"/>
       <c r="G554" s="5"/>
       <c r="H554" s="5"/>
       <c r="I554" s="8"/>
     </row>
-    <row r="555" spans="2:9">
+    <row r="555" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B555" s="5"/>
       <c r="G555" s="5"/>
       <c r="H555" s="5"/>
       <c r="I555" s="8"/>
     </row>
-    <row r="556" spans="2:9">
+    <row r="556" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B556" s="5"/>
       <c r="G556" s="5"/>
       <c r="H556" s="5"/>
       <c r="I556" s="8"/>
     </row>
-    <row r="557" spans="2:9">
+    <row r="557" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B557" s="5"/>
       <c r="G557" s="5"/>
       <c r="H557" s="5"/>
       <c r="I557" s="8"/>
     </row>
-    <row r="558" spans="2:9">
+    <row r="558" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B558" s="5"/>
       <c r="G558" s="5"/>
       <c r="H558" s="5"/>
       <c r="I558" s="8"/>
     </row>
-    <row r="559" spans="2:9">
+    <row r="559" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B559" s="5"/>
       <c r="G559" s="5"/>
       <c r="H559" s="5"/>
       <c r="I559" s="8"/>
     </row>
-    <row r="560" spans="2:9">
+    <row r="560" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B560" s="5"/>
       <c r="G560" s="5"/>
       <c r="H560" s="5"/>
       <c r="I560" s="8"/>
     </row>
-    <row r="561" spans="2:9">
+    <row r="561" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B561" s="5"/>
       <c r="G561" s="5"/>
       <c r="H561" s="5"/>
       <c r="I561" s="8"/>
     </row>
-    <row r="562" spans="2:9">
+    <row r="562" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B562" s="5"/>
       <c r="G562" s="5"/>
       <c r="H562" s="5"/>
       <c r="I562" s="8"/>
     </row>
-    <row r="563" spans="2:9">
+    <row r="563" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B563" s="5"/>
       <c r="G563" s="5"/>
       <c r="H563" s="5"/>
       <c r="I563" s="8"/>
     </row>
-    <row r="564" spans="2:9">
+    <row r="564" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B564" s="5"/>
       <c r="G564" s="5"/>
       <c r="H564" s="5"/>
       <c r="I564" s="8"/>
     </row>
-    <row r="565" spans="2:9">
+    <row r="565" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B565" s="5"/>
       <c r="G565" s="5"/>
       <c r="H565" s="5"/>
       <c r="I565" s="8"/>
     </row>
-    <row r="566" spans="2:9">
+    <row r="566" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B566" s="5"/>
       <c r="G566" s="5"/>
       <c r="H566" s="5"/>
       <c r="I566" s="8"/>
     </row>
-    <row r="567" spans="2:9">
+    <row r="567" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B567" s="5"/>
       <c r="G567" s="5"/>
       <c r="H567" s="5"/>
       <c r="I567" s="8"/>
     </row>
-    <row r="568" spans="2:9">
+    <row r="568" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B568" s="5"/>
       <c r="G568" s="5"/>
       <c r="H568" s="5"/>
       <c r="I568" s="8"/>
     </row>
-    <row r="569" spans="2:9">
+    <row r="569" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B569" s="5"/>
       <c r="G569" s="5"/>
       <c r="H569" s="5"/>
       <c r="I569" s="8"/>
     </row>
-    <row r="570" spans="2:9">
+    <row r="570" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B570" s="5"/>
       <c r="G570" s="5"/>
       <c r="H570" s="5"/>
       <c r="I570" s="8"/>
     </row>
-    <row r="571" spans="2:9">
+    <row r="571" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B571" s="5"/>
       <c r="G571" s="5"/>
       <c r="H571" s="5"/>
       <c r="I571" s="8"/>
     </row>
-    <row r="572" spans="2:9">
+    <row r="572" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B572" s="5"/>
       <c r="G572" s="5"/>
       <c r="H572" s="5"/>
       <c r="I572" s="8"/>
     </row>
-    <row r="573" spans="2:9">
+    <row r="573" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B573" s="5"/>
       <c r="G573" s="5"/>
       <c r="H573" s="5"/>
       <c r="I573" s="8"/>
     </row>
-    <row r="574" spans="2:9">
+    <row r="574" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B574" s="5"/>
       <c r="G574" s="5"/>
       <c r="H574" s="5"/>
       <c r="I574" s="8"/>
     </row>
-    <row r="575" spans="2:9">
+    <row r="575" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B575" s="5"/>
       <c r="G575" s="5"/>
       <c r="H575" s="5"/>
       <c r="I575" s="8"/>
     </row>
-    <row r="576" spans="2:9">
+    <row r="576" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B576" s="5"/>
       <c r="G576" s="5"/>
       <c r="H576" s="5"/>
       <c r="I576" s="8"/>
     </row>
-    <row r="577" spans="2:9">
+    <row r="577" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B577" s="5"/>
       <c r="G577" s="5"/>
       <c r="H577" s="5"/>
       <c r="I577" s="8"/>
     </row>
-    <row r="578" spans="2:9">
+    <row r="578" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B578" s="5"/>
       <c r="G578" s="5"/>
       <c r="H578" s="5"/>
       <c r="I578" s="8"/>
     </row>
-    <row r="579" spans="2:9">
+    <row r="579" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B579" s="5"/>
       <c r="G579" s="5"/>
       <c r="H579" s="5"/>
       <c r="I579" s="8"/>
     </row>
-    <row r="580" spans="2:9">
+    <row r="580" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B580" s="5"/>
       <c r="G580" s="5"/>
       <c r="H580" s="5"/>
       <c r="I580" s="8"/>
     </row>
-    <row r="581" spans="2:9">
+    <row r="581" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B581" s="5"/>
       <c r="G581" s="5"/>
       <c r="H581" s="5"/>
       <c r="I581" s="8"/>
     </row>
-    <row r="582" spans="2:9">
+    <row r="582" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B582" s="5"/>
       <c r="G582" s="5"/>
       <c r="H582" s="5"/>
       <c r="I582" s="8"/>
     </row>
-    <row r="583" spans="2:9">
+    <row r="583" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B583" s="5"/>
       <c r="G583" s="5"/>
       <c r="H583" s="5"/>
       <c r="I583" s="8"/>
     </row>
-    <row r="584" spans="2:9">
+    <row r="584" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B584" s="5"/>
       <c r="G584" s="5"/>
       <c r="H584" s="5"/>
       <c r="I584" s="8"/>
     </row>
-    <row r="585" spans="2:9">
+    <row r="585" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B585" s="5"/>
       <c r="G585" s="5"/>
       <c r="H585" s="5"/>
       <c r="I585" s="8"/>
     </row>
-    <row r="586" spans="2:9">
+    <row r="586" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B586" s="5"/>
       <c r="G586" s="5"/>
       <c r="H586" s="5"/>
       <c r="I586" s="8"/>
     </row>
-    <row r="587" spans="2:9">
+    <row r="587" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B587" s="5"/>
       <c r="G587" s="5"/>
       <c r="H587" s="5"/>
       <c r="I587" s="8"/>
     </row>
-    <row r="588" spans="2:9">
+    <row r="588" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B588" s="5"/>
       <c r="G588" s="5"/>
       <c r="H588" s="5"/>
       <c r="I588" s="8"/>
     </row>
-    <row r="589" spans="2:9">
+    <row r="589" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B589" s="5"/>
       <c r="G589" s="5"/>
       <c r="H589" s="5"/>
       <c r="I589" s="8"/>
     </row>
-    <row r="590" spans="2:9">
+    <row r="590" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B590" s="5"/>
       <c r="G590" s="5"/>
       <c r="H590" s="5"/>
       <c r="I590" s="8"/>
     </row>
-    <row r="591" spans="2:9">
+    <row r="591" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B591" s="5"/>
       <c r="G591" s="5"/>
       <c r="H591" s="5"/>
       <c r="I591" s="8"/>
     </row>
-    <row r="592" spans="2:9">
+    <row r="592" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B592" s="5"/>
       <c r="G592" s="5"/>
       <c r="H592" s="5"/>
       <c r="I592" s="8"/>
     </row>
-    <row r="593" spans="2:9">
+    <row r="593" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B593" s="5"/>
       <c r="G593" s="5"/>
       <c r="H593" s="5"/>
       <c r="I593" s="8"/>
     </row>
-    <row r="594" spans="2:9">
+    <row r="594" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B594" s="5"/>
       <c r="G594" s="5"/>
       <c r="H594" s="5"/>
       <c r="I594" s="8"/>
     </row>
-    <row r="595" spans="2:9">
+    <row r="595" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B595" s="5"/>
       <c r="G595" s="5"/>
       <c r="H595" s="5"/>
       <c r="I595" s="8"/>
     </row>
-    <row r="596" spans="2:9">
+    <row r="596" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B596" s="5"/>
       <c r="G596" s="5"/>
       <c r="H596" s="5"/>
       <c r="I596" s="8"/>
     </row>
-    <row r="597" spans="2:9">
+    <row r="597" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B597" s="5"/>
       <c r="G597" s="5"/>
       <c r="H597" s="5"/>
       <c r="I597" s="8"/>
     </row>
-    <row r="598" spans="2:9">
+    <row r="598" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B598" s="5"/>
       <c r="G598" s="5"/>
       <c r="H598" s="5"/>
       <c r="I598" s="8"/>
     </row>
-    <row r="599" spans="2:9">
+    <row r="599" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B599" s="5"/>
       <c r="G599" s="5"/>
       <c r="H599" s="5"/>
       <c r="I599" s="8"/>
     </row>
-    <row r="600" spans="2:9">
+    <row r="600" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B600" s="5"/>
       <c r="G600" s="5"/>
       <c r="H600" s="5"/>
       <c r="I600" s="8"/>
     </row>
-    <row r="601" spans="2:9">
+    <row r="601" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B601" s="5"/>
       <c r="G601" s="5"/>
       <c r="H601" s="5"/>
       <c r="I601" s="8"/>
     </row>
-    <row r="602" spans="2:9">
+    <row r="602" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B602" s="5"/>
       <c r="G602" s="5"/>
       <c r="H602" s="5"/>
       <c r="I602" s="8"/>
     </row>
-    <row r="603" spans="2:9">
+    <row r="603" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B603" s="5"/>
       <c r="G603" s="5"/>
       <c r="H603" s="5"/>
       <c r="I603" s="8"/>
     </row>
-    <row r="604" spans="2:9">
+    <row r="604" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B604" s="5"/>
       <c r="G604" s="5"/>
       <c r="H604" s="5"/>
       <c r="I604" s="8"/>
     </row>
-    <row r="605" spans="2:9">
+    <row r="605" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B605" s="5"/>
       <c r="G605" s="5"/>
       <c r="H605" s="5"/>
       <c r="I605" s="8"/>
     </row>
-    <row r="606" spans="2:9">
+    <row r="606" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B606" s="5"/>
       <c r="G606" s="5"/>
       <c r="H606" s="5"/>
       <c r="I606" s="8"/>
     </row>
-    <row r="607" spans="2:9">
+    <row r="607" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B607" s="5"/>
       <c r="G607" s="5"/>
       <c r="H607" s="5"/>
       <c r="I607" s="8"/>
     </row>
-    <row r="608" spans="2:9">
+    <row r="608" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B608" s="5"/>
       <c r="G608" s="5"/>
       <c r="H608" s="5"/>
       <c r="I608" s="8"/>
     </row>
-    <row r="609" spans="2:9">
+    <row r="609" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B609" s="5"/>
       <c r="G609" s="5"/>
       <c r="H609" s="5"/>
       <c r="I609" s="8"/>
     </row>
-    <row r="610" spans="2:9">
+    <row r="610" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B610" s="5"/>
       <c r="G610" s="5"/>
       <c r="H610" s="5"/>
       <c r="I610" s="8"/>
     </row>
-    <row r="611" spans="2:9">
+    <row r="611" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B611" s="5"/>
       <c r="G611" s="5"/>
       <c r="H611" s="5"/>
       <c r="I611" s="8"/>
     </row>
-    <row r="612" spans="2:9">
+    <row r="612" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B612" s="5"/>
       <c r="G612" s="5"/>
       <c r="H612" s="5"/>
       <c r="I612" s="8"/>
     </row>
-    <row r="613" spans="2:9">
+    <row r="613" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B613" s="5"/>
       <c r="G613" s="5"/>
       <c r="H613" s="5"/>
       <c r="I613" s="8"/>
     </row>
-    <row r="614" spans="2:9">
+    <row r="614" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B614" s="5"/>
       <c r="G614" s="5"/>
       <c r="H614" s="5"/>
       <c r="I614" s="8"/>
     </row>
-    <row r="615" spans="2:9">
+    <row r="615" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B615" s="5"/>
       <c r="G615" s="5"/>
       <c r="H615" s="5"/>
       <c r="I615" s="8"/>
     </row>
-    <row r="616" spans="2:9">
+    <row r="616" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B616" s="5"/>
       <c r="G616" s="5"/>
       <c r="H616" s="5"/>
       <c r="I616" s="8"/>
     </row>
-    <row r="617" spans="2:9">
+    <row r="617" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B617" s="5"/>
       <c r="G617" s="5"/>
       <c r="H617" s="5"/>
       <c r="I617" s="8"/>
     </row>
-    <row r="618" spans="2:9">
+    <row r="618" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B618" s="5"/>
       <c r="G618" s="5"/>
       <c r="H618" s="5"/>
       <c r="I618" s="8"/>
     </row>
-    <row r="619" spans="2:9">
+    <row r="619" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B619" s="5"/>
       <c r="G619" s="5"/>
       <c r="H619" s="5"/>
       <c r="I619" s="8"/>
     </row>
-    <row r="620" spans="2:9">
+    <row r="620" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B620" s="5"/>
       <c r="G620" s="5"/>
       <c r="H620" s="5"/>
       <c r="I620" s="8"/>
     </row>
-    <row r="621" spans="2:9">
+    <row r="621" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B621" s="5"/>
       <c r="G621" s="5"/>
       <c r="H621" s="5"/>
       <c r="I621" s="8"/>
     </row>
-    <row r="622" spans="2:9">
+    <row r="622" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B622" s="5"/>
       <c r="G622" s="5"/>
       <c r="H622" s="5"/>
       <c r="I622" s="8"/>
     </row>
-    <row r="623" spans="2:9">
+    <row r="623" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B623" s="5"/>
       <c r="G623" s="5"/>
       <c r="H623" s="5"/>
       <c r="I623" s="8"/>
     </row>
-    <row r="624" spans="2:9">
+    <row r="624" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B624" s="5"/>
       <c r="G624" s="5"/>
       <c r="H624" s="5"/>
       <c r="I624" s="8"/>
     </row>
-    <row r="625" spans="2:9">
+    <row r="625" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B625" s="5"/>
       <c r="G625" s="5"/>
       <c r="H625" s="5"/>
       <c r="I625" s="8"/>
     </row>
-    <row r="626" spans="2:9">
+    <row r="626" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B626" s="5"/>
       <c r="G626" s="5"/>
       <c r="H626" s="5"/>
       <c r="I626" s="8"/>
     </row>
-    <row r="627" spans="2:9">
+    <row r="627" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B627" s="5"/>
       <c r="G627" s="5"/>
       <c r="H627" s="5"/>
       <c r="I627" s="8"/>
     </row>
-    <row r="628" spans="2:9">
+    <row r="628" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B628" s="5"/>
       <c r="G628" s="5"/>
       <c r="H628" s="5"/>
       <c r="I628" s="8"/>
     </row>
-    <row r="629" spans="2:9">
+    <row r="629" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B629" s="5"/>
       <c r="G629" s="5"/>
       <c r="H629" s="5"/>
       <c r="I629" s="8"/>
     </row>
-    <row r="630" spans="2:9">
+    <row r="630" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B630" s="5"/>
       <c r="G630" s="5"/>
       <c r="H630" s="5"/>
       <c r="I630" s="8"/>
     </row>
-    <row r="631" spans="2:9">
+    <row r="631" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B631" s="5"/>
       <c r="G631" s="5"/>
       <c r="H631" s="5"/>
       <c r="I631" s="8"/>
     </row>
-    <row r="632" spans="2:9">
+    <row r="632" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B632" s="5"/>
       <c r="G632" s="5"/>
       <c r="H632" s="5"/>
       <c r="I632" s="8"/>
     </row>
-    <row r="633" spans="2:9">
+    <row r="633" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B633" s="5"/>
       <c r="G633" s="5"/>
       <c r="H633" s="5"/>
       <c r="I633" s="8"/>
     </row>
-    <row r="634" spans="2:9">
+    <row r="634" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B634" s="5"/>
       <c r="G634" s="5"/>
       <c r="H634" s="5"/>
       <c r="I634" s="8"/>
     </row>
-    <row r="635" spans="2:9">
+    <row r="635" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B635" s="5"/>
       <c r="G635" s="5"/>
       <c r="H635" s="5"/>
       <c r="I635" s="8"/>
     </row>
-    <row r="636" spans="2:9">
+    <row r="636" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B636" s="5"/>
       <c r="G636" s="5"/>
       <c r="H636" s="5"/>
       <c r="I636" s="8"/>
     </row>
-    <row r="637" spans="2:9">
+    <row r="637" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B637" s="5"/>
       <c r="G637" s="5"/>
       <c r="H637" s="5"/>
       <c r="I637" s="8"/>
     </row>
-    <row r="638" spans="2:9">
+    <row r="638" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B638" s="5"/>
       <c r="G638" s="5"/>
       <c r="H638" s="5"/>
       <c r="I638" s="8"/>
     </row>
-    <row r="639" spans="2:9">
+    <row r="639" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B639" s="5"/>
       <c r="G639" s="5"/>
       <c r="H639" s="5"/>
       <c r="I639" s="8"/>
     </row>
-    <row r="640" spans="2:9">
+    <row r="640" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B640" s="5"/>
       <c r="G640" s="5"/>
       <c r="H640" s="5"/>
       <c r="I640" s="8"/>
     </row>
-    <row r="641" spans="2:9">
+    <row r="641" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B641" s="5"/>
       <c r="G641" s="5"/>
       <c r="H641" s="5"/>
       <c r="I641" s="8"/>
     </row>
-    <row r="642" spans="2:9">
+    <row r="642" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B642" s="5"/>
       <c r="G642" s="5"/>
       <c r="H642" s="5"/>
       <c r="I642" s="8"/>
     </row>
-    <row r="643" spans="2:9">
+    <row r="643" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B643" s="5"/>
       <c r="G643" s="5"/>
       <c r="H643" s="5"/>
       <c r="I643" s="8"/>
     </row>
-    <row r="644" spans="2:9">
+    <row r="644" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B644" s="5"/>
       <c r="G644" s="5"/>
       <c r="H644" s="5"/>
       <c r="I644" s="8"/>
     </row>
-    <row r="645" spans="2:9">
+    <row r="645" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B645" s="5"/>
       <c r="G645" s="5"/>
       <c r="H645" s="5"/>
       <c r="I645" s="8"/>
     </row>
-    <row r="646" spans="2:9">
+    <row r="646" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B646" s="5"/>
       <c r="G646" s="5"/>
       <c r="H646" s="5"/>
       <c r="I646" s="8"/>
     </row>
-    <row r="647" spans="2:9">
+    <row r="647" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B647" s="5"/>
       <c r="G647" s="5"/>
       <c r="H647" s="5"/>
       <c r="I647" s="8"/>
     </row>
-    <row r="648" spans="2:9">
+    <row r="648" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B648" s="5"/>
       <c r="G648" s="5"/>
       <c r="H648" s="5"/>
       <c r="I648" s="8"/>
     </row>
-    <row r="649" spans="2:9">
+    <row r="649" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B649" s="5"/>
       <c r="G649" s="5"/>
       <c r="H649" s="5"/>
       <c r="I649" s="8"/>
     </row>
-    <row r="650" spans="2:9">
+    <row r="650" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B650" s="5"/>
       <c r="G650" s="5"/>
       <c r="H650" s="5"/>
       <c r="I650" s="8"/>
     </row>
-    <row r="651" spans="2:9">
+    <row r="651" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B651" s="5"/>
       <c r="G651" s="5"/>
       <c r="H651" s="5"/>
       <c r="I651" s="8"/>
     </row>
-    <row r="652" spans="2:9">
+    <row r="652" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B652" s="5"/>
       <c r="G652" s="5"/>
       <c r="H652" s="5"/>
       <c r="I652" s="8"/>
     </row>
-    <row r="653" spans="2:9">
+    <row r="653" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B653" s="5"/>
       <c r="G653" s="5"/>
       <c r="H653" s="5"/>
       <c r="I653" s="8"/>
     </row>
-    <row r="654" spans="2:9">
+    <row r="654" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B654" s="5"/>
       <c r="G654" s="5"/>
       <c r="H654" s="5"/>
       <c r="I654" s="8"/>
     </row>
-    <row r="655" spans="2:9">
+    <row r="655" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B655" s="5"/>
       <c r="G655" s="5"/>
       <c r="H655" s="5"/>
       <c r="I655" s="8"/>
     </row>
-    <row r="656" spans="2:9">
+    <row r="656" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B656" s="5"/>
       <c r="G656" s="5"/>
       <c r="H656" s="5"/>
       <c r="I656" s="8"/>
     </row>
-    <row r="657" spans="2:9">
+    <row r="657" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B657" s="5"/>
       <c r="G657" s="5"/>
       <c r="H657" s="5"/>
       <c r="I657" s="8"/>
     </row>
-    <row r="658" spans="2:9">
+    <row r="658" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B658" s="5"/>
       <c r="G658" s="5"/>
       <c r="H658" s="5"/>
       <c r="I658" s="8"/>
     </row>
-    <row r="659" spans="2:9">
+    <row r="659" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B659" s="5"/>
       <c r="G659" s="5"/>
       <c r="H659" s="5"/>
       <c r="I659" s="8"/>
     </row>
-    <row r="660" spans="2:9">
+    <row r="660" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B660" s="5"/>
       <c r="G660" s="5"/>
       <c r="H660" s="5"/>
       <c r="I660" s="8"/>
     </row>
-    <row r="661" spans="2:9">
+    <row r="661" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B661" s="5"/>
       <c r="G661" s="5"/>
       <c r="H661" s="5"/>
       <c r="I661" s="8"/>
     </row>
-    <row r="662" spans="2:9">
+    <row r="662" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B662" s="5"/>
       <c r="G662" s="5"/>
       <c r="H662" s="5"/>
       <c r="I662" s="8"/>
     </row>
-    <row r="663" spans="2:9">
+    <row r="663" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B663" s="5"/>
       <c r="G663" s="5"/>
       <c r="H663" s="5"/>
       <c r="I663" s="8"/>
     </row>
-    <row r="664" spans="2:9">
+    <row r="664" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B664" s="5"/>
       <c r="G664" s="5"/>
       <c r="H664" s="5"/>
       <c r="I664" s="8"/>
     </row>
-    <row r="665" spans="2:9">
+    <row r="665" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B665" s="5"/>
       <c r="G665" s="5"/>
       <c r="H665" s="5"/>
       <c r="I665" s="8"/>
     </row>
-    <row r="666" spans="2:9">
+    <row r="666" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B666" s="5"/>
       <c r="G666" s="5"/>
       <c r="H666" s="5"/>
       <c r="I666" s="8"/>
     </row>
-    <row r="667" spans="2:9">
+    <row r="667" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B667" s="5"/>
       <c r="G667" s="5"/>
       <c r="H667" s="5"/>
       <c r="I667" s="8"/>
     </row>
-    <row r="668" spans="2:9">
+    <row r="668" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B668" s="5"/>
       <c r="G668" s="5"/>
       <c r="H668" s="5"/>
       <c r="I668" s="8"/>
     </row>
-    <row r="669" spans="2:9">
+    <row r="669" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B669" s="5"/>
       <c r="G669" s="5"/>
       <c r="H669" s="5"/>
       <c r="I669" s="8"/>
     </row>
-    <row r="670" spans="2:9">
+    <row r="670" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B670" s="5"/>
       <c r="G670" s="5"/>
       <c r="H670" s="5"/>
       <c r="I670" s="8"/>
     </row>
-    <row r="671" spans="2:9">
+    <row r="671" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B671" s="5"/>
       <c r="G671" s="5"/>
       <c r="H671" s="5"/>
       <c r="I671" s="8"/>
     </row>
-    <row r="672" spans="2:9">
+    <row r="672" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B672" s="5"/>
       <c r="G672" s="5"/>
       <c r="H672" s="5"/>
       <c r="I672" s="8"/>
     </row>
-    <row r="673" spans="2:9">
+    <row r="673" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B673" s="5"/>
       <c r="G673" s="5"/>
       <c r="H673" s="5"/>
       <c r="I673" s="8"/>
     </row>
-    <row r="674" spans="2:9">
+    <row r="674" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B674" s="5"/>
       <c r="G674" s="5"/>
       <c r="H674" s="5"/>
       <c r="I674" s="8"/>
     </row>
-    <row r="675" spans="2:9">
+    <row r="675" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B675" s="5"/>
       <c r="G675" s="5"/>
       <c r="H675" s="5"/>
       <c r="I675" s="8"/>
     </row>
-    <row r="676" spans="2:9">
+    <row r="676" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B676" s="5"/>
       <c r="G676" s="5"/>
       <c r="H676" s="5"/>
       <c r="I676" s="8"/>
     </row>
-    <row r="677" spans="2:9">
+    <row r="677" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B677" s="5"/>
       <c r="G677" s="5"/>
       <c r="H677" s="5"/>
       <c r="I677" s="8"/>
     </row>
-    <row r="678" spans="2:9">
+    <row r="678" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B678" s="5"/>
       <c r="G678" s="5"/>
       <c r="H678" s="5"/>
       <c r="I678" s="8"/>
     </row>
-    <row r="679" spans="2:9">
+    <row r="679" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B679" s="5"/>
       <c r="G679" s="5"/>
       <c r="H679" s="5"/>
       <c r="I679" s="8"/>
     </row>
-    <row r="680" spans="2:9">
+    <row r="680" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B680" s="5"/>
       <c r="G680" s="5"/>
       <c r="H680" s="5"/>
       <c r="I680" s="8"/>
     </row>
-    <row r="681" spans="2:9">
+    <row r="681" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B681" s="5"/>
       <c r="G681" s="5"/>
       <c r="H681" s="5"/>
       <c r="I681" s="8"/>
     </row>
-    <row r="682" spans="2:9">
+    <row r="682" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B682" s="5"/>
       <c r="G682" s="5"/>
       <c r="H682" s="5"/>
       <c r="I682" s="8"/>
     </row>
-    <row r="683" spans="2:9">
+    <row r="683" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B683" s="5"/>
       <c r="G683" s="5"/>
       <c r="H683" s="5"/>
       <c r="I683" s="8"/>
     </row>
-    <row r="684" spans="2:9">
+    <row r="684" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B684" s="5"/>
       <c r="G684" s="5"/>
       <c r="H684" s="5"/>
       <c r="I684" s="8"/>
     </row>
-    <row r="685" spans="2:9">
+    <row r="685" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B685" s="5"/>
       <c r="G685" s="5"/>
       <c r="H685" s="5"/>
       <c r="I685" s="8"/>
     </row>
-    <row r="686" spans="2:9">
+    <row r="686" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B686" s="5"/>
       <c r="G686" s="5"/>
       <c r="H686" s="5"/>
       <c r="I686" s="8"/>
     </row>
-    <row r="687" spans="2:9">
+    <row r="687" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B687" s="5"/>
       <c r="G687" s="5"/>
       <c r="H687" s="5"/>
       <c r="I687" s="8"/>
     </row>
-    <row r="688" spans="2:9">
+    <row r="688" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B688" s="5"/>
       <c r="G688" s="5"/>
       <c r="H688" s="5"/>
       <c r="I688" s="8"/>
     </row>
-    <row r="689" spans="2:9">
+    <row r="689" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B689" s="5"/>
       <c r="G689" s="5"/>
       <c r="H689" s="5"/>
       <c r="I689" s="8"/>
     </row>
-    <row r="690" spans="2:9">
+    <row r="690" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B690" s="5"/>
       <c r="G690" s="5"/>
       <c r="H690" s="5"/>
       <c r="I690" s="8"/>
     </row>
-    <row r="691" spans="2:9">
+    <row r="691" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B691" s="5"/>
       <c r="G691" s="5"/>
       <c r="H691" s="5"/>
       <c r="I691" s="8"/>
     </row>
-    <row r="692" spans="2:9">
+    <row r="692" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B692" s="5"/>
       <c r="G692" s="5"/>
       <c r="H692" s="5"/>
       <c r="I692" s="8"/>
     </row>
-    <row r="693" spans="2:9">
+    <row r="693" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B693" s="5"/>
       <c r="G693" s="5"/>
       <c r="H693" s="5"/>
       <c r="I693" s="8"/>
     </row>
-    <row r="694" spans="2:9">
+    <row r="694" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B694" s="5"/>
       <c r="G694" s="5"/>
       <c r="H694" s="5"/>
       <c r="I694" s="8"/>
     </row>
-    <row r="695" spans="2:9">
+    <row r="695" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B695" s="5"/>
       <c r="G695" s="5"/>
       <c r="H695" s="5"/>
       <c r="I695" s="8"/>
     </row>
-    <row r="696" spans="2:9">
+    <row r="696" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B696" s="5"/>
       <c r="G696" s="5"/>
       <c r="H696" s="5"/>
       <c r="I696" s="8"/>
     </row>
-    <row r="697" spans="2:9">
+    <row r="697" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B697" s="5"/>
       <c r="G697" s="5"/>
       <c r="H697" s="5"/>
       <c r="I697" s="8"/>
     </row>
-    <row r="698" spans="2:9">
+    <row r="698" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B698" s="5"/>
       <c r="G698" s="5"/>
       <c r="H698" s="5"/>
       <c r="I698" s="8"/>
     </row>
-    <row r="699" spans="2:9">
+    <row r="699" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B699" s="5"/>
       <c r="G699" s="5"/>
       <c r="H699" s="5"/>
       <c r="I699" s="8"/>
     </row>
-    <row r="700" spans="2:9">
+    <row r="700" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B700" s="5"/>
       <c r="G700" s="5"/>
       <c r="H700" s="5"/>
       <c r="I700" s="8"/>
     </row>
-    <row r="701" spans="2:9">
+    <row r="701" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B701" s="5"/>
       <c r="G701" s="5"/>
       <c r="H701" s="5"/>
       <c r="I701" s="8"/>
     </row>
-    <row r="702" spans="2:9">
+    <row r="702" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B702" s="5"/>
       <c r="G702" s="5"/>
       <c r="H702" s="5"/>
       <c r="I702" s="8"/>
     </row>
-    <row r="703" spans="2:9">
+    <row r="703" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B703" s="5"/>
       <c r="G703" s="5"/>
       <c r="H703" s="5"/>
       <c r="I703" s="8"/>
     </row>
-    <row r="704" spans="2:9">
+    <row r="704" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B704" s="5"/>
       <c r="G704" s="5"/>
       <c r="H704" s="5"/>
       <c r="I704" s="8"/>
     </row>
-    <row r="705" spans="2:9">
+    <row r="705" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B705" s="5"/>
       <c r="G705" s="5"/>
       <c r="H705" s="5"/>
       <c r="I705" s="8"/>
     </row>
-    <row r="706" spans="2:9">
+    <row r="706" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B706" s="5"/>
       <c r="G706" s="5"/>
       <c r="H706" s="5"/>
       <c r="I706" s="8"/>
     </row>
-    <row r="707" spans="2:9">
+    <row r="707" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B707" s="5"/>
       <c r="G707" s="5"/>
       <c r="H707" s="5"/>
       <c r="I707" s="8"/>
     </row>
-    <row r="708" spans="2:9">
+    <row r="708" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B708" s="5"/>
       <c r="G708" s="5"/>
       <c r="H708" s="5"/>
       <c r="I708" s="8"/>
     </row>
-    <row r="709" spans="2:9">
+    <row r="709" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B709" s="5"/>
       <c r="G709" s="5"/>
       <c r="H709" s="5"/>
       <c r="I709" s="8"/>
     </row>
-    <row r="710" spans="2:9">
+    <row r="710" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B710" s="5"/>
       <c r="G710" s="5"/>
       <c r="H710" s="5"/>
       <c r="I710" s="8"/>
     </row>
-    <row r="711" spans="2:9">
+    <row r="711" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B711" s="5"/>
       <c r="G711" s="5"/>
       <c r="H711" s="5"/>
       <c r="I711" s="8"/>
     </row>
-    <row r="712" spans="2:9">
+    <row r="712" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B712" s="5"/>
       <c r="G712" s="5"/>
       <c r="H712" s="5"/>
       <c r="I712" s="8"/>
     </row>
-    <row r="713" spans="2:9">
+    <row r="713" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B713" s="5"/>
       <c r="G713" s="5"/>
       <c r="H713" s="5"/>
       <c r="I713" s="8"/>
     </row>
-    <row r="714" spans="2:9">
+    <row r="714" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B714" s="5"/>
       <c r="G714" s="5"/>
       <c r="H714" s="5"/>
       <c r="I714" s="8"/>
     </row>
-    <row r="715" spans="2:9">
+    <row r="715" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B715" s="5"/>
       <c r="G715" s="5"/>
       <c r="H715" s="5"/>
       <c r="I715" s="8"/>
     </row>
-    <row r="716" spans="2:9">
+    <row r="716" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B716" s="5"/>
       <c r="G716" s="5"/>
       <c r="H716" s="5"/>
       <c r="I716" s="8"/>
     </row>
-    <row r="717" spans="2:9">
+    <row r="717" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B717" s="5"/>
       <c r="G717" s="5"/>
       <c r="H717" s="5"/>
       <c r="I717" s="8"/>
     </row>
-    <row r="718" spans="2:9">
+    <row r="718" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B718" s="5"/>
       <c r="G718" s="5"/>
       <c r="H718" s="5"/>
       <c r="I718" s="8"/>
     </row>
-    <row r="719" spans="2:9">
+    <row r="719" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B719" s="5"/>
       <c r="G719" s="5"/>
       <c r="H719" s="5"/>
       <c r="I719" s="8"/>
     </row>
-    <row r="720" spans="2:9">
+    <row r="720" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B720" s="5"/>
       <c r="G720" s="5"/>
       <c r="H720" s="5"/>
       <c r="I720" s="8"/>
     </row>
-    <row r="721" spans="2:9">
+    <row r="721" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B721" s="5"/>
       <c r="G721" s="5"/>
       <c r="H721" s="5"/>
       <c r="I721" s="8"/>
     </row>
-    <row r="722" spans="2:9">
+    <row r="722" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B722" s="5"/>
       <c r="G722" s="5"/>
       <c r="H722" s="5"/>
       <c r="I722" s="8"/>
     </row>
-    <row r="723" spans="2:9">
+    <row r="723" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B723" s="5"/>
       <c r="G723" s="5"/>
       <c r="H723" s="5"/>
       <c r="I723" s="8"/>
     </row>
-    <row r="724" spans="2:9">
+    <row r="724" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B724" s="5"/>
       <c r="G724" s="5"/>
       <c r="H724" s="5"/>
       <c r="I724" s="8"/>
     </row>
-    <row r="725" spans="2:9">
+    <row r="725" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B725" s="5"/>
       <c r="G725" s="5"/>
       <c r="H725" s="5"/>
       <c r="I725" s="8"/>
     </row>
-    <row r="726" spans="2:9">
+    <row r="726" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B726" s="5"/>
       <c r="G726" s="5"/>
       <c r="H726" s="5"/>
       <c r="I726" s="8"/>
     </row>
-    <row r="727" spans="2:9">
+    <row r="727" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B727" s="5"/>
       <c r="G727" s="5"/>
       <c r="H727" s="5"/>
       <c r="I727" s="8"/>
     </row>
-    <row r="728" spans="2:9">
+    <row r="728" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B728" s="5"/>
       <c r="G728" s="5"/>
       <c r="H728" s="5"/>
       <c r="I728" s="8"/>
     </row>
-    <row r="729" spans="2:9">
+    <row r="729" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B729" s="5"/>
       <c r="G729" s="5"/>
       <c r="H729" s="5"/>
       <c r="I729" s="8"/>
     </row>
-    <row r="730" spans="2:9">
+    <row r="730" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B730" s="5"/>
       <c r="G730" s="5"/>
       <c r="H730" s="5"/>
       <c r="I730" s="8"/>
     </row>
-    <row r="731" spans="2:9">
+    <row r="731" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B731" s="5"/>
       <c r="G731" s="5"/>
       <c r="H731" s="5"/>
       <c r="I731" s="8"/>
     </row>
-    <row r="732" spans="2:9">
+    <row r="732" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B732" s="5"/>
       <c r="G732" s="5"/>
       <c r="H732" s="5"/>
       <c r="I732" s="8"/>
     </row>
-    <row r="733" spans="2:9">
+    <row r="733" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B733" s="5"/>
       <c r="G733" s="5"/>
       <c r="H733" s="5"/>
       <c r="I733" s="8"/>
     </row>
-    <row r="734" spans="2:9">
+    <row r="734" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B734" s="5"/>
       <c r="G734" s="5"/>
       <c r="H734" s="5"/>
       <c r="I734" s="8"/>
     </row>
-    <row r="735" spans="2:9">
+    <row r="735" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B735" s="5"/>
       <c r="G735" s="5"/>
       <c r="H735" s="5"/>
       <c r="I735" s="8"/>
     </row>
-    <row r="736" spans="2:9">
+    <row r="736" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B736" s="5"/>
       <c r="G736" s="5"/>
       <c r="H736" s="5"/>
       <c r="I736" s="8"/>
     </row>
-    <row r="737" spans="2:9">
+    <row r="737" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B737" s="5"/>
       <c r="G737" s="5"/>
       <c r="H737" s="5"/>
       <c r="I737" s="8"/>
     </row>
-    <row r="738" spans="2:9">
+    <row r="738" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B738" s="5"/>
       <c r="G738" s="5"/>
       <c r="H738" s="5"/>
       <c r="I738" s="8"/>
     </row>
-    <row r="739" spans="2:9">
+    <row r="739" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B739" s="5"/>
       <c r="G739" s="5"/>
       <c r="H739" s="5"/>
       <c r="I739" s="8"/>
     </row>
-    <row r="740" spans="2:9">
+    <row r="740" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B740" s="5"/>
       <c r="G740" s="5"/>
       <c r="H740" s="5"/>
       <c r="I740" s="8"/>
     </row>
-    <row r="741" spans="2:9">
+    <row r="741" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B741" s="5"/>
       <c r="G741" s="5"/>
       <c r="H741" s="5"/>
       <c r="I741" s="8"/>
     </row>
-    <row r="742" spans="2:9">
+    <row r="742" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B742" s="5"/>
       <c r="G742" s="5"/>
       <c r="H742" s="5"/>
       <c r="I742" s="8"/>
     </row>
-    <row r="743" spans="2:9">
+    <row r="743" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B743" s="5"/>
       <c r="G743" s="5"/>
       <c r="H743" s="5"/>
       <c r="I743" s="8"/>
     </row>
-    <row r="744" spans="2:9">
+    <row r="744" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B744" s="5"/>
       <c r="G744" s="5"/>
       <c r="H744" s="5"/>
       <c r="I744" s="8"/>
     </row>
-    <row r="745" spans="2:9">
+    <row r="745" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B745" s="5"/>
       <c r="G745" s="5"/>
       <c r="H745" s="5"/>
       <c r="I745" s="8"/>
     </row>
-    <row r="746" spans="2:9">
+    <row r="746" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B746" s="5"/>
       <c r="G746" s="5"/>
       <c r="H746" s="5"/>
       <c r="I746" s="8"/>
     </row>
-    <row r="747" spans="2:9">
+    <row r="747" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B747" s="5"/>
       <c r="G747" s="5"/>
       <c r="H747" s="5"/>
       <c r="I747" s="8"/>
     </row>
-    <row r="748" spans="2:9">
+    <row r="748" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B748" s="5"/>
       <c r="G748" s="5"/>
       <c r="H748" s="5"/>
       <c r="I748" s="8"/>
     </row>
-    <row r="749" spans="2:9">
+    <row r="749" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B749" s="5"/>
       <c r="G749" s="5"/>
       <c r="H749" s="5"/>
       <c r="I749" s="8"/>
     </row>
-    <row r="750" spans="2:9">
+    <row r="750" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B750" s="5"/>
       <c r="G750" s="5"/>
       <c r="H750" s="5"/>
       <c r="I750" s="8"/>
     </row>
-    <row r="751" spans="2:9">
+    <row r="751" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B751" s="5"/>
       <c r="G751" s="5"/>
       <c r="H751" s="5"/>
       <c r="I751" s="8"/>
     </row>
-    <row r="752" spans="2:9">
+    <row r="752" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B752" s="5"/>
       <c r="G752" s="5"/>
       <c r="H752" s="5"/>
       <c r="I752" s="8"/>
     </row>
-    <row r="753" spans="2:9">
+    <row r="753" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B753" s="5"/>
       <c r="G753" s="5"/>
       <c r="H753" s="5"/>
       <c r="I753" s="8"/>
     </row>
-    <row r="754" spans="2:9">
+    <row r="754" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B754" s="5"/>
       <c r="G754" s="5"/>
       <c r="H754" s="5"/>
       <c r="I754" s="8"/>
     </row>
-    <row r="755" spans="2:9">
+    <row r="755" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B755" s="5"/>
       <c r="G755" s="5"/>
       <c r="H755" s="5"/>
       <c r="I755" s="8"/>
     </row>
-    <row r="756" spans="2:9">
+    <row r="756" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B756" s="5"/>
       <c r="G756" s="5"/>
       <c r="H756" s="5"/>
       <c r="I756" s="8"/>
     </row>
-    <row r="757" spans="2:9">
+    <row r="757" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B757" s="5"/>
       <c r="G757" s="5"/>
       <c r="H757" s="5"/>
       <c r="I757" s="8"/>
     </row>
-    <row r="758" spans="2:9">
+    <row r="758" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B758" s="5"/>
       <c r="G758" s="5"/>
       <c r="H758" s="5"/>
       <c r="I758" s="8"/>
     </row>
-    <row r="759" spans="2:9">
+    <row r="759" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B759" s="5"/>
       <c r="G759" s="5"/>
       <c r="H759" s="5"/>
       <c r="I759" s="8"/>
     </row>
-    <row r="760" spans="2:9">
+    <row r="760" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B760" s="5"/>
       <c r="G760" s="5"/>
       <c r="H760" s="5"/>
       <c r="I760" s="8"/>
     </row>
-    <row r="761" spans="2:9">
+    <row r="761" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B761" s="5"/>
       <c r="G761" s="5"/>
       <c r="H761" s="5"/>
       <c r="I761" s="8"/>
     </row>
-    <row r="762" spans="2:9">
+    <row r="762" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B762" s="5"/>
       <c r="G762" s="5"/>
       <c r="H762" s="5"/>
       <c r="I762" s="8"/>
     </row>
-    <row r="763" spans="2:9">
+    <row r="763" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B763" s="5"/>
       <c r="G763" s="5"/>
       <c r="H763" s="5"/>
       <c r="I763" s="8"/>
     </row>
-    <row r="764" spans="2:9">
+    <row r="764" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B764" s="5"/>
       <c r="G764" s="5"/>
       <c r="H764" s="5"/>
       <c r="I764" s="8"/>
     </row>
-    <row r="765" spans="2:9">
+    <row r="765" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B765" s="5"/>
       <c r="G765" s="5"/>
       <c r="H765" s="5"/>
       <c r="I765" s="8"/>
     </row>
-    <row r="766" spans="2:9">
+    <row r="766" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B766" s="5"/>
       <c r="G766" s="5"/>
       <c r="H766" s="5"/>
       <c r="I766" s="8"/>
     </row>
-    <row r="767" spans="2:9">
+    <row r="767" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B767" s="5"/>
       <c r="G767" s="5"/>
       <c r="H767" s="5"/>
       <c r="I767" s="8"/>
     </row>
-    <row r="768" spans="2:9">
+    <row r="768" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B768" s="5"/>
       <c r="G768" s="5"/>
       <c r="H768" s="5"/>
       <c r="I768" s="8"/>
     </row>
-    <row r="769" spans="2:9">
+    <row r="769" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B769" s="5"/>
       <c r="G769" s="5"/>
       <c r="H769" s="5"/>
       <c r="I769" s="8"/>
     </row>
-    <row r="770" spans="2:9">
+    <row r="770" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B770" s="5"/>
       <c r="G770" s="5"/>
       <c r="H770" s="5"/>
       <c r="I770" s="8"/>
     </row>
-    <row r="771" spans="2:9">
+    <row r="771" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B771" s="5"/>
       <c r="G771" s="5"/>
       <c r="H771" s="5"/>
       <c r="I771" s="8"/>
     </row>
-    <row r="772" spans="2:9">
+    <row r="772" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B772" s="5"/>
       <c r="G772" s="5"/>
       <c r="H772" s="5"/>
       <c r="I772" s="8"/>
     </row>
-    <row r="773" spans="2:9">
+    <row r="773" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B773" s="5"/>
       <c r="G773" s="5"/>
       <c r="H773" s="5"/>
       <c r="I773" s="8"/>
     </row>
-    <row r="774" spans="2:9">
+    <row r="774" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B774" s="5"/>
       <c r="G774" s="5"/>
       <c r="H774" s="5"/>
       <c r="I774" s="8"/>
     </row>
-    <row r="775" spans="2:9">
+    <row r="775" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B775" s="5"/>
       <c r="G775" s="5"/>
       <c r="H775" s="5"/>
       <c r="I775" s="8"/>
     </row>
-    <row r="776" spans="2:9">
+    <row r="776" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B776" s="5"/>
       <c r="G776" s="5"/>
       <c r="H776" s="5"/>
       <c r="I776" s="8"/>
     </row>
-    <row r="777" spans="2:9">
+    <row r="777" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B777" s="5"/>
       <c r="G777" s="5"/>
       <c r="H777" s="5"/>
       <c r="I777" s="8"/>
     </row>
-    <row r="778" spans="2:9">
+    <row r="778" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B778" s="5"/>
       <c r="G778" s="5"/>
       <c r="H778" s="5"/>
       <c r="I778" s="8"/>
     </row>
-    <row r="779" spans="2:9">
+    <row r="779" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B779" s="5"/>
       <c r="G779" s="5"/>
       <c r="H779" s="5"/>
       <c r="I779" s="8"/>
     </row>
-    <row r="780" spans="2:9">
+    <row r="780" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B780" s="5"/>
       <c r="G780" s="5"/>
       <c r="H780" s="5"/>
       <c r="I780" s="8"/>
     </row>
-    <row r="781" spans="2:9">
+    <row r="781" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B781" s="5"/>
       <c r="G781" s="5"/>
       <c r="H781" s="5"/>
       <c r="I781" s="8"/>
     </row>
-    <row r="782" spans="2:9">
+    <row r="782" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B782" s="5"/>
       <c r="G782" s="5"/>
       <c r="H782" s="5"/>
       <c r="I782" s="8"/>
     </row>
-    <row r="783" spans="2:9">
+    <row r="783" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B783" s="5"/>
       <c r="G783" s="5"/>
       <c r="H783" s="5"/>
       <c r="I783" s="8"/>
     </row>
-    <row r="784" spans="2:9">
+    <row r="784" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B784" s="5"/>
       <c r="G784" s="5"/>
       <c r="H784" s="5"/>
       <c r="I784" s="8"/>
     </row>
-    <row r="785" spans="2:9">
+    <row r="785" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B785" s="5"/>
       <c r="G785" s="5"/>
       <c r="H785" s="5"/>
       <c r="I785" s="8"/>
     </row>
-    <row r="786" spans="2:9">
+    <row r="786" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B786" s="5"/>
       <c r="G786" s="5"/>
       <c r="H786" s="5"/>
       <c r="I786" s="8"/>
     </row>
-    <row r="787" spans="2:9">
+    <row r="787" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B787" s="5"/>
       <c r="G787" s="5"/>
       <c r="H787" s="5"/>
       <c r="I787" s="8"/>
     </row>
-    <row r="788" spans="2:9">
+    <row r="788" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B788" s="5"/>
       <c r="G788" s="5"/>
       <c r="H788" s="5"/>
       <c r="I788" s="8"/>
     </row>
-    <row r="789" spans="2:9">
+    <row r="789" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B789" s="5"/>
       <c r="G789" s="5"/>
       <c r="H789" s="5"/>
       <c r="I789" s="8"/>
     </row>
-    <row r="790" spans="2:9">
+    <row r="790" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B790" s="5"/>
       <c r="G790" s="5"/>
       <c r="H790" s="5"/>
       <c r="I790" s="8"/>
     </row>
-    <row r="791" spans="2:9">
+    <row r="791" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B791" s="5"/>
       <c r="G791" s="5"/>
       <c r="H791" s="5"/>
       <c r="I791" s="8"/>
     </row>
-    <row r="792" spans="2:9">
+    <row r="792" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B792" s="5"/>
       <c r="G792" s="5"/>
       <c r="H792" s="5"/>
       <c r="I792" s="8"/>
     </row>
-    <row r="793" spans="2:9">
+    <row r="793" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B793" s="5"/>
       <c r="G793" s="5"/>
       <c r="H793" s="5"/>
       <c r="I793" s="8"/>
     </row>
-    <row r="794" spans="2:9">
+    <row r="794" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B794" s="5"/>
       <c r="G794" s="5"/>
       <c r="H794" s="5"/>
       <c r="I794" s="8"/>
     </row>
-    <row r="795" spans="2:9">
+    <row r="795" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B795" s="5"/>
       <c r="G795" s="5"/>
       <c r="H795" s="5"/>
       <c r="I795" s="8"/>
     </row>
-    <row r="796" spans="2:9">
+    <row r="796" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B796" s="5"/>
       <c r="G796" s="5"/>
       <c r="H796" s="5"/>
       <c r="I796" s="8"/>
     </row>
-    <row r="797" spans="2:9">
+    <row r="797" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B797" s="5"/>
       <c r="G797" s="5"/>
       <c r="H797" s="5"/>
       <c r="I797" s="8"/>
     </row>
-    <row r="798" spans="2:9">
+    <row r="798" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B798" s="5"/>
       <c r="G798" s="5"/>
       <c r="H798" s="5"/>
       <c r="I798" s="8"/>
     </row>
-    <row r="799" spans="2:9">
+    <row r="799" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B799" s="5"/>
       <c r="G799" s="5"/>
       <c r="H799" s="5"/>
       <c r="I799" s="8"/>
     </row>
-    <row r="800" spans="2:9">
+    <row r="800" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B800" s="5"/>
       <c r="G800" s="5"/>
       <c r="H800" s="5"/>
       <c r="I800" s="8"/>
     </row>
-    <row r="801" spans="2:9">
+    <row r="801" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B801" s="5"/>
       <c r="G801" s="5"/>
       <c r="H801" s="5"/>
       <c r="I801" s="8"/>
     </row>
-    <row r="802" spans="2:9">
+    <row r="802" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B802" s="5"/>
       <c r="G802" s="5"/>
       <c r="H802" s="5"/>
       <c r="I802" s="8"/>
     </row>
-    <row r="803" spans="2:9">
+    <row r="803" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B803" s="5"/>
       <c r="G803" s="5"/>
       <c r="H803" s="5"/>
       <c r="I803" s="8"/>
     </row>
-    <row r="804" spans="2:9">
+    <row r="804" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B804" s="5"/>
       <c r="G804" s="5"/>
       <c r="H804" s="5"/>
       <c r="I804" s="8"/>
     </row>
-    <row r="805" spans="2:9">
+    <row r="805" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B805" s="5"/>
       <c r="G805" s="5"/>
       <c r="H805" s="5"/>
       <c r="I805" s="8"/>
     </row>
-    <row r="806" spans="2:9">
+    <row r="806" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B806" s="5"/>
       <c r="G806" s="5"/>
       <c r="H806" s="5"/>
       <c r="I806" s="8"/>
     </row>
-    <row r="807" spans="2:9">
+    <row r="807" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B807" s="5"/>
       <c r="G807" s="5"/>
       <c r="H807" s="5"/>
       <c r="I807" s="8"/>
     </row>
-    <row r="808" spans="2:9">
+    <row r="808" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B808" s="5"/>
       <c r="G808" s="5"/>
       <c r="H808" s="5"/>
       <c r="I808" s="8"/>
     </row>
-    <row r="809" spans="2:9">
+    <row r="809" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B809" s="5"/>
       <c r="G809" s="5"/>
       <c r="H809" s="5"/>
       <c r="I809" s="8"/>
     </row>
-    <row r="810" spans="2:9">
+    <row r="810" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B810" s="5"/>
       <c r="G810" s="5"/>
       <c r="H810" s="5"/>
       <c r="I810" s="8"/>
     </row>
-    <row r="811" spans="2:9">
+    <row r="811" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B811" s="5"/>
       <c r="G811" s="5"/>
       <c r="H811" s="5"/>
       <c r="I811" s="8"/>
     </row>
-    <row r="812" spans="2:9">
+    <row r="812" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B812" s="5"/>
       <c r="G812" s="5"/>
       <c r="H812" s="5"/>
       <c r="I812" s="8"/>
     </row>
-    <row r="813" spans="2:9">
+    <row r="813" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B813" s="5"/>
       <c r="G813" s="5"/>
       <c r="H813" s="5"/>
       <c r="I813" s="8"/>
     </row>
-    <row r="814" spans="2:9">
+    <row r="814" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B814" s="5"/>
       <c r="G814" s="5"/>
       <c r="H814" s="5"/>
       <c r="I814" s="8"/>
     </row>
-    <row r="815" spans="2:9">
+    <row r="815" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B815" s="5"/>
       <c r="G815" s="5"/>
       <c r="H815" s="5"/>
       <c r="I815" s="8"/>
     </row>
-    <row r="816" spans="2:9">
+    <row r="816" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B816" s="5"/>
       <c r="G816" s="5"/>
       <c r="H816" s="5"/>
       <c r="I816" s="8"/>
     </row>
-    <row r="817" spans="2:9">
+    <row r="817" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B817" s="5"/>
       <c r="G817" s="5"/>
       <c r="H817" s="5"/>
       <c r="I817" s="8"/>
     </row>
-    <row r="818" spans="2:9">
+    <row r="818" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B818" s="5"/>
       <c r="G818" s="5"/>
       <c r="H818" s="5"/>
       <c r="I818" s="8"/>
     </row>
-    <row r="819" spans="2:9">
+    <row r="819" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B819" s="5"/>
       <c r="G819" s="5"/>
       <c r="H819" s="5"/>
       <c r="I819" s="8"/>
     </row>
-    <row r="820" spans="2:9">
+    <row r="820" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B820" s="5"/>
       <c r="G820" s="5"/>
       <c r="H820" s="5"/>
       <c r="I820" s="8"/>
     </row>
-    <row r="821" spans="2:9">
+    <row r="821" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B821" s="5"/>
       <c r="G821" s="5"/>
       <c r="H821" s="5"/>
       <c r="I821" s="8"/>
     </row>
-    <row r="822" spans="2:9">
+    <row r="822" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B822" s="5"/>
       <c r="G822" s="5"/>
       <c r="H822" s="5"/>
       <c r="I822" s="8"/>
     </row>
-    <row r="823" spans="2:9">
+    <row r="823" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B823" s="5"/>
       <c r="G823" s="5"/>
       <c r="H823" s="5"/>
       <c r="I823" s="8"/>
     </row>
-    <row r="824" spans="2:9">
+    <row r="824" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B824" s="5"/>
       <c r="G824" s="5"/>
       <c r="H824" s="5"/>
       <c r="I824" s="8"/>
     </row>
-    <row r="825" spans="2:9">
+    <row r="825" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B825" s="5"/>
       <c r="G825" s="5"/>
       <c r="H825" s="5"/>
       <c r="I825" s="8"/>
     </row>
-    <row r="826" spans="2:9">
+    <row r="826" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B826" s="5"/>
       <c r="G826" s="5"/>
       <c r="H826" s="5"/>
       <c r="I826" s="8"/>
     </row>
-    <row r="827" spans="2:9">
+    <row r="827" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B827" s="5"/>
       <c r="G827" s="5"/>
       <c r="H827" s="5"/>
       <c r="I827" s="8"/>
     </row>
-    <row r="828" spans="2:9">
+    <row r="828" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B828" s="5"/>
       <c r="G828" s="5"/>
       <c r="H828" s="5"/>
       <c r="I828" s="8"/>
     </row>
-    <row r="829" spans="2:9">
+    <row r="829" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B829" s="5"/>
       <c r="G829" s="5"/>
       <c r="H829" s="5"/>
       <c r="I829" s="8"/>
     </row>
-    <row r="830" spans="2:9">
+    <row r="830" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B830" s="5"/>
       <c r="G830" s="5"/>
       <c r="H830" s="5"/>
       <c r="I830" s="8"/>
     </row>
-    <row r="831" spans="2:9">
+    <row r="831" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B831" s="5"/>
       <c r="G831" s="5"/>
       <c r="H831" s="5"/>
       <c r="I831" s="8"/>
     </row>
-    <row r="832" spans="2:9">
+    <row r="832" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B832" s="5"/>
       <c r="G832" s="5"/>
       <c r="H832" s="5"/>
       <c r="I832" s="8"/>
     </row>
-    <row r="833" spans="2:9">
+    <row r="833" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B833" s="5"/>
       <c r="G833" s="5"/>
       <c r="H833" s="5"/>
       <c r="I833" s="8"/>
     </row>
-    <row r="834" spans="2:9">
+    <row r="834" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B834" s="5"/>
       <c r="G834" s="5"/>
       <c r="H834" s="5"/>
       <c r="I834" s="8"/>
     </row>
-    <row r="835" spans="2:9">
+    <row r="835" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B835" s="5"/>
       <c r="G835" s="5"/>
       <c r="H835" s="5"/>
       <c r="I835" s="8"/>
     </row>
-    <row r="836" spans="2:9">
+    <row r="836" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B836" s="5"/>
       <c r="G836" s="5"/>
       <c r="H836" s="5"/>
       <c r="I836" s="8"/>
     </row>
-    <row r="837" spans="2:9">
+    <row r="837" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B837" s="5"/>
       <c r="G837" s="5"/>
       <c r="H837" s="5"/>
       <c r="I837" s="8"/>
     </row>
-    <row r="838" spans="2:9">
+    <row r="838" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B838" s="5"/>
       <c r="G838" s="5"/>
       <c r="H838" s="5"/>
       <c r="I838" s="8"/>
     </row>
-    <row r="839" spans="2:9">
+    <row r="839" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B839" s="5"/>
       <c r="G839" s="5"/>
       <c r="H839" s="5"/>
       <c r="I839" s="8"/>
     </row>
-    <row r="840" spans="2:9">
+    <row r="840" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B840" s="5"/>
       <c r="G840" s="5"/>
       <c r="H840" s="5"/>
       <c r="I840" s="8"/>
     </row>
-    <row r="841" spans="2:9">
+    <row r="841" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B841" s="5"/>
       <c r="G841" s="5"/>
       <c r="H841" s="5"/>
       <c r="I841" s="8"/>
     </row>
-    <row r="842" spans="2:9">
+    <row r="842" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B842" s="5"/>
       <c r="G842" s="5"/>
       <c r="H842" s="5"/>
       <c r="I842" s="8"/>
     </row>
-    <row r="843" spans="2:9">
+    <row r="843" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B843" s="5"/>
       <c r="G843" s="5"/>
       <c r="H843" s="5"/>
       <c r="I843" s="8"/>
     </row>
-    <row r="844" spans="2:9">
+    <row r="844" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B844" s="5"/>
       <c r="G844" s="5"/>
       <c r="H844" s="5"/>
       <c r="I844" s="8"/>
     </row>
-    <row r="845" spans="2:9">
+    <row r="845" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B845" s="5"/>
       <c r="G845" s="5"/>
       <c r="H845" s="5"/>
       <c r="I845" s="8"/>
     </row>
-    <row r="846" spans="2:9">
+    <row r="846" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B846" s="5"/>
       <c r="G846" s="5"/>
       <c r="H846" s="5"/>
       <c r="I846" s="8"/>
     </row>
-    <row r="847" spans="2:9">
+    <row r="847" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B847" s="5"/>
       <c r="G847" s="5"/>
       <c r="H847" s="5"/>
       <c r="I847" s="8"/>
     </row>
-    <row r="848" spans="2:9">
+    <row r="848" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B848" s="5"/>
       <c r="G848" s="5"/>
       <c r="H848" s="5"/>
       <c r="I848" s="8"/>
     </row>
-    <row r="849" spans="2:9">
+    <row r="849" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B849" s="5"/>
       <c r="G849" s="5"/>
       <c r="H849" s="5"/>
       <c r="I849" s="8"/>
     </row>
-    <row r="850" spans="2:9">
+    <row r="850" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B850" s="5"/>
       <c r="G850" s="5"/>
       <c r="H850" s="5"/>
       <c r="I850" s="8"/>
     </row>
-    <row r="851" spans="2:9">
+    <row r="851" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B851" s="5"/>
       <c r="G851" s="5"/>
       <c r="H851" s="5"/>
       <c r="I851" s="8"/>
     </row>
-    <row r="852" spans="2:9">
+    <row r="852" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B852" s="5"/>
       <c r="G852" s="5"/>
       <c r="H852" s="5"/>
       <c r="I852" s="8"/>
     </row>
-    <row r="853" spans="2:9">
+    <row r="853" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B853" s="5"/>
       <c r="G853" s="5"/>
       <c r="H853" s="5"/>
       <c r="I853" s="8"/>
     </row>
-    <row r="854" spans="2:9">
+    <row r="854" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B854" s="5"/>
       <c r="G854" s="5"/>
       <c r="H854" s="5"/>
       <c r="I854" s="8"/>
     </row>
-    <row r="855" spans="2:9">
+    <row r="855" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B855" s="5"/>
       <c r="G855" s="5"/>
       <c r="H855" s="5"/>
       <c r="I855" s="8"/>
     </row>
-    <row r="856" spans="2:9">
+    <row r="856" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B856" s="5"/>
       <c r="G856" s="5"/>
       <c r="H856" s="5"/>
       <c r="I856" s="8"/>
     </row>
-    <row r="857" spans="2:9">
+    <row r="857" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B857" s="5"/>
       <c r="G857" s="5"/>
       <c r="H857" s="5"/>
       <c r="I857" s="8"/>
     </row>
-    <row r="858" spans="2:9">
+    <row r="858" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B858" s="5"/>
       <c r="G858" s="5"/>
       <c r="H858" s="5"/>
       <c r="I858" s="8"/>
     </row>
-    <row r="859" spans="2:9">
+    <row r="859" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B859" s="5"/>
       <c r="G859" s="5"/>
       <c r="H859" s="5"/>
       <c r="I859" s="8"/>
     </row>
-    <row r="860" spans="2:9">
+    <row r="860" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B860" s="5"/>
       <c r="G860" s="5"/>
       <c r="H860" s="5"/>
       <c r="I860" s="8"/>
     </row>
-    <row r="861" spans="2:9">
+    <row r="861" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B861" s="5"/>
       <c r="G861" s="5"/>
       <c r="H861" s="5"/>
       <c r="I861" s="8"/>
     </row>
-    <row r="862" spans="2:9">
+    <row r="862" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B862" s="5"/>
       <c r="G862" s="5"/>
       <c r="H862" s="5"/>
       <c r="I862" s="8"/>
     </row>
-    <row r="863" spans="2:9">
+    <row r="863" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B863" s="5"/>
       <c r="G863" s="5"/>
       <c r="H863" s="5"/>
       <c r="I863" s="8"/>
     </row>
-    <row r="864" spans="2:9">
+    <row r="864" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B864" s="5"/>
       <c r="G864" s="5"/>
       <c r="H864" s="5"/>
       <c r="I864" s="8"/>
     </row>
-    <row r="865" spans="2:9">
+    <row r="865" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B865" s="5"/>
       <c r="G865" s="5"/>
       <c r="H865" s="5"/>
       <c r="I865" s="8"/>
     </row>
-    <row r="866" spans="2:9">
+    <row r="866" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B866" s="5"/>
       <c r="G866" s="5"/>
       <c r="H866" s="5"/>
       <c r="I866" s="8"/>
     </row>
-    <row r="867" spans="2:9">
+    <row r="867" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B867" s="5"/>
       <c r="G867" s="5"/>
       <c r="H867" s="5"/>
       <c r="I867" s="8"/>
     </row>
-    <row r="868" spans="2:9">
+    <row r="868" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B868" s="5"/>
       <c r="G868" s="5"/>
       <c r="H868" s="5"/>
       <c r="I868" s="8"/>
     </row>
-    <row r="869" spans="2:9">
+    <row r="869" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B869" s="5"/>
       <c r="G869" s="5"/>
       <c r="H869" s="5"/>
       <c r="I869" s="8"/>
     </row>
-    <row r="870" spans="2:9">
+    <row r="870" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B870" s="5"/>
       <c r="G870" s="5"/>
       <c r="H870" s="5"/>
       <c r="I870" s="8"/>
     </row>
-    <row r="871" spans="2:9">
+    <row r="871" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B871" s="5"/>
       <c r="G871" s="5"/>
       <c r="H871" s="5"/>
       <c r="I871" s="8"/>
     </row>
-    <row r="872" spans="2:9">
+    <row r="872" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B872" s="5"/>
       <c r="G872" s="5"/>
       <c r="H872" s="5"/>
       <c r="I872" s="8"/>
     </row>
-    <row r="873" spans="2:9">
+    <row r="873" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B873" s="5"/>
       <c r="G873" s="5"/>
       <c r="H873" s="5"/>
       <c r="I873" s="8"/>
     </row>
-    <row r="874" spans="2:9">
+    <row r="874" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B874" s="5"/>
       <c r="G874" s="5"/>
       <c r="H874" s="5"/>
       <c r="I874" s="8"/>
     </row>
-    <row r="875" spans="2:9">
+    <row r="875" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B875" s="5"/>
       <c r="G875" s="5"/>
       <c r="H875" s="5"/>
       <c r="I875" s="8"/>
     </row>
-    <row r="876" spans="2:9">
+    <row r="876" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B876" s="5"/>
       <c r="G876" s="5"/>
       <c r="H876" s="5"/>
       <c r="I876" s="8"/>
     </row>
-    <row r="877" spans="2:9">
+    <row r="877" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B877" s="5"/>
       <c r="G877" s="5"/>
       <c r="H877" s="5"/>
       <c r="I877" s="8"/>
     </row>
-    <row r="878" spans="2:9">
+    <row r="878" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B878" s="5"/>
       <c r="G878" s="5"/>
       <c r="H878" s="5"/>
       <c r="I878" s="8"/>
     </row>
-    <row r="879" spans="2:9">
+    <row r="879" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B879" s="5"/>
       <c r="G879" s="5"/>
       <c r="H879" s="5"/>
       <c r="I879" s="8"/>
     </row>
-    <row r="880" spans="2:9">
+    <row r="880" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B880" s="5"/>
       <c r="G880" s="5"/>
       <c r="H880" s="5"/>
       <c r="I880" s="8"/>
     </row>
-    <row r="881" spans="2:9">
+    <row r="881" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B881" s="5"/>
       <c r="G881" s="5"/>
       <c r="H881" s="5"/>
       <c r="I881" s="8"/>
     </row>
-    <row r="882" spans="2:9">
+    <row r="882" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B882" s="5"/>
       <c r="G882" s="5"/>
       <c r="H882" s="5"/>
       <c r="I882" s="8"/>
     </row>
-    <row r="883" spans="2:9">
+    <row r="883" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B883" s="5"/>
       <c r="G883" s="5"/>
       <c r="H883" s="5"/>
       <c r="I883" s="8"/>
     </row>
-    <row r="884" spans="2:9">
+    <row r="884" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B884" s="5"/>
       <c r="G884" s="5"/>
       <c r="H884" s="5"/>
       <c r="I884" s="8"/>
     </row>
-    <row r="885" spans="2:9">
+    <row r="885" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B885" s="5"/>
       <c r="G885" s="5"/>
       <c r="H885" s="5"/>
       <c r="I885" s="8"/>
     </row>
-    <row r="886" spans="2:9">
+    <row r="886" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B886" s="5"/>
       <c r="G886" s="5"/>
       <c r="H886" s="5"/>
       <c r="I886" s="8"/>
     </row>
-    <row r="887" spans="2:9">
+    <row r="887" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B887" s="5"/>
       <c r="G887" s="5"/>
       <c r="H887" s="5"/>
       <c r="I887" s="8"/>
     </row>
-    <row r="888" spans="2:9">
+    <row r="888" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B888" s="5"/>
       <c r="G888" s="5"/>
       <c r="H888" s="5"/>
       <c r="I888" s="8"/>
     </row>
-    <row r="889" spans="2:9">
+    <row r="889" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B889" s="5"/>
       <c r="G889" s="5"/>
       <c r="H889" s="5"/>
       <c r="I889" s="8"/>
     </row>
-    <row r="890" spans="2:9">
+    <row r="890" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B890" s="5"/>
       <c r="G890" s="5"/>
       <c r="H890" s="5"/>
       <c r="I890" s="8"/>
     </row>
-    <row r="891" spans="2:9">
+    <row r="891" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B891" s="5"/>
       <c r="G891" s="5"/>
       <c r="H891" s="5"/>
       <c r="I891" s="8"/>
     </row>
-    <row r="892" spans="2:9">
+    <row r="892" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B892" s="5"/>
       <c r="G892" s="5"/>
       <c r="H892" s="5"/>
       <c r="I892" s="8"/>
     </row>
-    <row r="893" spans="2:9">
+    <row r="893" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B893" s="5"/>
       <c r="G893" s="5"/>
       <c r="H893" s="5"/>
       <c r="I893" s="8"/>
     </row>
-    <row r="894" spans="2:9">
+    <row r="894" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B894" s="5"/>
       <c r="G894" s="5"/>
       <c r="H894" s="5"/>
       <c r="I894" s="8"/>
     </row>
-    <row r="895" spans="2:9">
+    <row r="895" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B895" s="5"/>
       <c r="G895" s="5"/>
       <c r="H895" s="5"/>
       <c r="I895" s="8"/>
     </row>
-    <row r="896" spans="2:9">
+    <row r="896" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B896" s="5"/>
       <c r="G896" s="5"/>
       <c r="H896" s="5"/>
       <c r="I896" s="8"/>
     </row>
-    <row r="897" spans="2:9">
+    <row r="897" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B897" s="5"/>
       <c r="G897" s="5"/>
       <c r="H897" s="5"/>
       <c r="I897" s="8"/>
     </row>
-    <row r="898" spans="2:9">
+    <row r="898" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B898" s="5"/>
       <c r="G898" s="5"/>
       <c r="H898" s="5"/>
       <c r="I898" s="8"/>
     </row>
-    <row r="899" spans="2:9">
+    <row r="899" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B899" s="5"/>
       <c r="G899" s="5"/>
       <c r="H899" s="5"/>
       <c r="I899" s="8"/>
     </row>
-    <row r="900" spans="2:9">
+    <row r="900" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B900" s="5"/>
       <c r="G900" s="5"/>
       <c r="H900" s="5"/>
       <c r="I900" s="8"/>
     </row>
-    <row r="901" spans="2:9">
+    <row r="901" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B901" s="5"/>
       <c r="G901" s="5"/>
       <c r="H901" s="5"/>
       <c r="I901" s="8"/>
     </row>
-    <row r="902" spans="2:9">
+    <row r="902" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B902" s="5"/>
       <c r="G902" s="5"/>
       <c r="H902" s="5"/>
       <c r="I902" s="8"/>
     </row>
-    <row r="903" spans="2:9">
+    <row r="903" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B903" s="5"/>
       <c r="G903" s="5"/>
       <c r="H903" s="5"/>
       <c r="I903" s="8"/>
     </row>
-    <row r="904" spans="2:9">
+    <row r="904" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B904" s="5"/>
       <c r="G904" s="5"/>
       <c r="H904" s="5"/>
       <c r="I904" s="8"/>
     </row>
-    <row r="905" spans="2:9">
+    <row r="905" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B905" s="5"/>
       <c r="G905" s="5"/>
       <c r="H905" s="5"/>
       <c r="I905" s="8"/>
     </row>
-    <row r="906" spans="2:9">
+    <row r="906" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B906" s="5"/>
       <c r="G906" s="5"/>
       <c r="H906" s="5"/>
       <c r="I906" s="8"/>
     </row>
-    <row r="907" spans="2:9">
+    <row r="907" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B907" s="5"/>
       <c r="G907" s="5"/>
       <c r="H907" s="5"/>
       <c r="I907" s="8"/>
     </row>
-    <row r="908" spans="2:9">
+    <row r="908" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B908" s="5"/>
       <c r="G908" s="5"/>
       <c r="H908" s="5"/>
       <c r="I908" s="8"/>
     </row>
-    <row r="909" spans="2:9">
+    <row r="909" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B909" s="5"/>
       <c r="G909" s="5"/>
       <c r="H909" s="5"/>
       <c r="I909" s="8"/>
     </row>
-    <row r="910" spans="2:9">
+    <row r="910" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B910" s="5"/>
       <c r="G910" s="5"/>
       <c r="H910" s="5"/>
       <c r="I910" s="8"/>
     </row>
-    <row r="911" spans="2:9">
+    <row r="911" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B911" s="5"/>
       <c r="G911" s="5"/>
       <c r="H911" s="5"/>
       <c r="I911" s="8"/>
     </row>
-    <row r="912" spans="2:9">
+    <row r="912" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B912" s="5"/>
       <c r="G912" s="5"/>
       <c r="H912" s="5"/>
       <c r="I912" s="8"/>
     </row>
-    <row r="913" spans="2:9">
+    <row r="913" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B913" s="5"/>
       <c r="G913" s="5"/>
       <c r="H913" s="5"/>
       <c r="I913" s="8"/>
     </row>
-    <row r="914" spans="2:9">
+    <row r="914" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B914" s="5"/>
       <c r="G914" s="5"/>
       <c r="H914" s="5"/>
       <c r="I914" s="8"/>
     </row>
-    <row r="915" spans="2:9">
+    <row r="915" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B915" s="5"/>
       <c r="G915" s="5"/>
       <c r="H915" s="5"/>
       <c r="I915" s="8"/>
     </row>
-    <row r="916" spans="2:9">
+    <row r="916" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B916" s="5"/>
       <c r="G916" s="5"/>
       <c r="H916" s="5"/>
       <c r="I916" s="8"/>
     </row>
-    <row r="917" spans="2:9">
+    <row r="917" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B917" s="5"/>
       <c r="G917" s="5"/>
       <c r="H917" s="5"/>
       <c r="I917" s="8"/>
     </row>
-    <row r="918" spans="2:9">
+    <row r="918" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B918" s="5"/>
       <c r="G918" s="5"/>
       <c r="H918" s="5"/>
       <c r="I918" s="8"/>
     </row>
-    <row r="919" spans="2:9">
+    <row r="919" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B919" s="5"/>
       <c r="G919" s="5"/>
       <c r="H919" s="5"/>
       <c r="I919" s="8"/>
     </row>
-    <row r="920" spans="2:9">
+    <row r="920" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B920" s="5"/>
       <c r="G920" s="5"/>
       <c r="H920" s="5"/>
       <c r="I920" s="8"/>
     </row>
-    <row r="921" spans="2:9">
+    <row r="921" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B921" s="5"/>
       <c r="G921" s="5"/>
       <c r="H921" s="5"/>
       <c r="I921" s="8"/>
     </row>
-    <row r="922" spans="2:9">
+    <row r="922" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B922" s="5"/>
       <c r="G922" s="5"/>
       <c r="H922" s="5"/>
       <c r="I922" s="8"/>
     </row>
-    <row r="923" spans="2:9">
+    <row r="923" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B923" s="5"/>
       <c r="G923" s="5"/>
       <c r="H923" s="5"/>
       <c r="I923" s="8"/>
     </row>
-    <row r="924" spans="2:9">
+    <row r="924" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B924" s="5"/>
       <c r="G924" s="5"/>
       <c r="H924" s="5"/>
       <c r="I924" s="8"/>
     </row>
-    <row r="925" spans="2:9">
+    <row r="925" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B925" s="5"/>
       <c r="G925" s="5"/>
       <c r="H925" s="5"/>
       <c r="I925" s="8"/>
     </row>
-    <row r="926" spans="2:9">
+    <row r="926" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B926" s="5"/>
       <c r="G926" s="5"/>
       <c r="H926" s="5"/>
       <c r="I926" s="8"/>
     </row>
-    <row r="927" spans="2:9">
+    <row r="927" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B927" s="5"/>
       <c r="G927" s="5"/>
       <c r="H927" s="5"/>
       <c r="I927" s="8"/>
     </row>
-    <row r="928" spans="2:9">
+    <row r="928" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B928" s="5"/>
       <c r="G928" s="5"/>
       <c r="H928" s="5"/>
       <c r="I928" s="8"/>
     </row>
-    <row r="929" spans="2:9">
+    <row r="929" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B929" s="5"/>
       <c r="G929" s="5"/>
       <c r="H929" s="5"/>
       <c r="I929" s="8"/>
     </row>
-    <row r="930" spans="2:9">
+    <row r="930" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B930" s="5"/>
       <c r="G930" s="5"/>
       <c r="H930" s="5"/>
       <c r="I930" s="8"/>
     </row>
-    <row r="931" spans="2:9">
+    <row r="931" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B931" s="5"/>
       <c r="G931" s="5"/>
       <c r="H931" s="5"/>
       <c r="I931" s="8"/>
     </row>
-    <row r="932" spans="2:9">
+    <row r="932" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B932" s="5"/>
       <c r="G932" s="5"/>
       <c r="H932" s="5"/>
       <c r="I932" s="8"/>
     </row>
-    <row r="933" spans="2:9">
+    <row r="933" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B933" s="5"/>
       <c r="G933" s="5"/>
       <c r="H933" s="5"/>
       <c r="I933" s="8"/>
     </row>
-    <row r="934" spans="2:9">
+    <row r="934" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B934" s="5"/>
       <c r="G934" s="5"/>
       <c r="H934" s="5"/>
       <c r="I934" s="8"/>
     </row>
-    <row r="935" spans="2:9">
+    <row r="935" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B935" s="5"/>
       <c r="G935" s="5"/>
       <c r="H935" s="5"/>
       <c r="I935" s="8"/>
     </row>
-    <row r="936" spans="2:9">
+    <row r="936" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B936" s="5"/>
       <c r="G936" s="5"/>
       <c r="H936" s="5"/>
       <c r="I936" s="8"/>
     </row>
-    <row r="937" spans="2:9">
+    <row r="937" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B937" s="5"/>
       <c r="G937" s="5"/>
       <c r="H937" s="5"/>
       <c r="I937" s="8"/>
     </row>
-    <row r="938" spans="2:9">
+    <row r="938" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B938" s="5"/>
       <c r="G938" s="5"/>
       <c r="H938" s="5"/>
       <c r="I938" s="8"/>
     </row>
-    <row r="939" spans="2:9">
+    <row r="939" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B939" s="5"/>
       <c r="G939" s="5"/>
       <c r="H939" s="5"/>
       <c r="I939" s="8"/>
     </row>
-    <row r="940" spans="2:9">
+    <row r="940" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B940" s="5"/>
       <c r="G940" s="5"/>
       <c r="H940" s="5"/>
       <c r="I940" s="8"/>
     </row>
-    <row r="941" spans="2:9">
+    <row r="941" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B941" s="5"/>
       <c r="G941" s="5"/>
       <c r="H941" s="5"/>
       <c r="I941" s="8"/>
     </row>
-    <row r="942" spans="2:9">
+    <row r="942" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B942" s="5"/>
       <c r="G942" s="5"/>
       <c r="H942" s="5"/>
       <c r="I942" s="8"/>
     </row>
-    <row r="943" spans="2:9">
+    <row r="943" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B943" s="5"/>
       <c r="G943" s="5"/>
       <c r="H943" s="5"/>
       <c r="I943" s="8"/>
     </row>
-    <row r="944" spans="2:9">
+    <row r="944" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B944" s="5"/>
       <c r="G944" s="5"/>
       <c r="H944" s="5"/>
       <c r="I944" s="8"/>
     </row>
-    <row r="945" spans="2:9">
+    <row r="945" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B945" s="5"/>
       <c r="G945" s="5"/>
       <c r="H945" s="5"/>
       <c r="I945" s="8"/>
     </row>
-    <row r="946" spans="2:9">
+    <row r="946" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B946" s="5"/>
       <c r="G946" s="5"/>
       <c r="H946" s="5"/>
       <c r="I946" s="8"/>
     </row>
-    <row r="947" spans="2:9">
+    <row r="947" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B947" s="5"/>
       <c r="G947" s="5"/>
       <c r="H947" s="5"/>
       <c r="I947" s="8"/>
     </row>
-    <row r="948" spans="2:9">
+    <row r="948" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B948" s="5"/>
       <c r="G948" s="5"/>
       <c r="H948" s="5"/>
       <c r="I948" s="8"/>
     </row>
-    <row r="949" spans="2:9">
+    <row r="949" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B949" s="5"/>
       <c r="G949" s="5"/>
       <c r="H949" s="5"/>
       <c r="I949" s="8"/>
     </row>
-    <row r="950" spans="2:9">
+    <row r="950" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B950" s="5"/>
       <c r="G950" s="5"/>
       <c r="H950" s="5"/>
       <c r="I950" s="8"/>
     </row>
-    <row r="951" spans="2:9">
+    <row r="951" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B951" s="5"/>
       <c r="G951" s="5"/>
       <c r="H951" s="5"/>
       <c r="I951" s="8"/>
     </row>
-    <row r="952" spans="2:9">
+    <row r="952" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B952" s="5"/>
       <c r="G952" s="5"/>
       <c r="H952" s="5"/>
       <c r="I952" s="8"/>
     </row>
-    <row r="953" spans="2:9">
+    <row r="953" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B953" s="5"/>
       <c r="G953" s="5"/>
       <c r="H953" s="5"/>
       <c r="I953" s="8"/>
     </row>
-    <row r="954" spans="2:9">
+    <row r="954" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B954" s="5"/>
       <c r="G954" s="5"/>
       <c r="H954" s="5"/>
       <c r="I954" s="8"/>
     </row>
-    <row r="955" spans="2:9">
+    <row r="955" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B955" s="5"/>
       <c r="G955" s="5"/>
       <c r="H955" s="5"/>
       <c r="I955" s="8"/>
     </row>
-    <row r="956" spans="2:9">
+    <row r="956" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B956" s="5"/>
       <c r="G956" s="5"/>
       <c r="H956" s="5"/>
       <c r="I956" s="8"/>
     </row>
-    <row r="957" spans="2:9">
+    <row r="957" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B957" s="5"/>
       <c r="G957" s="5"/>
       <c r="H957" s="5"/>
       <c r="I957" s="8"/>
     </row>
-    <row r="958" spans="2:9">
+    <row r="958" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B958" s="5"/>
       <c r="G958" s="5"/>
       <c r="H958" s="5"/>
       <c r="I958" s="8"/>
     </row>
-    <row r="959" spans="2:9">
+    <row r="959" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B959" s="5"/>
       <c r="G959" s="5"/>
       <c r="H959" s="5"/>
       <c r="I959" s="8"/>
     </row>
-    <row r="960" spans="2:9">
+    <row r="960" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B960" s="5"/>
       <c r="G960" s="5"/>
       <c r="H960" s="5"/>
       <c r="I960" s="8"/>
     </row>
-    <row r="961" spans="2:9">
+    <row r="961" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B961" s="5"/>
       <c r="G961" s="5"/>
       <c r="H961" s="5"/>
       <c r="I961" s="8"/>
     </row>
-    <row r="962" spans="2:9">
+    <row r="962" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B962" s="5"/>
       <c r="G962" s="5"/>
       <c r="H962" s="5"/>
       <c r="I962" s="8"/>
     </row>
-    <row r="963" spans="2:9">
+    <row r="963" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B963" s="5"/>
       <c r="G963" s="5"/>
       <c r="H963" s="5"/>
       <c r="I963" s="8"/>
     </row>
-    <row r="964" spans="2:9">
+    <row r="964" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B964" s="5"/>
       <c r="G964" s="5"/>
       <c r="H964" s="5"/>
       <c r="I964" s="8"/>
     </row>
-    <row r="965" spans="2:9">
+    <row r="965" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B965" s="5"/>
       <c r="G965" s="5"/>
       <c r="H965" s="5"/>
       <c r="I965" s="8"/>
     </row>
-    <row r="966" spans="2:9">
+    <row r="966" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B966" s="5"/>
       <c r="G966" s="5"/>
       <c r="H966" s="5"/>
       <c r="I966" s="8"/>
     </row>
-    <row r="967" spans="2:9">
+    <row r="967" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B967" s="5"/>
       <c r="G967" s="5"/>
       <c r="H967" s="5"/>
       <c r="I967" s="8"/>
     </row>
-    <row r="968" spans="2:9">
+    <row r="968" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B968" s="5"/>
       <c r="G968" s="5"/>
       <c r="H968" s="5"/>
       <c r="I968" s="8"/>
     </row>
-    <row r="969" spans="2:9">
+    <row r="969" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B969" s="5"/>
       <c r="G969" s="5"/>
       <c r="H969" s="5"/>
       <c r="I969" s="8"/>
     </row>
-    <row r="970" spans="2:9">
+    <row r="970" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B970" s="5"/>
       <c r="G970" s="5"/>
       <c r="H970" s="5"/>
       <c r="I970" s="8"/>
     </row>
-    <row r="971" spans="2:9">
+    <row r="971" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B971" s="5"/>
       <c r="G971" s="5"/>
       <c r="H971" s="5"/>
       <c r="I971" s="8"/>
     </row>
-    <row r="972" spans="2:9">
+    <row r="972" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B972" s="5"/>
       <c r="G972" s="5"/>
       <c r="H972" s="5"/>
       <c r="I972" s="8"/>
     </row>
-    <row r="973" spans="2:9">
+    <row r="973" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B973" s="5"/>
       <c r="G973" s="5"/>
       <c r="H973" s="5"/>
       <c r="I973" s="8"/>
     </row>
-    <row r="974" spans="2:9">
+    <row r="974" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B974" s="5"/>
       <c r="G974" s="5"/>
       <c r="H974" s="5"/>
       <c r="I974" s="8"/>
     </row>
-    <row r="975" spans="2:9">
+    <row r="975" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B975" s="5"/>
       <c r="G975" s="5"/>
       <c r="H975" s="5"/>
       <c r="I975" s="8"/>
     </row>
-    <row r="976" spans="2:9">
+    <row r="976" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B976" s="5"/>
       <c r="G976" s="5"/>
       <c r="H976" s="5"/>
       <c r="I976" s="8"/>
     </row>
-    <row r="977" spans="2:9">
+    <row r="977" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B977" s="5"/>
       <c r="G977" s="5"/>
       <c r="H977" s="5"/>
       <c r="I977" s="8"/>
     </row>
-    <row r="978" spans="2:9">
+    <row r="978" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B978" s="5"/>
       <c r="G978" s="5"/>
       <c r="H978" s="5"/>
       <c r="I978" s="8"/>
     </row>
-    <row r="979" spans="2:9">
+    <row r="979" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B979" s="5"/>
       <c r="G979" s="5"/>
       <c r="H979" s="5"/>
       <c r="I979" s="8"/>
     </row>
-    <row r="980" spans="2:9">
+    <row r="980" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B980" s="5"/>
       <c r="G980" s="5"/>
       <c r="H980" s="5"/>
       <c r="I980" s="8"/>
     </row>
-    <row r="981" spans="2:9">
+    <row r="981" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B981" s="5"/>
       <c r="G981" s="5"/>
       <c r="H981" s="5"/>
       <c r="I981" s="8"/>
     </row>
-    <row r="982" spans="2:9">
+    <row r="982" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B982" s="5"/>
       <c r="G982" s="5"/>
       <c r="H982" s="5"/>
       <c r="I982" s="8"/>
     </row>
-    <row r="983" spans="2:9">
+    <row r="983" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B983" s="5"/>
       <c r="G983" s="5"/>
       <c r="H983" s="5"/>
       <c r="I983" s="8"/>
     </row>
-    <row r="984" spans="2:9">
+    <row r="984" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B984" s="5"/>
       <c r="G984" s="5"/>
       <c r="H984" s="5"/>
       <c r="I984" s="8"/>
     </row>
-    <row r="985" spans="2:9">
+    <row r="985" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B985" s="5"/>
       <c r="G985" s="5"/>
       <c r="H985" s="5"/>
       <c r="I985" s="8"/>
     </row>
-    <row r="986" spans="2:9">
+    <row r="986" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B986" s="5"/>
       <c r="G986" s="5"/>
       <c r="H986" s="5"/>
       <c r="I986" s="8"/>
     </row>
-    <row r="987" spans="2:9">
+    <row r="987" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B987" s="5"/>
       <c r="G987" s="5"/>
       <c r="H987" s="5"/>
       <c r="I987" s="8"/>
     </row>
-    <row r="988" spans="2:9">
+    <row r="988" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B988" s="5"/>
       <c r="G988" s="5"/>
       <c r="H988" s="5"/>
       <c r="I988" s="8"/>
     </row>
-    <row r="989" spans="2:9">
+    <row r="989" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B989" s="5"/>
       <c r="G989" s="5"/>
       <c r="H989" s="5"/>
       <c r="I989" s="8"/>
     </row>
-    <row r="990" spans="2:9">
+    <row r="990" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B990" s="5"/>
       <c r="G990" s="5"/>
       <c r="H990" s="5"/>
       <c r="I990" s="8"/>
     </row>
-    <row r="991" spans="2:9">
+    <row r="991" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B991" s="5"/>
       <c r="G991" s="5"/>
       <c r="H991" s="5"/>
       <c r="I991" s="8"/>
     </row>
-    <row r="992" spans="2:9">
+    <row r="992" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B992" s="5"/>
       <c r="G992" s="5"/>
       <c r="H992" s="5"/>
       <c r="I992" s="8"/>
     </row>
-    <row r="993" spans="2:9">
+    <row r="993" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B993" s="5"/>
       <c r="G993" s="5"/>
       <c r="H993" s="5"/>
       <c r="I993" s="8"/>
     </row>
-    <row r="994" spans="2:9">
+    <row r="994" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B994" s="5"/>
       <c r="G994" s="5"/>
       <c r="H994" s="5"/>
       <c r="I994" s="8"/>
     </row>
-    <row r="995" spans="2:9">
+    <row r="995" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B995" s="5"/>
       <c r="G995" s="5"/>
       <c r="H995" s="5"/>
       <c r="I995" s="8"/>
     </row>
-    <row r="996" spans="2:9">
+    <row r="996" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B996" s="5"/>
       <c r="G996" s="5"/>
       <c r="H996" s="5"/>
       <c r="I996" s="8"/>
     </row>
-    <row r="997" spans="2:9">
+    <row r="997" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B997" s="5"/>
       <c r="G997" s="5"/>
       <c r="H997" s="5"/>
       <c r="I997" s="8"/>
     </row>
-    <row r="998" spans="2:9">
+    <row r="998" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B998" s="5"/>
       <c r="G998" s="5"/>
       <c r="H998" s="5"/>
       <c r="I998" s="8"/>
     </row>
-    <row r="999" spans="2:9">
+    <row r="999" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B999" s="5"/>
       <c r="G999" s="5"/>
       <c r="H999" s="5"/>
       <c r="I999" s="8"/>
     </row>
-    <row r="1000" spans="2:9">
+    <row r="1000" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1000" s="5"/>
       <c r="G1000" s="5"/>
       <c r="H1000" s="5"/>
       <c r="I1000" s="8"/>
     </row>
-    <row r="1001" spans="2:9">
+    <row r="1001" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1001" s="5"/>
       <c r="G1001" s="5"/>
       <c r="H1001" s="5"/>
       <c r="I1001" s="8"/>
     </row>
-    <row r="1002" spans="2:9">
+    <row r="1002" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1002" s="5"/>
       <c r="G1002" s="5"/>
       <c r="H1002" s="5"/>
       <c r="I1002" s="8"/>
     </row>
-    <row r="1003" spans="2:9">
+    <row r="1003" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1003" s="5"/>
       <c r="G1003" s="5"/>
       <c r="H1003" s="5"/>
       <c r="I1003" s="8"/>
     </row>
-    <row r="1004" spans="2:9">
+    <row r="1004" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1004" s="5"/>
       <c r="G1004" s="5"/>
       <c r="H1004" s="5"/>
       <c r="I1004" s="8"/>
     </row>
-    <row r="1005" spans="2:9">
+    <row r="1005" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1005" s="5"/>
       <c r="G1005" s="5"/>
       <c r="H1005" s="5"/>
@@ -7853,41 +7854,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="14"/>
-    <col min="2" max="2" width="9.140625" style="10"/>
-    <col min="3" max="3" width="55.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="14"/>
+    <col min="2" max="2" width="9.109375" style="10"/>
+    <col min="3" max="3" width="55.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="13" customFormat="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="12">
         <v>43062</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>3</v>
@@ -7896,9 +7897,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="12">
         <v>43063</v>
@@ -7913,15 +7914,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="12">
         <v>43064</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>1</v>
@@ -7930,9 +7931,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="12">
         <v>43065</v>
@@ -7941,15 +7942,15 @@
         <v>17</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="12">
         <v>43066</v>
@@ -7964,15 +7965,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="12">
         <v>43067</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>1</v>
@@ -7981,15 +7982,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="12">
         <v>43068</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>4</v>
@@ -7998,15 +7999,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="12">
         <v>43069</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>1</v>
@@ -8015,9 +8016,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="12">
         <v>43070</v>
@@ -8032,15 +8033,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="12">
         <v>43071</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>1</v>
@@ -8049,15 +8050,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="12">
         <v>43072</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>2</v>
@@ -8066,9 +8067,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="12">
         <v>43073</v>
@@ -8084,15 +8085,15 @@
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="12">
         <v>43074</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>74</v>
+      <c r="C14" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>2</v>
@@ -8101,27 +8102,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="12">
         <v>43075</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E15" s="13">
         <v>14</v>
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="12">
         <v>43076</v>
@@ -8136,9 +8137,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="12">
         <v>43077</v>
@@ -8153,15 +8154,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="12">
         <v>43078</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>2</v>
@@ -8170,9 +8171,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="12">
         <v>43079</v>
@@ -8187,15 +8188,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="12">
         <v>43080</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>4</v>
@@ -8204,15 +8205,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="12">
         <v>43081</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>3</v>
@@ -8221,9 +8222,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="12">
         <v>43082</v>
@@ -8238,9 +8239,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="12">
         <v>43083</v>
@@ -8255,15 +8256,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="12">
         <v>43084</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>3</v>
@@ -8272,15 +8273,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="12">
         <v>43085</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>4</v>
@@ -8289,9 +8290,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="12">
         <v>43086</v>
@@ -8306,9 +8307,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="12">
         <v>43087</v>
@@ -8317,15 +8318,15 @@
         <v>21</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" s="13">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="12">
         <v>43088</v>
@@ -8340,9 +8341,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="12">
         <v>43089</v>
@@ -8357,9 +8358,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" s="12">
         <v>43090</v>
@@ -8374,9 +8375,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="12">
         <v>43091</v>
@@ -8391,15 +8392,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="12">
         <v>43092</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>4</v>

--- a/Julfilmer.xlsx
+++ b/Julfilmer.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12252"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12252" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="138">
   <si>
     <t>Research</t>
   </si>
@@ -208,15 +208,9 @@
     <t>The tree that saved Christmas</t>
   </si>
   <si>
-    <t>Ha en underbar jävla jul</t>
-  </si>
-  <si>
     <t>Band Santa</t>
   </si>
   <si>
-    <t>Netfix</t>
-  </si>
-  <si>
     <t>Once upon a holiday</t>
   </si>
   <si>
@@ -401,9 +395,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Arthur Christmas</t>
-  </si>
-  <si>
-    <t>The Santa Clause 2 + Polarexpressen</t>
   </si>
   <si>
     <t>Unnacompanied Minors</t>
@@ -891,7 +882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -916,10 +907,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -934,19 +925,19 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -957,7 +948,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G2" s="6">
         <v>4</v>
@@ -972,7 +963,7 @@
         <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -998,7 +989,7 @@
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1024,7 +1015,7 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1050,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1076,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1102,7 +1093,7 @@
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1126,7 +1117,7 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1150,7 +1141,7 @@
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1173,7 +1164,7 @@
         <v>27</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1202,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1216,7 +1207,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G12" s="6">
         <v>4</v>
@@ -1229,7 +1220,7 @@
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1253,7 +1244,7 @@
         <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1279,7 +1270,7 @@
         <v>30</v>
       </c>
       <c r="K14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1305,12 +1296,12 @@
         <v>10</v>
       </c>
       <c r="K15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>6</v>
@@ -1331,7 +1322,7 @@
         <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1355,7 +1346,7 @@
         <v>12</v>
       </c>
       <c r="K17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1378,7 +1369,7 @@
         <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1401,7 +1392,7 @@
         <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1421,7 +1412,7 @@
         <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1444,7 +1435,7 @@
         <v>22</v>
       </c>
       <c r="K21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1468,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1492,7 +1483,7 @@
         <v>25</v>
       </c>
       <c r="K23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1515,7 +1506,7 @@
         <v>28</v>
       </c>
       <c r="K24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1541,7 +1532,7 @@
         <v>16</v>
       </c>
       <c r="K25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1567,7 +1558,7 @@
         <v>17</v>
       </c>
       <c r="K26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1593,7 +1584,7 @@
         <v>18</v>
       </c>
       <c r="K27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1604,7 +1595,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>6</v>
@@ -1622,7 +1613,7 @@
         <v>26</v>
       </c>
       <c r="K28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1633,7 +1624,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>6</v>
@@ -1649,7 +1640,7 @@
         <v>21</v>
       </c>
       <c r="K29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1672,7 +1663,7 @@
         <v>20</v>
       </c>
       <c r="K30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1683,7 +1674,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G31" s="6">
         <v>5</v>
@@ -1698,7 +1689,7 @@
         <v>9</v>
       </c>
       <c r="K31" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1722,18 +1713,18 @@
         <v>23</v>
       </c>
       <c r="K32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G33" s="6">
         <v>4</v>
@@ -1748,7 +1739,7 @@
         <v>14</v>
       </c>
       <c r="K33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1771,7 +1762,7 @@
         <v>31</v>
       </c>
       <c r="K34" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1788,10 +1779,10 @@
         <v>3</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1808,15 +1799,15 @@
         <v>3</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>6</v>
@@ -1829,10 +1820,10 @@
         <v>3</v>
       </c>
       <c r="I37" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K37" t="s">
         <v>110</v>
-      </c>
-      <c r="K37" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1849,10 +1840,10 @@
         <v>3</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1871,10 +1862,10 @@
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1892,10 +1883,10 @@
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1912,10 +1903,10 @@
         <v>4</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1934,10 +1925,10 @@
         <v>4</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1955,10 +1946,10 @@
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1976,10 +1967,10 @@
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1990,17 +1981,17 @@
         <v>6</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G45" s="5">
         <v>3</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -2011,17 +2002,17 @@
         <v>6</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G46" s="5">
         <v>4</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -2032,22 +2023,22 @@
         <v>6</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G47" s="5">
         <v>4</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>6</v>
@@ -2057,15 +2048,15 @@
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K48" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>6</v>
@@ -2079,12 +2070,12 @@
         <v>14</v>
       </c>
       <c r="K49" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>6</v>
@@ -2094,15 +2085,15 @@
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K50" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>6</v>
@@ -2117,7 +2108,7 @@
         <v>11</v>
       </c>
       <c r="K51" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -7854,8 +7845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7868,16 +7859,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7888,7 +7879,7 @@
         <v>43062</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>3</v>
@@ -7922,7 +7913,7 @@
         <v>43064</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>1</v>
@@ -8007,7 +7998,7 @@
         <v>43069</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>1</v>
@@ -8058,7 +8049,7 @@
         <v>43072</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>2</v>
@@ -8093,7 +8084,7 @@
         <v>43074</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>2</v>
@@ -8110,10 +8101,10 @@
         <v>43075</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E15" s="13">
         <v>14</v>
@@ -8127,7 +8118,7 @@
       <c r="B16" s="12">
         <v>43076</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -8144,11 +8135,11 @@
       <c r="B17" s="12">
         <v>43077</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>30</v>
+      <c r="C17" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17" s="13">
         <v>16</v>
@@ -8161,11 +8152,11 @@
       <c r="B18" s="12">
         <v>43078</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>126</v>
+      <c r="C18" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="13">
         <v>17</v>
@@ -8178,11 +8169,11 @@
       <c r="B19" s="12">
         <v>43079</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>32</v>
+      <c r="C19" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E19" s="13">
         <v>18</v>
@@ -8196,7 +8187,7 @@
         <v>43080</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>4</v>
@@ -8213,7 +8204,7 @@
         <v>43081</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>3</v>
@@ -8247,7 +8238,7 @@
         <v>43083</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>4</v>
@@ -8264,10 +8255,10 @@
         <v>43084</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" s="13">
         <v>23</v>
@@ -8281,7 +8272,7 @@
         <v>43085</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>4</v>
@@ -8298,7 +8289,7 @@
         <v>43086</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>3</v>
@@ -8315,10 +8306,10 @@
         <v>43087</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>63</v>
+        <v>37</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="13">
         <v>26</v>
@@ -8332,10 +8323,10 @@
         <v>43088</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" s="13">
         <v>27</v>
@@ -8349,10 +8340,10 @@
         <v>43089</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E29" s="13">
         <v>28</v>
@@ -8366,10 +8357,10 @@
         <v>43090</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E30" s="13">
         <v>29</v>

--- a/Julfilmer.xlsx
+++ b/Julfilmer.xlsx
@@ -7846,7 +7846,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8186,11 +8186,11 @@
       <c r="B20" s="12">
         <v>43080</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>136</v>
+      <c r="C20" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E20" s="13">
         <v>19</v>
@@ -8204,10 +8204,10 @@
         <v>43081</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21" s="13">
         <v>20</v>
@@ -8377,7 +8377,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E31" s="13">
         <v>30</v>

--- a/Julfilmer.xlsx
+++ b/Julfilmer.xlsx
@@ -208,9 +208,6 @@
     <t>The tree that saved Christmas</t>
   </si>
   <si>
-    <t>Band Santa</t>
-  </si>
-  <si>
     <t>Once upon a holiday</t>
   </si>
   <si>
@@ -433,10 +430,13 @@
     <t>NorthPole: Open for Christmas</t>
   </si>
   <si>
-    <t>Gremlins + All I want for Christmas</t>
-  </si>
-  <si>
     <t>Christmas land</t>
+  </si>
+  <si>
+    <t>All I want for Christmas + Home Alone 2</t>
+  </si>
+  <si>
+    <t>Gremlins + Band Santa</t>
   </si>
 </sst>
 </file>
@@ -907,10 +907,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -925,19 +925,19 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>67</v>
-      </c>
       <c r="K1" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -948,7 +948,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G2" s="6">
         <v>4</v>
@@ -963,7 +963,7 @@
         <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -989,7 +989,7 @@
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1015,7 +1015,7 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1041,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1093,7 +1093,7 @@
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1117,7 +1117,7 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1141,7 +1141,7 @@
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1164,7 +1164,7 @@
         <v>27</v>
       </c>
       <c r="K10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1193,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="K11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1207,7 +1207,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G12" s="6">
         <v>4</v>
@@ -1220,7 +1220,7 @@
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1244,7 +1244,7 @@
         <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1270,7 +1270,7 @@
         <v>30</v>
       </c>
       <c r="K14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1296,12 +1296,12 @@
         <v>10</v>
       </c>
       <c r="K15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>6</v>
@@ -1322,7 +1322,7 @@
         <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1346,7 +1346,7 @@
         <v>12</v>
       </c>
       <c r="K17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1369,7 +1369,7 @@
         <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1392,7 +1392,7 @@
         <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1412,7 +1412,7 @@
         <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1435,7 +1435,7 @@
         <v>22</v>
       </c>
       <c r="K21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1459,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1483,7 +1483,7 @@
         <v>25</v>
       </c>
       <c r="K23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1506,7 +1506,7 @@
         <v>28</v>
       </c>
       <c r="K24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1532,7 +1532,7 @@
         <v>16</v>
       </c>
       <c r="K25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1558,7 +1558,7 @@
         <v>17</v>
       </c>
       <c r="K26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1584,7 +1584,7 @@
         <v>18</v>
       </c>
       <c r="K27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1595,7 +1595,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>6</v>
@@ -1613,7 +1613,7 @@
         <v>26</v>
       </c>
       <c r="K28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1624,7 +1624,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>6</v>
@@ -1640,7 +1640,7 @@
         <v>21</v>
       </c>
       <c r="K29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1663,7 +1663,7 @@
         <v>20</v>
       </c>
       <c r="K30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1674,7 +1674,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G31" s="6">
         <v>5</v>
@@ -1689,7 +1689,7 @@
         <v>9</v>
       </c>
       <c r="K31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1713,18 +1713,18 @@
         <v>23</v>
       </c>
       <c r="K32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G33" s="6">
         <v>4</v>
@@ -1739,7 +1739,7 @@
         <v>14</v>
       </c>
       <c r="K33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1762,7 +1762,7 @@
         <v>31</v>
       </c>
       <c r="K34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1779,10 +1779,10 @@
         <v>3</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1799,15 +1799,15 @@
         <v>3</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>6</v>
@@ -1820,10 +1820,10 @@
         <v>3</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1840,10 +1840,10 @@
         <v>3</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1862,10 +1862,10 @@
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1883,10 +1883,10 @@
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1903,10 +1903,10 @@
         <v>4</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1925,10 +1925,10 @@
         <v>4</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1946,10 +1946,10 @@
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1967,10 +1967,10 @@
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1981,17 +1981,17 @@
         <v>6</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G45" s="5">
         <v>3</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -2002,17 +2002,17 @@
         <v>6</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G46" s="5">
         <v>4</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -2023,22 +2023,22 @@
         <v>6</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G47" s="5">
         <v>4</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>6</v>
@@ -2048,15 +2048,15 @@
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="K48" t="s">
         <v>125</v>
-      </c>
-      <c r="K48" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>6</v>
@@ -2070,12 +2070,12 @@
         <v>14</v>
       </c>
       <c r="K49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>6</v>
@@ -2085,15 +2085,15 @@
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>6</v>
@@ -2108,7 +2108,7 @@
         <v>11</v>
       </c>
       <c r="K51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -7845,8 +7845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7859,16 +7859,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7879,7 +7879,7 @@
         <v>43062</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>3</v>
@@ -7913,7 +7913,7 @@
         <v>43064</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>1</v>
@@ -7998,7 +7998,7 @@
         <v>43069</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>1</v>
@@ -8049,7 +8049,7 @@
         <v>43072</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>2</v>
@@ -8084,7 +8084,7 @@
         <v>43074</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>2</v>
@@ -8101,10 +8101,10 @@
         <v>43075</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E15" s="13">
         <v>14</v>
@@ -8128,7 +8128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>50</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>51</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>52</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>53</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>43080</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>1</v>
@@ -8195,16 +8195,17 @@
       <c r="E20" s="13">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="12">
         <v>43081</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>136</v>
+      <c r="C21" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>4</v>
@@ -8213,15 +8214,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B22" s="12">
         <v>43082</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>23</v>
+      <c r="C22" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>4</v>
@@ -8230,15 +8231,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="12">
         <v>43083</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>61</v>
+      <c r="C23" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>4</v>
@@ -8247,7 +8248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>50</v>
       </c>
@@ -8255,7 +8256,7 @@
         <v>43084</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>4</v>
@@ -8264,7 +8265,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>51</v>
       </c>
@@ -8272,7 +8273,7 @@
         <v>43085</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>4</v>
@@ -8281,7 +8282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>52</v>
       </c>
@@ -8298,7 +8299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>53</v>
       </c>
@@ -8306,7 +8307,7 @@
         <v>43087</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>4</v>
@@ -8315,7 +8316,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>54</v>
       </c>
@@ -8332,7 +8333,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>55</v>
       </c>
@@ -8349,7 +8350,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>49</v>
       </c>
@@ -8366,7 +8367,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>50</v>
       </c>
@@ -8383,7 +8384,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>51</v>
       </c>

--- a/Julfilmer.xlsx
+++ b/Julfilmer.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="142">
   <si>
     <t>Research</t>
   </si>
@@ -437,6 +437,18 @@
   </si>
   <si>
     <t>Gremlins + Band Santa</t>
+  </si>
+  <si>
+    <t>Ogifta par</t>
+  </si>
+  <si>
+    <t>Ogifta Par</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>http://www.imdb.com/title/tt0119820/?ref_=nv_sr_1</t>
   </si>
 </sst>
 </file>
@@ -886,7 +898,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
+      <selection pane="bottomRight" activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2065,7 +2077,9 @@
         <v>4</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="I49" s="8"/>
+      <c r="I49" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="J49">
         <v>14</v>
       </c>
@@ -2101,9 +2115,13 @@
       <c r="E51" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G51" s="5"/>
+      <c r="G51" s="5">
+        <v>3</v>
+      </c>
       <c r="H51" s="5"/>
-      <c r="I51" s="8"/>
+      <c r="I51" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="J51">
         <v>11</v>
       </c>
@@ -2112,10 +2130,25 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B52" s="5"/>
-      <c r="G52" s="5"/>
+      <c r="A52" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="5">
+        <v>3</v>
+      </c>
       <c r="H52" s="5"/>
-      <c r="I52" s="8"/>
+      <c r="I52" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K52" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="53" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B53" s="5"/>
@@ -7846,7 +7879,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8255,13 +8288,13 @@
       <c r="B24" s="12">
         <v>43084</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="D24" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="13">
+        <v>23</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8272,14 +8305,17 @@
       <c r="B25" s="12">
         <v>43085</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>137</v>
+      <c r="C25" s="16" t="s">
+        <v>138</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25" s="13">
         <v>24</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -8290,10 +8326,10 @@
         <v>43086</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>2</v>
       </c>
       <c r="E26" s="13">
         <v>25</v>
@@ -8307,10 +8343,10 @@
         <v>43087</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27" s="13">
         <v>26</v>
@@ -8324,7 +8360,7 @@
         <v>43088</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>2</v>
@@ -8341,10 +8377,10 @@
         <v>43089</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="E29" s="13">
         <v>28</v>
@@ -8358,10 +8394,10 @@
         <v>43090</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>2</v>
+        <v>34</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="E30" s="13">
         <v>29</v>

--- a/Julfilmer.xlsx
+++ b/Julfilmer.xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12252" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12252"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
     <sheet name="2017" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Info!$A$1:$K$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2017'!$A$1:$E$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Info!$A$1:$K$52</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="143">
   <si>
     <t>Research</t>
   </si>
@@ -449,13 +450,16 @@
   </si>
   <si>
     <t>http://www.imdb.com/title/tt0119820/?ref_=nv_sr_1</t>
+  </si>
+  <si>
+    <t>Order</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -504,6 +508,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -534,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -576,6 +585,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -894,11 +906,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1005"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G38" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K53" sqref="K53"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -968,11 +980,11 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="8">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
         <v>73</v>
@@ -998,7 +1010,7 @@
         <v>2</v>
       </c>
       <c r="J3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K3" t="s">
         <v>74</v>
@@ -1008,7 +1020,7 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -1034,7 +1046,7 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -1046,7 +1058,7 @@
       <c r="H5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="8">
         <v>4</v>
       </c>
       <c r="J5">
@@ -1095,10 +1107,10 @@
       <c r="G7" s="6">
         <v>3</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="7">
+      <c r="H7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="8">
         <v>6</v>
       </c>
       <c r="J7">
@@ -1121,8 +1133,8 @@
       <c r="G8" s="6">
         <v>3</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="7">
+      <c r="H8" s="6"/>
+      <c r="I8" s="8">
         <v>7</v>
       </c>
       <c r="J8">
@@ -1136,7 +1148,7 @@
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -1145,8 +1157,8 @@
       <c r="G9" s="6">
         <v>3</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="7">
+      <c r="H9" s="6"/>
+      <c r="I9" s="8">
         <v>8</v>
       </c>
       <c r="J9">
@@ -1160,16 +1172,16 @@
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="6">
         <v>4</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="7">
+      <c r="H10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="8">
         <v>9</v>
       </c>
       <c r="J10">
@@ -1183,7 +1195,7 @@
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -1195,10 +1207,10 @@
       <c r="G11" s="6">
         <v>5</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="7">
+      <c r="H11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="8">
         <v>10</v>
       </c>
       <c r="J11">
@@ -1212,7 +1224,7 @@
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -1225,7 +1237,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="7">
+      <c r="I12" s="8">
         <v>11</v>
       </c>
       <c r="J12">
@@ -1239,7 +1251,7 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -1263,7 +1275,7 @@
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -1363,352 +1375,348 @@
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G18" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="8">
         <v>17</v>
       </c>
       <c r="J18">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="6">
         <v>3</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="7">
+      <c r="H19" s="5"/>
+      <c r="I19" s="8">
         <v>18</v>
       </c>
       <c r="J19">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K19" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G20" s="6">
         <v>3</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="7">
+      <c r="H20" s="5"/>
+      <c r="I20" s="8">
         <v>19</v>
       </c>
+      <c r="J20">
+        <v>25</v>
+      </c>
       <c r="K20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G21" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="8">
         <v>20</v>
       </c>
       <c r="J21">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K21" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>6</v>
       </c>
       <c r="G22" s="6">
-        <v>3</v>
-      </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="7">
+        <v>5</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="8">
         <v>21</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="K22" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>6</v>
       </c>
       <c r="G23" s="6">
-        <v>3</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="7">
+        <v>5</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="8">
         <v>22</v>
       </c>
       <c r="J23">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K23" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>6</v>
       </c>
       <c r="G24" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="8">
         <v>23</v>
       </c>
       <c r="J24">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K24" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G25" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="8">
         <v>24</v>
       </c>
       <c r="J25">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K25" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>31</v>
+      <c r="A26" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="G26" s="6">
-        <v>5</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="7">
+        <v>4</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="8">
         <v>25</v>
       </c>
       <c r="J26">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K26" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>6</v>
+        <v>37</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G27" s="6">
         <v>5</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="7">
+      <c r="H27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="8">
         <v>26</v>
       </c>
       <c r="J27">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K27" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="F28" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G28" s="6">
-        <v>4</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="7">
+        <v>3</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="8">
         <v>27</v>
       </c>
       <c r="J28">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K28" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="G29" s="6">
+        <v>5</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="8">
+        <v>28</v>
+      </c>
+      <c r="J29">
+        <v>31</v>
+      </c>
+      <c r="K29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="6">
-        <v>4</v>
-      </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="7">
-        <v>28</v>
-      </c>
-      <c r="J29">
-        <v>21</v>
-      </c>
-      <c r="K29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="G30" s="6">
         <v>4</v>
       </c>
-      <c r="H30" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="H30" s="6"/>
       <c r="I30" s="8">
         <v>29</v>
       </c>
-      <c r="J30">
-        <v>20</v>
-      </c>
       <c r="K30" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="G31" s="6">
-        <v>5</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I31" s="7">
+        <v>4</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="8">
         <v>30</v>
       </c>
       <c r="J31">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K31" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F32" s="6" t="s">
@@ -1718,234 +1726,228 @@
         <v>3</v>
       </c>
       <c r="H32" s="5"/>
-      <c r="I32" s="7">
+      <c r="I32" s="8">
         <v>31</v>
       </c>
-      <c r="J32">
-        <v>23</v>
-      </c>
       <c r="K32" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="G33" s="6">
-        <v>4</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" s="7">
+        <v>3</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="8">
         <v>32</v>
       </c>
       <c r="J33">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K33" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="F34" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="G34" s="6">
-        <v>5</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34" s="8">
-        <v>33</v>
-      </c>
-      <c r="J34">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="K34" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G35" s="6">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H35" s="6"/>
       <c r="I35" s="6" t="s">
         <v>107</v>
       </c>
       <c r="K35" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="A36" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="F36" s="14" t="s">
         <v>6</v>
       </c>
       <c r="G36" s="6">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H36" s="6"/>
       <c r="I36" s="6" t="s">
         <v>107</v>
       </c>
       <c r="K36" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="F37" s="14" t="s">
+      <c r="E37" s="14" t="s">
         <v>6</v>
       </c>
       <c r="G37" s="6">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H37" s="6"/>
       <c r="I37" s="6" t="s">
         <v>107</v>
       </c>
       <c r="K37" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G38" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>107</v>
       </c>
       <c r="K38" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="14"/>
-      <c r="F39" s="14" t="s">
-        <v>6</v>
-      </c>
+      <c r="E39" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="14"/>
       <c r="G39" s="6">
         <v>4</v>
       </c>
-      <c r="H39" s="6"/>
       <c r="I39" s="6" t="s">
         <v>107</v>
       </c>
       <c r="K39" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="14" t="s">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G40" s="6">
-        <v>4</v>
-      </c>
-      <c r="H40" s="6"/>
+        <v>3</v>
+      </c>
       <c r="I40" s="6" t="s">
         <v>107</v>
       </c>
       <c r="K40" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G41" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>107</v>
       </c>
       <c r="K41" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="14"/>
-      <c r="E42" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="14"/>
+      <c r="F42" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="G42" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>107</v>
       </c>
       <c r="K42" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>6</v>
@@ -1954,22 +1956,24 @@
         <v>6</v>
       </c>
       <c r="G43" s="6">
-        <v>4</v>
-      </c>
-      <c r="H43" s="6"/>
+        <v>3</v>
+      </c>
       <c r="I43" s="6" t="s">
         <v>107</v>
       </c>
       <c r="K43" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>6</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>6</v>
@@ -1978,16 +1982,19 @@
         <v>4</v>
       </c>
       <c r="H44" s="6"/>
-      <c r="I44" s="6" t="s">
-        <v>107</v>
+      <c r="I44" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="J44">
+        <v>21</v>
       </c>
       <c r="K44" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>6</v>
@@ -1996,56 +2003,53 @@
         <v>108</v>
       </c>
       <c r="G45" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="8" t="s">
         <v>124</v>
       </c>
       <c r="K45" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>108</v>
       </c>
       <c r="G46" s="5">
-        <v>4</v>
-      </c>
-      <c r="H46" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="H46" s="6"/>
       <c r="I46" s="8" t="s">
         <v>124</v>
       </c>
       <c r="K46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="G47" s="5">
-        <v>4</v>
-      </c>
-      <c r="H47" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="H47" s="6"/>
       <c r="I47" s="8" t="s">
         <v>124</v>
       </c>
       <c r="K47" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -2068,86 +2072,94 @@
     </row>
     <row r="49" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>6</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G49" s="5">
         <v>4</v>
       </c>
-      <c r="H49" s="5"/>
-      <c r="I49" s="8" t="s">
+      <c r="H49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" s="17" t="s">
         <v>140</v>
       </c>
       <c r="J49">
         <v>14</v>
       </c>
       <c r="K49" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G50" s="5">
-        <v>3</v>
-      </c>
-      <c r="H50" s="5"/>
-      <c r="I50" s="8" t="s">
-        <v>124</v>
+        <v>4</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="J50">
+        <v>19</v>
       </c>
       <c r="K50" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G51" s="5">
         <v>3</v>
       </c>
-      <c r="H51" s="5"/>
-      <c r="I51" s="8" t="s">
+      <c r="H51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" s="17" t="s">
         <v>140</v>
       </c>
       <c r="J51">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K51" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G52" s="5">
         <v>3</v>
       </c>
-      <c r="H52" s="5"/>
-      <c r="I52" s="8" t="s">
+      <c r="H52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52" s="17" t="s">
         <v>140</v>
       </c>
       <c r="K52" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -7869,7 +7881,11 @@
       <c r="I1005" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K47"/>
+  <autoFilter ref="A1:K52">
+    <sortState ref="A2:K52">
+      <sortCondition ref="I1:I52"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7878,8 +7894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7887,7 +7903,7 @@
     <col min="1" max="1" width="9.109375" style="14"/>
     <col min="2" max="2" width="9.109375" style="10"/>
     <col min="3" max="3" width="55.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -7900,8 +7916,11 @@
       <c r="C1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>68</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -7914,7 +7933,7 @@
       <c r="C2" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="13">
@@ -7931,7 +7950,7 @@
       <c r="C3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="13">
@@ -7948,7 +7967,7 @@
       <c r="C4" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="13">
@@ -7965,7 +7984,7 @@
       <c r="C5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="13">
@@ -7982,7 +8001,7 @@
       <c r="C6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="13">
@@ -7999,7 +8018,7 @@
       <c r="C7" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="13">
@@ -8016,7 +8035,7 @@
       <c r="C8" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="13">
@@ -8033,7 +8052,7 @@
       <c r="C9" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="13">
@@ -8050,7 +8069,7 @@
       <c r="C10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="13">
@@ -8067,7 +8086,7 @@
       <c r="C11" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="13">
@@ -8084,7 +8103,7 @@
       <c r="C12" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="13">
@@ -8101,7 +8120,7 @@
       <c r="C13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="13">
@@ -8119,7 +8138,7 @@
       <c r="C14" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="13">
@@ -8136,7 +8155,7 @@
       <c r="C15" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="10" t="s">
         <v>129</v>
       </c>
       <c r="E15" s="13">
@@ -8154,7 +8173,7 @@
       <c r="C16" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="13">
@@ -8171,7 +8190,7 @@
       <c r="C17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="13">
@@ -8188,7 +8207,7 @@
       <c r="C18" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="13">
@@ -8205,7 +8224,7 @@
       <c r="C19" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="13">
@@ -8222,7 +8241,7 @@
       <c r="C20" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="13">
@@ -8240,7 +8259,7 @@
       <c r="C21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="13">
@@ -8257,7 +8276,7 @@
       <c r="C22" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="13">
@@ -8274,7 +8293,7 @@
       <c r="C23" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="13">
@@ -8288,7 +8307,7 @@
       <c r="B24" s="12">
         <v>43084</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="13">
@@ -8308,7 +8327,7 @@
       <c r="C25" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="13">
@@ -8325,10 +8344,10 @@
       <c r="B26" s="12">
         <v>43086</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="13">
@@ -8342,10 +8361,10 @@
       <c r="B27" s="12">
         <v>43087</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="13">
@@ -8359,10 +8378,10 @@
       <c r="B28" s="12">
         <v>43088</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="13">
@@ -8376,10 +8395,10 @@
       <c r="B29" s="12">
         <v>43089</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="C29" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E29" s="13">
@@ -8394,10 +8413,10 @@
         <v>43090</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="E30" s="13">
         <v>29</v>
@@ -8411,9 +8430,9 @@
         <v>43091</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="13">
@@ -8428,9 +8447,9 @@
         <v>43092</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E32" s="13">
@@ -8438,6 +8457,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E32">
+    <sortState ref="A2:E32">
+      <sortCondition ref="B1:B32"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Julfilmer.xlsx
+++ b/Julfilmer.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="144">
   <si>
     <t>Research</t>
   </si>
@@ -437,9 +437,6 @@
     <t>All I want for Christmas + Home Alone 2</t>
   </si>
   <si>
-    <t>Gremlins + Band Santa</t>
-  </si>
-  <si>
     <t>Ogifta par</t>
   </si>
   <si>
@@ -453,6 +450,12 @@
   </si>
   <si>
     <t>Order</t>
+  </si>
+  <si>
+    <t>Christmas Inherintance</t>
+  </si>
+  <si>
+    <t>http://www.imdb.com/title/tt7608534/?ref_=nv_sr_1</t>
   </si>
 </sst>
 </file>
@@ -907,10 +910,10 @@
   <dimension ref="A1:K1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomRight" activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1714,7 +1717,7 @@
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>6</v>
@@ -1730,7 +1733,7 @@
         <v>31</v>
       </c>
       <c r="K32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2087,7 +2090,7 @@
         <v>6</v>
       </c>
       <c r="I49" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J49">
         <v>14</v>
@@ -2110,7 +2113,7 @@
         <v>6</v>
       </c>
       <c r="I50" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J50">
         <v>19</v>
@@ -2133,7 +2136,7 @@
         <v>6</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J51">
         <v>22</v>
@@ -2156,17 +2159,32 @@
         <v>6</v>
       </c>
       <c r="I52" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K52" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B53" s="5"/>
-      <c r="G53" s="5"/>
+      <c r="A53" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="5">
+        <v>4</v>
+      </c>
       <c r="H53" s="5"/>
-      <c r="I53" s="8"/>
+      <c r="I53" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K53" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="54" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B54" s="5"/>
@@ -7892,10 +7910,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7920,7 +7938,7 @@
         <v>68</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -8307,13 +8325,13 @@
       <c r="B24" s="12">
         <v>43084</v>
       </c>
+      <c r="C24" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="D24" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="13">
-        <v>23</v>
-      </c>
-      <c r="G24" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8325,7 +8343,7 @@
         <v>43085</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>3</v>
@@ -8333,9 +8351,7 @@
       <c r="E25" s="13">
         <v>24</v>
       </c>
-      <c r="G25" s="10" t="s">
-        <v>137</v>
-      </c>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
@@ -8412,7 +8428,7 @@
       <c r="B30" s="12">
         <v>43090</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="10" t="s">
@@ -8429,7 +8445,7 @@
       <c r="B31" s="12">
         <v>43091</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="16" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="10" t="s">
@@ -8446,7 +8462,7 @@
       <c r="B32" s="12">
         <v>43092</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="16" t="s">
         <v>34</v>
       </c>
       <c r="D32" s="10" t="s">
@@ -8455,6 +8471,9 @@
       <c r="E32" s="13">
         <v>31</v>
       </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E32">
